--- a/Versão5/VEGE/Ontologia_VEGET.xlsx
+++ b/Versão5/VEGE/Ontologia_VEGET.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\VEGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED33B9E-071D-46D7-B51C-006B90E04482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1144522F-FD07-4908-A0DA-166B2BFA0A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="577" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -2564,9 +2564,6 @@
     <t>Arbóreo</t>
   </si>
   <si>
-    <t>Planta cujo crescimento pode ser conduzido para se transformar em árvore ou arbusto. Fazem fotossíntese.</t>
-  </si>
-  <si>
     <t>Planta leñosa grande, con un solo tronco y copa elevada. Altura superior a 5 m, raíz profunda, utilizada en forestación urbana. Realizan la fotosíntesis.</t>
   </si>
   <si>
@@ -2586,6 +2583,9 @@
   </si>
   <si>
     <t>Árvore or Arbusto or Trepadeira</t>
+  </si>
+  <si>
+    <t>Planta cujo crescimento pode ser conduzido para se transformar em árvore, arbusto ou trepadeira. Fazem fotossíntese.</t>
   </si>
 </sst>
 </file>
@@ -3120,14 +3120,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <b val="0"/>
@@ -3798,7 +3791,7 @@
       </c>
       <c r="B18" s="11">
         <f ca="1">NOW()</f>
-        <v>45949.757060416669</v>
+        <v>45949.762367592593</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -3852,7 +3845,7 @@
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="6.65" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4099,7 +4092,7 @@
         <v>825</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="R3" s="30" t="s">
         <v>1</v>
@@ -4185,7 +4178,7 @@
         <v>826</v>
       </c>
       <c r="Q4" s="32" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="R4" s="30" t="s">
         <v>1</v>
@@ -4249,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="43" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="L5" s="32" t="str">
         <f t="shared" si="2"/>
@@ -4268,10 +4261,10 @@
         <v>Arbóreo</v>
       </c>
       <c r="P5" s="32" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
       <c r="Q5" s="32" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="R5" s="30" t="s">
         <v>1</v>
@@ -4357,7 +4350,7 @@
         <v>827</v>
       </c>
       <c r="Q6" s="32" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="R6" s="30" t="s">
         <v>1</v>
@@ -4443,7 +4436,7 @@
         <v>828</v>
       </c>
       <c r="Q7" s="32" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="R7" s="30" t="s">
         <v>1</v>
@@ -4650,41 +4643,41 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="22" priority="1409"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1409"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="21" priority="1651"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="1652"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="1651"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="1652"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F1048576 F1">
-    <cfRule type="duplicateValues" dxfId="19" priority="888"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="903"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="907"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="888"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="903"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="907"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F1048576">
-    <cfRule type="duplicateValues" dxfId="16" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="891"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="895"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="899"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="891"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="895"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="899"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:W1048576 A1:C1 F1:W1 Y1:XFD1 A10:C1048576">
-    <cfRule type="cellIs" dxfId="11" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="371" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:K2">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2 B2:B9 Y3:XFD1048576 G3:U9">
-    <cfRule type="cellIs" dxfId="9" priority="14" operator="equal">
+  <conditionalFormatting sqref="R2 B2:B9 G3:U9 Y3:XFD1048576">
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:Y2">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4908,7 +4901,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4995,7 +4988,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A3">
-    <cfRule type="cellIs" dxfId="6" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="32" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5007,9 +5000,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B52AA7-680B-4C72-8598-6D856F54368E}">
   <dimension ref="A1:AQ222"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C171" sqref="C171"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A74" sqref="A74:XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="7.85" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -15280,7 +15273,7 @@
         <v>99</v>
       </c>
       <c r="C79" s="49" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D79" s="56" t="s">
         <v>235</v>
@@ -34142,26 +34135,21 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:AI73">
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:AQ1 AL215:AQ222 AH74:AH222 AD74:AD222 AJ2:AQ214 C1:C222 A1:A222">
-    <cfRule type="cellIs" dxfId="0" priority="32" operator="equal">
+  <conditionalFormatting sqref="M1:AQ1 A1:A222 C1:C222 AJ2:AQ214 AD74:AD222 AH74:AH222 AL215:AQ222">
+    <cfRule type="cellIs" dxfId="1" priority="32" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ215:AJ222">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI215:AI222">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="AI215:AJ222">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Versão5/VEGE/Ontologia_VEGET.xlsx
+++ b/Versão5/VEGE/Ontologia_VEGET.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\VEGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC486752-9A44-48EF-BC1D-D30216655A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D0EE66-3BCB-4954-8638-8CC077239DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" tabRatio="577" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10170" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10524" uniqueCount="975">
   <si>
     <t>Key</t>
   </si>
@@ -2885,6 +2885,117 @@
   </si>
   <si>
     <t>Bougainville.Veranera</t>
+  </si>
+  <si>
+    <t>"Solo de drenagem rápida que pode exigir espaçamento mais próximo"</t>
+  </si>
+  <si>
+    <t>"Solo ideal com drenagem equilibrada e retenção de nutrientes"</t>
+  </si>
+  <si>
+    <t>"Solo denso que pode restringir o crescimento das raízes e pode exigir espaçamento mais amplo"</t>
+  </si>
+  <si>
+    <t>Solo.Argiloso</t>
+  </si>
+  <si>
+    <t>Solo.Arenoso</t>
+  </si>
+  <si>
+    <t>Sombra</t>
+  </si>
+  <si>
+    <t>Sol.Pleno</t>
+  </si>
+  <si>
+    <t>Sol.Parcial</t>
+  </si>
+  <si>
+    <t>"6 horas ou mais de incidência de luz de sol diaria"</t>
+  </si>
+  <si>
+    <t>"Entre 3 e 6 horas de incidência de luz de sol diaria"</t>
+  </si>
+  <si>
+    <t>"Menos de 3 horas de incidência de luz de sol diária"</t>
+  </si>
+  <si>
+    <t>Solo.Compacto</t>
+  </si>
+  <si>
+    <t>Jardim</t>
+  </si>
+  <si>
+    <t>Solos</t>
+  </si>
+  <si>
+    <t>Solo</t>
+  </si>
+  <si>
+    <t>Luz.Solar</t>
+  </si>
+  <si>
+    <t>Sol.1</t>
+  </si>
+  <si>
+    <t>Sol.2</t>
+  </si>
+  <si>
+    <t>Sol.3</t>
+  </si>
+  <si>
+    <t>Exposição.ao.Sol</t>
+  </si>
+  <si>
+    <t>Exposição das plantas com menos de 3 horas de sol</t>
+  </si>
+  <si>
+    <t>Exposição das plantas com sol pleno: 6 ou mais horas diárias de sol</t>
+  </si>
+  <si>
+    <t>Exposição das plantas com sol parcial: entre 3 a 6 horas diárias de sol</t>
+  </si>
+  <si>
+    <t>Característica do solo de plantio: solo arenoso muito drenante</t>
+  </si>
+  <si>
+    <t>Característica do solo de plantio: solo argiloso drenante equilibrado</t>
+  </si>
+  <si>
+    <t>Característica do solo de plantio: solo compacto pouco drenante</t>
+  </si>
+  <si>
+    <t>Característica del suelo de plantación: suelo arenoso muy drenante</t>
+  </si>
+  <si>
+    <t>Característica del suelo de plantación: suelo arcilloso drenante equilibrado</t>
+  </si>
+  <si>
+    <t>Característica del suelo de siembra: suelo compacto con poco drenaje</t>
+  </si>
+  <si>
+    <t>Exposición de las plantas a pleno sol: 6 o más horas de sol al día</t>
+  </si>
+  <si>
+    <t>Exposición de las plantas al sol parcial: entre 3 y 6 horas de luz solar al día</t>
+  </si>
+  <si>
+    <t>Exposición de plantas con menos de 3 horas de sol</t>
+  </si>
+  <si>
+    <t>OST_Floor</t>
+  </si>
+  <si>
+    <t>IfcSlab</t>
+  </si>
+  <si>
+    <t>Solo.1</t>
+  </si>
+  <si>
+    <t>Solo.2</t>
+  </si>
+  <si>
+    <t>Solo.3</t>
   </si>
 </sst>
 </file>
@@ -3200,7 +3311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3481,20 +3592,667 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="142">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -3658,6 +4416,23 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3743,7 +4518,14 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="0" tint="-0.499984740745262"/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
@@ -3881,8 +4663,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99FF"/>
       <color rgb="FFFFCCFF"/>
-      <color rgb="FFFF99FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -4352,7 +5134,7 @@
       </c>
       <c r="B18" s="11">
         <f ca="1">NOW()</f>
-        <v>45950.674238425927</v>
+        <v>45950.696974768522</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4402,11 +5184,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375F50FD-D5BA-45CD-9CBD-E4284A1EA77F}">
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4417,17 +5199,19 @@
     <col min="7" max="10" width="6.42578125" style="38" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" style="38" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="64.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="62.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.7109375" customWidth="1"/>
     <col min="22" max="22" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="5.5703125" customWidth="1"/>
     <col min="24" max="24" width="8.85546875" customWidth="1"/>
-    <col min="25" max="25" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4580,7 +5364,7 @@
         <v>Informação</v>
       </c>
       <c r="V2" s="31" t="str">
-        <f t="shared" ref="V2:V7" si="1">SUBSTITUTE(C2, ".", " ")</f>
+        <f t="shared" ref="V2:V10" si="1">SUBSTITUTE(C2, ".", " ")</f>
         <v>Gestão</v>
       </c>
       <c r="W2" s="19" t="str">
@@ -4670,7 +5454,7 @@
         <v>Botânica</v>
       </c>
       <c r="W3" s="19" t="str">
-        <f t="shared" ref="W3:W9" si="9">CONCATENATE("K.",LEFT(C3,3),".",A3)</f>
+        <f t="shared" ref="W3:W15" si="9">CONCATENATE("K.",LEFT(C3,3),".",A3)</f>
         <v>K.Bot.3</v>
       </c>
       <c r="X3" s="29" t="s">
@@ -4973,19 +5757,19 @@
         <v>1</v>
       </c>
       <c r="L7" s="32" t="str">
-        <f t="shared" ref="L7" si="18">_xlfn.CONCAT(SUBSTITUTE(C7,"1.",""))</f>
+        <f t="shared" ref="L7:L10" si="18">_xlfn.CONCAT(SUBSTITUTE(C7,"1.",""))</f>
         <v>Botânica</v>
       </c>
       <c r="M7" s="32" t="str">
-        <f t="shared" ref="M7" si="19">_xlfn.CONCAT(SUBSTITUTE(D7,"."," "))</f>
+        <f t="shared" ref="M7:M10" si="19">_xlfn.CONCAT(SUBSTITUTE(D7,"."," "))</f>
         <v>Reinos</v>
       </c>
       <c r="N7" s="32" t="str">
-        <f t="shared" ref="N7" si="20">_xlfn.CONCAT(SUBSTITUTE(E7,"."," "))</f>
+        <f t="shared" ref="N7:N10" si="20">_xlfn.CONCAT(SUBSTITUTE(E7,"."," "))</f>
         <v>Plantas</v>
       </c>
       <c r="O7" s="32" t="str">
-        <f t="shared" ref="O7" si="21">_xlfn.CONCAT(SUBSTITUTE(F7,"."," "))</f>
+        <f t="shared" ref="O7:P10" si="21">_xlfn.CONCAT(SUBSTITUTE(F7,"."," "))</f>
         <v>Flor</v>
       </c>
       <c r="P7" s="32" t="s">
@@ -4998,15 +5782,15 @@
         <v>1</v>
       </c>
       <c r="S7" s="31" t="str">
-        <f t="shared" ref="S7" si="22">SUBSTITUTE(C7, ".", " ")</f>
+        <f t="shared" ref="S7:S10" si="22">SUBSTITUTE(C7, ".", " ")</f>
         <v>Botânica</v>
       </c>
       <c r="T7" s="31" t="str">
-        <f t="shared" ref="T7" si="23">SUBSTITUTE(D7, ".", " ")</f>
+        <f t="shared" ref="T7:T10" si="23">SUBSTITUTE(D7, ".", " ")</f>
         <v>Reinos</v>
       </c>
       <c r="U7" s="31" t="str">
-        <f t="shared" ref="U7" si="24">SUBSTITUTE(E7, ".", " ")</f>
+        <f t="shared" ref="U7:U10" si="24">SUBSTITUTE(E7, ".", " ")</f>
         <v>Plantas</v>
       </c>
       <c r="V7" s="31" t="str">
@@ -5059,19 +5843,19 @@
         <v>1</v>
       </c>
       <c r="L8" s="32" t="str">
-        <f t="shared" ref="L8" si="25">_xlfn.CONCAT(SUBSTITUTE(C8,"1.",""))</f>
+        <f t="shared" si="18"/>
         <v>Botânica</v>
       </c>
       <c r="M8" s="32" t="str">
-        <f t="shared" ref="M8" si="26">_xlfn.CONCAT(SUBSTITUTE(D8,"."," "))</f>
+        <f t="shared" si="19"/>
         <v>Reinos</v>
       </c>
       <c r="N8" s="32" t="str">
-        <f t="shared" ref="N8" si="27">_xlfn.CONCAT(SUBSTITUTE(E8,"."," "))</f>
+        <f t="shared" si="20"/>
         <v>Fungos</v>
       </c>
       <c r="O8" s="32" t="str">
-        <f t="shared" ref="O8" si="28">_xlfn.CONCAT(SUBSTITUTE(F8,"."," "))</f>
+        <f t="shared" si="21"/>
         <v>Fungo</v>
       </c>
       <c r="P8" s="32" t="s">
@@ -5084,23 +5868,23 @@
         <v>1</v>
       </c>
       <c r="S8" s="31" t="str">
-        <f t="shared" ref="S8" si="29">SUBSTITUTE(C8, ".", " ")</f>
+        <f t="shared" si="22"/>
         <v>Botânica</v>
       </c>
       <c r="T8" s="31" t="str">
-        <f t="shared" ref="T8" si="30">SUBSTITUTE(D8, ".", " ")</f>
+        <f t="shared" si="23"/>
         <v>Reinos</v>
       </c>
       <c r="U8" s="31" t="str">
-        <f t="shared" ref="U8" si="31">SUBSTITUTE(E8, ".", " ")</f>
+        <f t="shared" si="24"/>
         <v>Fungos</v>
       </c>
       <c r="V8" s="31" t="str">
-        <f t="shared" ref="V8" si="32">SUBSTITUTE(C8, ".", " ")</f>
+        <f t="shared" si="1"/>
         <v>Botânica</v>
       </c>
       <c r="W8" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="W8:W10" si="25">CONCATENATE("K.",LEFT(C8,3),".",A8)</f>
         <v>K.Bot.8</v>
       </c>
       <c r="X8" s="29" t="s">
@@ -5118,122 +5902,653 @@
         <v>78</v>
       </c>
       <c r="C9" s="36" t="s">
+        <v>950</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>951</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="F9" s="80" t="s">
+        <v>942</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="32" t="str">
+        <f t="shared" si="18"/>
+        <v>Jardim</v>
+      </c>
+      <c r="M9" s="32" t="str">
+        <f t="shared" si="19"/>
+        <v>Solos</v>
+      </c>
+      <c r="N9" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v>Solo</v>
+      </c>
+      <c r="O9" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>Solo Arenoso</v>
+      </c>
+      <c r="P9" s="32" t="s">
+        <v>961</v>
+      </c>
+      <c r="Q9" s="32" t="s">
+        <v>964</v>
+      </c>
+      <c r="R9" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="S9" s="31" t="str">
+        <f t="shared" si="22"/>
+        <v>Jardim</v>
+      </c>
+      <c r="T9" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>Solos</v>
+      </c>
+      <c r="U9" s="31" t="str">
+        <f t="shared" si="24"/>
+        <v>Solo</v>
+      </c>
+      <c r="V9" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>Jardim</v>
+      </c>
+      <c r="W9" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v>K.Jar.9</v>
+      </c>
+      <c r="X9" s="29" t="s">
+        <v>970</v>
+      </c>
+      <c r="Y9" s="31" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27">
+        <v>10</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>950</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>951</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="F10" s="80" t="s">
+        <v>941</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="32" t="str">
+        <f t="shared" si="18"/>
+        <v>Jardim</v>
+      </c>
+      <c r="M10" s="32" t="str">
+        <f t="shared" si="19"/>
+        <v>Solos</v>
+      </c>
+      <c r="N10" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v>Solo</v>
+      </c>
+      <c r="O10" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>Solo Argiloso</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>962</v>
+      </c>
+      <c r="Q10" s="32" t="s">
+        <v>965</v>
+      </c>
+      <c r="R10" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="S10" s="31" t="str">
+        <f t="shared" si="22"/>
+        <v>Jardim</v>
+      </c>
+      <c r="T10" s="31" t="str">
+        <f t="shared" si="23"/>
+        <v>Solos</v>
+      </c>
+      <c r="U10" s="31" t="str">
+        <f t="shared" si="24"/>
+        <v>Solo</v>
+      </c>
+      <c r="V10" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>Jardim</v>
+      </c>
+      <c r="W10" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v>K.Jar.10</v>
+      </c>
+      <c r="X10" s="29" t="s">
+        <v>970</v>
+      </c>
+      <c r="Y10" s="31" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27">
+        <v>11</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>950</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>951</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="F11" s="80" t="s">
+        <v>949</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="32" t="str">
+        <f t="shared" ref="L11:L13" si="26">_xlfn.CONCAT(SUBSTITUTE(C11,"1.",""))</f>
+        <v>Jardim</v>
+      </c>
+      <c r="M11" s="32" t="str">
+        <f t="shared" ref="M11:M13" si="27">_xlfn.CONCAT(SUBSTITUTE(D11,"."," "))</f>
+        <v>Solos</v>
+      </c>
+      <c r="N11" s="32" t="str">
+        <f t="shared" ref="N11:N13" si="28">_xlfn.CONCAT(SUBSTITUTE(E11,"."," "))</f>
+        <v>Solo</v>
+      </c>
+      <c r="O11" s="32" t="str">
+        <f t="shared" ref="O11:P13" si="29">_xlfn.CONCAT(SUBSTITUTE(F11,"."," "))</f>
+        <v>Solo Compacto</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>963</v>
+      </c>
+      <c r="Q11" s="32" t="s">
+        <v>966</v>
+      </c>
+      <c r="R11" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="S11" s="31" t="str">
+        <f t="shared" ref="S11:S13" si="30">SUBSTITUTE(C11, ".", " ")</f>
+        <v>Jardim</v>
+      </c>
+      <c r="T11" s="31" t="str">
+        <f t="shared" ref="T11:T13" si="31">SUBSTITUTE(D11, ".", " ")</f>
+        <v>Solos</v>
+      </c>
+      <c r="U11" s="31" t="str">
+        <f t="shared" ref="U11:U13" si="32">SUBSTITUTE(E11, ".", " ")</f>
+        <v>Solo</v>
+      </c>
+      <c r="V11" s="31" t="str">
+        <f t="shared" ref="V11:V13" si="33">SUBSTITUTE(C11, ".", " ")</f>
+        <v>Jardim</v>
+      </c>
+      <c r="W11" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v>K.Jar.11</v>
+      </c>
+      <c r="X11" s="29" t="s">
+        <v>970</v>
+      </c>
+      <c r="Y11" s="31" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27">
+        <v>12</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>950</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>953</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>957</v>
+      </c>
+      <c r="F12" s="80" t="s">
+        <v>944</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="32" t="str">
+        <f t="shared" si="26"/>
+        <v>Jardim</v>
+      </c>
+      <c r="M12" s="32" t="str">
+        <f t="shared" si="27"/>
+        <v>Luz Solar</v>
+      </c>
+      <c r="N12" s="32" t="str">
+        <f t="shared" si="28"/>
+        <v>Exposição ao Sol</v>
+      </c>
+      <c r="O12" s="32" t="str">
+        <f t="shared" si="29"/>
+        <v>Sol Pleno</v>
+      </c>
+      <c r="P12" s="32" t="s">
+        <v>959</v>
+      </c>
+      <c r="Q12" s="32" t="s">
+        <v>967</v>
+      </c>
+      <c r="R12" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="S12" s="31" t="str">
+        <f t="shared" si="30"/>
+        <v>Jardim</v>
+      </c>
+      <c r="T12" s="31" t="str">
+        <f t="shared" si="31"/>
+        <v>Luz Solar</v>
+      </c>
+      <c r="U12" s="31" t="str">
+        <f t="shared" si="32"/>
+        <v>Exposição ao Sol</v>
+      </c>
+      <c r="V12" s="31" t="str">
+        <f t="shared" si="33"/>
+        <v>Jardim</v>
+      </c>
+      <c r="W12" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v>K.Jar.12</v>
+      </c>
+      <c r="X12" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="27">
+        <v>13</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>950</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>953</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>957</v>
+      </c>
+      <c r="F13" s="80" t="s">
+        <v>945</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="32" t="str">
+        <f t="shared" si="26"/>
+        <v>Jardim</v>
+      </c>
+      <c r="M13" s="32" t="str">
+        <f t="shared" si="27"/>
+        <v>Luz Solar</v>
+      </c>
+      <c r="N13" s="32" t="str">
+        <f t="shared" si="28"/>
+        <v>Exposição ao Sol</v>
+      </c>
+      <c r="O13" s="32" t="str">
+        <f t="shared" si="29"/>
+        <v>Sol Parcial</v>
+      </c>
+      <c r="P13" s="32" t="s">
+        <v>960</v>
+      </c>
+      <c r="Q13" s="32" t="s">
+        <v>968</v>
+      </c>
+      <c r="R13" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="S13" s="31" t="str">
+        <f t="shared" si="30"/>
+        <v>Jardim</v>
+      </c>
+      <c r="T13" s="31" t="str">
+        <f t="shared" si="31"/>
+        <v>Luz Solar</v>
+      </c>
+      <c r="U13" s="31" t="str">
+        <f t="shared" si="32"/>
+        <v>Exposição ao Sol</v>
+      </c>
+      <c r="V13" s="31" t="str">
+        <f t="shared" si="33"/>
+        <v>Jardim</v>
+      </c>
+      <c r="W13" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v>K.Jar.13</v>
+      </c>
+      <c r="X13" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27">
+        <v>14</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>950</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>953</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>957</v>
+      </c>
+      <c r="F14" s="80" t="s">
+        <v>943</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="32" t="str">
+        <f t="shared" ref="L14" si="34">_xlfn.CONCAT(SUBSTITUTE(C14,"1.",""))</f>
+        <v>Jardim</v>
+      </c>
+      <c r="M14" s="32" t="str">
+        <f t="shared" ref="M14" si="35">_xlfn.CONCAT(SUBSTITUTE(D14,"."," "))</f>
+        <v>Luz Solar</v>
+      </c>
+      <c r="N14" s="32" t="str">
+        <f t="shared" ref="N14" si="36">_xlfn.CONCAT(SUBSTITUTE(E14,"."," "))</f>
+        <v>Exposição ao Sol</v>
+      </c>
+      <c r="O14" s="32" t="str">
+        <f t="shared" ref="O14:P14" si="37">_xlfn.CONCAT(SUBSTITUTE(F14,"."," "))</f>
+        <v>Sombra</v>
+      </c>
+      <c r="P14" s="32" t="s">
+        <v>958</v>
+      </c>
+      <c r="Q14" s="32" t="s">
+        <v>969</v>
+      </c>
+      <c r="R14" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="S14" s="31" t="str">
+        <f t="shared" ref="S14" si="38">SUBSTITUTE(C14, ".", " ")</f>
+        <v>Jardim</v>
+      </c>
+      <c r="T14" s="31" t="str">
+        <f t="shared" ref="T14" si="39">SUBSTITUTE(D14, ".", " ")</f>
+        <v>Luz Solar</v>
+      </c>
+      <c r="U14" s="31" t="str">
+        <f t="shared" ref="U14" si="40">SUBSTITUTE(E14, ".", " ")</f>
+        <v>Exposição ao Sol</v>
+      </c>
+      <c r="V14" s="31" t="str">
+        <f t="shared" ref="V14" si="41">SUBSTITUTE(C14, ".", " ")</f>
+        <v>Jardim</v>
+      </c>
+      <c r="W14" s="19" t="str">
+        <f t="shared" ref="W14" si="42">CONCATENATE("K.",LEFT(C14,3),".",A14)</f>
+        <v>K.Jar.14</v>
+      </c>
+      <c r="X14" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27">
+        <v>15</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="36" t="s">
         <v>441</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D15" s="36" t="s">
         <v>443</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E15" s="36" t="s">
         <v>442</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F15" s="36" t="s">
         <v>440</v>
       </c>
-      <c r="G9" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="K9" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" s="32" t="str">
-        <f t="shared" ref="L9" si="33">_xlfn.CONCAT(SUBSTITUTE(C9,"1.",""))</f>
+      <c r="G15" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="32" t="str">
+        <f t="shared" ref="L15" si="43">_xlfn.CONCAT(SUBSTITUTE(C15,"1.",""))</f>
         <v>Divisão.Botânica</v>
       </c>
-      <c r="M9" s="32" t="str">
-        <f t="shared" ref="M9" si="34">_xlfn.CONCAT(SUBSTITUTE(D9,"."," "))</f>
+      <c r="M15" s="32" t="str">
+        <f t="shared" ref="M15" si="44">_xlfn.CONCAT(SUBSTITUTE(D15,"."," "))</f>
         <v>Classe Botânica</v>
       </c>
-      <c r="N9" s="32" t="str">
-        <f t="shared" ref="N9" si="35">_xlfn.CONCAT(SUBSTITUTE(E9,"."," "))</f>
+      <c r="N15" s="32" t="str">
+        <f t="shared" ref="N15" si="45">_xlfn.CONCAT(SUBSTITUTE(E15,"."," "))</f>
         <v>Ordem Botânica</v>
       </c>
-      <c r="O9" s="32" t="str">
-        <f t="shared" ref="O9" si="36">_xlfn.CONCAT(SUBSTITUTE(F9,"."," "))</f>
+      <c r="O15" s="32" t="str">
+        <f t="shared" ref="O15" si="46">_xlfn.CONCAT(SUBSTITUTE(F15,"."," "))</f>
         <v>Família Botânica</v>
       </c>
-      <c r="P9" s="32" t="s">
+      <c r="P15" s="32" t="s">
         <v>445</v>
       </c>
-      <c r="Q9" s="32" t="s">
+      <c r="Q15" s="32" t="s">
         <v>444</v>
       </c>
-      <c r="R9" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="S9" s="31" t="str">
-        <f t="shared" ref="S9" si="37">SUBSTITUTE(C9, ".", " ")</f>
+      <c r="R15" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="S15" s="31" t="str">
+        <f t="shared" ref="S15" si="47">SUBSTITUTE(C15, ".", " ")</f>
         <v>Divisão Botânica</v>
       </c>
-      <c r="T9" s="31" t="str">
-        <f t="shared" ref="T9" si="38">SUBSTITUTE(D9, ".", " ")</f>
+      <c r="T15" s="31" t="str">
+        <f t="shared" ref="T15" si="48">SUBSTITUTE(D15, ".", " ")</f>
         <v>Classe Botânica</v>
       </c>
-      <c r="U9" s="31" t="str">
-        <f t="shared" ref="U9" si="39">SUBSTITUTE(E9, ".", " ")</f>
+      <c r="U15" s="31" t="str">
+        <f t="shared" ref="U15" si="49">SUBSTITUTE(E15, ".", " ")</f>
         <v>Ordem Botânica</v>
       </c>
-      <c r="V9" s="31" t="str">
-        <f t="shared" ref="V9" si="40">SUBSTITUTE(C9, ".", " ")</f>
+      <c r="V15" s="31" t="str">
+        <f t="shared" ref="V15" si="50">SUBSTITUTE(C15, ".", " ")</f>
         <v>Divisão Botânica</v>
       </c>
-      <c r="W9" s="19" t="str">
+      <c r="W15" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>K.Div.9</v>
-      </c>
-      <c r="X9" s="29" t="s">
+        <v>K.Div.15</v>
+      </c>
+      <c r="X15" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="Y9" s="31" t="s">
+      <c r="Y15" s="31" t="s">
         <v>88</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="46" priority="1409"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="1413"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="45" priority="1651"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="1652"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="1655"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="1656"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10:F1048576 F1">
-    <cfRule type="duplicateValues" dxfId="43" priority="888"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="903"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="907"/>
+  <conditionalFormatting sqref="F16:F1048576 F1">
+    <cfRule type="duplicateValues" dxfId="138" priority="892"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="907"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="911"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10:F1048576">
-    <cfRule type="duplicateValues" dxfId="40" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="891"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="895"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="899"/>
+  <conditionalFormatting sqref="F16:F1048576">
+    <cfRule type="duplicateValues" dxfId="135" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="895"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="899"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="903"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10:W1048576 A1:C1 F1:W1 Y1:XFD1 A10:C1048576">
-    <cfRule type="cellIs" dxfId="35" priority="371" operator="equal">
+  <conditionalFormatting sqref="F16:W1048576 A1:C1 F1:W1 Y1:XFD1 A16:C1048576">
+    <cfRule type="cellIs" dxfId="130" priority="375" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:K2">
-    <cfRule type="cellIs" dxfId="34" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="15" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2 B2:B9 G3:U9 Y3:XFD1048576">
-    <cfRule type="cellIs" dxfId="33" priority="14" operator="equal">
+  <conditionalFormatting sqref="R2 B2:B15 G3:U15 Y3:XFD11 Y15:XFD1048576 Z12:XFD14">
+    <cfRule type="cellIs" dxfId="0" priority="18" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:Y2">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="5" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="cellIs" dxfId="127" priority="4" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10:F11">
+    <cfRule type="cellIs" dxfId="126" priority="3" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:F14">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5457,7 +6772,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5545,7 +6860,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A3">
-    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="32" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5555,12 +6870,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B52AA7-680B-4C72-8598-6D856F54368E}">
-  <dimension ref="A1:AS244"/>
+  <dimension ref="A1:AS250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Z1" sqref="Z1"/>
-      <selection pane="bottomLeft" activeCell="A244" sqref="A244"/>
+      <selection pane="bottomLeft" activeCell="A250" sqref="A250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -39032,138 +40347,1415 @@
         <v>1</v>
       </c>
     </row>
+    <row r="245" spans="1:45" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="45">
+        <v>245</v>
+      </c>
+      <c r="B245" s="65" t="s">
+        <v>972</v>
+      </c>
+      <c r="C245" s="80" t="s">
+        <v>942</v>
+      </c>
+      <c r="D245" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="E245" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F245" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="G245" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H245" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="I245" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J245" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="K245" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L245" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="M245" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="N245" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="O245" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="P245" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q245" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="R245" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="S245" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="T245" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="U245" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="V245" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="W245" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="X245" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y245" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z245" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA245" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB245" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC245" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD245" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE245" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF245" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG245" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH245" s="78" t="s">
+        <v>245</v>
+      </c>
+      <c r="AI245" s="97" t="s">
+        <v>938</v>
+      </c>
+      <c r="AJ245" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK245" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL245" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM245" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN245" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO245" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP245" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ245" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR245" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS245" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:45" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="45">
+        <v>246</v>
+      </c>
+      <c r="B246" s="65" t="s">
+        <v>973</v>
+      </c>
+      <c r="C246" s="80" t="s">
+        <v>941</v>
+      </c>
+      <c r="D246" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="E246" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F246" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="G246" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H246" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="I246" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J246" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="K246" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L246" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="M246" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="N246" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="O246" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="P246" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q246" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="R246" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="S246" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="T246" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="U246" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="V246" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="W246" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="X246" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y246" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z246" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA246" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB246" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC246" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD246" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE246" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF246" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG246" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH246" s="78" t="s">
+        <v>245</v>
+      </c>
+      <c r="AI246" s="97" t="s">
+        <v>939</v>
+      </c>
+      <c r="AJ246" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK246" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL246" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM246" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN246" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO246" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP246" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ246" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR246" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS246" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:45" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="45">
+        <v>247</v>
+      </c>
+      <c r="B247" s="65" t="s">
+        <v>974</v>
+      </c>
+      <c r="C247" s="80" t="s">
+        <v>949</v>
+      </c>
+      <c r="D247" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="E247" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F247" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="G247" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H247" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="I247" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J247" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="K247" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L247" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="M247" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="N247" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="O247" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="P247" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q247" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="R247" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="S247" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="T247" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="U247" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="V247" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="W247" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="X247" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y247" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z247" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA247" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB247" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC247" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD247" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE247" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF247" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG247" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH247" s="78" t="s">
+        <v>245</v>
+      </c>
+      <c r="AI247" s="97" t="s">
+        <v>940</v>
+      </c>
+      <c r="AJ247" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK247" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL247" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM247" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN247" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO247" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP247" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ247" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR247" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS247" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:45" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="45">
+        <v>248</v>
+      </c>
+      <c r="B248" s="65" t="s">
+        <v>954</v>
+      </c>
+      <c r="C248" s="80" t="s">
+        <v>944</v>
+      </c>
+      <c r="D248" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="E248" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F248" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="G248" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H248" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="I248" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J248" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="K248" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L248" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="M248" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="N248" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="O248" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="P248" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q248" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="R248" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="S248" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="T248" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="U248" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="V248" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="W248" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="X248" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y248" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z248" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA248" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB248" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC248" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD248" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE248" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF248" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG248" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH248" s="78" t="s">
+        <v>245</v>
+      </c>
+      <c r="AI248" s="96" t="s">
+        <v>946</v>
+      </c>
+      <c r="AJ248" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK248" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL248" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM248" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN248" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO248" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP248" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ248" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR248" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS248" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:45" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="45">
+        <v>249</v>
+      </c>
+      <c r="B249" s="65" t="s">
+        <v>955</v>
+      </c>
+      <c r="C249" s="80" t="s">
+        <v>945</v>
+      </c>
+      <c r="D249" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="E249" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F249" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="G249" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H249" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="I249" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J249" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="K249" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L249" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="M249" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="N249" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="O249" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="P249" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q249" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="R249" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="S249" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="T249" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="U249" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="V249" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="W249" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="X249" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y249" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z249" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA249" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB249" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC249" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD249" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE249" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF249" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG249" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH249" s="78" t="s">
+        <v>245</v>
+      </c>
+      <c r="AI249" s="96" t="s">
+        <v>947</v>
+      </c>
+      <c r="AJ249" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK249" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL249" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM249" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN249" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO249" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP249" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ249" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR249" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS249" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:45" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="45">
+        <v>250</v>
+      </c>
+      <c r="B250" s="65" t="s">
+        <v>956</v>
+      </c>
+      <c r="C250" s="80" t="s">
+        <v>943</v>
+      </c>
+      <c r="D250" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="E250" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F250" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="G250" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H250" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="I250" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J250" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="K250" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L250" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="M250" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="N250" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="O250" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="P250" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q250" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="R250" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="S250" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="T250" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="U250" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="V250" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="W250" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="X250" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y250" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z250" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA250" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB250" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC250" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD250" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE250" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF250" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG250" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH250" s="78" t="s">
+        <v>245</v>
+      </c>
+      <c r="AI250" s="96" t="s">
+        <v>948</v>
+      </c>
+      <c r="AJ250" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK250" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL250" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM250" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN250" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO250" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP250" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ250" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR250" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS250" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AS244">
     <sortCondition ref="A1:A244"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C99:C244 C1:C95 A1:A244">
-    <cfRule type="cellIs" dxfId="29" priority="56" operator="equal">
+  <conditionalFormatting sqref="C245:C247 AJ245:AM247 A1:A250">
+    <cfRule type="cellIs" dxfId="123" priority="170" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B251:B1048576 B1:B244">
+    <cfRule type="duplicateValues" dxfId="122" priority="115"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B80:B86">
-    <cfRule type="duplicateValues" dxfId="28" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B86">
-    <cfRule type="duplicateValues" dxfId="27" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="143"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B87:B93 B106:B114 B116:B139 B141:B1048576 B1:B79 B99:B104">
-    <cfRule type="duplicateValues" dxfId="25" priority="103"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="104"/>
+  <conditionalFormatting sqref="B251:B1048576 B87:B93 B1:B79 B99:B244">
+    <cfRule type="duplicateValues" dxfId="118" priority="146"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B87:B93 B1:B79 B99:B1048576">
-    <cfRule type="duplicateValues" dxfId="23" priority="32"/>
+  <conditionalFormatting sqref="B251:B1048576 B87:B93 B106:B114 B116:B139 B141:B244 B1:B79 B99:B104">
+    <cfRule type="duplicateValues" dxfId="117" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="218"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG79 X79:AE79 D79:U79 D1:AG78">
-    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
+  <conditionalFormatting sqref="C1:C244">
+    <cfRule type="cellIs" dxfId="115" priority="116" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87:E93 E99:E1048576">
-    <cfRule type="duplicateValues" dxfId="21" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80:E86">
-    <cfRule type="duplicateValues" dxfId="20" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M227:AS227">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+  <conditionalFormatting sqref="D1:AG78 D79:U79 X79:AE79 AG79">
+    <cfRule type="cellIs" dxfId="114" priority="134" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V228:W244 V79:W93 V99:W226">
-    <cfRule type="cellIs" dxfId="18" priority="25" operator="equal">
+  <conditionalFormatting sqref="E80:E86">
+    <cfRule type="duplicateValues" dxfId="113" priority="136"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E251:E1048576 E87:E93 E99:E244">
+    <cfRule type="duplicateValues" dxfId="112" priority="145"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M227:AS227">
+    <cfRule type="cellIs" dxfId="111" priority="133" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF79:AF93 AL79:AS93 AL228:AS236 AF228:AF244 AL99:AS226 AF99:AF226">
-    <cfRule type="cellIs" dxfId="17" priority="24" operator="equal">
+  <conditionalFormatting sqref="V94:V98">
+    <cfRule type="cellIs" dxfId="110" priority="118" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ79:AJ93 AJ228:AJ244 AJ99:AJ226">
-    <cfRule type="cellIs" dxfId="16" priority="26" operator="equal">
+  <conditionalFormatting sqref="V79:W93 V99:W226 V228:W244">
+    <cfRule type="cellIs" dxfId="109" priority="139" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF79:AF226">
+    <cfRule type="cellIs" dxfId="108" priority="119" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ79:AJ226">
+    <cfRule type="cellIs" dxfId="107" priority="120" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ228:AJ244">
+    <cfRule type="cellIs" dxfId="106" priority="140" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ1:AS78">
-    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="135" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK80:AK83">
-    <cfRule type="cellIs" dxfId="14" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="141" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK105">
-    <cfRule type="cellIs" dxfId="13" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="168" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK115">
-    <cfRule type="cellIs" dxfId="12" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="192" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK140">
-    <cfRule type="cellIs" dxfId="11" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="180" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK237:AL244">
-    <cfRule type="cellIs" dxfId="10" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="215" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL94:AL98">
+    <cfRule type="cellIs" dxfId="99" priority="121" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL79:AS93 AL99:AS226 AL228:AS236 AF228:AF244">
+    <cfRule type="cellIs" dxfId="98" priority="138" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN94:AS98">
+    <cfRule type="cellIs" dxfId="97" priority="122" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN237:AS244">
-    <cfRule type="cellIs" dxfId="9" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="246" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C96">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+  <conditionalFormatting sqref="AD246:AG246">
+    <cfRule type="cellIs" dxfId="95" priority="113" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF94:AF98">
+  <conditionalFormatting sqref="AD247:AG247">
+    <cfRule type="cellIs" dxfId="94" priority="111" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D246:E246">
+    <cfRule type="cellIs" dxfId="93" priority="110" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D247:E247">
+    <cfRule type="cellIs" dxfId="92" priority="108" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F246:G246">
+    <cfRule type="cellIs" dxfId="91" priority="107" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F247:G247">
+    <cfRule type="cellIs" dxfId="90" priority="105" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H246:I246">
+    <cfRule type="cellIs" dxfId="89" priority="104" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H247:I247">
+    <cfRule type="cellIs" dxfId="88" priority="102" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J246:K246">
+    <cfRule type="cellIs" dxfId="87" priority="101" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J247:K247">
+    <cfRule type="cellIs" dxfId="86" priority="99" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L246:M246">
+    <cfRule type="cellIs" dxfId="85" priority="98" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L247:M247">
+    <cfRule type="cellIs" dxfId="84" priority="96" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N246:O246">
+    <cfRule type="cellIs" dxfId="83" priority="95" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N247:O247">
+    <cfRule type="cellIs" dxfId="82" priority="93" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P246:Q246">
+    <cfRule type="cellIs" dxfId="81" priority="92" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P247:Q247">
+    <cfRule type="cellIs" dxfId="80" priority="90" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R246:S246">
+    <cfRule type="cellIs" dxfId="79" priority="89" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R247:S247">
+    <cfRule type="cellIs" dxfId="78" priority="87" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T246:U246">
+    <cfRule type="cellIs" dxfId="77" priority="86" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T247:U247">
+    <cfRule type="cellIs" dxfId="76" priority="84" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V246:W246">
+    <cfRule type="cellIs" dxfId="75" priority="83" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V247:W247">
+    <cfRule type="cellIs" dxfId="74" priority="81" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X246:Y246">
+    <cfRule type="cellIs" dxfId="73" priority="80" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X247:Y247">
+    <cfRule type="cellIs" dxfId="72" priority="78" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z246:AA246">
+    <cfRule type="cellIs" dxfId="71" priority="77" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z247:AA247">
+    <cfRule type="cellIs" dxfId="70" priority="75" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB246:AC246">
+    <cfRule type="cellIs" dxfId="69" priority="74" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB247:AC247">
+    <cfRule type="cellIs" dxfId="68" priority="72" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN246:AS246">
+    <cfRule type="cellIs" dxfId="67" priority="67" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN247:AS247">
+    <cfRule type="cellIs" dxfId="66" priority="65" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ248:AJ250">
+    <cfRule type="cellIs" dxfId="65" priority="63" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK248:AK250">
+    <cfRule type="cellIs" dxfId="64" priority="64" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL248:AL250">
+    <cfRule type="cellIs" dxfId="63" priority="61" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM248:AM250">
+    <cfRule type="cellIs" dxfId="62" priority="62" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN248:AS250">
+    <cfRule type="cellIs" dxfId="61" priority="60" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD248:AG248">
+    <cfRule type="cellIs" dxfId="60" priority="59" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D248:E248">
+    <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F248:G248">
+    <cfRule type="cellIs" dxfId="58" priority="57" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H248:I248">
+    <cfRule type="cellIs" dxfId="57" priority="56" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J248:K248">
+    <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L248:M248">
+    <cfRule type="cellIs" dxfId="55" priority="54" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N248:O248">
+    <cfRule type="cellIs" dxfId="54" priority="53" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P248:Q248">
+    <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R248:S248">
+    <cfRule type="cellIs" dxfId="52" priority="51" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T248:U248">
+    <cfRule type="cellIs" dxfId="51" priority="50" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V248:W248">
+    <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X248:Y248">
+    <cfRule type="cellIs" dxfId="49" priority="48" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z248:AA248">
+    <cfRule type="cellIs" dxfId="48" priority="47" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB248:AC248">
+    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD249:AG249">
+    <cfRule type="cellIs" dxfId="46" priority="45" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D249:E249">
+    <cfRule type="cellIs" dxfId="45" priority="44" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F249:G249">
+    <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H249:I249">
+    <cfRule type="cellIs" dxfId="43" priority="42" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J249:K249">
+    <cfRule type="cellIs" dxfId="42" priority="41" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L249:M249">
+    <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N249:O249">
+    <cfRule type="cellIs" dxfId="40" priority="39" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P249:Q249">
+    <cfRule type="cellIs" dxfId="39" priority="38" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R249:S249">
+    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T249:U249">
+    <cfRule type="cellIs" dxfId="37" priority="36" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V249:W249">
+    <cfRule type="cellIs" dxfId="36" priority="35" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X249:Y249">
+    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z249:AA249">
+    <cfRule type="cellIs" dxfId="34" priority="33" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB249:AC249">
+    <cfRule type="cellIs" dxfId="33" priority="32" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD250:AG250">
+    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D250:E250">
+    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F250:G250">
+    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H250:I250">
+    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J250:K250">
+    <cfRule type="cellIs" dxfId="28" priority="27" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L250:M250">
+    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N250:O250">
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P250:Q250">
+    <cfRule type="cellIs" dxfId="25" priority="24" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R250:S250">
+    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T250:U250">
+    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V250:W250">
+    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X250:Y250">
+    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z250:AA250">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB250:AC250">
+    <cfRule type="cellIs" dxfId="19" priority="18" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C248:C250">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD245:AG245">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D245:E245">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F245:G245">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H245:I245">
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J245:K245">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L245:M245">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N245:O245">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P245:Q245">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R245:S245">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T245:U245">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V245:W245">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ94:AJ98">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+  <conditionalFormatting sqref="X245:Y245">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL94:AL98">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+  <conditionalFormatting sqref="Z245:AA245">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN94:AS98">
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+  <conditionalFormatting sqref="AB245:AC245">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V94:V98">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="AN245:AS245">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C97">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Versão5/VEGE/Ontologia_VEGET.xlsx
+++ b/Versão5/VEGE/Ontologia_VEGET.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\VEGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7627F6A1-D0BA-4D86-B78F-3B4586430E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A7B37A-7706-4AF6-8E51-D9E328CD167D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" tabRatio="577" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11509" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11662" uniqueCount="1032">
   <si>
     <t>Key</t>
   </si>
@@ -3040,12 +3040,6 @@
     <t>"Florada roxa intensa, muito ornamental. ua madeira possui alta resistência e bastante valorizada no mercado externo, utilizada em obras externas, construções pesadas, quilhas de navios, instrumentos musicais, vastamente utilizada para fabricação de pisos. Desbastes seletivos ocorrem entre 4 e 8 anos de idade para a produção e madeira. É resistente às geadas. (https://www.ibflorestas.org.br). Também conhecido como lapacho em Argentina"</t>
   </si>
   <si>
-    <t>500+</t>
-  </si>
-  <si>
-    <t>400+</t>
-  </si>
-  <si>
     <t>longevidade.da.planta</t>
   </si>
   <si>
@@ -3131,6 +3125,48 @@
   </si>
   <si>
     <t>"Junho a Agosto e Novembro a Dezembro"</t>
+  </si>
+  <si>
+    <t>"75"</t>
+  </si>
+  <si>
+    <t>"30"</t>
+  </si>
+  <si>
+    <t>"80"</t>
+  </si>
+  <si>
+    <t>"150"</t>
+  </si>
+  <si>
+    <t>"20"</t>
+  </si>
+  <si>
+    <t>"500"</t>
+  </si>
+  <si>
+    <t>"200"</t>
+  </si>
+  <si>
+    <t>"100"</t>
+  </si>
+  <si>
+    <t>"50"</t>
+  </si>
+  <si>
+    <t>"0"</t>
+  </si>
+  <si>
+    <t>"500+"</t>
+  </si>
+  <si>
+    <t>"400+"</t>
+  </si>
+  <si>
+    <t>"400"</t>
+  </si>
+  <si>
+    <t>"600"</t>
   </si>
 </sst>
 </file>
@@ -3757,7 +3793,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="75">
+  <dxfs count="64">
     <dxf>
       <font>
         <b val="0"/>
@@ -3785,102 +3821,6 @@
         <i/>
         <color theme="2" tint="-0.499984740745262"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4210,6 +4150,13 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -4847,7 +4794,7 @@
       </c>
       <c r="B18" s="11">
         <f ca="1">NOW()</f>
-        <v>45951.518440624997</v>
+        <v>45951.52257627315</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6298,46 +6245,46 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="74" priority="1413"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="1413"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="73" priority="1655"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="1656"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="1655"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="1656"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F15">
-    <cfRule type="cellIs" dxfId="71" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F1048576 F1">
-    <cfRule type="duplicateValues" dxfId="70" priority="892"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="907"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="911"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="892"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="907"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="911"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F1048576">
-    <cfRule type="duplicateValues" dxfId="67" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="79"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="895"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="899"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="903"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="895"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="899"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="903"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:W1048576 A1:C1 F1:W1 Y1:XFD1 A17:C1048576">
-    <cfRule type="cellIs" dxfId="62" priority="375" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="375" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:K2">
-    <cfRule type="cellIs" dxfId="61" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="15" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2 B2:B16 Y3:XFD12 G3:U16 Z13:XFD15 Y16:XFD1048576">
-    <cfRule type="cellIs" dxfId="60" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="18" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:Y2">
-    <cfRule type="cellIs" dxfId="59" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6561,7 +6508,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="58" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6649,7 +6596,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A3">
-    <cfRule type="cellIs" dxfId="57" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="32" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6661,9 +6608,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B52AA7-680B-4C72-8598-6D856F54368E}">
   <dimension ref="A1:AW253"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A253" sqref="A253"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AX1" sqref="AX1:BV1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6709,11 +6656,11 @@
     <col min="44" max="44" width="2.42578125" style="79" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="2.28515625" style="79" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="10.140625" style="79" customWidth="1"/>
-    <col min="47" max="47" width="3.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="5" style="80" customWidth="1"/>
     <col min="48" max="48" width="9.140625" style="79"/>
     <col min="49" max="49" width="23.5703125" style="79" customWidth="1"/>
-    <col min="50" max="50" width="15.5703125" style="79" customWidth="1"/>
-    <col min="51" max="16384" width="9.140625" style="79"/>
+    <col min="50" max="74" width="2.42578125" style="79" customWidth="1"/>
+    <col min="75" max="16384" width="9.140625" style="79"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18620,16 +18567,16 @@
         <v>1</v>
       </c>
       <c r="AT80" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU80" s="59" t="s">
+        <v>1018</v>
+      </c>
+      <c r="AV80" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU80" s="59">
-        <v>75</v>
-      </c>
-      <c r="AV80" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW80" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="81" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18769,16 +18716,16 @@
         <v>1</v>
       </c>
       <c r="AT81" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU81" s="59" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AV81" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU81" s="59">
-        <v>30</v>
-      </c>
-      <c r="AV81" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW81" s="61" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="82" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18918,16 +18865,16 @@
         <v>1</v>
       </c>
       <c r="AT82" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU82" s="59" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AV82" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU82" s="59">
-        <v>30</v>
-      </c>
-      <c r="AV82" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW82" s="61" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="83" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19067,16 +19014,16 @@
         <v>1</v>
       </c>
       <c r="AT83" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU83" s="59" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AV83" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU83" s="59">
-        <v>30</v>
-      </c>
-      <c r="AV83" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW83" s="61" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="84" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19216,16 +19163,16 @@
         <v>1</v>
       </c>
       <c r="AT84" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU84" s="59" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AV84" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU84" s="59">
-        <v>30</v>
-      </c>
-      <c r="AV84" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW84" s="61" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="85" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19365,16 +19312,16 @@
         <v>1</v>
       </c>
       <c r="AT85" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU85" s="59" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AV85" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU85" s="59">
-        <v>30</v>
-      </c>
-      <c r="AV85" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW85" s="61" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="86" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19514,16 +19461,16 @@
         <v>1</v>
       </c>
       <c r="AT86" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU86" s="59" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AV86" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU86" s="59">
-        <v>30</v>
-      </c>
-      <c r="AV86" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW86" s="61" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="87" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19663,16 +19610,16 @@
         <v>1</v>
       </c>
       <c r="AT87" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU87" s="59" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AV87" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU87" s="59">
-        <v>30</v>
-      </c>
-      <c r="AV87" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW87" s="61" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="88" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19812,16 +19759,16 @@
         <v>1</v>
       </c>
       <c r="AT88" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU88" s="59" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AV88" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU88" s="59">
-        <v>80</v>
-      </c>
-      <c r="AV88" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW88" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="89" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19928,7 +19875,7 @@
         <v>242</v>
       </c>
       <c r="AI89" s="53" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="AJ89" s="37" t="s">
         <v>243</v>
@@ -19961,16 +19908,16 @@
         <v>1</v>
       </c>
       <c r="AT89" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU89" s="59" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AV89" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU89" s="59">
-        <v>150</v>
-      </c>
-      <c r="AV89" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW89" s="61" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="90" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20110,16 +20057,16 @@
         <v>1</v>
       </c>
       <c r="AT90" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU90" s="59" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AV90" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU90" s="59">
-        <v>20</v>
-      </c>
-      <c r="AV90" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW90" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="91" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20259,16 +20206,16 @@
         <v>1</v>
       </c>
       <c r="AT91" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU91" s="59" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AV91" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU91" s="59">
-        <v>80</v>
-      </c>
-      <c r="AV91" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW91" s="61" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="92" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20408,16 +20355,16 @@
         <v>1</v>
       </c>
       <c r="AT92" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU92" s="59" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AV92" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU92" s="59">
-        <v>500</v>
-      </c>
-      <c r="AV92" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW92" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="93" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20557,16 +20504,16 @@
         <v>1</v>
       </c>
       <c r="AT93" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU93" s="59" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AV93" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU93" s="59">
-        <v>200</v>
-      </c>
-      <c r="AV93" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW93" s="61" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="94" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20706,16 +20653,16 @@
         <v>1</v>
       </c>
       <c r="AT94" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU94" s="59" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AV94" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU94" s="59">
-        <v>30</v>
-      </c>
-      <c r="AV94" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW94" s="61" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="95" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20855,16 +20802,16 @@
         <v>1</v>
       </c>
       <c r="AT95" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU95" s="59" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AV95" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU95" s="59">
-        <v>30</v>
-      </c>
-      <c r="AV95" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW95" s="61" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="96" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21004,16 +20951,16 @@
         <v>1</v>
       </c>
       <c r="AT96" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU96" s="59" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AV96" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU96" s="59">
-        <v>30</v>
-      </c>
-      <c r="AV96" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW96" s="61" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="97" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21153,16 +21100,16 @@
         <v>1</v>
       </c>
       <c r="AT97" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU97" s="59" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AV97" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU97" s="59">
-        <v>30</v>
-      </c>
-      <c r="AV97" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW97" s="61" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="98" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21302,16 +21249,16 @@
         <v>1</v>
       </c>
       <c r="AT98" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU98" s="59" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AV98" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU98" s="59">
-        <v>30</v>
-      </c>
-      <c r="AV98" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW98" s="61" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="99" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21451,16 +21398,16 @@
         <v>1</v>
       </c>
       <c r="AT99" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU99" s="59" t="s">
+        <v>1025</v>
+      </c>
+      <c r="AV99" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU99" s="59">
-        <v>100</v>
-      </c>
-      <c r="AV99" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW99" s="61" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="100" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21600,16 +21547,16 @@
         <v>1</v>
       </c>
       <c r="AT100" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU100" s="59" t="s">
+        <v>1025</v>
+      </c>
+      <c r="AV100" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU100" s="59">
-        <v>100</v>
-      </c>
-      <c r="AV100" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW100" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="101" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21749,16 +21696,16 @@
         <v>1</v>
       </c>
       <c r="AT101" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU101" s="59" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AV101" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU101" s="59">
-        <v>30</v>
-      </c>
-      <c r="AV101" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW101" s="61" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="102" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21898,16 +21845,16 @@
         <v>1</v>
       </c>
       <c r="AT102" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU102" s="59" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AV102" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU102" s="59">
-        <v>50</v>
-      </c>
-      <c r="AV102" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW102" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="103" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22047,16 +21994,16 @@
         <v>1</v>
       </c>
       <c r="AT103" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU103" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV103" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU103" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV103" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW103" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="104" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22196,16 +22143,16 @@
         <v>1</v>
       </c>
       <c r="AT104" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU104" s="59" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AV104" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU104" s="59">
-        <v>50</v>
-      </c>
-      <c r="AV104" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW104" s="61" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="105" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22345,16 +22292,16 @@
         <v>1</v>
       </c>
       <c r="AT105" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU105" s="59" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AV105" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU105" s="59">
-        <v>80</v>
-      </c>
-      <c r="AV105" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW105" s="61" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="106" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22494,16 +22441,16 @@
         <v>1</v>
       </c>
       <c r="AT106" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU106" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV106" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU106" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV106" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW106" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="107" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22643,16 +22590,16 @@
         <v>1</v>
       </c>
       <c r="AT107" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU107" s="59" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AV107" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU107" s="59">
-        <v>30</v>
-      </c>
-      <c r="AV107" s="97" t="s">
+      <c r="AW107" s="61" t="s">
         <v>993</v>
-      </c>
-      <c r="AW107" s="61" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="108" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22792,16 +22739,16 @@
         <v>1</v>
       </c>
       <c r="AT108" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU108" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV108" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU108" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV108" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW108" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="109" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22941,16 +22888,16 @@
         <v>1</v>
       </c>
       <c r="AT109" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU109" s="59" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AV109" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU109" s="59" t="s">
-        <v>989</v>
-      </c>
-      <c r="AV109" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW109" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="110" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23090,16 +23037,16 @@
         <v>1</v>
       </c>
       <c r="AT110" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU110" s="59" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AV110" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU110" s="59">
-        <v>200</v>
-      </c>
-      <c r="AV110" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW110" s="61" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="111" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23239,16 +23186,16 @@
         <v>1</v>
       </c>
       <c r="AT111" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU111" s="59" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AV111" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU111" s="59">
-        <v>200</v>
-      </c>
-      <c r="AV111" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW111" s="61" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="112" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23388,16 +23335,16 @@
         <v>1</v>
       </c>
       <c r="AT112" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU112" s="59" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AV112" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU112" s="59">
-        <v>80</v>
-      </c>
-      <c r="AV112" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW112" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="113" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23537,16 +23484,16 @@
         <v>1</v>
       </c>
       <c r="AT113" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU113" s="59" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AV113" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU113" s="59" t="s">
-        <v>990</v>
-      </c>
-      <c r="AV113" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW113" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="114" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23686,16 +23633,16 @@
         <v>1</v>
       </c>
       <c r="AT114" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU114" s="59" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AV114" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU114" s="59">
-        <v>20</v>
-      </c>
-      <c r="AV114" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW114" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="115" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23835,16 +23782,16 @@
         <v>1</v>
       </c>
       <c r="AT115" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU115" s="59" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AV115" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU115" s="59">
-        <v>30</v>
-      </c>
-      <c r="AV115" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW115" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="116" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23984,16 +23931,16 @@
         <v>1</v>
       </c>
       <c r="AT116" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU116" s="59" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AV116" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU116" s="59">
-        <v>30</v>
-      </c>
-      <c r="AV116" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW116" s="61" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="117" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24133,16 +24080,16 @@
         <v>1</v>
       </c>
       <c r="AT117" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU117" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV117" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU117" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV117" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW117" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="118" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24282,16 +24229,16 @@
         <v>1</v>
       </c>
       <c r="AT118" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU118" s="59" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AV118" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU118" s="59">
-        <v>200</v>
-      </c>
-      <c r="AV118" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW118" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="119" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24431,16 +24378,16 @@
         <v>1</v>
       </c>
       <c r="AT119" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU119" s="59" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AV119" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU119" s="59">
-        <v>200</v>
-      </c>
-      <c r="AV119" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW119" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="120" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24580,16 +24527,16 @@
         <v>1</v>
       </c>
       <c r="AT120" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU120" s="59" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AV120" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU120" s="59">
-        <v>200</v>
-      </c>
-      <c r="AV120" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW120" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="121" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24729,16 +24676,16 @@
         <v>1</v>
       </c>
       <c r="AT121" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU121" s="59" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AV121" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU121" s="59">
-        <v>200</v>
-      </c>
-      <c r="AV121" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW121" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="122" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24878,16 +24825,16 @@
         <v>1</v>
       </c>
       <c r="AT122" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU122" s="59" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AV122" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU122" s="59">
-        <v>200</v>
-      </c>
-      <c r="AV122" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW122" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="123" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25027,16 +24974,16 @@
         <v>1</v>
       </c>
       <c r="AT123" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU123" s="59" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AV123" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU123" s="59">
-        <v>200</v>
-      </c>
-      <c r="AV123" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW123" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="124" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25176,16 +25123,16 @@
         <v>1</v>
       </c>
       <c r="AT124" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU124" s="59" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AV124" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU124" s="59">
-        <v>200</v>
-      </c>
-      <c r="AV124" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW124" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="125" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25325,16 +25272,16 @@
         <v>1</v>
       </c>
       <c r="AT125" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU125" s="59" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AV125" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU125" s="59">
-        <v>200</v>
-      </c>
-      <c r="AV125" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW125" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="126" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25474,16 +25421,16 @@
         <v>1</v>
       </c>
       <c r="AT126" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU126" s="59" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AV126" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU126" s="59">
-        <v>200</v>
-      </c>
-      <c r="AV126" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW126" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="127" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25623,16 +25570,16 @@
         <v>1</v>
       </c>
       <c r="AT127" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU127" s="59" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AV127" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU127" s="59">
-        <v>200</v>
-      </c>
-      <c r="AV127" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW127" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="128" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25772,16 +25719,16 @@
         <v>1</v>
       </c>
       <c r="AT128" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU128" s="59" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AV128" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU128" s="59">
-        <v>50</v>
-      </c>
-      <c r="AV128" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW128" s="61" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="129" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25921,16 +25868,16 @@
         <v>1</v>
       </c>
       <c r="AT129" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU129" s="59" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AV129" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU129" s="59">
-        <v>150</v>
-      </c>
-      <c r="AV129" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW129" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="130" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26070,16 +26017,16 @@
         <v>1</v>
       </c>
       <c r="AT130" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU130" s="59" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AV130" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU130" s="59">
-        <v>80</v>
-      </c>
-      <c r="AV130" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW130" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="131" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26219,16 +26166,16 @@
         <v>1</v>
       </c>
       <c r="AT131" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU131" s="59" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AV131" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU131" s="59">
-        <v>50</v>
-      </c>
-      <c r="AV131" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW131" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="132" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26368,16 +26315,16 @@
         <v>1</v>
       </c>
       <c r="AT132" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU132" s="59" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AV132" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU132" s="59">
-        <v>50</v>
-      </c>
-      <c r="AV132" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW132" s="61" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="133" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26517,16 +26464,16 @@
         <v>1</v>
       </c>
       <c r="AT133" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU133" s="59" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AV133" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU133" s="59">
-        <v>30</v>
-      </c>
-      <c r="AV133" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW133" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="134" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26666,16 +26613,16 @@
         <v>1</v>
       </c>
       <c r="AT134" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU134" s="59" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AV134" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU134" s="59">
-        <v>150</v>
-      </c>
-      <c r="AV134" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW134" s="61" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="135" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26815,16 +26762,16 @@
         <v>1</v>
       </c>
       <c r="AT135" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU135" s="59" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AV135" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU135" s="59">
-        <v>150</v>
-      </c>
-      <c r="AV135" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW135" s="61" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="136" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26964,16 +26911,16 @@
         <v>1</v>
       </c>
       <c r="AT136" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU136" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV136" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU136" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV136" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW136" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="137" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27113,16 +27060,16 @@
         <v>1</v>
       </c>
       <c r="AT137" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU137" s="59" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AV137" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU137" s="59">
-        <v>150</v>
-      </c>
-      <c r="AV137" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW137" s="61" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="138" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27262,16 +27209,16 @@
         <v>1</v>
       </c>
       <c r="AT138" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU138" s="59" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AV138" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU138" s="59">
-        <v>200</v>
-      </c>
-      <c r="AV138" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW138" s="61" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="139" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27411,16 +27358,16 @@
         <v>1</v>
       </c>
       <c r="AT139" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU139" s="59" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AV139" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU139" s="59">
-        <v>150</v>
-      </c>
-      <c r="AV139" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW139" s="61" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="140" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27560,16 +27507,16 @@
         <v>1</v>
       </c>
       <c r="AT140" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU140" s="59" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AV140" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU140" s="59">
-        <v>150</v>
-      </c>
-      <c r="AV140" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW140" s="61" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="141" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27709,16 +27656,16 @@
         <v>1</v>
       </c>
       <c r="AT141" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU141" s="59" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AV141" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU141" s="59">
-        <v>80</v>
-      </c>
-      <c r="AV141" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW141" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="142" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27858,16 +27805,16 @@
         <v>1</v>
       </c>
       <c r="AT142" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU142" s="59" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AV142" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU142" s="59">
-        <v>80</v>
-      </c>
-      <c r="AV142" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW142" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="143" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28007,16 +27954,16 @@
         <v>1</v>
       </c>
       <c r="AT143" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU143" s="59" t="s">
+        <v>1030</v>
+      </c>
+      <c r="AV143" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU143" s="59">
-        <v>400</v>
-      </c>
-      <c r="AV143" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW143" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="144" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28156,16 +28103,16 @@
         <v>1</v>
       </c>
       <c r="AT144" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU144" s="59" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AV144" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU144" s="59" t="s">
-        <v>989</v>
-      </c>
-      <c r="AV144" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW144" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="145" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28305,16 +28252,16 @@
         <v>1</v>
       </c>
       <c r="AT145" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU145" s="59" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AV145" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU145" s="59" t="s">
-        <v>989</v>
-      </c>
-      <c r="AV145" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW145" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="146" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28454,16 +28401,16 @@
         <v>1</v>
       </c>
       <c r="AT146" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU146" s="59" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AV146" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU146" s="59" t="s">
-        <v>989</v>
-      </c>
-      <c r="AV146" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW146" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="147" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28603,16 +28550,16 @@
         <v>1</v>
       </c>
       <c r="AT147" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU147" s="59" t="s">
+        <v>1025</v>
+      </c>
+      <c r="AV147" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU147" s="59">
-        <v>100</v>
-      </c>
-      <c r="AV147" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW147" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="148" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28752,16 +28699,16 @@
         <v>1</v>
       </c>
       <c r="AT148" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU148" s="59" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AV148" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU148" s="59">
-        <v>50</v>
-      </c>
-      <c r="AV148" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW148" s="61" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="149" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28901,16 +28848,16 @@
         <v>1</v>
       </c>
       <c r="AT149" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU149" s="59" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AV149" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU149" s="59">
-        <v>30</v>
-      </c>
-      <c r="AV149" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW149" s="61" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="150" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29050,16 +28997,16 @@
         <v>1</v>
       </c>
       <c r="AT150" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU150" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV150" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU150" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV150" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW150" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="151" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29199,16 +29146,16 @@
         <v>1</v>
       </c>
       <c r="AT151" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU151" s="59" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AV151" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU151" s="59">
-        <v>150</v>
-      </c>
-      <c r="AV151" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW151" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="152" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29348,16 +29295,16 @@
         <v>1</v>
       </c>
       <c r="AT152" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU152" s="59" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AV152" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU152" s="59">
-        <v>50</v>
-      </c>
-      <c r="AV152" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW152" s="61" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="153" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29497,16 +29444,16 @@
         <v>1</v>
       </c>
       <c r="AT153" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU153" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV153" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU153" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV153" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW153" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="154" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29646,16 +29593,16 @@
         <v>1</v>
       </c>
       <c r="AT154" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU154" s="59" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AV154" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU154" s="59">
-        <v>150</v>
-      </c>
-      <c r="AV154" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW154" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="155" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29795,16 +29742,16 @@
         <v>1</v>
       </c>
       <c r="AT155" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU155" s="59" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AV155" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU155" s="59">
-        <v>150</v>
-      </c>
-      <c r="AV155" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW155" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="156" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29944,16 +29891,16 @@
         <v>1</v>
       </c>
       <c r="AT156" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU156" s="59" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AV156" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU156" s="59">
-        <v>150</v>
-      </c>
-      <c r="AV156" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW156" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="157" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30093,16 +30040,16 @@
         <v>1</v>
       </c>
       <c r="AT157" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU157" s="59" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AV157" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU157" s="59">
-        <v>150</v>
-      </c>
-      <c r="AV157" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW157" s="61" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="158" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30242,16 +30189,16 @@
         <v>1</v>
       </c>
       <c r="AT158" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU158" s="59" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AV158" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU158" s="59">
-        <v>80</v>
-      </c>
-      <c r="AV158" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW158" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="159" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30391,16 +30338,16 @@
         <v>1</v>
       </c>
       <c r="AT159" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU159" s="59" t="s">
+        <v>1025</v>
+      </c>
+      <c r="AV159" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU159" s="59">
-        <v>100</v>
-      </c>
-      <c r="AV159" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW159" s="61" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="160" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30540,16 +30487,16 @@
         <v>1</v>
       </c>
       <c r="AT160" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU160" s="59" t="s">
+        <v>1025</v>
+      </c>
+      <c r="AV160" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU160" s="59">
-        <v>100</v>
-      </c>
-      <c r="AV160" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW160" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="161" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -30689,16 +30636,16 @@
         <v>1</v>
       </c>
       <c r="AT161" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU161" s="59" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AV161" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU161" s="59">
-        <v>80</v>
-      </c>
-      <c r="AV161" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW161" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="162" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -30838,16 +30785,16 @@
         <v>1</v>
       </c>
       <c r="AT162" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU162" s="59" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AV162" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU162" s="59">
-        <v>80</v>
-      </c>
-      <c r="AV162" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW162" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="163" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30987,16 +30934,16 @@
         <v>1</v>
       </c>
       <c r="AT163" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU163" s="59" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AV163" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU163" s="59">
-        <v>80</v>
-      </c>
-      <c r="AV163" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW163" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="164" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31136,16 +31083,16 @@
         <v>1</v>
       </c>
       <c r="AT164" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU164" s="59" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AV164" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU164" s="59">
-        <v>80</v>
-      </c>
-      <c r="AV164" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW164" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="165" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31285,16 +31232,16 @@
         <v>1</v>
       </c>
       <c r="AT165" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU165" s="59" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AV165" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU165" s="59">
-        <v>30</v>
-      </c>
-      <c r="AV165" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW165" s="61" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="166" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31434,16 +31381,16 @@
         <v>1</v>
       </c>
       <c r="AT166" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU166" s="59" t="s">
+        <v>1031</v>
+      </c>
+      <c r="AV166" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU166" s="59">
-        <v>600</v>
-      </c>
-      <c r="AV166" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW166" s="61" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="167" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31583,16 +31530,16 @@
         <v>1</v>
       </c>
       <c r="AT167" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU167" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV167" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU167" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV167" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW167" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="168" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31732,16 +31679,16 @@
         <v>1</v>
       </c>
       <c r="AT168" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU168" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV168" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU168" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV168" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW168" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="169" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31881,16 +31828,16 @@
         <v>1</v>
       </c>
       <c r="AT169" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU169" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV169" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU169" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV169" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW169" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="170" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32030,16 +31977,16 @@
         <v>1</v>
       </c>
       <c r="AT170" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU170" s="59" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AV170" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU170" s="59">
-        <v>150</v>
-      </c>
-      <c r="AV170" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW170" s="61" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="171" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32179,16 +32126,16 @@
         <v>1</v>
       </c>
       <c r="AT171" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU171" s="59" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AV171" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU171" s="59">
-        <v>150</v>
-      </c>
-      <c r="AV171" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW171" s="61" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="172" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32328,16 +32275,16 @@
         <v>1</v>
       </c>
       <c r="AT172" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU172" s="59" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AV172" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU172" s="59">
-        <v>50</v>
-      </c>
-      <c r="AV172" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW172" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="173" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32477,16 +32424,16 @@
         <v>1</v>
       </c>
       <c r="AT173" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU173" s="59" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AV173" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU173" s="59">
-        <v>80</v>
-      </c>
-      <c r="AV173" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW173" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="174" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32626,16 +32573,16 @@
         <v>1</v>
       </c>
       <c r="AT174" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU174" s="59" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AV174" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU174" s="59">
-        <v>150</v>
-      </c>
-      <c r="AV174" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW174" s="61" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="175" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32775,16 +32722,16 @@
         <v>1</v>
       </c>
       <c r="AT175" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU175" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV175" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU175" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV175" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW175" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="176" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32924,16 +32871,16 @@
         <v>1</v>
       </c>
       <c r="AT176" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU176" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV176" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU176" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV176" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW176" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="177" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33073,16 +33020,16 @@
         <v>1</v>
       </c>
       <c r="AT177" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU177" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV177" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU177" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV177" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW177" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="178" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33222,16 +33169,16 @@
         <v>1</v>
       </c>
       <c r="AT178" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU178" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV178" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU178" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV178" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW178" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="179" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33371,16 +33318,16 @@
         <v>1</v>
       </c>
       <c r="AT179" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU179" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV179" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU179" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV179" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW179" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="180" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33520,16 +33467,16 @@
         <v>1</v>
       </c>
       <c r="AT180" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU180" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV180" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU180" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV180" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW180" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="181" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33669,16 +33616,16 @@
         <v>1</v>
       </c>
       <c r="AT181" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU181" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV181" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU181" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV181" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW181" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="182" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33818,16 +33765,16 @@
         <v>1</v>
       </c>
       <c r="AT182" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU182" s="59" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AV182" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU182" s="59">
-        <v>50</v>
-      </c>
-      <c r="AV182" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW182" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="183" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33967,16 +33914,16 @@
         <v>1</v>
       </c>
       <c r="AT183" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU183" s="59" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AV183" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU183" s="59">
-        <v>50</v>
-      </c>
-      <c r="AV183" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW183" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="184" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34116,16 +34063,16 @@
         <v>1</v>
       </c>
       <c r="AT184" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU184" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV184" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU184" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV184" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW184" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="185" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34265,16 +34212,16 @@
         <v>1</v>
       </c>
       <c r="AT185" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU185" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV185" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU185" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV185" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW185" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="186" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34414,16 +34361,16 @@
         <v>1</v>
       </c>
       <c r="AT186" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU186" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV186" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU186" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV186" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW186" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="187" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34563,16 +34510,16 @@
         <v>1</v>
       </c>
       <c r="AT187" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU187" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV187" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU187" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV187" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW187" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="188" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34712,16 +34659,16 @@
         <v>1</v>
       </c>
       <c r="AT188" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU188" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV188" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU188" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV188" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW188" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="189" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34861,16 +34808,16 @@
         <v>1</v>
       </c>
       <c r="AT189" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU189" s="59" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AV189" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU189" s="59">
-        <v>50</v>
-      </c>
-      <c r="AV189" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW189" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="190" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -35010,16 +34957,16 @@
         <v>1</v>
       </c>
       <c r="AT190" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU190" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV190" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU190" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV190" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW190" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="191" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -35159,16 +35106,16 @@
         <v>1</v>
       </c>
       <c r="AT191" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU191" s="59" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AV191" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU191" s="59">
-        <v>50</v>
-      </c>
-      <c r="AV191" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW191" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="192" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -35308,16 +35255,16 @@
         <v>1</v>
       </c>
       <c r="AT192" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU192" s="59" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AV192" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU192" s="59">
-        <v>80</v>
-      </c>
-      <c r="AV192" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW192" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="193" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -35457,16 +35404,16 @@
         <v>1</v>
       </c>
       <c r="AT193" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU193" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV193" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU193" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV193" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW193" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="194" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -35606,16 +35553,16 @@
         <v>1</v>
       </c>
       <c r="AT194" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU194" s="59" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AV194" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU194" s="59">
-        <v>50</v>
-      </c>
-      <c r="AV194" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW194" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="195" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -35755,16 +35702,16 @@
         <v>1</v>
       </c>
       <c r="AT195" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU195" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV195" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU195" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV195" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW195" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="196" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -35904,16 +35851,16 @@
         <v>1</v>
       </c>
       <c r="AT196" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU196" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV196" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU196" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV196" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW196" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="197" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -36053,16 +36000,16 @@
         <v>1</v>
       </c>
       <c r="AT197" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU197" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV197" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU197" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV197" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW197" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="198" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -36202,16 +36149,16 @@
         <v>1</v>
       </c>
       <c r="AT198" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU198" s="59" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AV198" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU198" s="59">
-        <v>80</v>
-      </c>
-      <c r="AV198" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW198" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="199" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -36351,16 +36298,16 @@
         <v>1</v>
       </c>
       <c r="AT199" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU199" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV199" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU199" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV199" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW199" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="200" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -36500,16 +36447,16 @@
         <v>1</v>
       </c>
       <c r="AT200" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU200" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV200" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU200" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV200" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW200" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="201" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -36649,16 +36596,16 @@
         <v>1</v>
       </c>
       <c r="AT201" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU201" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV201" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU201" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV201" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW201" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="202" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -36798,16 +36745,16 @@
         <v>1</v>
       </c>
       <c r="AT202" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU202" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV202" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU202" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV202" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW202" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="203" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -36947,16 +36894,16 @@
         <v>1</v>
       </c>
       <c r="AT203" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU203" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV203" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU203" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV203" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW203" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="204" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -37096,16 +37043,16 @@
         <v>1</v>
       </c>
       <c r="AT204" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU204" s="59" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AV204" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU204" s="59">
-        <v>50</v>
-      </c>
-      <c r="AV204" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW204" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="205" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -37245,16 +37192,16 @@
         <v>1</v>
       </c>
       <c r="AT205" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU205" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV205" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU205" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV205" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW205" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="206" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -37394,16 +37341,16 @@
         <v>1</v>
       </c>
       <c r="AT206" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU206" s="59" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AV206" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU206" s="59">
-        <v>80</v>
-      </c>
-      <c r="AV206" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW206" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="207" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -37543,16 +37490,16 @@
         <v>1</v>
       </c>
       <c r="AT207" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU207" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV207" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU207" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV207" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW207" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="208" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -37692,16 +37639,16 @@
         <v>1</v>
       </c>
       <c r="AT208" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU208" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV208" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU208" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV208" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW208" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="209" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -37841,16 +37788,16 @@
         <v>1</v>
       </c>
       <c r="AT209" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU209" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV209" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU209" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV209" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW209" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="210" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -37990,16 +37937,16 @@
         <v>1</v>
       </c>
       <c r="AT210" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU210" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV210" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU210" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV210" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW210" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="211" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38139,16 +38086,16 @@
         <v>1</v>
       </c>
       <c r="AT211" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU211" s="59" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AV211" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU211" s="59">
-        <v>80</v>
-      </c>
-      <c r="AV211" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW211" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="212" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38288,16 +38235,16 @@
         <v>1</v>
       </c>
       <c r="AT212" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU212" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV212" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU212" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV212" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW212" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="213" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38437,16 +38384,16 @@
         <v>1</v>
       </c>
       <c r="AT213" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU213" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV213" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU213" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV213" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW213" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="214" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38586,16 +38533,16 @@
         <v>1</v>
       </c>
       <c r="AT214" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU214" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV214" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU214" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV214" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW214" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="215" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38735,16 +38682,16 @@
         <v>1</v>
       </c>
       <c r="AT215" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU215" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV215" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU215" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV215" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW215" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="216" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38884,16 +38831,16 @@
         <v>1</v>
       </c>
       <c r="AT216" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU216" s="59" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AV216" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU216" s="59">
-        <v>200</v>
-      </c>
-      <c r="AV216" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW216" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="217" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39033,16 +38980,16 @@
         <v>1</v>
       </c>
       <c r="AT217" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU217" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV217" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU217" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV217" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW217" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="218" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39182,16 +39129,16 @@
         <v>1</v>
       </c>
       <c r="AT218" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU218" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV218" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU218" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV218" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW218" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="219" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39331,16 +39278,16 @@
         <v>1</v>
       </c>
       <c r="AT219" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU219" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV219" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU219" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV219" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW219" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="220" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39480,16 +39427,16 @@
         <v>1</v>
       </c>
       <c r="AT220" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU220" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV220" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU220" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV220" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW220" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="221" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39629,16 +39576,16 @@
         <v>1</v>
       </c>
       <c r="AT221" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU221" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV221" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU221" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV221" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW221" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="222" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39778,16 +39725,16 @@
         <v>1</v>
       </c>
       <c r="AT222" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU222" s="59" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AV222" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU222" s="59">
-        <v>150</v>
-      </c>
-      <c r="AV222" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW222" s="61" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="223" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39927,16 +39874,16 @@
         <v>1</v>
       </c>
       <c r="AT223" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU223" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV223" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU223" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV223" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW223" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="224" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40076,16 +40023,16 @@
         <v>1</v>
       </c>
       <c r="AT224" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU224" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV224" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU224" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV224" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW224" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="225" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40225,16 +40172,16 @@
         <v>1</v>
       </c>
       <c r="AT225" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU225" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV225" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU225" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV225" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW225" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="226" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40374,16 +40321,16 @@
         <v>1</v>
       </c>
       <c r="AT226" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU226" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV226" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU226" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV226" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW226" s="61" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="227" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40523,16 +40470,16 @@
         <v>1</v>
       </c>
       <c r="AT227" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU227" s="59" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AV227" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU227" s="59">
-        <v>80</v>
-      </c>
-      <c r="AV227" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW227" s="61" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="228" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40672,16 +40619,16 @@
         <v>1</v>
       </c>
       <c r="AT228" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU228" s="59" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AV228" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU228" s="59">
-        <v>150</v>
-      </c>
-      <c r="AV228" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW228" s="61" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="229" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40821,16 +40768,16 @@
         <v>1</v>
       </c>
       <c r="AT229" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU229" s="59" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AV229" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU229" s="59">
-        <v>50</v>
-      </c>
-      <c r="AV229" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW229" s="61" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="230" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40970,16 +40917,16 @@
         <v>1</v>
       </c>
       <c r="AT230" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU230" s="59" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AV230" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU230" s="59">
-        <v>150</v>
-      </c>
-      <c r="AV230" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW230" s="61" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="231" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41119,16 +41066,16 @@
         <v>1</v>
       </c>
       <c r="AT231" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU231" s="59" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AV231" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU231" s="59">
-        <v>50</v>
-      </c>
-      <c r="AV231" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW231" s="61" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="232" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41268,16 +41215,16 @@
         <v>1</v>
       </c>
       <c r="AT232" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU232" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV232" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU232" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV232" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW232" s="61" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="233" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41417,16 +41364,16 @@
         <v>1</v>
       </c>
       <c r="AT233" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU233" s="59" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AV233" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU233" s="59">
-        <v>30</v>
-      </c>
-      <c r="AV233" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW233" s="61" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="234" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41566,16 +41513,16 @@
         <v>1</v>
       </c>
       <c r="AT234" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU234" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AV234" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU234" s="59">
-        <v>0</v>
-      </c>
-      <c r="AV234" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW234" s="61" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="235" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41715,16 +41662,16 @@
         <v>1</v>
       </c>
       <c r="AT235" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU235" s="59" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AV235" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU235" s="59">
-        <v>80</v>
-      </c>
-      <c r="AV235" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW235" s="61" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="236" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41864,16 +41811,16 @@
         <v>1</v>
       </c>
       <c r="AT236" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU236" s="59" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AV236" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU236" s="59">
-        <v>150</v>
-      </c>
-      <c r="AV236" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW236" s="61" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="237" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42013,16 +41960,16 @@
         <v>1</v>
       </c>
       <c r="AT237" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU237" s="59" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AV237" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU237" s="59">
-        <v>150</v>
-      </c>
-      <c r="AV237" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW237" s="61" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="238" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42162,16 +42109,16 @@
         <v>1</v>
       </c>
       <c r="AT238" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU238" s="59" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AV238" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU238" s="59">
-        <v>50</v>
-      </c>
-      <c r="AV238" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW238" s="61" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="239" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42311,16 +42258,16 @@
         <v>1</v>
       </c>
       <c r="AT239" s="98" t="s">
+        <v>989</v>
+      </c>
+      <c r="AU239" s="59" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AV239" s="97" t="s">
         <v>991</v>
       </c>
-      <c r="AU239" s="59">
-        <v>80</v>
-      </c>
-      <c r="AV239" s="97" t="s">
-        <v>993</v>
-      </c>
       <c r="AW239" s="61" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="240" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42462,7 +42409,7 @@
       <c r="AT240" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="AU240" s="46" t="s">
+      <c r="AU240" s="96" t="s">
         <v>1</v>
       </c>
       <c r="AV240" s="37" t="s">
@@ -42611,7 +42558,7 @@
       <c r="AT241" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="AU241" s="46" t="s">
+      <c r="AU241" s="96" t="s">
         <v>1</v>
       </c>
       <c r="AV241" s="37" t="s">
@@ -42760,7 +42707,7 @@
       <c r="AT242" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="AU242" s="46" t="s">
+      <c r="AU242" s="96" t="s">
         <v>1</v>
       </c>
       <c r="AV242" s="37" t="s">
@@ -42909,7 +42856,7 @@
       <c r="AT243" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="AU243" s="46" t="s">
+      <c r="AU243" s="96" t="s">
         <v>1</v>
       </c>
       <c r="AV243" s="37" t="s">
@@ -43058,7 +43005,7 @@
       <c r="AT244" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="AU244" s="46" t="s">
+      <c r="AU244" s="96" t="s">
         <v>1</v>
       </c>
       <c r="AV244" s="37" t="s">
@@ -43207,7 +43154,7 @@
       <c r="AT245" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="AU245" s="46" t="s">
+      <c r="AU245" s="96" t="s">
         <v>1</v>
       </c>
       <c r="AV245" s="37" t="s">
@@ -43356,7 +43303,7 @@
       <c r="AT246" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="AU246" s="46" t="s">
+      <c r="AU246" s="96" t="s">
         <v>1</v>
       </c>
       <c r="AV246" s="37" t="s">
@@ -43505,7 +43452,7 @@
       <c r="AT247" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="AU247" s="46" t="s">
+      <c r="AU247" s="96" t="s">
         <v>1</v>
       </c>
       <c r="AV247" s="37" t="s">
@@ -43654,7 +43601,7 @@
       <c r="AT248" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="AU248" s="46" t="s">
+      <c r="AU248" s="96" t="s">
         <v>1</v>
       </c>
       <c r="AV248" s="37" t="s">
@@ -43803,7 +43750,7 @@
       <c r="AT249" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="AU249" s="46" t="s">
+      <c r="AU249" s="96" t="s">
         <v>1</v>
       </c>
       <c r="AV249" s="37" t="s">
@@ -43952,7 +43899,7 @@
       <c r="AT250" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="AU250" s="46" t="s">
+      <c r="AU250" s="96" t="s">
         <v>1</v>
       </c>
       <c r="AV250" s="37" t="s">
@@ -44101,7 +44048,7 @@
       <c r="AT251" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="AU251" s="46" t="s">
+      <c r="AU251" s="96" t="s">
         <v>1</v>
       </c>
       <c r="AV251" s="37" t="s">
@@ -44250,8 +44197,9 @@
       <c r="AT252" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="AU252" s="46" t="s">
-        <v>1</v>
+      <c r="AU252" s="59" t="e">
+        <f>_xlfn.CONCAT("""",#REF!,"""")</f>
+        <v>#REF!</v>
       </c>
       <c r="AV252" s="37" t="s">
         <v>1</v>
@@ -44399,8 +44347,9 @@
       <c r="AT253" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="AU253" s="46" t="s">
-        <v>1</v>
+      <c r="AU253" s="59" t="e">
+        <f>_xlfn.CONCAT("""",#REF!,"""")</f>
+        <v>#REF!</v>
       </c>
       <c r="AV253" s="37" t="s">
         <v>1</v>
@@ -44414,229 +44363,194 @@
     <sortCondition ref="A1:A268"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="AF79:AF159 AJ79:AJ159 C1:C253 V99:W231 AL99:AS162 A1:A253">
-    <cfRule type="cellIs" dxfId="4" priority="256" operator="equal">
+  <conditionalFormatting sqref="A1:A253 C1:C253 AF79:AF159 AJ79:AJ159 AL99:AS162 V99:W231">
+    <cfRule type="cellIs" dxfId="45" priority="258" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80:B86">
-    <cfRule type="duplicateValues" dxfId="56" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B86">
-    <cfRule type="duplicateValues" dxfId="55" priority="228"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="230"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="231"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162">
-    <cfRule type="duplicateValues" dxfId="53" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B254:B1048576 B87:B93 B106:B114 B99:B104 B142:B159 B163:B249 B1:B79 B116:B140">
+    <cfRule type="duplicateValues" dxfId="37" priority="305"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="306"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B254:B1048576 B87:B93 B163:B249 B1:B79 B99:B159">
-    <cfRule type="duplicateValues" dxfId="49" priority="232"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B254:B1048576 B87:B93 B106:B114 B99:B104 B142:B159 B163:B249 B1:B79 B116:B140">
-    <cfRule type="duplicateValues" dxfId="48" priority="303"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="304"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="234"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B254:B1048576 B163:B249 B1:B159">
-    <cfRule type="duplicateValues" dxfId="46" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="203"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D248:M249 D250:U253">
+    <cfRule type="cellIs" dxfId="33" priority="94" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:U79 X79:AE79 AG79">
-    <cfRule type="cellIs" dxfId="45" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="222" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D160:U161">
-    <cfRule type="cellIs" dxfId="44" priority="30" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D250:U253 D248:M249">
-    <cfRule type="cellIs" dxfId="43" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:AG78">
-    <cfRule type="cellIs" dxfId="42" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="18" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80:E86">
-    <cfRule type="duplicateValues" dxfId="41" priority="222"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="224"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E162">
-    <cfRule type="duplicateValues" dxfId="40" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E254:E1048576 E87:E93 E163:E247 E99:E159">
-    <cfRule type="duplicateValues" dxfId="39" priority="231"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M232:AS232">
-    <cfRule type="cellIs" dxfId="38" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="221" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V94:V98">
-    <cfRule type="cellIs" dxfId="37" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="206" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V79:W93">
-    <cfRule type="cellIs" dxfId="36" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="227" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V233:W253">
-    <cfRule type="cellIs" dxfId="35" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="93" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X160:AG161">
-    <cfRule type="cellIs" dxfId="34" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="30" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X248:AG253">
-    <cfRule type="cellIs" dxfId="33" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="90" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF162:AF231">
-    <cfRule type="cellIs" dxfId="32" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ233:AJ249">
-    <cfRule type="cellIs" dxfId="31" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="228" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ160:AK160 AJ161:AJ231">
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ250:AM253 AL248:AM249">
-    <cfRule type="cellIs" dxfId="29" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="33" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ1:AS78">
-    <cfRule type="cellIs" dxfId="28" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK80:AK83">
-    <cfRule type="cellIs" dxfId="27" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="229" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK105">
-    <cfRule type="cellIs" dxfId="26" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="256" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK115">
-    <cfRule type="cellIs" dxfId="25" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="280" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK141">
-    <cfRule type="cellIs" dxfId="24" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="268" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK164:AL165">
-    <cfRule type="cellIs" dxfId="23" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="49" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK242:AL247 AK248:AK249">
-    <cfRule type="cellIs" dxfId="22" priority="301" operator="equal">
+  <conditionalFormatting sqref="AK242:AL247">
+    <cfRule type="cellIs" dxfId="11" priority="303" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK248:AM249 AJ250:AM253">
+    <cfRule type="cellIs" dxfId="10" priority="149" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL94:AL98">
-    <cfRule type="cellIs" dxfId="21" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="209" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL163:AM163">
+    <cfRule type="cellIs" dxfId="8" priority="23" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL79:AS93 AL166:AS231 AL233:AS241 AF233:AF247">
-    <cfRule type="cellIs" dxfId="20" priority="224" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL163:AM163">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="226" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN94:AS98">
-    <cfRule type="cellIs" dxfId="18" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="210" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN163:AS165">
-    <cfRule type="cellIs" dxfId="17" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="45" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN242:AS253">
-    <cfRule type="cellIs" dxfId="16" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="89" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT2:AT78">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+  <conditionalFormatting sqref="AT1:AW79">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT79">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT1:AW1">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU2:AU75">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU76:AU79">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT240:AU241">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT242:AU253">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV2:AV79">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW2:AW79">
+  <conditionalFormatting sqref="AT240:AT253 AV240:AW253">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV240:AV253">
+  <conditionalFormatting sqref="AU240:AU241">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW240:AW253">
+  <conditionalFormatting sqref="AU242:AU251">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>

--- a/Versão5/VEGE/Ontologia_VEGET.xlsx
+++ b/Versão5/VEGE/Ontologia_VEGET.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\VEGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A7B37A-7706-4AF6-8E51-D9E328CD167D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8034FC87-F8E5-4BED-981F-0325A2D1010F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" tabRatio="577" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -3016,9 +3016,6 @@
     <t>"Palmeira de estipe solitário, liso, de cor clara-acizentada. As folhas são bipinadas, com a cor verde-escura e medem de 3-5 cm de comprimento (https://museunacional.ufrj.br/hortobotanico) "</t>
   </si>
   <si>
-    <t>"Palmeira nativa das Antilhas. De porte imponente, tem valor simbólico. Pode atingir até 40 metros de altura, com tronco liso e colunar de cor esbranquiçada, mais largo em sua base. Entre o termino do tronco e a parte onde nascem as folhas, há uma seção verde, mais grossa.. Muito usada em paisagismo de grandes áreas, como praças e entradas monumentais. Não é recomendada para calçadas estreitas devido ao porte e queda de frutos. Se atribui a Dom João VI a plantação da primeira palmeira (Palma Mater) desta espécie no Jardim Botánico de Rio de Janeiro em 1809. O seu nome faz referencia ao general americano Roy Stone (1836-1905). A rua Paysandú, de Rio de Janeiro, tem uma alameda monumental de palmeiras imperiais plantadas em 1865 por ordem de Pedro II"  (https://museunacional.ufrj.br/hortobotanico)</t>
-  </si>
-  <si>
     <t>"Jacaranda cuspidifolia"</t>
   </si>
   <si>
@@ -3167,6 +3164,9 @@
   </si>
   <si>
     <t>"600"</t>
+  </si>
+  <si>
+    <t>"Palmeira nativa das Antilhas. De porte imponente, tem valor simbólico. Pode atingir até 40 metros de altura, com tronco liso e colunar de cor esbranquiçada, mais largo em sua base. Entre o termino do tronco e a parte onde nascem as folhas, há uma seção verde, mais grossa.. Muito usada em paisagismo de grandes áreas, como praças e entradas monumentais. Não é recomendada para calçadas estreitas devido ao porte e queda de frutos. Se atribui a Dom João VI a plantação da primeira palmeira (Palma Mater) desta espécie no Jardim Botánico de Rio de Janeiro em 1809. O seu nome faz referencia ao general americano Roy Stone (1836-1905). A rua Paysandú, de Rio de Janeiro, tem uma alameda monumental de palmeiras imperiais plantadas em 1865 por ordem de Pedro II (https://museunacional.ufrj.br/hortobotanico)"</t>
   </si>
 </sst>
 </file>
@@ -3793,14 +3793,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="64">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
+  <dxfs count="63">
     <dxf>
       <font>
         <b val="0"/>
@@ -4794,7 +4787,7 @@
       </c>
       <c r="B18" s="11">
         <f ca="1">NOW()</f>
-        <v>45951.52257627315</v>
+        <v>45951.526690856481</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6245,46 +6238,46 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="63" priority="1413"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="1413"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="62" priority="1655"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="1656"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="1655"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="1656"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F15">
-    <cfRule type="cellIs" dxfId="60" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F1048576 F1">
-    <cfRule type="duplicateValues" dxfId="59" priority="892"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="907"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="911"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="892"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="907"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="911"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F1048576">
-    <cfRule type="duplicateValues" dxfId="56" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="79"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="895"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="899"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="903"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="895"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="899"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="903"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:W1048576 A1:C1 F1:W1 Y1:XFD1 A17:C1048576">
-    <cfRule type="cellIs" dxfId="51" priority="375" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="375" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:K2">
-    <cfRule type="cellIs" dxfId="50" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="15" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2 B2:B16 Y3:XFD12 G3:U16 Z13:XFD15 Y16:XFD1048576">
-    <cfRule type="cellIs" dxfId="49" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="18" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:Y2">
-    <cfRule type="cellIs" dxfId="48" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6508,7 +6501,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6596,7 +6589,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A3">
-    <cfRule type="cellIs" dxfId="46" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="32" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6608,9 +6601,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B52AA7-680B-4C72-8598-6D856F54368E}">
   <dimension ref="A1:AW253"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AX1" sqref="AX1:BV1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AI160" sqref="AI160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18567,16 +18560,16 @@
         <v>1</v>
       </c>
       <c r="AT80" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU80" s="59" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AV80" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW80" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="81" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18716,16 +18709,16 @@
         <v>1</v>
       </c>
       <c r="AT81" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU81" s="59" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="AV81" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW81" s="61" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="82" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18865,16 +18858,16 @@
         <v>1</v>
       </c>
       <c r="AT82" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU82" s="59" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="AV82" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW82" s="61" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="83" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19014,16 +19007,16 @@
         <v>1</v>
       </c>
       <c r="AT83" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU83" s="59" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="AV83" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW83" s="61" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="84" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19163,16 +19156,16 @@
         <v>1</v>
       </c>
       <c r="AT84" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU84" s="59" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="AV84" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW84" s="61" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="85" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19312,16 +19305,16 @@
         <v>1</v>
       </c>
       <c r="AT85" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU85" s="59" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="AV85" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW85" s="61" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="86" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19461,16 +19454,16 @@
         <v>1</v>
       </c>
       <c r="AT86" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU86" s="59" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="AV86" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW86" s="61" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="87" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19610,16 +19603,16 @@
         <v>1</v>
       </c>
       <c r="AT87" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU87" s="59" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="AV87" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW87" s="61" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="88" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19759,16 +19752,16 @@
         <v>1</v>
       </c>
       <c r="AT88" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU88" s="59" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="AV88" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW88" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="89" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19875,7 +19868,7 @@
         <v>242</v>
       </c>
       <c r="AI89" s="53" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="AJ89" s="37" t="s">
         <v>243</v>
@@ -19908,16 +19901,16 @@
         <v>1</v>
       </c>
       <c r="AT89" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU89" s="59" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AV89" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW89" s="61" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="90" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20057,16 +20050,16 @@
         <v>1</v>
       </c>
       <c r="AT90" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU90" s="59" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="AV90" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW90" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="91" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20206,16 +20199,16 @@
         <v>1</v>
       </c>
       <c r="AT91" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU91" s="59" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="AV91" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW91" s="61" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="92" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20355,16 +20348,16 @@
         <v>1</v>
       </c>
       <c r="AT92" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU92" s="59" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AV92" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW92" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="93" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20504,16 +20497,16 @@
         <v>1</v>
       </c>
       <c r="AT93" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU93" s="59" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AV93" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW93" s="61" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="94" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20653,16 +20646,16 @@
         <v>1</v>
       </c>
       <c r="AT94" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU94" s="59" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="AV94" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW94" s="61" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="95" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20802,16 +20795,16 @@
         <v>1</v>
       </c>
       <c r="AT95" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU95" s="59" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="AV95" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW95" s="61" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="96" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -20951,16 +20944,16 @@
         <v>1</v>
       </c>
       <c r="AT96" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU96" s="59" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="AV96" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW96" s="61" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="97" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21100,16 +21093,16 @@
         <v>1</v>
       </c>
       <c r="AT97" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU97" s="59" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="AV97" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW97" s="61" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="98" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21249,16 +21242,16 @@
         <v>1</v>
       </c>
       <c r="AT98" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU98" s="59" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="AV98" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW98" s="61" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="99" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21398,16 +21391,16 @@
         <v>1</v>
       </c>
       <c r="AT99" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU99" s="59" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV99" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW99" s="61" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="100" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21547,16 +21540,16 @@
         <v>1</v>
       </c>
       <c r="AT100" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU100" s="59" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV100" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW100" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="101" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21696,16 +21689,16 @@
         <v>1</v>
       </c>
       <c r="AT101" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU101" s="59" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="AV101" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW101" s="61" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="102" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21845,16 +21838,16 @@
         <v>1</v>
       </c>
       <c r="AT102" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU102" s="59" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AV102" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW102" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="103" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21994,16 +21987,16 @@
         <v>1</v>
       </c>
       <c r="AT103" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU103" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV103" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW103" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW103" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="104" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22143,16 +22136,16 @@
         <v>1</v>
       </c>
       <c r="AT104" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU104" s="59" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AV104" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW104" s="61" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="105" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22292,16 +22285,16 @@
         <v>1</v>
       </c>
       <c r="AT105" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU105" s="59" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="AV105" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW105" s="61" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="106" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22441,16 +22434,16 @@
         <v>1</v>
       </c>
       <c r="AT106" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU106" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV106" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW106" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW106" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="107" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22590,16 +22583,16 @@
         <v>1</v>
       </c>
       <c r="AT107" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU107" s="59" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="AV107" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW107" s="61" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="108" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22739,16 +22732,16 @@
         <v>1</v>
       </c>
       <c r="AT108" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU108" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV108" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW108" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW108" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="109" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22888,16 +22881,16 @@
         <v>1</v>
       </c>
       <c r="AT109" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU109" s="59" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="AV109" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW109" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="110" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23037,16 +23030,16 @@
         <v>1</v>
       </c>
       <c r="AT110" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU110" s="59" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AV110" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW110" s="61" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="111" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23186,16 +23179,16 @@
         <v>1</v>
       </c>
       <c r="AT111" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU111" s="59" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AV111" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW111" s="61" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="112" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23335,16 +23328,16 @@
         <v>1</v>
       </c>
       <c r="AT112" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU112" s="59" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="AV112" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW112" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="113" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23484,16 +23477,16 @@
         <v>1</v>
       </c>
       <c r="AT113" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU113" s="59" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="AV113" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW113" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="114" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23633,16 +23626,16 @@
         <v>1</v>
       </c>
       <c r="AT114" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU114" s="59" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="AV114" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW114" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="115" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23782,16 +23775,16 @@
         <v>1</v>
       </c>
       <c r="AT115" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU115" s="59" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="AV115" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW115" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="116" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23931,16 +23924,16 @@
         <v>1</v>
       </c>
       <c r="AT116" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU116" s="59" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="AV116" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW116" s="61" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="117" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24080,16 +24073,16 @@
         <v>1</v>
       </c>
       <c r="AT117" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU117" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV117" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW117" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW117" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="118" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24229,16 +24222,16 @@
         <v>1</v>
       </c>
       <c r="AT118" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU118" s="59" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AV118" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW118" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="119" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24378,16 +24371,16 @@
         <v>1</v>
       </c>
       <c r="AT119" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU119" s="59" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AV119" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW119" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="120" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24527,16 +24520,16 @@
         <v>1</v>
       </c>
       <c r="AT120" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU120" s="59" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AV120" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW120" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="121" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24676,16 +24669,16 @@
         <v>1</v>
       </c>
       <c r="AT121" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU121" s="59" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AV121" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW121" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="122" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24825,16 +24818,16 @@
         <v>1</v>
       </c>
       <c r="AT122" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU122" s="59" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AV122" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW122" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="123" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24974,16 +24967,16 @@
         <v>1</v>
       </c>
       <c r="AT123" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU123" s="59" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AV123" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW123" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="124" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25123,16 +25116,16 @@
         <v>1</v>
       </c>
       <c r="AT124" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU124" s="59" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AV124" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW124" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="125" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25272,16 +25265,16 @@
         <v>1</v>
       </c>
       <c r="AT125" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU125" s="59" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AV125" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW125" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="126" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25421,16 +25414,16 @@
         <v>1</v>
       </c>
       <c r="AT126" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU126" s="59" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AV126" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW126" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW126" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="127" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25570,16 +25563,16 @@
         <v>1</v>
       </c>
       <c r="AT127" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU127" s="59" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AV127" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW127" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="128" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25719,16 +25712,16 @@
         <v>1</v>
       </c>
       <c r="AT128" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU128" s="59" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AV128" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW128" s="61" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="129" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25868,16 +25861,16 @@
         <v>1</v>
       </c>
       <c r="AT129" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU129" s="59" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AV129" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW129" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="130" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26017,16 +26010,16 @@
         <v>1</v>
       </c>
       <c r="AT130" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU130" s="59" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="AV130" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW130" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="131" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26166,16 +26159,16 @@
         <v>1</v>
       </c>
       <c r="AT131" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU131" s="59" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AV131" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW131" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="132" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26315,16 +26308,16 @@
         <v>1</v>
       </c>
       <c r="AT132" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU132" s="59" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AV132" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW132" s="61" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="133" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26464,16 +26457,16 @@
         <v>1</v>
       </c>
       <c r="AT133" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU133" s="59" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="AV133" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW133" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="134" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26613,16 +26606,16 @@
         <v>1</v>
       </c>
       <c r="AT134" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU134" s="59" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AV134" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW134" s="61" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="135" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26762,16 +26755,16 @@
         <v>1</v>
       </c>
       <c r="AT135" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU135" s="59" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AV135" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW135" s="61" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="136" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26911,16 +26904,16 @@
         <v>1</v>
       </c>
       <c r="AT136" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU136" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV136" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW136" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW136" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="137" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27027,7 +27020,7 @@
         <v>242</v>
       </c>
       <c r="AI137" s="54" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="AJ137" s="37" t="s">
         <v>243</v>
@@ -27060,16 +27053,16 @@
         <v>1</v>
       </c>
       <c r="AT137" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU137" s="59" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AV137" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW137" s="61" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="138" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27209,16 +27202,16 @@
         <v>1</v>
       </c>
       <c r="AT138" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU138" s="59" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AV138" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW138" s="61" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="139" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27226,7 +27219,7 @@
         <v>139</v>
       </c>
       <c r="B139" s="48" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C139" s="49" t="s">
         <v>570</v>
@@ -27235,7 +27228,7 @@
         <v>232</v>
       </c>
       <c r="E139" s="53" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F139" s="66" t="s">
         <v>449</v>
@@ -27325,13 +27318,13 @@
         <v>242</v>
       </c>
       <c r="AI139" s="53" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="AJ139" s="37" t="s">
         <v>243</v>
       </c>
       <c r="AK139" s="54" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="AL139" s="37" t="s">
         <v>1</v>
@@ -27358,16 +27351,16 @@
         <v>1</v>
       </c>
       <c r="AT139" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU139" s="59" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AV139" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW139" s="61" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="140" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27474,7 +27467,7 @@
         <v>242</v>
       </c>
       <c r="AI140" s="53" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="AJ140" s="37" t="s">
         <v>243</v>
@@ -27507,16 +27500,16 @@
         <v>1</v>
       </c>
       <c r="AT140" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU140" s="59" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AV140" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW140" s="61" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="141" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27623,7 +27616,7 @@
         <v>242</v>
       </c>
       <c r="AI141" s="53" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="AJ141" s="37" t="s">
         <v>243</v>
@@ -27656,16 +27649,16 @@
         <v>1</v>
       </c>
       <c r="AT141" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU141" s="59" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="AV141" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW141" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="142" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27805,16 +27798,16 @@
         <v>1</v>
       </c>
       <c r="AT142" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU142" s="59" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="AV142" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW142" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="143" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27954,16 +27947,16 @@
         <v>1</v>
       </c>
       <c r="AT143" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU143" s="59" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="AV143" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW143" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="144" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28103,16 +28096,16 @@
         <v>1</v>
       </c>
       <c r="AT144" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU144" s="59" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="AV144" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW144" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="145" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28252,16 +28245,16 @@
         <v>1</v>
       </c>
       <c r="AT145" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU145" s="59" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="AV145" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW145" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="146" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28401,16 +28394,16 @@
         <v>1</v>
       </c>
       <c r="AT146" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU146" s="59" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="AV146" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW146" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="147" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28550,16 +28543,16 @@
         <v>1</v>
       </c>
       <c r="AT147" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU147" s="59" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV147" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW147" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="148" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28699,16 +28692,16 @@
         <v>1</v>
       </c>
       <c r="AT148" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU148" s="59" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AV148" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW148" s="61" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="149" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28848,16 +28841,16 @@
         <v>1</v>
       </c>
       <c r="AT149" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU149" s="59" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="AV149" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW149" s="61" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="150" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28997,16 +28990,16 @@
         <v>1</v>
       </c>
       <c r="AT150" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU150" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV150" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW150" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW150" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="151" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29146,16 +29139,16 @@
         <v>1</v>
       </c>
       <c r="AT151" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU151" s="59" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AV151" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW151" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="152" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29295,16 +29288,16 @@
         <v>1</v>
       </c>
       <c r="AT152" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU152" s="59" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AV152" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW152" s="61" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="153" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29444,16 +29437,16 @@
         <v>1</v>
       </c>
       <c r="AT153" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU153" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV153" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW153" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW153" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="154" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29593,16 +29586,16 @@
         <v>1</v>
       </c>
       <c r="AT154" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU154" s="59" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AV154" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW154" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="155" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29742,16 +29735,16 @@
         <v>1</v>
       </c>
       <c r="AT155" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU155" s="59" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AV155" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW155" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="156" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29891,16 +29884,16 @@
         <v>1</v>
       </c>
       <c r="AT156" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU156" s="59" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AV156" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW156" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="157" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30040,16 +30033,16 @@
         <v>1</v>
       </c>
       <c r="AT157" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU157" s="59" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AV157" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW157" s="61" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="158" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30189,16 +30182,16 @@
         <v>1</v>
       </c>
       <c r="AT158" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU158" s="59" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="AV158" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW158" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="159" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30305,7 +30298,7 @@
         <v>242</v>
       </c>
       <c r="AI159" s="53" t="s">
-        <v>981</v>
+        <v>1031</v>
       </c>
       <c r="AJ159" s="37" t="s">
         <v>243</v>
@@ -30338,16 +30331,16 @@
         <v>1</v>
       </c>
       <c r="AT159" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU159" s="59" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV159" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW159" s="61" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="160" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30487,16 +30480,16 @@
         <v>1</v>
       </c>
       <c r="AT160" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU160" s="59" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AV160" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW160" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="161" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -30636,16 +30629,16 @@
         <v>1</v>
       </c>
       <c r="AT161" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU161" s="59" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="AV161" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW161" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="162" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -30785,16 +30778,16 @@
         <v>1</v>
       </c>
       <c r="AT162" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU162" s="59" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="AV162" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW162" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="163" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30934,16 +30927,16 @@
         <v>1</v>
       </c>
       <c r="AT163" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU163" s="59" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="AV163" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW163" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="164" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31083,16 +31076,16 @@
         <v>1</v>
       </c>
       <c r="AT164" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU164" s="59" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="AV164" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW164" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="165" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31232,16 +31225,16 @@
         <v>1</v>
       </c>
       <c r="AT165" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU165" s="59" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="AV165" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW165" s="61" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="166" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31381,16 +31374,16 @@
         <v>1</v>
       </c>
       <c r="AT166" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU166" s="59" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="AV166" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW166" s="61" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="167" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31530,16 +31523,16 @@
         <v>1</v>
       </c>
       <c r="AT167" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU167" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV167" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW167" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW167" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="168" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31679,16 +31672,16 @@
         <v>1</v>
       </c>
       <c r="AT168" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU168" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV168" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW168" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW168" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="169" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31828,16 +31821,16 @@
         <v>1</v>
       </c>
       <c r="AT169" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU169" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV169" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW169" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW169" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="170" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31977,16 +31970,16 @@
         <v>1</v>
       </c>
       <c r="AT170" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU170" s="59" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AV170" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW170" s="61" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="171" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32126,16 +32119,16 @@
         <v>1</v>
       </c>
       <c r="AT171" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU171" s="59" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AV171" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW171" s="61" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="172" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32275,16 +32268,16 @@
         <v>1</v>
       </c>
       <c r="AT172" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU172" s="59" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AV172" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW172" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="173" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32424,16 +32417,16 @@
         <v>1</v>
       </c>
       <c r="AT173" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU173" s="59" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="AV173" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW173" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="174" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32573,16 +32566,16 @@
         <v>1</v>
       </c>
       <c r="AT174" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU174" s="59" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AV174" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW174" s="61" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="175" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32722,16 +32715,16 @@
         <v>1</v>
       </c>
       <c r="AT175" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU175" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV175" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW175" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW175" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="176" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32871,16 +32864,16 @@
         <v>1</v>
       </c>
       <c r="AT176" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU176" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV176" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW176" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW176" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="177" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33020,16 +33013,16 @@
         <v>1</v>
       </c>
       <c r="AT177" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU177" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV177" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW177" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW177" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="178" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33169,16 +33162,16 @@
         <v>1</v>
       </c>
       <c r="AT178" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU178" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV178" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW178" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW178" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="179" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33318,16 +33311,16 @@
         <v>1</v>
       </c>
       <c r="AT179" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU179" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV179" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW179" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW179" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="180" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33467,16 +33460,16 @@
         <v>1</v>
       </c>
       <c r="AT180" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU180" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV180" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW180" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW180" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="181" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33616,16 +33609,16 @@
         <v>1</v>
       </c>
       <c r="AT181" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU181" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV181" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW181" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW181" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="182" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33765,16 +33758,16 @@
         <v>1</v>
       </c>
       <c r="AT182" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU182" s="59" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AV182" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW182" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="183" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33914,16 +33907,16 @@
         <v>1</v>
       </c>
       <c r="AT183" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU183" s="59" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AV183" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW183" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="184" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34063,16 +34056,16 @@
         <v>1</v>
       </c>
       <c r="AT184" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU184" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV184" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW184" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW184" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="185" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34212,16 +34205,16 @@
         <v>1</v>
       </c>
       <c r="AT185" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU185" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV185" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW185" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW185" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="186" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34361,16 +34354,16 @@
         <v>1</v>
       </c>
       <c r="AT186" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU186" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV186" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW186" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW186" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="187" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34510,16 +34503,16 @@
         <v>1</v>
       </c>
       <c r="AT187" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU187" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV187" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW187" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW187" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="188" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34659,16 +34652,16 @@
         <v>1</v>
       </c>
       <c r="AT188" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU188" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV188" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW188" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW188" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="189" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34808,16 +34801,16 @@
         <v>1</v>
       </c>
       <c r="AT189" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU189" s="59" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AV189" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW189" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="190" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34957,16 +34950,16 @@
         <v>1</v>
       </c>
       <c r="AT190" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU190" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV190" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW190" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW190" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="191" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -35106,16 +35099,16 @@
         <v>1</v>
       </c>
       <c r="AT191" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU191" s="59" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AV191" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW191" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="192" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -35255,16 +35248,16 @@
         <v>1</v>
       </c>
       <c r="AT192" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU192" s="59" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="AV192" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW192" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="193" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -35404,16 +35397,16 @@
         <v>1</v>
       </c>
       <c r="AT193" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU193" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV193" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW193" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW193" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="194" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -35553,16 +35546,16 @@
         <v>1</v>
       </c>
       <c r="AT194" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU194" s="59" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AV194" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW194" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="195" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -35702,16 +35695,16 @@
         <v>1</v>
       </c>
       <c r="AT195" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU195" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV195" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW195" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW195" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="196" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -35851,16 +35844,16 @@
         <v>1</v>
       </c>
       <c r="AT196" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU196" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV196" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW196" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW196" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="197" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -36000,16 +35993,16 @@
         <v>1</v>
       </c>
       <c r="AT197" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU197" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV197" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW197" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW197" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="198" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -36149,16 +36142,16 @@
         <v>1</v>
       </c>
       <c r="AT198" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU198" s="59" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="AV198" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW198" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="199" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -36298,16 +36291,16 @@
         <v>1</v>
       </c>
       <c r="AT199" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU199" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV199" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW199" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="200" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -36447,16 +36440,16 @@
         <v>1</v>
       </c>
       <c r="AT200" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU200" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV200" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW200" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW200" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="201" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -36596,16 +36589,16 @@
         <v>1</v>
       </c>
       <c r="AT201" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU201" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV201" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW201" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW201" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="202" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -36745,16 +36738,16 @@
         <v>1</v>
       </c>
       <c r="AT202" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU202" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV202" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW202" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW202" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="203" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -36894,16 +36887,16 @@
         <v>1</v>
       </c>
       <c r="AT203" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU203" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV203" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW203" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW203" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="204" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -37043,16 +37036,16 @@
         <v>1</v>
       </c>
       <c r="AT204" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU204" s="59" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AV204" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW204" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="205" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -37192,16 +37185,16 @@
         <v>1</v>
       </c>
       <c r="AT205" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU205" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV205" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW205" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW205" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="206" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -37341,16 +37334,16 @@
         <v>1</v>
       </c>
       <c r="AT206" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU206" s="59" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="AV206" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW206" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="207" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -37490,16 +37483,16 @@
         <v>1</v>
       </c>
       <c r="AT207" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU207" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV207" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW207" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW207" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="208" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -37639,16 +37632,16 @@
         <v>1</v>
       </c>
       <c r="AT208" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU208" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV208" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW208" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW208" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="209" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -37788,16 +37781,16 @@
         <v>1</v>
       </c>
       <c r="AT209" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU209" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV209" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW209" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW209" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="210" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -37937,16 +37930,16 @@
         <v>1</v>
       </c>
       <c r="AT210" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU210" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV210" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW210" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW210" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="211" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38086,16 +38079,16 @@
         <v>1</v>
       </c>
       <c r="AT211" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU211" s="59" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="AV211" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW211" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="212" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38235,16 +38228,16 @@
         <v>1</v>
       </c>
       <c r="AT212" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU212" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV212" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW212" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW212" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="213" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38384,16 +38377,16 @@
         <v>1</v>
       </c>
       <c r="AT213" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU213" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV213" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW213" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW213" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="214" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38533,16 +38526,16 @@
         <v>1</v>
       </c>
       <c r="AT214" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU214" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV214" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW214" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW214" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="215" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38682,16 +38675,16 @@
         <v>1</v>
       </c>
       <c r="AT215" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU215" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV215" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW215" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW215" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="216" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38831,16 +38824,16 @@
         <v>1</v>
       </c>
       <c r="AT216" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU216" s="59" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AV216" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW216" s="61" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="217" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38980,16 +38973,16 @@
         <v>1</v>
       </c>
       <c r="AT217" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU217" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV217" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW217" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW217" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="218" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39129,16 +39122,16 @@
         <v>1</v>
       </c>
       <c r="AT218" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU218" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV218" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW218" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW218" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="219" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39278,16 +39271,16 @@
         <v>1</v>
       </c>
       <c r="AT219" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU219" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV219" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW219" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW219" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="220" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39427,16 +39420,16 @@
         <v>1</v>
       </c>
       <c r="AT220" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU220" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV220" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW220" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW220" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="221" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39576,16 +39569,16 @@
         <v>1</v>
       </c>
       <c r="AT221" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU221" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV221" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW221" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW221" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="222" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39725,16 +39718,16 @@
         <v>1</v>
       </c>
       <c r="AT222" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU222" s="59" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AV222" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW222" s="61" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="223" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39874,16 +39867,16 @@
         <v>1</v>
       </c>
       <c r="AT223" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU223" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV223" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW223" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW223" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="224" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40023,16 +40016,16 @@
         <v>1</v>
       </c>
       <c r="AT224" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU224" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV224" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW224" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW224" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="225" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40172,16 +40165,16 @@
         <v>1</v>
       </c>
       <c r="AT225" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU225" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV225" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW225" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW225" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="226" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40321,16 +40314,16 @@
         <v>1</v>
       </c>
       <c r="AT226" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU226" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV226" s="97" t="s">
+        <v>990</v>
+      </c>
+      <c r="AW226" s="61" t="s">
         <v>991</v>
-      </c>
-      <c r="AW226" s="61" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="227" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40470,16 +40463,16 @@
         <v>1</v>
       </c>
       <c r="AT227" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU227" s="59" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="AV227" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW227" s="61" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="228" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40619,16 +40612,16 @@
         <v>1</v>
       </c>
       <c r="AT228" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU228" s="59" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AV228" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW228" s="61" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="229" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40768,16 +40761,16 @@
         <v>1</v>
       </c>
       <c r="AT229" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU229" s="59" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AV229" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW229" s="61" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="230" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40917,16 +40910,16 @@
         <v>1</v>
       </c>
       <c r="AT230" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU230" s="59" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AV230" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW230" s="61" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="231" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41066,16 +41059,16 @@
         <v>1</v>
       </c>
       <c r="AT231" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU231" s="59" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AV231" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW231" s="61" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="232" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41215,16 +41208,16 @@
         <v>1</v>
       </c>
       <c r="AT232" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU232" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV232" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW232" s="61" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="233" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41364,16 +41357,16 @@
         <v>1</v>
       </c>
       <c r="AT233" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU233" s="59" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="AV233" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW233" s="61" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="234" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41513,16 +41506,16 @@
         <v>1</v>
       </c>
       <c r="AT234" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU234" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AV234" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW234" s="61" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="235" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41662,16 +41655,16 @@
         <v>1</v>
       </c>
       <c r="AT235" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU235" s="59" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="AV235" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW235" s="61" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="236" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41811,16 +41804,16 @@
         <v>1</v>
       </c>
       <c r="AT236" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU236" s="59" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AV236" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW236" s="61" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="237" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41960,16 +41953,16 @@
         <v>1</v>
       </c>
       <c r="AT237" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU237" s="59" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AV237" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW237" s="61" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="238" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42109,16 +42102,16 @@
         <v>1</v>
       </c>
       <c r="AT238" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU238" s="59" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AV238" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW238" s="61" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="239" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42258,16 +42251,16 @@
         <v>1</v>
       </c>
       <c r="AT239" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU239" s="59" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="AV239" s="97" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AW239" s="61" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="240" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44364,179 +44357,174 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A253 C1:C253 AF79:AF159 AJ79:AJ159 AL99:AS162 V99:W231">
-    <cfRule type="cellIs" dxfId="45" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="258" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80:B86">
-    <cfRule type="duplicateValues" dxfId="44" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B86">
-    <cfRule type="duplicateValues" dxfId="43" priority="230"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="231"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="230"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="231"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162">
-    <cfRule type="duplicateValues" dxfId="41" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B254:B1048576 B87:B93 B106:B114 B99:B104 B142:B159 B163:B249 B1:B79 B116:B140">
-    <cfRule type="duplicateValues" dxfId="37" priority="305"/>
     <cfRule type="duplicateValues" dxfId="36" priority="306"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="305"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B254:B1048576 B87:B93 B163:B249 B1:B79 B99:B159">
-    <cfRule type="duplicateValues" dxfId="35" priority="234"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="234"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B254:B1048576 B163:B249 B1:B159">
-    <cfRule type="duplicateValues" dxfId="34" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D248:M249 D250:U253">
-    <cfRule type="cellIs" dxfId="33" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="94" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:U79 X79:AE79 AG79">
-    <cfRule type="cellIs" dxfId="32" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="222" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D160:U161">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:AG78">
-    <cfRule type="cellIs" dxfId="30" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="18" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80:E86">
-    <cfRule type="duplicateValues" dxfId="29" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="224"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E162">
-    <cfRule type="duplicateValues" dxfId="28" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E254:E1048576 E87:E93 E163:E247 E99:E159">
-    <cfRule type="duplicateValues" dxfId="27" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="233"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M232:AS232">
-    <cfRule type="cellIs" dxfId="26" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="221" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V94:V98">
-    <cfRule type="cellIs" dxfId="25" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="206" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V79:W93">
-    <cfRule type="cellIs" dxfId="24" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="227" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V233:W253">
-    <cfRule type="cellIs" dxfId="23" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="93" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X160:AG161">
-    <cfRule type="cellIs" dxfId="22" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="30" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X248:AG253">
-    <cfRule type="cellIs" dxfId="21" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="90" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF162:AF231">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ233:AJ249">
-    <cfRule type="cellIs" dxfId="19" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="228" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ160:AK160 AJ161:AJ231">
-    <cfRule type="cellIs" dxfId="18" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="33" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ1:AS78">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK80:AK83">
-    <cfRule type="cellIs" dxfId="16" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="229" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK105">
-    <cfRule type="cellIs" dxfId="15" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="256" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK115">
-    <cfRule type="cellIs" dxfId="14" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="280" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK141">
-    <cfRule type="cellIs" dxfId="13" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="268" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK164:AL165">
-    <cfRule type="cellIs" dxfId="12" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="49" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK242:AL247">
-    <cfRule type="cellIs" dxfId="11" priority="303" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="303" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK248:AM249 AJ250:AM253">
-    <cfRule type="cellIs" dxfId="10" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="149" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL94:AL98">
-    <cfRule type="cellIs" dxfId="9" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="209" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL163:AM163">
-    <cfRule type="cellIs" dxfId="8" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="23" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL79:AS93 AL166:AS231 AL233:AS241 AF233:AF247">
-    <cfRule type="cellIs" dxfId="7" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="226" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN94:AS98">
-    <cfRule type="cellIs" dxfId="6" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="210" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN163:AS165">
-    <cfRule type="cellIs" dxfId="5" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="45" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN242:AS253">
-    <cfRule type="cellIs" dxfId="4" priority="89" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT1:AW79">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="89" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44545,12 +44533,12 @@
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU240:AU241">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="AT1:AW79">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU242:AU251">
+  <conditionalFormatting sqref="AU240:AU251">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>

--- a/Versão5/VEGE/Ontologia_VEGET.xlsx
+++ b/Versão5/VEGE/Ontologia_VEGET.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\VEGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCD8A0C-5F74-420A-9EFD-638E881333A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA30C64-7542-4FA9-BD20-DDE0986C78ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" tabRatio="577" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10368" uniqueCount="993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10407" uniqueCount="998">
   <si>
     <t>Key</t>
   </si>
@@ -3050,6 +3050,21 @@
   </si>
   <si>
     <t>"Árvore utilizada para produzir óleos para tintas e sabões. Daí o seu nome Oiticica, que em tupi significa 'resinoso'"</t>
+  </si>
+  <si>
+    <t>Paxiúba</t>
+  </si>
+  <si>
+    <t>"Socratea exorrhiza"</t>
+  </si>
+  <si>
+    <t>"ripas em construções rústicas"</t>
+  </si>
+  <si>
+    <t>"Palmeira de raizes aereas adventícias convergentes formando um cone destacado, de hasta 2 m, de cujo vértice inicia a estirpe solitária. Conhecida também como 'Palmeira andante', pela característica morfológica de suas raizes"</t>
+  </si>
+  <si>
+    <t>"Aerea adventícia"</t>
   </si>
 </sst>
 </file>
@@ -3625,7 +3640,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="48">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4513,7 +4535,7 @@
       </c>
       <c r="B18" s="92">
         <f ca="1">NOW()</f>
-        <v>45953.291064583333</v>
+        <v>45953.321134837963</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6021,46 +6043,46 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="46" priority="1413"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="1413"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="45" priority="1655"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="1656"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="1655"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="1656"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F15">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F1048576 F1">
-    <cfRule type="duplicateValues" dxfId="42" priority="892"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="907"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="911"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="892"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="907"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="911"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F1048576">
-    <cfRule type="duplicateValues" dxfId="39" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="79"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="895"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="899"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="903"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="895"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="899"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="903"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:W1048576 A1:C1 F1:W1 Y1:XFD1 A17:C1048576">
-    <cfRule type="cellIs" dxfId="34" priority="375" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="375" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:K2">
-    <cfRule type="cellIs" dxfId="33" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="15" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2 B2:B16 Y3:XFD12 G3:U16 Z13:XFD15 Y16:XFD1048576">
-    <cfRule type="cellIs" dxfId="32" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="18" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:Y2">
-    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6284,7 +6306,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6372,7 +6394,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A3">
-    <cfRule type="cellIs" dxfId="29" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6382,11 +6404,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B52AA7-680B-4C72-8598-6D856F54368E}">
-  <dimension ref="A1:AS245"/>
+  <dimension ref="A1:AS246"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A245"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="166.28515625" defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -36443,16 +36465,16 @@
         <v>220</v>
       </c>
       <c r="B220" s="87" t="s">
-        <v>172</v>
+        <v>993</v>
       </c>
       <c r="C220" s="35" t="s">
-        <v>405</v>
+        <v>619</v>
       </c>
       <c r="D220" s="54" t="s">
         <v>195</v>
       </c>
       <c r="E220" s="52" t="s">
-        <v>276</v>
+        <v>994</v>
       </c>
       <c r="F220" s="60" t="s">
         <v>309</v>
@@ -36464,49 +36486,49 @@
         <v>313</v>
       </c>
       <c r="I220" s="59" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J220" s="60" t="s">
         <v>371</v>
       </c>
       <c r="K220" s="59" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="L220" s="60" t="s">
         <v>372</v>
       </c>
       <c r="M220" s="59" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="N220" s="54" t="s">
         <v>373</v>
       </c>
       <c r="O220" s="52" t="s">
-        <v>725</v>
+        <v>620</v>
       </c>
       <c r="P220" s="54" t="s">
         <v>457</v>
       </c>
       <c r="Q220" s="57">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="R220" s="54" t="s">
         <v>186</v>
       </c>
       <c r="S220" s="57">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T220" s="54" t="s">
         <v>187</v>
       </c>
       <c r="U220" s="57">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V220" s="54" t="s">
         <v>188</v>
       </c>
       <c r="W220" s="57">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X220" s="54" t="s">
         <v>189</v>
@@ -36518,7 +36540,7 @@
         <v>190</v>
       </c>
       <c r="AA220" s="52" t="s">
-        <v>634</v>
+        <v>997</v>
       </c>
       <c r="AB220" s="36" t="s">
         <v>191</v>
@@ -36529,38 +36551,38 @@
       <c r="AD220" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="AE220" s="65" t="s">
-        <v>967</v>
+      <c r="AE220" s="52" t="s">
+        <v>634</v>
       </c>
       <c r="AF220" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG220" s="52" t="s">
-        <v>943</v>
+        <v>634</v>
       </c>
       <c r="AH220" s="86" t="s">
         <v>193</v>
       </c>
       <c r="AI220" s="52" t="s">
-        <v>782</v>
+        <v>995</v>
       </c>
       <c r="AJ220" s="86" t="s">
         <v>198</v>
       </c>
       <c r="AK220" s="52" t="s">
-        <v>876</v>
+        <v>996</v>
       </c>
       <c r="AL220" s="55" t="s">
         <v>628</v>
       </c>
       <c r="AM220" s="65" t="s">
-        <v>783</v>
+        <v>634</v>
       </c>
       <c r="AN220" s="55" t="s">
         <v>199</v>
       </c>
       <c r="AO220" s="52" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AP220" s="55" t="s">
         <v>194</v>
@@ -36580,7 +36602,7 @@
         <v>221</v>
       </c>
       <c r="B221" s="87" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C221" s="35" t="s">
         <v>405</v>
@@ -36589,7 +36611,7 @@
         <v>195</v>
       </c>
       <c r="E221" s="52" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F221" s="60" t="s">
         <v>309</v>
@@ -36607,13 +36629,13 @@
         <v>371</v>
       </c>
       <c r="K221" s="59" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L221" s="60" t="s">
         <v>372</v>
       </c>
       <c r="M221" s="59" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="N221" s="54" t="s">
         <v>373</v>
@@ -36625,7 +36647,7 @@
         <v>457</v>
       </c>
       <c r="Q221" s="57">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R221" s="54" t="s">
         <v>186</v>
@@ -36649,43 +36671,43 @@
         <v>189</v>
       </c>
       <c r="Y221" s="57">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Z221" s="56" t="s">
         <v>190</v>
       </c>
       <c r="AA221" s="52" t="s">
-        <v>473</v>
+        <v>634</v>
       </c>
       <c r="AB221" s="36" t="s">
         <v>191</v>
       </c>
       <c r="AC221" s="57" t="s">
-        <v>952</v>
+        <v>629</v>
       </c>
       <c r="AD221" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE221" s="65" t="s">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="AF221" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG221" s="52" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="AH221" s="86" t="s">
         <v>193</v>
       </c>
       <c r="AI221" s="52" t="s">
-        <v>749</v>
+        <v>782</v>
       </c>
       <c r="AJ221" s="86" t="s">
         <v>198</v>
       </c>
       <c r="AK221" s="52" t="s">
-        <v>918</v>
+        <v>876</v>
       </c>
       <c r="AL221" s="55" t="s">
         <v>628</v>
@@ -36697,7 +36719,7 @@
         <v>199</v>
       </c>
       <c r="AO221" s="52" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AP221" s="55" t="s">
         <v>194</v>
@@ -36709,7 +36731,7 @@
         <v>631</v>
       </c>
       <c r="AS221" s="52" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="222" spans="1:45" s="79" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -36717,7 +36739,7 @@
         <v>222</v>
       </c>
       <c r="B222" s="87" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C222" s="35" t="s">
         <v>405</v>
@@ -36726,7 +36748,7 @@
         <v>195</v>
       </c>
       <c r="E222" s="52" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F222" s="60" t="s">
         <v>309</v>
@@ -36744,13 +36766,13 @@
         <v>371</v>
       </c>
       <c r="K222" s="59" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="L222" s="60" t="s">
         <v>372</v>
       </c>
       <c r="M222" s="59" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="N222" s="54" t="s">
         <v>373</v>
@@ -36762,67 +36784,67 @@
         <v>457</v>
       </c>
       <c r="Q222" s="57">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="R222" s="54" t="s">
         <v>186</v>
       </c>
       <c r="S222" s="57">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T222" s="54" t="s">
         <v>187</v>
       </c>
       <c r="U222" s="57">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="V222" s="54" t="s">
         <v>188</v>
       </c>
       <c r="W222" s="57">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="X222" s="54" t="s">
         <v>189</v>
       </c>
       <c r="Y222" s="57">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Z222" s="56" t="s">
         <v>190</v>
       </c>
       <c r="AA222" s="52" t="s">
-        <v>634</v>
+        <v>473</v>
       </c>
       <c r="AB222" s="36" t="s">
         <v>191</v>
       </c>
       <c r="AC222" s="57" t="s">
-        <v>629</v>
+        <v>952</v>
       </c>
       <c r="AD222" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE222" s="65" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="AF222" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG222" s="52" t="s">
-        <v>942</v>
+        <v>951</v>
       </c>
       <c r="AH222" s="86" t="s">
         <v>193</v>
       </c>
       <c r="AI222" s="52" t="s">
-        <v>734</v>
+        <v>749</v>
       </c>
       <c r="AJ222" s="86" t="s">
         <v>198</v>
       </c>
       <c r="AK222" s="52" t="s">
-        <v>843</v>
+        <v>918</v>
       </c>
       <c r="AL222" s="55" t="s">
         <v>628</v>
@@ -36840,13 +36862,13 @@
         <v>194</v>
       </c>
       <c r="AQ222" s="83" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AR222" s="55" t="s">
         <v>631</v>
       </c>
       <c r="AS222" s="52" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="223" spans="1:45" s="79" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -36854,7 +36876,7 @@
         <v>223</v>
       </c>
       <c r="B223" s="87" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C223" s="35" t="s">
         <v>405</v>
@@ -36863,7 +36885,7 @@
         <v>195</v>
       </c>
       <c r="E223" s="52" t="s">
-        <v>991</v>
+        <v>278</v>
       </c>
       <c r="F223" s="60" t="s">
         <v>309</v>
@@ -36881,13 +36903,13 @@
         <v>371</v>
       </c>
       <c r="K223" s="59" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="L223" s="60" t="s">
         <v>372</v>
       </c>
       <c r="M223" s="59" t="s">
-        <v>470</v>
+        <v>335</v>
       </c>
       <c r="N223" s="54" t="s">
         <v>373</v>
@@ -36899,31 +36921,31 @@
         <v>457</v>
       </c>
       <c r="Q223" s="57">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="R223" s="54" t="s">
         <v>186</v>
       </c>
       <c r="S223" s="57">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T223" s="54" t="s">
         <v>187</v>
       </c>
       <c r="U223" s="57">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="V223" s="54" t="s">
         <v>188</v>
       </c>
       <c r="W223" s="57">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="X223" s="54" t="s">
         <v>189</v>
       </c>
       <c r="Y223" s="57">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Z223" s="56" t="s">
         <v>190</v>
@@ -36941,25 +36963,25 @@
         <v>192</v>
       </c>
       <c r="AE223" s="65" t="s">
-        <v>961</v>
+        <v>966</v>
       </c>
       <c r="AF223" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG223" s="52" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
       <c r="AH223" s="86" t="s">
         <v>193</v>
       </c>
       <c r="AI223" s="52" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="AJ223" s="86" t="s">
         <v>198</v>
       </c>
       <c r="AK223" s="52" t="s">
-        <v>928</v>
+        <v>843</v>
       </c>
       <c r="AL223" s="55" t="s">
         <v>628</v>
@@ -36971,13 +36993,13 @@
         <v>199</v>
       </c>
       <c r="AO223" s="52" t="s">
-        <v>796</v>
+        <v>292</v>
       </c>
       <c r="AP223" s="55" t="s">
         <v>194</v>
       </c>
       <c r="AQ223" s="83" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AR223" s="55" t="s">
         <v>631</v>
@@ -36991,7 +37013,7 @@
         <v>224</v>
       </c>
       <c r="B224" s="87" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C224" s="35" t="s">
         <v>405</v>
@@ -37000,7 +37022,7 @@
         <v>195</v>
       </c>
       <c r="E224" s="52" t="s">
-        <v>279</v>
+        <v>991</v>
       </c>
       <c r="F224" s="60" t="s">
         <v>309</v>
@@ -37018,13 +37040,13 @@
         <v>371</v>
       </c>
       <c r="K224" s="59" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="L224" s="60" t="s">
         <v>372</v>
       </c>
       <c r="M224" s="59" t="s">
-        <v>347</v>
+        <v>470</v>
       </c>
       <c r="N224" s="54" t="s">
         <v>373</v>
@@ -37036,31 +37058,31 @@
         <v>457</v>
       </c>
       <c r="Q224" s="57">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="R224" s="54" t="s">
         <v>186</v>
       </c>
       <c r="S224" s="57">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T224" s="54" t="s">
         <v>187</v>
       </c>
       <c r="U224" s="57">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="V224" s="54" t="s">
         <v>188</v>
       </c>
       <c r="W224" s="57">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="X224" s="54" t="s">
         <v>189</v>
       </c>
       <c r="Y224" s="57">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Z224" s="56" t="s">
         <v>190</v>
@@ -37078,43 +37100,43 @@
         <v>192</v>
       </c>
       <c r="AE224" s="65" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="AF224" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG224" s="52" t="s">
-        <v>942</v>
+        <v>951</v>
       </c>
       <c r="AH224" s="86" t="s">
         <v>193</v>
       </c>
       <c r="AI224" s="52" t="s">
-        <v>739</v>
+        <v>750</v>
       </c>
       <c r="AJ224" s="86" t="s">
         <v>198</v>
       </c>
       <c r="AK224" s="52" t="s">
-        <v>844</v>
+        <v>928</v>
       </c>
       <c r="AL224" s="55" t="s">
         <v>628</v>
       </c>
       <c r="AM224" s="65" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="AN224" s="55" t="s">
         <v>199</v>
       </c>
       <c r="AO224" s="52" t="s">
-        <v>292</v>
+        <v>796</v>
       </c>
       <c r="AP224" s="55" t="s">
         <v>194</v>
       </c>
       <c r="AQ224" s="83" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AR224" s="55" t="s">
         <v>631</v>
@@ -37128,7 +37150,7 @@
         <v>225</v>
       </c>
       <c r="B225" s="87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C225" s="35" t="s">
         <v>405</v>
@@ -37137,7 +37159,7 @@
         <v>195</v>
       </c>
       <c r="E225" s="52" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F225" s="60" t="s">
         <v>309</v>
@@ -37161,7 +37183,7 @@
         <v>372</v>
       </c>
       <c r="M225" s="59" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="N225" s="54" t="s">
         <v>373</v>
@@ -37233,19 +37255,19 @@
         <v>198</v>
       </c>
       <c r="AK225" s="52" t="s">
-        <v>987</v>
+        <v>844</v>
       </c>
       <c r="AL225" s="55" t="s">
         <v>628</v>
       </c>
       <c r="AM225" s="65" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="AN225" s="55" t="s">
         <v>199</v>
       </c>
       <c r="AO225" s="52" t="s">
-        <v>796</v>
+        <v>292</v>
       </c>
       <c r="AP225" s="55" t="s">
         <v>194</v>
@@ -37265,16 +37287,16 @@
         <v>226</v>
       </c>
       <c r="B226" s="87" t="s">
-        <v>664</v>
+        <v>177</v>
       </c>
       <c r="C226" s="35" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D226" s="54" t="s">
         <v>195</v>
       </c>
       <c r="E226" s="52" t="s">
-        <v>697</v>
+        <v>280</v>
       </c>
       <c r="F226" s="60" t="s">
         <v>309</v>
@@ -37304,7 +37326,7 @@
         <v>373</v>
       </c>
       <c r="O226" s="52" t="s">
-        <v>435</v>
+        <v>725</v>
       </c>
       <c r="P226" s="54" t="s">
         <v>457</v>
@@ -37334,7 +37356,7 @@
         <v>189</v>
       </c>
       <c r="Y226" s="57">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z226" s="56" t="s">
         <v>190</v>
@@ -37352,7 +37374,7 @@
         <v>192</v>
       </c>
       <c r="AE226" s="65" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="AF226" s="56" t="s">
         <v>627</v>
@@ -37364,13 +37386,13 @@
         <v>193</v>
       </c>
       <c r="AI226" s="52" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="AJ226" s="86" t="s">
         <v>198</v>
       </c>
       <c r="AK226" s="52" t="s">
-        <v>845</v>
+        <v>987</v>
       </c>
       <c r="AL226" s="55" t="s">
         <v>628</v>
@@ -37402,16 +37424,16 @@
         <v>227</v>
       </c>
       <c r="B227" s="87" t="s">
-        <v>201</v>
+        <v>664</v>
       </c>
       <c r="C227" s="35" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="D227" s="54" t="s">
         <v>195</v>
       </c>
       <c r="E227" s="52" t="s">
-        <v>281</v>
+        <v>697</v>
       </c>
       <c r="F227" s="60" t="s">
         <v>309</v>
@@ -37429,49 +37451,49 @@
         <v>371</v>
       </c>
       <c r="K227" s="59" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="L227" s="60" t="s">
         <v>372</v>
       </c>
       <c r="M227" s="59" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="N227" s="54" t="s">
         <v>373</v>
       </c>
       <c r="O227" s="52" t="s">
-        <v>725</v>
+        <v>435</v>
       </c>
       <c r="P227" s="54" t="s">
         <v>457</v>
       </c>
       <c r="Q227" s="57">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R227" s="54" t="s">
         <v>186</v>
       </c>
       <c r="S227" s="57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T227" s="54" t="s">
         <v>187</v>
       </c>
       <c r="U227" s="57">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V227" s="54" t="s">
         <v>188</v>
       </c>
       <c r="W227" s="57">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X227" s="54" t="s">
         <v>189</v>
       </c>
       <c r="Y227" s="57">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Z227" s="56" t="s">
         <v>190</v>
@@ -37489,25 +37511,25 @@
         <v>192</v>
       </c>
       <c r="AE227" s="65" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AF227" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG227" s="52" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="AH227" s="86" t="s">
         <v>193</v>
       </c>
       <c r="AI227" s="52" t="s">
-        <v>773</v>
+        <v>734</v>
       </c>
       <c r="AJ227" s="86" t="s">
         <v>198</v>
       </c>
       <c r="AK227" s="52" t="s">
-        <v>937</v>
+        <v>845</v>
       </c>
       <c r="AL227" s="55" t="s">
         <v>628</v>
@@ -37519,13 +37541,13 @@
         <v>199</v>
       </c>
       <c r="AO227" s="52" t="s">
-        <v>292</v>
+        <v>796</v>
       </c>
       <c r="AP227" s="55" t="s">
         <v>194</v>
       </c>
       <c r="AQ227" s="83" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AR227" s="55" t="s">
         <v>631</v>
@@ -37539,7 +37561,7 @@
         <v>228</v>
       </c>
       <c r="B228" s="87" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="C228" s="35" t="s">
         <v>405</v>
@@ -37548,7 +37570,7 @@
         <v>195</v>
       </c>
       <c r="E228" s="52" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F228" s="60" t="s">
         <v>309</v>
@@ -37566,13 +37588,13 @@
         <v>371</v>
       </c>
       <c r="K228" s="59" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="L228" s="60" t="s">
         <v>372</v>
       </c>
       <c r="M228" s="59" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="N228" s="54" t="s">
         <v>373</v>
@@ -37584,67 +37606,67 @@
         <v>457</v>
       </c>
       <c r="Q228" s="57">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R228" s="54" t="s">
         <v>186</v>
       </c>
       <c r="S228" s="57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T228" s="54" t="s">
         <v>187</v>
       </c>
       <c r="U228" s="57">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="V228" s="54" t="s">
         <v>188</v>
       </c>
       <c r="W228" s="57">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="X228" s="54" t="s">
         <v>189</v>
       </c>
       <c r="Y228" s="57">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="Z228" s="56" t="s">
         <v>190</v>
       </c>
       <c r="AA228" s="52" t="s">
-        <v>473</v>
+        <v>634</v>
       </c>
       <c r="AB228" s="36" t="s">
         <v>191</v>
       </c>
       <c r="AC228" s="57" t="s">
-        <v>952</v>
+        <v>629</v>
       </c>
       <c r="AD228" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE228" s="65" t="s">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="AF228" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG228" s="52" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="AH228" s="86" t="s">
         <v>193</v>
       </c>
       <c r="AI228" s="52" t="s">
-        <v>750</v>
+        <v>773</v>
       </c>
       <c r="AJ228" s="86" t="s">
         <v>198</v>
       </c>
       <c r="AK228" s="52" t="s">
-        <v>919</v>
+        <v>937</v>
       </c>
       <c r="AL228" s="55" t="s">
         <v>628</v>
@@ -37676,7 +37698,7 @@
         <v>229</v>
       </c>
       <c r="B229" s="87" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C229" s="35" t="s">
         <v>405</v>
@@ -37685,7 +37707,7 @@
         <v>195</v>
       </c>
       <c r="E229" s="52" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F229" s="60" t="s">
         <v>309</v>
@@ -37721,7 +37743,7 @@
         <v>457</v>
       </c>
       <c r="Q229" s="57">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R229" s="54" t="s">
         <v>186</v>
@@ -37775,13 +37797,13 @@
         <v>193</v>
       </c>
       <c r="AI229" s="52" t="s">
-        <v>742</v>
+        <v>750</v>
       </c>
       <c r="AJ229" s="86" t="s">
         <v>198</v>
       </c>
       <c r="AK229" s="52" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="AL229" s="55" t="s">
         <v>628</v>
@@ -37793,7 +37815,7 @@
         <v>199</v>
       </c>
       <c r="AO229" s="52" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AP229" s="55" t="s">
         <v>194</v>
@@ -37813,16 +37835,16 @@
         <v>230</v>
       </c>
       <c r="B230" s="87" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C230" s="35" t="s">
-        <v>619</v>
+        <v>405</v>
       </c>
       <c r="D230" s="54" t="s">
         <v>195</v>
       </c>
       <c r="E230" s="52" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F230" s="60" t="s">
         <v>309</v>
@@ -37834,43 +37856,43 @@
         <v>313</v>
       </c>
       <c r="I230" s="59" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J230" s="60" t="s">
         <v>371</v>
       </c>
       <c r="K230" s="59" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="L230" s="60" t="s">
         <v>372</v>
       </c>
       <c r="M230" s="59" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="N230" s="54" t="s">
         <v>373</v>
       </c>
       <c r="O230" s="52" t="s">
-        <v>620</v>
+        <v>725</v>
       </c>
       <c r="P230" s="54" t="s">
         <v>457</v>
       </c>
       <c r="Q230" s="57">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="R230" s="54" t="s">
         <v>186</v>
       </c>
       <c r="S230" s="57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T230" s="54" t="s">
         <v>187</v>
       </c>
       <c r="U230" s="57">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="V230" s="54" t="s">
         <v>188</v>
@@ -37882,55 +37904,55 @@
         <v>189</v>
       </c>
       <c r="Y230" s="57">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Z230" s="56" t="s">
         <v>190</v>
       </c>
       <c r="AA230" s="52" t="s">
-        <v>286</v>
+        <v>473</v>
       </c>
       <c r="AB230" s="36" t="s">
         <v>191</v>
       </c>
       <c r="AC230" s="57" t="s">
-        <v>629</v>
+        <v>952</v>
       </c>
       <c r="AD230" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE230" s="65" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="AF230" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG230" s="52" t="s">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="AH230" s="86" t="s">
         <v>193</v>
       </c>
       <c r="AI230" s="52" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="AJ230" s="86" t="s">
         <v>198</v>
       </c>
       <c r="AK230" s="52" t="s">
-        <v>877</v>
+        <v>920</v>
       </c>
       <c r="AL230" s="55" t="s">
         <v>628</v>
       </c>
       <c r="AM230" s="65" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="AN230" s="55" t="s">
         <v>199</v>
       </c>
       <c r="AO230" s="52" t="s">
-        <v>796</v>
+        <v>295</v>
       </c>
       <c r="AP230" s="55" t="s">
         <v>194</v>
@@ -37950,16 +37972,16 @@
         <v>231</v>
       </c>
       <c r="B231" s="87" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C231" s="35" t="s">
-        <v>405</v>
+        <v>619</v>
       </c>
       <c r="D231" s="54" t="s">
         <v>195</v>
       </c>
       <c r="E231" s="52" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F231" s="60" t="s">
         <v>309</v>
@@ -37971,25 +37993,25 @@
         <v>313</v>
       </c>
       <c r="I231" s="59" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J231" s="60" t="s">
         <v>371</v>
       </c>
       <c r="K231" s="59" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L231" s="60" t="s">
         <v>372</v>
       </c>
       <c r="M231" s="59" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N231" s="54" t="s">
         <v>373</v>
       </c>
       <c r="O231" s="52" t="s">
-        <v>725</v>
+        <v>620</v>
       </c>
       <c r="P231" s="54" t="s">
         <v>457</v>
@@ -38013,19 +38035,19 @@
         <v>188</v>
       </c>
       <c r="W231" s="57">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="X231" s="54" t="s">
         <v>189</v>
       </c>
       <c r="Y231" s="57">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z231" s="56" t="s">
         <v>190</v>
       </c>
       <c r="AA231" s="52" t="s">
-        <v>634</v>
+        <v>286</v>
       </c>
       <c r="AB231" s="36" t="s">
         <v>191</v>
@@ -38049,25 +38071,25 @@
         <v>193</v>
       </c>
       <c r="AI231" s="52" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="AJ231" s="86" t="s">
         <v>198</v>
       </c>
       <c r="AK231" s="52" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="AL231" s="55" t="s">
         <v>628</v>
       </c>
       <c r="AM231" s="65" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="AN231" s="55" t="s">
         <v>199</v>
       </c>
       <c r="AO231" s="52" t="s">
-        <v>294</v>
+        <v>796</v>
       </c>
       <c r="AP231" s="55" t="s">
         <v>194</v>
@@ -38082,21 +38104,21 @@
         <v>291</v>
       </c>
     </row>
-    <row r="232" spans="1:45" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:45" s="79" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="44">
         <v>232</v>
       </c>
-      <c r="B232" s="46" t="s">
-        <v>406</v>
-      </c>
-      <c r="C232" s="48" t="s">
-        <v>441</v>
+      <c r="B232" s="87" t="s">
+        <v>181</v>
+      </c>
+      <c r="C232" s="35" t="s">
+        <v>405</v>
       </c>
       <c r="D232" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="E232" s="65" t="s">
-        <v>426</v>
+      <c r="E232" s="52" t="s">
+        <v>285</v>
       </c>
       <c r="F232" s="60" t="s">
         <v>309</v>
@@ -38107,116 +38129,116 @@
       <c r="H232" s="64" t="s">
         <v>313</v>
       </c>
-      <c r="I232" s="66" t="s">
-        <v>310</v>
+      <c r="I232" s="59" t="s">
+        <v>311</v>
       </c>
       <c r="J232" s="60" t="s">
         <v>371</v>
       </c>
       <c r="K232" s="59" t="s">
-        <v>407</v>
+        <v>317</v>
       </c>
       <c r="L232" s="60" t="s">
         <v>372</v>
       </c>
       <c r="M232" s="59" t="s">
-        <v>408</v>
-      </c>
-      <c r="N232" s="55" t="s">
+        <v>337</v>
+      </c>
+      <c r="N232" s="54" t="s">
         <v>373</v>
       </c>
       <c r="O232" s="52" t="s">
-        <v>434</v>
-      </c>
-      <c r="P232" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q232" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="R232" s="55" t="s">
+        <v>725</v>
+      </c>
+      <c r="P232" s="54" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q232" s="57">
+        <v>40</v>
+      </c>
+      <c r="R232" s="54" t="s">
         <v>186</v>
       </c>
       <c r="S232" s="57">
-        <v>1</v>
-      </c>
-      <c r="T232" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="T232" s="54" t="s">
         <v>187</v>
       </c>
       <c r="U232" s="57">
-        <v>2</v>
-      </c>
-      <c r="V232" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="V232" s="54" t="s">
         <v>188</v>
       </c>
       <c r="W232" s="57">
-        <v>1</v>
-      </c>
-      <c r="X232" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="X232" s="54" t="s">
         <v>189</v>
       </c>
       <c r="Y232" s="57">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="Z232" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="AA232" s="53" t="s">
-        <v>286</v>
-      </c>
-      <c r="AB232" s="56" t="s">
+      <c r="AA232" s="52" t="s">
+        <v>634</v>
+      </c>
+      <c r="AB232" s="36" t="s">
         <v>191</v>
       </c>
       <c r="AC232" s="57" t="s">
-        <v>954</v>
-      </c>
-      <c r="AD232" s="56" t="s">
+        <v>629</v>
+      </c>
+      <c r="AD232" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE232" s="65" t="s">
-        <v>968</v>
-      </c>
-      <c r="AF232" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG232" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH232" s="36" t="s">
+        <v>967</v>
+      </c>
+      <c r="AF232" s="56" t="s">
+        <v>627</v>
+      </c>
+      <c r="AG232" s="52" t="s">
+        <v>943</v>
+      </c>
+      <c r="AH232" s="86" t="s">
         <v>193</v>
       </c>
       <c r="AI232" s="52" t="s">
-        <v>564</v>
+        <v>743</v>
       </c>
       <c r="AJ232" s="86" t="s">
         <v>198</v>
       </c>
       <c r="AK232" s="52" t="s">
-        <v>557</v>
-      </c>
-      <c r="AL232" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM232" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN232" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO232" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP232" s="56" t="s">
+        <v>878</v>
+      </c>
+      <c r="AL232" s="55" t="s">
+        <v>628</v>
+      </c>
+      <c r="AM232" s="65" t="s">
+        <v>791</v>
+      </c>
+      <c r="AN232" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO232" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="AP232" s="55" t="s">
         <v>194</v>
       </c>
-      <c r="AQ232" s="53" t="s">
+      <c r="AQ232" s="83" t="s">
         <v>291</v>
       </c>
-      <c r="AR232" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS232" s="45" t="s">
-        <v>1</v>
+      <c r="AR232" s="55" t="s">
+        <v>631</v>
+      </c>
+      <c r="AS232" s="52" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="233" spans="1:45" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -38224,7 +38246,7 @@
         <v>233</v>
       </c>
       <c r="B233" s="46" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C233" s="48" t="s">
         <v>441</v>
@@ -38233,7 +38255,7 @@
         <v>195</v>
       </c>
       <c r="E233" s="65" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F233" s="60" t="s">
         <v>309</v>
@@ -38245,25 +38267,25 @@
         <v>313</v>
       </c>
       <c r="I233" s="66" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J233" s="60" t="s">
         <v>371</v>
       </c>
       <c r="K233" s="59" t="s">
-        <v>315</v>
+        <v>407</v>
       </c>
       <c r="L233" s="60" t="s">
         <v>372</v>
       </c>
       <c r="M233" s="59" t="s">
-        <v>334</v>
+        <v>408</v>
       </c>
       <c r="N233" s="55" t="s">
         <v>373</v>
       </c>
       <c r="O233" s="52" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P233" s="56" t="s">
         <v>1</v>
@@ -38281,7 +38303,7 @@
         <v>187</v>
       </c>
       <c r="U233" s="57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V233" s="56" t="s">
         <v>188</v>
@@ -38293,7 +38315,7 @@
         <v>189</v>
       </c>
       <c r="Y233" s="57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z233" s="56" t="s">
         <v>190</v>
@@ -38305,13 +38327,13 @@
         <v>191</v>
       </c>
       <c r="AC233" s="57" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="AD233" s="56" t="s">
         <v>192</v>
       </c>
       <c r="AE233" s="65" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="AF233" s="36" t="s">
         <v>1</v>
@@ -38323,13 +38345,13 @@
         <v>193</v>
       </c>
       <c r="AI233" s="52" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="AJ233" s="86" t="s">
         <v>198</v>
       </c>
       <c r="AK233" s="52" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AL233" s="36" t="s">
         <v>1</v>
@@ -38347,7 +38369,7 @@
         <v>194</v>
       </c>
       <c r="AQ233" s="53" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AR233" s="36" t="s">
         <v>1</v>
@@ -38361,7 +38383,7 @@
         <v>234</v>
       </c>
       <c r="B234" s="46" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C234" s="48" t="s">
         <v>441</v>
@@ -38370,7 +38392,7 @@
         <v>195</v>
       </c>
       <c r="E234" s="65" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F234" s="60" t="s">
         <v>309</v>
@@ -38388,19 +38410,19 @@
         <v>371</v>
       </c>
       <c r="K234" s="59" t="s">
-        <v>412</v>
+        <v>315</v>
       </c>
       <c r="L234" s="60" t="s">
         <v>372</v>
       </c>
       <c r="M234" s="59" t="s">
-        <v>413</v>
+        <v>334</v>
       </c>
       <c r="N234" s="55" t="s">
         <v>373</v>
       </c>
       <c r="O234" s="52" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P234" s="56" t="s">
         <v>1</v>
@@ -38411,26 +38433,26 @@
       <c r="R234" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="S234" s="57" t="s">
-        <v>414</v>
+      <c r="S234" s="57">
+        <v>1</v>
       </c>
       <c r="T234" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="U234" s="89" t="s">
-        <v>196</v>
+      <c r="U234" s="57">
+        <v>3</v>
       </c>
       <c r="V234" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="W234" s="57" t="s">
-        <v>415</v>
+      <c r="W234" s="57">
+        <v>1</v>
       </c>
       <c r="X234" s="56" t="s">
         <v>189</v>
       </c>
-      <c r="Y234" s="57" t="s">
-        <v>197</v>
+      <c r="Y234" s="57">
+        <v>3</v>
       </c>
       <c r="Z234" s="56" t="s">
         <v>190</v>
@@ -38442,13 +38464,13 @@
         <v>191</v>
       </c>
       <c r="AC234" s="57" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="AD234" s="56" t="s">
         <v>192</v>
       </c>
       <c r="AE234" s="65" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="AF234" s="36" t="s">
         <v>1</v>
@@ -38460,13 +38482,13 @@
         <v>193</v>
       </c>
       <c r="AI234" s="52" t="s">
-        <v>440</v>
+        <v>567</v>
       </c>
       <c r="AJ234" s="86" t="s">
         <v>198</v>
       </c>
       <c r="AK234" s="52" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AL234" s="36" t="s">
         <v>1</v>
@@ -38498,7 +38520,7 @@
         <v>235</v>
       </c>
       <c r="B235" s="46" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C235" s="48" t="s">
         <v>441</v>
@@ -38507,7 +38529,7 @@
         <v>195</v>
       </c>
       <c r="E235" s="65" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F235" s="60" t="s">
         <v>309</v>
@@ -38525,19 +38547,19 @@
         <v>371</v>
       </c>
       <c r="K235" s="59" t="s">
-        <v>330</v>
+        <v>412</v>
       </c>
       <c r="L235" s="60" t="s">
         <v>372</v>
       </c>
       <c r="M235" s="59" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="N235" s="55" t="s">
         <v>373</v>
       </c>
       <c r="O235" s="52" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="P235" s="56" t="s">
         <v>1</v>
@@ -38548,26 +38570,26 @@
       <c r="R235" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="S235" s="57">
-        <v>1</v>
+      <c r="S235" s="57" t="s">
+        <v>414</v>
       </c>
       <c r="T235" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="U235" s="57">
-        <v>2</v>
+      <c r="U235" s="89" t="s">
+        <v>196</v>
       </c>
       <c r="V235" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="W235" s="57">
-        <v>2</v>
+      <c r="W235" s="57" t="s">
+        <v>415</v>
       </c>
       <c r="X235" s="56" t="s">
         <v>189</v>
       </c>
-      <c r="Y235" s="57">
-        <v>4</v>
+      <c r="Y235" s="57" t="s">
+        <v>197</v>
       </c>
       <c r="Z235" s="56" t="s">
         <v>190</v>
@@ -38579,13 +38601,13 @@
         <v>191</v>
       </c>
       <c r="AC235" s="57" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="AD235" s="56" t="s">
         <v>192</v>
       </c>
       <c r="AE235" s="65" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="AF235" s="36" t="s">
         <v>1</v>
@@ -38597,13 +38619,13 @@
         <v>193</v>
       </c>
       <c r="AI235" s="52" t="s">
-        <v>563</v>
+        <v>440</v>
       </c>
       <c r="AJ235" s="86" t="s">
         <v>198</v>
       </c>
       <c r="AK235" s="52" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AL235" s="36" t="s">
         <v>1</v>
@@ -38621,7 +38643,7 @@
         <v>194</v>
       </c>
       <c r="AQ235" s="53" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AR235" s="36" t="s">
         <v>1</v>
@@ -38635,7 +38657,7 @@
         <v>236</v>
       </c>
       <c r="B236" s="46" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C236" s="48" t="s">
         <v>441</v>
@@ -38644,7 +38666,7 @@
         <v>195</v>
       </c>
       <c r="E236" s="65" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F236" s="60" t="s">
         <v>309</v>
@@ -38656,25 +38678,25 @@
         <v>313</v>
       </c>
       <c r="I236" s="66" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J236" s="60" t="s">
         <v>371</v>
       </c>
       <c r="K236" s="59" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="L236" s="60" t="s">
         <v>372</v>
       </c>
       <c r="M236" s="59" t="s">
-        <v>419</v>
+        <v>361</v>
       </c>
       <c r="N236" s="55" t="s">
         <v>373</v>
       </c>
       <c r="O236" s="52" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="P236" s="56" t="s">
         <v>1</v>
@@ -38686,43 +38708,43 @@
         <v>186</v>
       </c>
       <c r="S236" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T236" s="55" t="s">
         <v>187</v>
       </c>
       <c r="U236" s="57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V236" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="W236" s="57" t="s">
-        <v>414</v>
+      <c r="W236" s="57">
+        <v>2</v>
       </c>
       <c r="X236" s="56" t="s">
         <v>189</v>
       </c>
-      <c r="Y236" s="57" t="s">
-        <v>420</v>
+      <c r="Y236" s="57">
+        <v>4</v>
       </c>
       <c r="Z236" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="AA236" s="52" t="s">
-        <v>438</v>
+      <c r="AA236" s="53" t="s">
+        <v>286</v>
       </c>
       <c r="AB236" s="56" t="s">
         <v>191</v>
       </c>
       <c r="AC236" s="57" t="s">
-        <v>629</v>
+        <v>953</v>
       </c>
       <c r="AD236" s="56" t="s">
         <v>192</v>
       </c>
       <c r="AE236" s="65" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="AF236" s="36" t="s">
         <v>1</v>
@@ -38734,13 +38756,13 @@
         <v>193</v>
       </c>
       <c r="AI236" s="52" t="s">
-        <v>440</v>
+        <v>563</v>
       </c>
       <c r="AJ236" s="86" t="s">
         <v>198</v>
       </c>
       <c r="AK236" s="52" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AL236" s="36" t="s">
         <v>1</v>
@@ -38758,7 +38780,7 @@
         <v>194</v>
       </c>
       <c r="AQ236" s="53" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AR236" s="36" t="s">
         <v>1</v>
@@ -38772,7 +38794,7 @@
         <v>237</v>
       </c>
       <c r="B237" s="46" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C237" s="48" t="s">
         <v>441</v>
@@ -38781,7 +38803,7 @@
         <v>195</v>
       </c>
       <c r="E237" s="65" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F237" s="60" t="s">
         <v>309</v>
@@ -38793,25 +38815,25 @@
         <v>313</v>
       </c>
       <c r="I237" s="66" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J237" s="60" t="s">
         <v>371</v>
       </c>
       <c r="K237" s="59" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L237" s="60" t="s">
         <v>372</v>
       </c>
       <c r="M237" s="59" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="N237" s="55" t="s">
         <v>373</v>
       </c>
       <c r="O237" s="52" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="P237" s="56" t="s">
         <v>1</v>
@@ -38823,43 +38845,43 @@
         <v>186</v>
       </c>
       <c r="S237" s="57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T237" s="55" t="s">
         <v>187</v>
       </c>
       <c r="U237" s="57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V237" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="W237" s="57">
-        <v>1</v>
+      <c r="W237" s="57" t="s">
+        <v>414</v>
       </c>
       <c r="X237" s="56" t="s">
         <v>189</v>
       </c>
-      <c r="Y237" s="57">
-        <v>2</v>
+      <c r="Y237" s="57" t="s">
+        <v>420</v>
       </c>
       <c r="Z237" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="AA237" s="53" t="s">
-        <v>286</v>
+      <c r="AA237" s="52" t="s">
+        <v>438</v>
       </c>
       <c r="AB237" s="56" t="s">
         <v>191</v>
       </c>
       <c r="AC237" s="57" t="s">
-        <v>953</v>
+        <v>629</v>
       </c>
       <c r="AD237" s="56" t="s">
         <v>192</v>
       </c>
       <c r="AE237" s="65" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="AF237" s="36" t="s">
         <v>1</v>
@@ -38871,13 +38893,13 @@
         <v>193</v>
       </c>
       <c r="AI237" s="52" t="s">
-        <v>566</v>
+        <v>440</v>
       </c>
       <c r="AJ237" s="86" t="s">
         <v>198</v>
       </c>
       <c r="AK237" s="52" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="AL237" s="36" t="s">
         <v>1</v>
@@ -38909,7 +38931,7 @@
         <v>238</v>
       </c>
       <c r="B238" s="46" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C238" s="48" t="s">
         <v>441</v>
@@ -38918,7 +38940,7 @@
         <v>195</v>
       </c>
       <c r="E238" s="65" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F238" s="60" t="s">
         <v>309</v>
@@ -38936,19 +38958,19 @@
         <v>371</v>
       </c>
       <c r="K238" s="59" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="L238" s="60" t="s">
         <v>372</v>
       </c>
       <c r="M238" s="59" t="s">
-        <v>361</v>
+        <v>422</v>
       </c>
       <c r="N238" s="55" t="s">
         <v>373</v>
       </c>
       <c r="O238" s="52" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P238" s="56" t="s">
         <v>1</v>
@@ -38960,43 +38982,43 @@
         <v>186</v>
       </c>
       <c r="S238" s="57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T238" s="55" t="s">
         <v>187</v>
       </c>
       <c r="U238" s="57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V238" s="56" t="s">
         <v>188</v>
       </c>
       <c r="W238" s="57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X238" s="56" t="s">
         <v>189</v>
       </c>
       <c r="Y238" s="57">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Z238" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="AA238" s="90" t="s">
+      <c r="AA238" s="53" t="s">
         <v>286</v>
       </c>
       <c r="AB238" s="56" t="s">
         <v>191</v>
       </c>
       <c r="AC238" s="57" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="AD238" s="56" t="s">
         <v>192</v>
       </c>
       <c r="AE238" s="65" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="AF238" s="36" t="s">
         <v>1</v>
@@ -39008,13 +39030,13 @@
         <v>193</v>
       </c>
       <c r="AI238" s="52" t="s">
-        <v>439</v>
+        <v>566</v>
       </c>
       <c r="AJ238" s="86" t="s">
         <v>198</v>
       </c>
       <c r="AK238" s="52" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="AL238" s="36" t="s">
         <v>1</v>
@@ -39032,7 +39054,7 @@
         <v>194</v>
       </c>
       <c r="AQ238" s="53" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AR238" s="36" t="s">
         <v>1</v>
@@ -39046,7 +39068,7 @@
         <v>239</v>
       </c>
       <c r="B239" s="46" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C239" s="48" t="s">
         <v>441</v>
@@ -39055,7 +39077,7 @@
         <v>195</v>
       </c>
       <c r="E239" s="65" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F239" s="60" t="s">
         <v>309</v>
@@ -39073,19 +39095,19 @@
         <v>371</v>
       </c>
       <c r="K239" s="59" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="L239" s="60" t="s">
         <v>372</v>
       </c>
       <c r="M239" s="59" t="s">
-        <v>425</v>
+        <v>361</v>
       </c>
       <c r="N239" s="55" t="s">
         <v>373</v>
       </c>
       <c r="O239" s="52" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P239" s="56" t="s">
         <v>1</v>
@@ -39097,7 +39119,7 @@
         <v>186</v>
       </c>
       <c r="S239" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T239" s="55" t="s">
         <v>187</v>
@@ -39109,31 +39131,31 @@
         <v>188</v>
       </c>
       <c r="W239" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X239" s="56" t="s">
         <v>189</v>
       </c>
       <c r="Y239" s="57">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z239" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="AA239" s="53" t="s">
+      <c r="AA239" s="90" t="s">
         <v>286</v>
       </c>
       <c r="AB239" s="56" t="s">
         <v>191</v>
       </c>
       <c r="AC239" s="57" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="AD239" s="56" t="s">
         <v>192</v>
       </c>
       <c r="AE239" s="65" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="AF239" s="36" t="s">
         <v>1</v>
@@ -39145,13 +39167,13 @@
         <v>193</v>
       </c>
       <c r="AI239" s="52" t="s">
-        <v>568</v>
+        <v>439</v>
       </c>
       <c r="AJ239" s="86" t="s">
         <v>198</v>
       </c>
       <c r="AK239" s="52" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AL239" s="36" t="s">
         <v>1</v>
@@ -39169,7 +39191,7 @@
         <v>194</v>
       </c>
       <c r="AQ239" s="53" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AR239" s="36" t="s">
         <v>1</v>
@@ -39182,47 +39204,47 @@
       <c r="A240" s="44">
         <v>240</v>
       </c>
-      <c r="B240" s="58" t="s">
-        <v>612</v>
+      <c r="B240" s="46" t="s">
+        <v>424</v>
       </c>
       <c r="C240" s="48" t="s">
-        <v>582</v>
-      </c>
-      <c r="D240" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="E240" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F240" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="G240" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="H240" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="I240" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="J240" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="K240" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="L240" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="M240" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="N240" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="O240" s="34" t="s">
-        <v>1</v>
+        <v>441</v>
+      </c>
+      <c r="D240" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="E240" s="65" t="s">
+        <v>433</v>
+      </c>
+      <c r="F240" s="60" t="s">
+        <v>309</v>
+      </c>
+      <c r="G240" s="59" t="s">
+        <v>303</v>
+      </c>
+      <c r="H240" s="64" t="s">
+        <v>313</v>
+      </c>
+      <c r="I240" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="J240" s="60" t="s">
+        <v>371</v>
+      </c>
+      <c r="K240" s="59" t="s">
+        <v>319</v>
+      </c>
+      <c r="L240" s="60" t="s">
+        <v>372</v>
+      </c>
+      <c r="M240" s="59" t="s">
+        <v>425</v>
+      </c>
+      <c r="N240" s="55" t="s">
+        <v>373</v>
+      </c>
+      <c r="O240" s="52" t="s">
+        <v>435</v>
       </c>
       <c r="P240" s="56" t="s">
         <v>1</v>
@@ -39230,47 +39252,47 @@
       <c r="Q240" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="R240" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="S240" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="T240" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="U240" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="V240" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="W240" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="X240" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y240" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z240" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA240" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB240" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC240" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD240" s="70" t="s">
-        <v>1</v>
+      <c r="R240" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="S240" s="57">
+        <v>1</v>
+      </c>
+      <c r="T240" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="U240" s="57">
+        <v>3</v>
+      </c>
+      <c r="V240" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="W240" s="57">
+        <v>1</v>
+      </c>
+      <c r="X240" s="56" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y240" s="57">
+        <v>3</v>
+      </c>
+      <c r="Z240" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA240" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB240" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC240" s="57" t="s">
+        <v>957</v>
+      </c>
+      <c r="AD240" s="56" t="s">
+        <v>192</v>
       </c>
       <c r="AE240" s="65" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="AF240" s="36" t="s">
         <v>1</v>
@@ -39279,16 +39301,16 @@
         <v>1</v>
       </c>
       <c r="AH240" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI240" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ240" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI240" s="52" t="s">
+        <v>568</v>
+      </c>
+      <c r="AJ240" s="86" t="s">
         <v>198</v>
       </c>
-      <c r="AK240" s="77" t="s">
-        <v>578</v>
+      <c r="AK240" s="52" t="s">
+        <v>562</v>
       </c>
       <c r="AL240" s="36" t="s">
         <v>1</v>
@@ -39302,11 +39324,11 @@
       <c r="AO240" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="AP240" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ240" s="49" t="s">
-        <v>1</v>
+      <c r="AP240" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="AQ240" s="53" t="s">
+        <v>290</v>
       </c>
       <c r="AR240" s="36" t="s">
         <v>1</v>
@@ -39320,10 +39342,10 @@
         <v>241</v>
       </c>
       <c r="B241" s="58" t="s">
-        <v>613</v>
-      </c>
-      <c r="C241" s="71" t="s">
-        <v>581</v>
+        <v>612</v>
+      </c>
+      <c r="C241" s="48" t="s">
+        <v>582</v>
       </c>
       <c r="D241" s="70" t="s">
         <v>1</v>
@@ -39425,7 +39447,7 @@
         <v>198</v>
       </c>
       <c r="AK241" s="77" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AL241" s="36" t="s">
         <v>1</v>
@@ -39457,10 +39479,10 @@
         <v>242</v>
       </c>
       <c r="B242" s="58" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C242" s="71" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="D242" s="70" t="s">
         <v>1</v>
@@ -39562,7 +39584,7 @@
         <v>198</v>
       </c>
       <c r="AK242" s="77" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AL242" s="36" t="s">
         <v>1</v>
@@ -39594,10 +39616,10 @@
         <v>243</v>
       </c>
       <c r="B243" s="58" t="s">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="C243" s="71" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="D243" s="70" t="s">
         <v>1</v>
@@ -39698,8 +39720,8 @@
       <c r="AJ243" s="85" t="s">
         <v>198</v>
       </c>
-      <c r="AK243" s="76" t="s">
-        <v>586</v>
+      <c r="AK243" s="77" t="s">
+        <v>580</v>
       </c>
       <c r="AL243" s="36" t="s">
         <v>1</v>
@@ -39731,10 +39753,10 @@
         <v>244</v>
       </c>
       <c r="B244" s="58" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C244" s="71" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D244" s="70" t="s">
         <v>1</v>
@@ -39836,7 +39858,7 @@
         <v>198</v>
       </c>
       <c r="AK244" s="76" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AL244" s="36" t="s">
         <v>1</v>
@@ -39868,10 +39890,10 @@
         <v>245</v>
       </c>
       <c r="B245" s="58" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C245" s="71" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="D245" s="70" t="s">
         <v>1</v>
@@ -39973,138 +39995,280 @@
         <v>198</v>
       </c>
       <c r="AK245" s="76" t="s">
+        <v>587</v>
+      </c>
+      <c r="AL245" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM245" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN245" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO245" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP245" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ245" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR245" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS245" s="45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:45" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="44">
+        <v>246</v>
+      </c>
+      <c r="B246" s="58" t="s">
+        <v>596</v>
+      </c>
+      <c r="C246" s="71" t="s">
+        <v>583</v>
+      </c>
+      <c r="D246" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="E246" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F246" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="G246" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="H246" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="I246" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="J246" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="K246" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="L246" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="M246" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="N246" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="O246" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="P246" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q246" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="R246" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="S246" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="T246" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U246" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="V246" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="W246" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="X246" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y246" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z246" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA246" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB246" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC246" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD246" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE246" s="65" t="s">
+        <v>971</v>
+      </c>
+      <c r="AF246" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG246" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH246" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI246" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ246" s="85" t="s">
+        <v>198</v>
+      </c>
+      <c r="AK246" s="76" t="s">
         <v>588</v>
       </c>
-      <c r="AL245" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM245" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN245" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO245" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP245" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ245" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="AR245" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS245" s="45" t="s">
+      <c r="AL246" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM246" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN246" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO246" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP246" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ246" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR246" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS246" s="45" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AS248">
-    <sortCondition ref="A1:A248"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AS249">
+    <sortCondition ref="A1:A249"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="28" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79">
-    <cfRule type="duplicateValues" dxfId="27" priority="1711"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="1712"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B80:B93 B95:B231">
-    <cfRule type="duplicateValues" dxfId="26" priority="20"/>
+  <conditionalFormatting sqref="B80:B93 B95:B232">
+    <cfRule type="duplicateValues" dxfId="27" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="duplicateValues" dxfId="25" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B246:B1048576 B232:B241 B1:B78">
-    <cfRule type="duplicateValues" dxfId="21" priority="260"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="331"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="332"/>
+  <conditionalFormatting sqref="B247:B1048576 B233:B242 B1:B78">
+    <cfRule type="duplicateValues" dxfId="22" priority="261"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="332"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="333"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B246:B1048576 B232:B241 B1:B79">
-    <cfRule type="duplicateValues" dxfId="18" priority="229"/>
+  <conditionalFormatting sqref="B247:B1048576 B233:B242 B1:B79">
+    <cfRule type="duplicateValues" dxfId="19" priority="230"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:AD1 AE1:AE79 AH1:AI79 D2:AD32 C2:C79 N33:AD79 AL153:AO245 C232:C245 D240:AD245 AH240:AI245 A1:A245">
-    <cfRule type="cellIs" dxfId="0" priority="284" operator="equal">
+  <conditionalFormatting sqref="C1:AD1 AE1:AE79 AH1:AI79 D2:AD32 C2:C79 N33:AD79 C233:C246 D241:AD246 AH241:AI246 AL153:AO246 A1:A246">
+    <cfRule type="cellIs" dxfId="0" priority="285" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:M78">
-    <cfRule type="cellIs" dxfId="17" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="26" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="duplicateValues" dxfId="16" priority="1723"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1724"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80:E136 E138:E231">
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
+  <conditionalFormatting sqref="E80:E136 E138:E232">
+    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="duplicateValues" dxfId="14" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E137">
-    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E246:E1048576 E232:E239">
-    <cfRule type="duplicateValues" dxfId="12" priority="259"/>
+  <conditionalFormatting sqref="E247:E1048576 E233:E240">
+    <cfRule type="duplicateValues" dxfId="13" priority="260"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N234:N239">
+  <conditionalFormatting sqref="N235:N240">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N233:O234">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N232:O233">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P232:Q239">
-    <cfRule type="cellIs" dxfId="9" priority="120" operator="equal">
+  <conditionalFormatting sqref="P233:Q240">
+    <cfRule type="cellIs" dxfId="10" priority="121" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF72:AF79 AG72:AG92">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF1:AG71">
     <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF1:AG71">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF153:AG245">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+  <conditionalFormatting sqref="AF153:AG246">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL1:AS79">
-    <cfRule type="cellIs" dxfId="5" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="27" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP232:AP239">
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+  <conditionalFormatting sqref="AP233:AP240">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP153:AQ230">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+  <conditionalFormatting sqref="AP153:AQ231">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP240:AQ245">
-    <cfRule type="cellIs" dxfId="2" priority="252" operator="equal">
+  <conditionalFormatting sqref="AP241:AQ246">
+    <cfRule type="cellIs" dxfId="3" priority="253" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR153:AS245">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+  <conditionalFormatting sqref="AR153:AS246">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE220">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Versão5/VEGE/Ontologia_VEGET.xlsx
+++ b/Versão5/VEGE/Ontologia_VEGET.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\VEGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA30C64-7542-4FA9-BD20-DDE0986C78ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72558DB7-6CEB-45C4-A84C-8B923E44E728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" tabRatio="577" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10407" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10407" uniqueCount="999">
   <si>
     <t>Key</t>
   </si>
@@ -2734,9 +2734,6 @@
     <t>"Óleo-resina com propriedades anti-inflamatórias"</t>
   </si>
   <si>
-    <t>"Raízes aéreas, folhas grandes, frutos comestíveis"</t>
-  </si>
-  <si>
     <t>"Fruto comestível, folhas claras"</t>
   </si>
   <si>
@@ -2872,15 +2869,6 @@
     <t>"Árvore de floração intensa amarela, muito usada em paisagismo urbano. É um símbolo nacional em Brasil. Também conhecido como lapacho em Argentina"</t>
   </si>
   <si>
-    <t>"Uma das maiores árvores do Brasil, tronco monumental. Apresenta tom avermelhado na primavera e suas flores são claras ou vermelhas. Em língua tupi, significa 'gigante da floresta' ou 'patriarca da floresta'"</t>
-  </si>
-  <si>
-    <t>"Uma das maiores árvores do Brasil, tronco monumental. Apresenta tom avermelhado na primavera e suas flores vermelhas em racemos, fruto pixídio, sementes apreciadas por fauna. Em língua tupi, significa 'gigante da floresta' ou 'patriarca da floresta'"</t>
-  </si>
-  <si>
-    <t>"Uma das maiores árvores do Brasil, tronco monumental, claro e reto. Em língua tupi, significa 'gigante da floresta' ou 'patriarca da floresta'"</t>
-  </si>
-  <si>
     <t>"Também conhecida como Jacarandá paulista ou caroba, tem madeira escura e folhas compostas. Utilizada para reflorestamento e arborização urbana. De crescimento rápido, natural de Minas Gerais até Rio Grande do Sul. Pouco agressiva, de porte médio e extremamente ornamental pela sua floração rósea. Indicada para calçadas sem fiação elétrica. Planta decídua, heliófita, pioneira (capaz de recuperação ecológica de áreas degradadas). É característica de encostas rochosas da floresta latifoliada e transição para o cerrado (https://www.ibflorestas.org.br)"</t>
   </si>
   <si>
@@ -3065,6 +3053,21 @@
   </si>
   <si>
     <t>"Aerea adventícia"</t>
+  </si>
+  <si>
+    <t>"Raízes aéreas, folhas grandes, frutos comestíveis. Frequentemente cobertas por lianas como cipós"</t>
+  </si>
+  <si>
+    <t>"Fruto farináceo, madeira de alta densidade. Suas copas amplas favorecem o crescimento de lianas"</t>
+  </si>
+  <si>
+    <t>"Uma das maiores árvores do Brasil, tronco monumental, claro e reto. Em língua tupi, significa 'gigante da floresta' ou 'patriarca da floresta'. Seu tronco serve de suporte para diversas lianas"</t>
+  </si>
+  <si>
+    <t>"Uma das maiores árvores do Brasil, tronco monumental. Apresenta tom avermelhado na primavera e suas flores são claras ou vermelhas. Em língua tupi, significa 'gigante da floresta' ou 'patriarca da floresta'. Seu tronco serve de suporte para diversas lianas"</t>
+  </si>
+  <si>
+    <t>"Uma das maiores árvores do Brasil, tronco monumental. Apresenta tom avermelhado na primavera e suas flores vermelhas em racemos, fruto pixídio, sementes apreciadas por fauna. Em língua tupi, significa 'gigante da floresta' ou 'patriarca da floresta' Seu tronco serve de suporte para diversas lianas"</t>
   </si>
 </sst>
 </file>
@@ -3727,13 +3730,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i/>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3781,6 +3777,13 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -4535,71 +4538,71 @@
       </c>
       <c r="B18" s="92">
         <f ca="1">NOW()</f>
-        <v>45953.321134837963</v>
+        <v>45953.32739953704</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="B19" s="91" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="B20" s="91" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="B21" s="91" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="B22" s="93" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
+        <v>972</v>
+      </c>
+      <c r="B23" s="93" t="s">
         <v>976</v>
-      </c>
-      <c r="B23" s="93" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="B24" s="91" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="B25" s="93" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
+        <v>982</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>986</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6406,9 +6409,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B52AA7-680B-4C72-8598-6D856F54368E}">
   <dimension ref="A1:AS246"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A246"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AK168" sqref="AK168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="166.28515625" defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17366,19 +17369,19 @@
         <v>191</v>
       </c>
       <c r="AC80" s="57" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="AD80" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE80" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AF80" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG80" s="52" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="AH80" s="86" t="s">
         <v>193</v>
@@ -17390,7 +17393,7 @@
         <v>198</v>
       </c>
       <c r="AK80" s="52" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="AL80" s="55" t="s">
         <v>628</v>
@@ -17509,7 +17512,7 @@
         <v>192</v>
       </c>
       <c r="AE81" s="65" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="AF81" s="56" t="s">
         <v>627</v>
@@ -17640,19 +17643,19 @@
         <v>191</v>
       </c>
       <c r="AC82" s="57" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="AD82" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE82" s="65" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="AF82" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG82" s="52" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="AH82" s="86" t="s">
         <v>193</v>
@@ -17783,13 +17786,13 @@
         <v>192</v>
       </c>
       <c r="AE83" s="65" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="AF83" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG83" s="52" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="AH83" s="86" t="s">
         <v>193</v>
@@ -17914,19 +17917,19 @@
         <v>191</v>
       </c>
       <c r="AC84" s="57" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="AD84" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE84" s="65" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="AF84" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG84" s="52" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="AH84" s="86" t="s">
         <v>193</v>
@@ -17938,7 +17941,7 @@
         <v>198</v>
       </c>
       <c r="AK84" s="52" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="AL84" s="55" t="s">
         <v>628</v>
@@ -18057,13 +18060,13 @@
         <v>192</v>
       </c>
       <c r="AE85" s="65" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="AF85" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG85" s="52" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="AH85" s="86" t="s">
         <v>193</v>
@@ -18194,13 +18197,13 @@
         <v>192</v>
       </c>
       <c r="AE86" s="65" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="AF86" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG86" s="52" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="AH86" s="86" t="s">
         <v>193</v>
@@ -18331,13 +18334,13 @@
         <v>192</v>
       </c>
       <c r="AE87" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AF87" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG87" s="52" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="AH87" s="86" t="s">
         <v>193</v>
@@ -18349,7 +18352,7 @@
         <v>198</v>
       </c>
       <c r="AK87" s="52" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AL87" s="55" t="s">
         <v>628</v>
@@ -18462,19 +18465,19 @@
         <v>191</v>
       </c>
       <c r="AC88" s="57" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="AD88" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE88" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AF88" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG88" s="52" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="AH88" s="86" t="s">
         <v>193</v>
@@ -18486,7 +18489,7 @@
         <v>198</v>
       </c>
       <c r="AK88" s="52" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="AL88" s="55" t="s">
         <v>628</v>
@@ -18599,19 +18602,19 @@
         <v>191</v>
       </c>
       <c r="AC89" s="57" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="AD89" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE89" s="65" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="AF89" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG89" s="52" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="AH89" s="86" t="s">
         <v>193</v>
@@ -18736,19 +18739,19 @@
         <v>191</v>
       </c>
       <c r="AC90" s="57" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="AD90" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE90" s="65" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="AF90" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG90" s="52" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="AH90" s="86" t="s">
         <v>193</v>
@@ -18760,7 +18763,7 @@
         <v>198</v>
       </c>
       <c r="AK90" s="52" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="AL90" s="55" t="s">
         <v>628</v>
@@ -18873,19 +18876,19 @@
         <v>191</v>
       </c>
       <c r="AC91" s="57" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="AD91" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE91" s="65" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="AF91" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG91" s="52" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="AH91" s="86" t="s">
         <v>193</v>
@@ -18897,7 +18900,7 @@
         <v>198</v>
       </c>
       <c r="AK91" s="52" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="AL91" s="55" t="s">
         <v>628</v>
@@ -19016,13 +19019,13 @@
         <v>192</v>
       </c>
       <c r="AE92" s="65" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="AF92" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG92" s="52" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="AH92" s="86" t="s">
         <v>193</v>
@@ -19147,19 +19150,19 @@
         <v>191</v>
       </c>
       <c r="AC93" s="57" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="AD93" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE93" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AF93" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG93" s="52" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="AH93" s="86" t="s">
         <v>193</v>
@@ -19171,7 +19174,7 @@
         <v>198</v>
       </c>
       <c r="AK93" s="52" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="AL93" s="55" t="s">
         <v>628</v>
@@ -19284,19 +19287,19 @@
         <v>191</v>
       </c>
       <c r="AC94" s="57" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="AD94" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE94" s="65" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="AF94" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG94" s="52" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="AH94" s="86" t="s">
         <v>193</v>
@@ -19308,7 +19311,7 @@
         <v>198</v>
       </c>
       <c r="AK94" s="52" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="AL94" s="55" t="s">
         <v>628</v>
@@ -19427,13 +19430,13 @@
         <v>192</v>
       </c>
       <c r="AE95" s="65" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="AF95" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG95" s="52" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="AH95" s="86" t="s">
         <v>193</v>
@@ -19558,19 +19561,19 @@
         <v>191</v>
       </c>
       <c r="AC96" s="57" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="AD96" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE96" s="65" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="AF96" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG96" s="52" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="AH96" s="86" t="s">
         <v>193</v>
@@ -19701,13 +19704,13 @@
         <v>192</v>
       </c>
       <c r="AE97" s="65" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="AF97" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG97" s="52" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="AH97" s="86" t="s">
         <v>193</v>
@@ -19838,13 +19841,13 @@
         <v>192</v>
       </c>
       <c r="AE98" s="65" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="AF98" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG98" s="52" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="AH98" s="86" t="s">
         <v>193</v>
@@ -19975,13 +19978,13 @@
         <v>192</v>
       </c>
       <c r="AE99" s="65" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="AF99" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG99" s="52" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="AH99" s="86" t="s">
         <v>193</v>
@@ -20112,13 +20115,13 @@
         <v>192</v>
       </c>
       <c r="AE100" s="65" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="AF100" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG100" s="52" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="AH100" s="86" t="s">
         <v>193</v>
@@ -20249,13 +20252,13 @@
         <v>192</v>
       </c>
       <c r="AE101" s="65" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="AF101" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG101" s="52" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="AH101" s="86" t="s">
         <v>193</v>
@@ -20386,13 +20389,13 @@
         <v>192</v>
       </c>
       <c r="AE102" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AF102" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG102" s="52" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="AH102" s="86" t="s">
         <v>193</v>
@@ -20523,13 +20526,13 @@
         <v>192</v>
       </c>
       <c r="AE103" s="65" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AF103" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG103" s="52" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AH103" s="86" t="s">
         <v>193</v>
@@ -20660,13 +20663,13 @@
         <v>192</v>
       </c>
       <c r="AE104" s="65" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="AF104" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG104" s="52" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="AH104" s="86" t="s">
         <v>193</v>
@@ -20797,13 +20800,13 @@
         <v>192</v>
       </c>
       <c r="AE105" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AF105" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG105" s="52" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="AH105" s="86" t="s">
         <v>193</v>
@@ -20815,7 +20818,7 @@
         <v>198</v>
       </c>
       <c r="AK105" s="52" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="AL105" s="55" t="s">
         <v>628</v>
@@ -20934,13 +20937,13 @@
         <v>192</v>
       </c>
       <c r="AE106" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AF106" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG106" s="52" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="AH106" s="86" t="s">
         <v>193</v>
@@ -20952,7 +20955,7 @@
         <v>198</v>
       </c>
       <c r="AK106" s="52" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="AL106" s="55" t="s">
         <v>628</v>
@@ -21071,13 +21074,13 @@
         <v>192</v>
       </c>
       <c r="AE107" s="65" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="AF107" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG107" s="52" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="AH107" s="86" t="s">
         <v>193</v>
@@ -21208,13 +21211,13 @@
         <v>192</v>
       </c>
       <c r="AE108" s="65" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AF108" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG108" s="52" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AH108" s="86" t="s">
         <v>193</v>
@@ -21226,7 +21229,7 @@
         <v>198</v>
       </c>
       <c r="AK108" s="52" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="AL108" s="55" t="s">
         <v>628</v>
@@ -21345,13 +21348,13 @@
         <v>192</v>
       </c>
       <c r="AE109" s="65" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AF109" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG109" s="52" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AH109" s="86" t="s">
         <v>193</v>
@@ -21482,13 +21485,13 @@
         <v>192</v>
       </c>
       <c r="AE110" s="65" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="AF110" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG110" s="52" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="AH110" s="86" t="s">
         <v>193</v>
@@ -21619,13 +21622,13 @@
         <v>192</v>
       </c>
       <c r="AE111" s="65" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="AF111" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG111" s="52" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="AH111" s="86" t="s">
         <v>193</v>
@@ -21750,19 +21753,19 @@
         <v>191</v>
       </c>
       <c r="AC112" s="57" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="AD112" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE112" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AF112" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG112" s="52" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="AH112" s="86" t="s">
         <v>193</v>
@@ -21774,7 +21777,7 @@
         <v>198</v>
       </c>
       <c r="AK112" s="52" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="AL112" s="55" t="s">
         <v>628</v>
@@ -21887,19 +21890,19 @@
         <v>191</v>
       </c>
       <c r="AC113" s="57" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="AD113" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE113" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AF113" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG113" s="52" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="AH113" s="86" t="s">
         <v>193</v>
@@ -21911,7 +21914,7 @@
         <v>198</v>
       </c>
       <c r="AK113" s="52" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AL113" s="55" t="s">
         <v>628</v>
@@ -22024,19 +22027,19 @@
         <v>191</v>
       </c>
       <c r="AC114" s="57" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="AD114" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE114" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AF114" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG114" s="52" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="AH114" s="86" t="s">
         <v>193</v>
@@ -22048,7 +22051,7 @@
         <v>198</v>
       </c>
       <c r="AK114" s="52" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="AL114" s="55" t="s">
         <v>628</v>
@@ -22167,13 +22170,13 @@
         <v>192</v>
       </c>
       <c r="AE115" s="65" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="AF115" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG115" s="52" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="AH115" s="86" t="s">
         <v>193</v>
@@ -22304,13 +22307,13 @@
         <v>192</v>
       </c>
       <c r="AE116" s="65" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="AF116" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG116" s="52" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="AH116" s="86" t="s">
         <v>193</v>
@@ -22435,19 +22438,19 @@
         <v>191</v>
       </c>
       <c r="AC117" s="57" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="AD117" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE117" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AF117" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG117" s="52" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="AH117" s="86" t="s">
         <v>193</v>
@@ -22459,7 +22462,7 @@
         <v>198</v>
       </c>
       <c r="AK117" s="52" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AL117" s="55" t="s">
         <v>628</v>
@@ -22572,19 +22575,19 @@
         <v>191</v>
       </c>
       <c r="AC118" s="57" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="AD118" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE118" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AF118" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG118" s="52" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="AH118" s="86" t="s">
         <v>193</v>
@@ -22709,19 +22712,19 @@
         <v>191</v>
       </c>
       <c r="AC119" s="57" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="AD119" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE119" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AF119" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG119" s="52" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="AH119" s="86" t="s">
         <v>193</v>
@@ -22733,7 +22736,7 @@
         <v>198</v>
       </c>
       <c r="AK119" s="52" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="AL119" s="55" t="s">
         <v>628</v>
@@ -22852,13 +22855,13 @@
         <v>192</v>
       </c>
       <c r="AE120" s="65" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AF120" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG120" s="52" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AH120" s="86" t="s">
         <v>193</v>
@@ -22989,13 +22992,13 @@
         <v>192</v>
       </c>
       <c r="AE121" s="65" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AF121" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG121" s="52" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AH121" s="86" t="s">
         <v>193</v>
@@ -23126,13 +23129,13 @@
         <v>192</v>
       </c>
       <c r="AE122" s="65" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="AF122" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG122" s="52" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="AH122" s="86" t="s">
         <v>193</v>
@@ -23257,19 +23260,19 @@
         <v>191</v>
       </c>
       <c r="AC123" s="57" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="AD123" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE123" s="65" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="AF123" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG123" s="52" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="AH123" s="86" t="s">
         <v>193</v>
@@ -23281,7 +23284,7 @@
         <v>198</v>
       </c>
       <c r="AK123" s="52" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="AL123" s="55" t="s">
         <v>628</v>
@@ -23394,19 +23397,19 @@
         <v>191</v>
       </c>
       <c r="AC124" s="57" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="AD124" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE124" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AF124" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG124" s="52" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="AH124" s="86" t="s">
         <v>193</v>
@@ -23418,7 +23421,7 @@
         <v>198</v>
       </c>
       <c r="AK124" s="52" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="AL124" s="55" t="s">
         <v>628</v>
@@ -23537,13 +23540,13 @@
         <v>192</v>
       </c>
       <c r="AE125" s="65" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="AF125" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG125" s="52" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="AH125" s="86" t="s">
         <v>193</v>
@@ -23668,19 +23671,19 @@
         <v>191</v>
       </c>
       <c r="AC126" s="57" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="AD126" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE126" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AF126" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG126" s="52" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="AH126" s="86" t="s">
         <v>193</v>
@@ -23811,13 +23814,13 @@
         <v>192</v>
       </c>
       <c r="AE127" s="65" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AF127" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG127" s="52" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AH127" s="86" t="s">
         <v>193</v>
@@ -23948,13 +23951,13 @@
         <v>192</v>
       </c>
       <c r="AE128" s="65" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="AF128" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG128" s="52" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="AH128" s="86" t="s">
         <v>193</v>
@@ -24085,13 +24088,13 @@
         <v>192</v>
       </c>
       <c r="AE129" s="65" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="AF129" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG129" s="52" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="AH129" s="86" t="s">
         <v>193</v>
@@ -24216,19 +24219,19 @@
         <v>191</v>
       </c>
       <c r="AC130" s="57" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="AD130" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE130" s="65" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="AF130" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG130" s="52" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="AH130" s="86" t="s">
         <v>193</v>
@@ -24240,7 +24243,7 @@
         <v>198</v>
       </c>
       <c r="AK130" s="52" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="AL130" s="55" t="s">
         <v>628</v>
@@ -24353,19 +24356,19 @@
         <v>191</v>
       </c>
       <c r="AC131" s="57" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="AD131" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE131" s="65" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AF131" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG131" s="52" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AH131" s="86" t="s">
         <v>193</v>
@@ -24490,19 +24493,19 @@
         <v>191</v>
       </c>
       <c r="AC132" s="57" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="AD132" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE132" s="65" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="AF132" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG132" s="52" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="AH132" s="86" t="s">
         <v>193</v>
@@ -24633,13 +24636,13 @@
         <v>192</v>
       </c>
       <c r="AE133" s="65" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="AF133" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG133" s="52" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="AH133" s="86" t="s">
         <v>193</v>
@@ -24651,7 +24654,7 @@
         <v>198</v>
       </c>
       <c r="AK133" s="52" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="AL133" s="55" t="s">
         <v>628</v>
@@ -24764,19 +24767,19 @@
         <v>191</v>
       </c>
       <c r="AC134" s="57" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="AD134" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE134" s="65" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="AF134" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG134" s="52" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="AH134" s="86" t="s">
         <v>193</v>
@@ -24788,7 +24791,7 @@
         <v>198</v>
       </c>
       <c r="AK134" s="52" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="AL134" s="55" t="s">
         <v>628</v>
@@ -24901,19 +24904,19 @@
         <v>191</v>
       </c>
       <c r="AC135" s="57" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="AD135" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE135" s="65" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="AF135" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG135" s="52" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="AH135" s="86" t="s">
         <v>193</v>
@@ -24925,7 +24928,7 @@
         <v>198</v>
       </c>
       <c r="AK135" s="52" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="AL135" s="55" t="s">
         <v>628</v>
@@ -25038,19 +25041,19 @@
         <v>191</v>
       </c>
       <c r="AC136" s="57" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="AD136" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE136" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AF136" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG136" s="52" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="AH136" s="86" t="s">
         <v>193</v>
@@ -25062,7 +25065,7 @@
         <v>198</v>
       </c>
       <c r="AK136" s="52" t="s">
-        <v>887</v>
+        <v>994</v>
       </c>
       <c r="AL136" s="55" t="s">
         <v>628</v>
@@ -25175,19 +25178,19 @@
         <v>191</v>
       </c>
       <c r="AC137" s="57" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="AD137" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE137" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AF137" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG137" s="52" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="AH137" s="86" t="s">
         <v>193</v>
@@ -25199,7 +25202,7 @@
         <v>198</v>
       </c>
       <c r="AK137" s="52" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="AL137" s="55" t="s">
         <v>628</v>
@@ -25312,19 +25315,19 @@
         <v>191</v>
       </c>
       <c r="AC138" s="57" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="AD138" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE138" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AF138" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG138" s="52" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="AH138" s="86" t="s">
         <v>193</v>
@@ -25449,19 +25452,19 @@
         <v>191</v>
       </c>
       <c r="AC139" s="57" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="AD139" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE139" s="65" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="AF139" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG139" s="52" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="AH139" s="86" t="s">
         <v>193</v>
@@ -25586,19 +25589,19 @@
         <v>191</v>
       </c>
       <c r="AC140" s="57" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="AD140" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE140" s="65" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="AF140" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG140" s="52" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="AH140" s="86" t="s">
         <v>193</v>
@@ -25723,19 +25726,19 @@
         <v>191</v>
       </c>
       <c r="AC141" s="57" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="AD141" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE141" s="65" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="AF141" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG141" s="52" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="AH141" s="86" t="s">
         <v>193</v>
@@ -25860,19 +25863,19 @@
         <v>191</v>
       </c>
       <c r="AC142" s="57" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="AD142" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE142" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AF142" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG142" s="52" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="AH142" s="86" t="s">
         <v>193</v>
@@ -26003,13 +26006,13 @@
         <v>192</v>
       </c>
       <c r="AE143" s="65" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AF143" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG143" s="52" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AH143" s="86" t="s">
         <v>193</v>
@@ -26140,13 +26143,13 @@
         <v>192</v>
       </c>
       <c r="AE144" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AF144" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG144" s="52" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="AH144" s="86" t="s">
         <v>193</v>
@@ -26158,7 +26161,7 @@
         <v>198</v>
       </c>
       <c r="AK144" s="52" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="AL144" s="55" t="s">
         <v>628</v>
@@ -26277,13 +26280,13 @@
         <v>192</v>
       </c>
       <c r="AE145" s="65" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AF145" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG145" s="52" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AH145" s="86" t="s">
         <v>193</v>
@@ -26414,13 +26417,13 @@
         <v>192</v>
       </c>
       <c r="AE146" s="65" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="AF146" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG146" s="52" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="AH146" s="86" t="s">
         <v>193</v>
@@ -26545,19 +26548,19 @@
         <v>191</v>
       </c>
       <c r="AC147" s="57" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="AD147" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE147" s="65" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="AF147" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG147" s="52" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="AH147" s="86" t="s">
         <v>193</v>
@@ -26569,7 +26572,7 @@
         <v>198</v>
       </c>
       <c r="AK147" s="52" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AL147" s="55" t="s">
         <v>628</v>
@@ -26688,13 +26691,13 @@
         <v>192</v>
       </c>
       <c r="AE148" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AF148" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG148" s="52" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="AH148" s="86" t="s">
         <v>193</v>
@@ -26706,7 +26709,7 @@
         <v>198</v>
       </c>
       <c r="AK148" s="52" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="AL148" s="55" t="s">
         <v>628</v>
@@ -26819,19 +26822,19 @@
         <v>191</v>
       </c>
       <c r="AC149" s="57" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="AD149" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE149" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AF149" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG149" s="52" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="AH149" s="86" t="s">
         <v>193</v>
@@ -26843,7 +26846,7 @@
         <v>198</v>
       </c>
       <c r="AK149" s="52" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="AL149" s="55" t="s">
         <v>628</v>
@@ -26962,13 +26965,13 @@
         <v>192</v>
       </c>
       <c r="AE150" s="65" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AF150" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG150" s="52" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AH150" s="86" t="s">
         <v>193</v>
@@ -27093,19 +27096,19 @@
         <v>191</v>
       </c>
       <c r="AC151" s="57" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="AD151" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE151" s="65" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="AF151" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG151" s="52" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="AH151" s="86" t="s">
         <v>193</v>
@@ -27117,7 +27120,7 @@
         <v>198</v>
       </c>
       <c r="AK151" s="52" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="AL151" s="55" t="s">
         <v>628</v>
@@ -27230,19 +27233,19 @@
         <v>191</v>
       </c>
       <c r="AC152" s="57" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="AD152" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE152" s="65" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="AF152" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG152" s="52" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="AH152" s="86" t="s">
         <v>193</v>
@@ -27254,7 +27257,7 @@
         <v>198</v>
       </c>
       <c r="AK152" s="52" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="AL152" s="55" t="s">
         <v>628</v>
@@ -27373,13 +27376,13 @@
         <v>192</v>
       </c>
       <c r="AE153" s="65" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="AF153" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG153" s="52" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="AH153" s="86" t="s">
         <v>193</v>
@@ -27504,19 +27507,19 @@
         <v>191</v>
       </c>
       <c r="AC154" s="57" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="AD154" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE154" s="65" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="AF154" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG154" s="52" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="AH154" s="86" t="s">
         <v>193</v>
@@ -27528,7 +27531,7 @@
         <v>198</v>
       </c>
       <c r="AK154" s="52" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="AL154" s="55" t="s">
         <v>628</v>
@@ -27647,13 +27650,13 @@
         <v>192</v>
       </c>
       <c r="AE155" s="65" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="AF155" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG155" s="52" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="AH155" s="86" t="s">
         <v>193</v>
@@ -27778,19 +27781,19 @@
         <v>191</v>
       </c>
       <c r="AC156" s="57" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="AD156" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE156" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AF156" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG156" s="52" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="AH156" s="86" t="s">
         <v>193</v>
@@ -27802,7 +27805,7 @@
         <v>198</v>
       </c>
       <c r="AK156" s="52" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="AL156" s="55" t="s">
         <v>628</v>
@@ -27915,19 +27918,19 @@
         <v>191</v>
       </c>
       <c r="AC157" s="57" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="AD157" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE157" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AF157" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG157" s="52" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="AH157" s="86" t="s">
         <v>193</v>
@@ -27939,7 +27942,7 @@
         <v>198</v>
       </c>
       <c r="AK157" s="52" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="AL157" s="55" t="s">
         <v>628</v>
@@ -28058,13 +28061,13 @@
         <v>192</v>
       </c>
       <c r="AE158" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AF158" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG158" s="52" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="AH158" s="86" t="s">
         <v>193</v>
@@ -28076,7 +28079,7 @@
         <v>198</v>
       </c>
       <c r="AK158" s="52" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="AL158" s="55" t="s">
         <v>628</v>
@@ -28195,13 +28198,13 @@
         <v>192</v>
       </c>
       <c r="AE159" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AF159" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG159" s="52" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="AH159" s="86" t="s">
         <v>193</v>
@@ -28213,7 +28216,7 @@
         <v>198</v>
       </c>
       <c r="AK159" s="52" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="AL159" s="55" t="s">
         <v>628</v>
@@ -28332,13 +28335,13 @@
         <v>192</v>
       </c>
       <c r="AE160" s="65" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AF160" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG160" s="52" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AH160" s="86" t="s">
         <v>193</v>
@@ -28469,13 +28472,13 @@
         <v>192</v>
       </c>
       <c r="AE161" s="65" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AF161" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG161" s="52" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AH161" s="86" t="s">
         <v>193</v>
@@ -28606,13 +28609,13 @@
         <v>192</v>
       </c>
       <c r="AE162" s="65" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AF162" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG162" s="52" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AH162" s="86" t="s">
         <v>193</v>
@@ -28737,19 +28740,19 @@
         <v>191</v>
       </c>
       <c r="AC163" s="57" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="AD163" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE163" s="65" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="AF163" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG163" s="52" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="AH163" s="86" t="s">
         <v>193</v>
@@ -28761,7 +28764,7 @@
         <v>198</v>
       </c>
       <c r="AK163" s="52" t="s">
-        <v>890</v>
+        <v>995</v>
       </c>
       <c r="AL163" s="55" t="s">
         <v>628</v>
@@ -28874,19 +28877,19 @@
         <v>191</v>
       </c>
       <c r="AC164" s="57" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="AD164" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE164" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AF164" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG164" s="52" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="AH164" s="86" t="s">
         <v>193</v>
@@ -28898,7 +28901,7 @@
         <v>198</v>
       </c>
       <c r="AK164" s="52" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="AL164" s="55" t="s">
         <v>628</v>
@@ -29011,19 +29014,19 @@
         <v>191</v>
       </c>
       <c r="AC165" s="57" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="AD165" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE165" s="65" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="AF165" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG165" s="52" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="AH165" s="86" t="s">
         <v>193</v>
@@ -29035,7 +29038,7 @@
         <v>198</v>
       </c>
       <c r="AK165" s="52" t="s">
-        <v>935</v>
+        <v>996</v>
       </c>
       <c r="AL165" s="55" t="s">
         <v>628</v>
@@ -29148,19 +29151,19 @@
         <v>191</v>
       </c>
       <c r="AC166" s="57" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="AD166" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE166" s="65" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="AF166" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG166" s="52" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="AH166" s="86" t="s">
         <v>193</v>
@@ -29172,7 +29175,7 @@
         <v>198</v>
       </c>
       <c r="AK166" s="52" t="s">
-        <v>933</v>
+        <v>997</v>
       </c>
       <c r="AL166" s="55" t="s">
         <v>628</v>
@@ -29291,13 +29294,13 @@
         <v>192</v>
       </c>
       <c r="AE167" s="65" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="AF167" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG167" s="52" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="AH167" s="86" t="s">
         <v>193</v>
@@ -29309,7 +29312,7 @@
         <v>198</v>
       </c>
       <c r="AK167" s="52" t="s">
-        <v>934</v>
+        <v>998</v>
       </c>
       <c r="AL167" s="55" t="s">
         <v>628</v>
@@ -29422,19 +29425,19 @@
         <v>191</v>
       </c>
       <c r="AC168" s="57" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="AD168" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE168" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AF168" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG168" s="52" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="AH168" s="86" t="s">
         <v>193</v>
@@ -29446,7 +29449,7 @@
         <v>198</v>
       </c>
       <c r="AK168" s="52" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="AL168" s="55" t="s">
         <v>628</v>
@@ -29565,13 +29568,13 @@
         <v>192</v>
       </c>
       <c r="AE169" s="65" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AF169" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG169" s="52" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AH169" s="86" t="s">
         <v>193</v>
@@ -29702,13 +29705,13 @@
         <v>192</v>
       </c>
       <c r="AE170" s="65" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="AF170" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG170" s="52" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="AH170" s="86" t="s">
         <v>193</v>
@@ -29839,13 +29842,13 @@
         <v>192</v>
       </c>
       <c r="AE171" s="65" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="AF171" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG171" s="52" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="AH171" s="86" t="s">
         <v>193</v>
@@ -29976,13 +29979,13 @@
         <v>192</v>
       </c>
       <c r="AE172" s="65" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="AF172" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG172" s="52" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="AH172" s="86" t="s">
         <v>193</v>
@@ -30107,19 +30110,19 @@
         <v>191</v>
       </c>
       <c r="AC173" s="57" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="AD173" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE173" s="65" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="AF173" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG173" s="52" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="AH173" s="86" t="s">
         <v>193</v>
@@ -30131,7 +30134,7 @@
         <v>198</v>
       </c>
       <c r="AK173" s="52" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AL173" s="55" t="s">
         <v>628</v>
@@ -30250,13 +30253,13 @@
         <v>192</v>
       </c>
       <c r="AE174" s="65" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AF174" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG174" s="52" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AH174" s="86" t="s">
         <v>193</v>
@@ -30387,13 +30390,13 @@
         <v>192</v>
       </c>
       <c r="AE175" s="65" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="AF175" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG175" s="52" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="AH175" s="86" t="s">
         <v>193</v>
@@ -30524,13 +30527,13 @@
         <v>192</v>
       </c>
       <c r="AE176" s="65" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="AF176" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG176" s="52" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="AH176" s="86" t="s">
         <v>193</v>
@@ -30661,13 +30664,13 @@
         <v>192</v>
       </c>
       <c r="AE177" s="65" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AF177" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG177" s="52" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AH177" s="86" t="s">
         <v>193</v>
@@ -30798,13 +30801,13 @@
         <v>192</v>
       </c>
       <c r="AE178" s="65" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="AF178" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG178" s="52" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="AH178" s="86" t="s">
         <v>193</v>
@@ -30857,7 +30860,7 @@
         <v>195</v>
       </c>
       <c r="E179" s="52" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="F179" s="60" t="s">
         <v>309</v>
@@ -30935,13 +30938,13 @@
         <v>192</v>
       </c>
       <c r="AE179" s="65" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AF179" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG179" s="52" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AH179" s="86" t="s">
         <v>193</v>
@@ -30953,7 +30956,7 @@
         <v>198</v>
       </c>
       <c r="AK179" s="52" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="AL179" s="55" t="s">
         <v>628</v>
@@ -31072,13 +31075,13 @@
         <v>192</v>
       </c>
       <c r="AE180" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AF180" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG180" s="52" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="AH180" s="86" t="s">
         <v>193</v>
@@ -31090,7 +31093,7 @@
         <v>198</v>
       </c>
       <c r="AK180" s="52" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="AL180" s="55" t="s">
         <v>628</v>
@@ -31209,13 +31212,13 @@
         <v>192</v>
       </c>
       <c r="AE181" s="65" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AF181" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG181" s="52" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AH181" s="86" t="s">
         <v>193</v>
@@ -31346,13 +31349,13 @@
         <v>192</v>
       </c>
       <c r="AE182" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AF182" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG182" s="52" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="AH182" s="86" t="s">
         <v>193</v>
@@ -31364,7 +31367,7 @@
         <v>198</v>
       </c>
       <c r="AK182" s="52" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="AL182" s="55" t="s">
         <v>628</v>
@@ -31483,13 +31486,13 @@
         <v>192</v>
       </c>
       <c r="AE183" s="65" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AF183" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG183" s="52" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AH183" s="86" t="s">
         <v>193</v>
@@ -31620,13 +31623,13 @@
         <v>192</v>
       </c>
       <c r="AE184" s="65" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="AF184" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG184" s="52" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="AH184" s="86" t="s">
         <v>193</v>
@@ -31757,13 +31760,13 @@
         <v>192</v>
       </c>
       <c r="AE185" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AF185" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG185" s="52" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="AH185" s="86" t="s">
         <v>193</v>
@@ -31894,13 +31897,13 @@
         <v>192</v>
       </c>
       <c r="AE186" s="65" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="AF186" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG186" s="52" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="AH186" s="86" t="s">
         <v>193</v>
@@ -32031,13 +32034,13 @@
         <v>192</v>
       </c>
       <c r="AE187" s="65" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AF187" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG187" s="52" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AH187" s="86" t="s">
         <v>193</v>
@@ -32168,13 +32171,13 @@
         <v>192</v>
       </c>
       <c r="AE188" s="65" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AF188" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG188" s="52" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AH188" s="86" t="s">
         <v>193</v>
@@ -32305,13 +32308,13 @@
         <v>192</v>
       </c>
       <c r="AE189" s="65" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="AF189" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG189" s="52" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="AH189" s="86" t="s">
         <v>193</v>
@@ -32436,19 +32439,19 @@
         <v>191</v>
       </c>
       <c r="AC190" s="57" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="AD190" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE190" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AF190" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG190" s="52" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="AH190" s="86" t="s">
         <v>193</v>
@@ -32460,7 +32463,7 @@
         <v>198</v>
       </c>
       <c r="AK190" s="52" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="AL190" s="55" t="s">
         <v>628</v>
@@ -32579,13 +32582,13 @@
         <v>192</v>
       </c>
       <c r="AE191" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AF191" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG191" s="52" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="AH191" s="86" t="s">
         <v>193</v>
@@ -32597,7 +32600,7 @@
         <v>198</v>
       </c>
       <c r="AK191" s="52" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AL191" s="55" t="s">
         <v>628</v>
@@ -32716,13 +32719,13 @@
         <v>192</v>
       </c>
       <c r="AE192" s="65" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="AF192" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG192" s="52" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="AH192" s="86" t="s">
         <v>193</v>
@@ -32853,13 +32856,13 @@
         <v>192</v>
       </c>
       <c r="AE193" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AF193" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG193" s="52" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="AH193" s="86" t="s">
         <v>193</v>
@@ -32871,7 +32874,7 @@
         <v>198</v>
       </c>
       <c r="AK193" s="52" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="AL193" s="55" t="s">
         <v>628</v>
@@ -32984,19 +32987,19 @@
         <v>191</v>
       </c>
       <c r="AC194" s="57" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="AD194" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE194" s="65" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="AF194" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG194" s="52" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="AH194" s="86" t="s">
         <v>193</v>
@@ -33008,7 +33011,7 @@
         <v>198</v>
       </c>
       <c r="AK194" s="52" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="AL194" s="55" t="s">
         <v>628</v>
@@ -33127,13 +33130,13 @@
         <v>192</v>
       </c>
       <c r="AE195" s="65" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AF195" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG195" s="52" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AH195" s="86" t="s">
         <v>193</v>
@@ -33264,13 +33267,13 @@
         <v>192</v>
       </c>
       <c r="AE196" s="65" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AF196" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG196" s="52" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AH196" s="86" t="s">
         <v>193</v>
@@ -33401,13 +33404,13 @@
         <v>192</v>
       </c>
       <c r="AE197" s="65" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AF197" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG197" s="52" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AH197" s="86" t="s">
         <v>193</v>
@@ -33538,13 +33541,13 @@
         <v>192</v>
       </c>
       <c r="AE198" s="65" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AF198" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG198" s="52" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AH198" s="86" t="s">
         <v>193</v>
@@ -33675,13 +33678,13 @@
         <v>192</v>
       </c>
       <c r="AE199" s="65" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="AF199" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG199" s="52" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="AH199" s="86" t="s">
         <v>193</v>
@@ -33812,13 +33815,13 @@
         <v>192</v>
       </c>
       <c r="AE200" s="65" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="AF200" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG200" s="52" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="AH200" s="86" t="s">
         <v>193</v>
@@ -33949,13 +33952,13 @@
         <v>192</v>
       </c>
       <c r="AE201" s="65" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="AF201" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG201" s="52" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="AH201" s="86" t="s">
         <v>193</v>
@@ -34086,13 +34089,13 @@
         <v>192</v>
       </c>
       <c r="AE202" s="65" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="AF202" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG202" s="52" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="AH202" s="86" t="s">
         <v>193</v>
@@ -34223,13 +34226,13 @@
         <v>192</v>
       </c>
       <c r="AE203" s="65" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="AF203" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG203" s="52" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="AH203" s="86" t="s">
         <v>193</v>
@@ -34360,13 +34363,13 @@
         <v>192</v>
       </c>
       <c r="AE204" s="65" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AF204" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG204" s="52" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AH204" s="86" t="s">
         <v>193</v>
@@ -34497,13 +34500,13 @@
         <v>192</v>
       </c>
       <c r="AE205" s="65" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="AF205" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG205" s="52" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="AH205" s="86" t="s">
         <v>193</v>
@@ -34634,13 +34637,13 @@
         <v>192</v>
       </c>
       <c r="AE206" s="65" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AF206" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG206" s="52" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AH206" s="86" t="s">
         <v>193</v>
@@ -34771,13 +34774,13 @@
         <v>192</v>
       </c>
       <c r="AE207" s="65" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AF207" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG207" s="52" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AH207" s="86" t="s">
         <v>193</v>
@@ -34908,13 +34911,13 @@
         <v>192</v>
       </c>
       <c r="AE208" s="65" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AF208" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG208" s="52" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AH208" s="86" t="s">
         <v>193</v>
@@ -35045,13 +35048,13 @@
         <v>192</v>
       </c>
       <c r="AE209" s="65" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="AF209" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG209" s="52" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AH209" s="86" t="s">
         <v>193</v>
@@ -35182,13 +35185,13 @@
         <v>192</v>
       </c>
       <c r="AE210" s="65" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AF210" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG210" s="52" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AH210" s="86" t="s">
         <v>193</v>
@@ -35319,13 +35322,13 @@
         <v>192</v>
       </c>
       <c r="AE211" s="65" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AF211" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG211" s="52" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AH211" s="86" t="s">
         <v>193</v>
@@ -35456,13 +35459,13 @@
         <v>192</v>
       </c>
       <c r="AE212" s="65" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AF212" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG212" s="52" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AH212" s="86" t="s">
         <v>193</v>
@@ -35593,13 +35596,13 @@
         <v>192</v>
       </c>
       <c r="AE213" s="65" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AF213" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG213" s="52" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AH213" s="86" t="s">
         <v>193</v>
@@ -35730,13 +35733,13 @@
         <v>192</v>
       </c>
       <c r="AE214" s="65" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AF214" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG214" s="52" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AH214" s="86" t="s">
         <v>193</v>
@@ -35861,19 +35864,19 @@
         <v>191</v>
       </c>
       <c r="AC215" s="57" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="AD215" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE215" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AF215" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG215" s="52" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="AH215" s="86" t="s">
         <v>193</v>
@@ -35885,7 +35888,7 @@
         <v>198</v>
       </c>
       <c r="AK215" s="52" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="AL215" s="55" t="s">
         <v>628</v>
@@ -35998,19 +36001,19 @@
         <v>191</v>
       </c>
       <c r="AC216" s="57" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="AD216" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE216" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AF216" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG216" s="52" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="AH216" s="86" t="s">
         <v>193</v>
@@ -36022,7 +36025,7 @@
         <v>198</v>
       </c>
       <c r="AK216" s="52" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="AL216" s="55" t="s">
         <v>628</v>
@@ -36141,13 +36144,13 @@
         <v>192</v>
       </c>
       <c r="AE217" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AF217" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG217" s="52" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="AH217" s="86" t="s">
         <v>193</v>
@@ -36159,7 +36162,7 @@
         <v>198</v>
       </c>
       <c r="AK217" s="52" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="AL217" s="55" t="s">
         <v>628</v>
@@ -36272,19 +36275,19 @@
         <v>191</v>
       </c>
       <c r="AC218" s="57" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="AD218" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE218" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AF218" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG218" s="52" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="AH218" s="86" t="s">
         <v>193</v>
@@ -36296,7 +36299,7 @@
         <v>198</v>
       </c>
       <c r="AK218" s="52" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="AL218" s="55" t="s">
         <v>628</v>
@@ -36415,13 +36418,13 @@
         <v>192</v>
       </c>
       <c r="AE219" s="65" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="AF219" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG219" s="52" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="AH219" s="86" t="s">
         <v>193</v>
@@ -36465,7 +36468,7 @@
         <v>220</v>
       </c>
       <c r="B220" s="87" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="C220" s="35" t="s">
         <v>619</v>
@@ -36474,7 +36477,7 @@
         <v>195</v>
       </c>
       <c r="E220" s="52" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="F220" s="60" t="s">
         <v>309</v>
@@ -36540,7 +36543,7 @@
         <v>190</v>
       </c>
       <c r="AA220" s="52" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="AB220" s="36" t="s">
         <v>191</v>
@@ -36564,13 +36567,13 @@
         <v>193</v>
       </c>
       <c r="AI220" s="52" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="AJ220" s="86" t="s">
         <v>198</v>
       </c>
       <c r="AK220" s="52" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="AL220" s="55" t="s">
         <v>628</v>
@@ -36689,13 +36692,13 @@
         <v>192</v>
       </c>
       <c r="AE221" s="65" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AF221" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG221" s="52" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AH221" s="86" t="s">
         <v>193</v>
@@ -36820,19 +36823,19 @@
         <v>191</v>
       </c>
       <c r="AC222" s="57" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="AD222" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE222" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AF222" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG222" s="52" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="AH222" s="86" t="s">
         <v>193</v>
@@ -36844,7 +36847,7 @@
         <v>198</v>
       </c>
       <c r="AK222" s="52" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="AL222" s="55" t="s">
         <v>628</v>
@@ -36963,13 +36966,13 @@
         <v>192</v>
       </c>
       <c r="AE223" s="65" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="AF223" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG223" s="52" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="AH223" s="86" t="s">
         <v>193</v>
@@ -37022,7 +37025,7 @@
         <v>195</v>
       </c>
       <c r="E224" s="52" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="F224" s="60" t="s">
         <v>309</v>
@@ -37100,13 +37103,13 @@
         <v>192</v>
       </c>
       <c r="AE224" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AF224" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG224" s="52" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="AH224" s="86" t="s">
         <v>193</v>
@@ -37118,7 +37121,7 @@
         <v>198</v>
       </c>
       <c r="AK224" s="52" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="AL224" s="55" t="s">
         <v>628</v>
@@ -37237,13 +37240,13 @@
         <v>192</v>
       </c>
       <c r="AE225" s="65" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="AF225" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG225" s="52" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="AH225" s="86" t="s">
         <v>193</v>
@@ -37374,13 +37377,13 @@
         <v>192</v>
       </c>
       <c r="AE226" s="65" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="AF226" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG226" s="52" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="AH226" s="86" t="s">
         <v>193</v>
@@ -37392,7 +37395,7 @@
         <v>198</v>
       </c>
       <c r="AK226" s="52" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="AL226" s="55" t="s">
         <v>628</v>
@@ -37511,13 +37514,13 @@
         <v>192</v>
       </c>
       <c r="AE227" s="65" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="AF227" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG227" s="52" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="AH227" s="86" t="s">
         <v>193</v>
@@ -37648,13 +37651,13 @@
         <v>192</v>
       </c>
       <c r="AE228" s="65" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AF228" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG228" s="52" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AH228" s="86" t="s">
         <v>193</v>
@@ -37666,7 +37669,7 @@
         <v>198</v>
       </c>
       <c r="AK228" s="52" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="AL228" s="55" t="s">
         <v>628</v>
@@ -37779,19 +37782,19 @@
         <v>191</v>
       </c>
       <c r="AC229" s="57" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="AD229" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE229" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AF229" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG229" s="52" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="AH229" s="86" t="s">
         <v>193</v>
@@ -37803,7 +37806,7 @@
         <v>198</v>
       </c>
       <c r="AK229" s="52" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="AL229" s="55" t="s">
         <v>628</v>
@@ -37916,19 +37919,19 @@
         <v>191</v>
       </c>
       <c r="AC230" s="57" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="AD230" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AE230" s="65" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AF230" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG230" s="52" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="AH230" s="86" t="s">
         <v>193</v>
@@ -37940,7 +37943,7 @@
         <v>198</v>
       </c>
       <c r="AK230" s="52" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="AL230" s="55" t="s">
         <v>628</v>
@@ -38059,13 +38062,13 @@
         <v>192</v>
       </c>
       <c r="AE231" s="65" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AF231" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG231" s="52" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AH231" s="86" t="s">
         <v>193</v>
@@ -38196,13 +38199,13 @@
         <v>192</v>
       </c>
       <c r="AE232" s="65" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AF232" s="56" t="s">
         <v>627</v>
       </c>
       <c r="AG232" s="52" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AH232" s="86" t="s">
         <v>193</v>
@@ -38327,13 +38330,13 @@
         <v>191</v>
       </c>
       <c r="AC233" s="57" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="AD233" s="56" t="s">
         <v>192</v>
       </c>
       <c r="AE233" s="65" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="AF233" s="36" t="s">
         <v>1</v>
@@ -38464,13 +38467,13 @@
         <v>191</v>
       </c>
       <c r="AC234" s="57" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="AD234" s="56" t="s">
         <v>192</v>
       </c>
       <c r="AE234" s="65" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="AF234" s="36" t="s">
         <v>1</v>
@@ -38601,13 +38604,13 @@
         <v>191</v>
       </c>
       <c r="AC235" s="57" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="AD235" s="56" t="s">
         <v>192</v>
       </c>
       <c r="AE235" s="65" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="AF235" s="36" t="s">
         <v>1</v>
@@ -38738,13 +38741,13 @@
         <v>191</v>
       </c>
       <c r="AC236" s="57" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="AD236" s="56" t="s">
         <v>192</v>
       </c>
       <c r="AE236" s="65" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="AF236" s="36" t="s">
         <v>1</v>
@@ -38881,7 +38884,7 @@
         <v>192</v>
       </c>
       <c r="AE237" s="65" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="AF237" s="36" t="s">
         <v>1</v>
@@ -39012,13 +39015,13 @@
         <v>191</v>
       </c>
       <c r="AC238" s="57" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="AD238" s="56" t="s">
         <v>192</v>
       </c>
       <c r="AE238" s="65" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="AF238" s="36" t="s">
         <v>1</v>
@@ -39149,13 +39152,13 @@
         <v>191</v>
       </c>
       <c r="AC239" s="57" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="AD239" s="56" t="s">
         <v>192</v>
       </c>
       <c r="AE239" s="65" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="AF239" s="36" t="s">
         <v>1</v>
@@ -39286,13 +39289,13 @@
         <v>191</v>
       </c>
       <c r="AC240" s="57" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="AD240" s="56" t="s">
         <v>192</v>
       </c>
       <c r="AE240" s="65" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="AF240" s="36" t="s">
         <v>1</v>
@@ -39429,7 +39432,7 @@
         <v>1</v>
       </c>
       <c r="AE241" s="65" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="AF241" s="36" t="s">
         <v>1</v>
@@ -39566,7 +39569,7 @@
         <v>1</v>
       </c>
       <c r="AE242" s="65" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="AF242" s="36" t="s">
         <v>1</v>
@@ -39703,7 +39706,7 @@
         <v>1</v>
       </c>
       <c r="AE243" s="65" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="AF243" s="36" t="s">
         <v>1</v>
@@ -39840,7 +39843,7 @@
         <v>1</v>
       </c>
       <c r="AE244" s="65" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="AF244" s="36" t="s">
         <v>1</v>
@@ -39977,7 +39980,7 @@
         <v>1</v>
       </c>
       <c r="AE245" s="65" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="AF245" s="36" t="s">
         <v>1</v>
@@ -40114,7 +40117,7 @@
         <v>1</v>
       </c>
       <c r="AE246" s="65" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="AF246" s="36" t="s">
         <v>1</v>
@@ -40187,88 +40190,88 @@
   <conditionalFormatting sqref="B247:B1048576 B233:B242 B1:B79">
     <cfRule type="duplicateValues" dxfId="19" priority="230"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:AD1 AE1:AE79 AH1:AI79 D2:AD32 C2:C79 N33:AD79 C233:C246 D241:AD246 AH241:AI246 AL153:AO246 A1:A246">
-    <cfRule type="cellIs" dxfId="0" priority="285" operator="equal">
+  <conditionalFormatting sqref="C1:AD1 AE1:AE79 AH1:AI79 A1:A246 D2:AD32 C2:C79 N33:AD79 AL153:AO246 C233:C246 D241:AD246 AH241:AI246">
+    <cfRule type="cellIs" dxfId="18" priority="285" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:M78">
-    <cfRule type="cellIs" dxfId="18" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="26" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="duplicateValues" dxfId="17" priority="1724"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1724"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80:E136 E138:E232">
-    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="duplicateValues" dxfId="15" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E137">
-    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E247:E1048576 E233:E240">
-    <cfRule type="duplicateValues" dxfId="13" priority="260"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="260"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N235:N240">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N233:O234">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P233:Q240">
-    <cfRule type="cellIs" dxfId="10" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="121" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE220">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF72:AF79 AG72:AG92">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF1:AG71">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF153:AG246">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL1:AS79">
-    <cfRule type="cellIs" dxfId="6" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="27" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP233:AP240">
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP153:AQ231">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP241:AQ246">
-    <cfRule type="cellIs" dxfId="3" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="253" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR153:AS246">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE220">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Versão5/VEGE/Ontologia_VEGET.xlsx
+++ b/Versão5/VEGE/Ontologia_VEGET.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\VEGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA65BF0A-A57A-437F-957F-51EF2B82D6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFC7904-C53F-4966-AB5F-565A7DA9DDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" tabRatio="577" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" tabRatio="577" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="26" r:id="rId1"/>
@@ -3136,36 +3136,6 @@
     <t>Ecossistema</t>
   </si>
   <si>
-    <t>"Refere se a espécie extinta (EX) de acordo com a Lista Vermelha da União Internacional para a Conservação da Natureza e dos Recursos Naturais (IUCN) das espécies ameaçadas."</t>
-  </si>
-  <si>
-    <t>"Refere se a espécie extinta na natureza (EW) de acordo com a Lista Vermelha da União Internacional para a Conservação da Natureza e dos Recursos Naturais (IUCN) das espécies ameaçadas."</t>
-  </si>
-  <si>
-    <t>"Refere se a espécie criticamente em perigo (CR) de acordo com a Lista Vermelha da União Internacional para a Conservação da Natureza e dos Recursos Naturais (IUCN) das espécies ameaçadas."</t>
-  </si>
-  <si>
-    <t>"Refere se a espécie em perigo (EN) de acordo com a Lista Vermelha da União Internacional para a Conservação da Natureza e dos Recursos Naturais (IUCN) das espécies ameaçadas."</t>
-  </si>
-  <si>
-    <t>"Refere se a espécie vulnerável (VU) de acordo com a Lista Vermelha da União Internacional para a Conservação da Natureza e dos Recursos Naturais (IUCN) das espécies ameaçadas."</t>
-  </si>
-  <si>
-    <t>"Refere se a espécie quase ameaçada (NT) de acordo com a Lista Vermelha da União Internacional para a Conservação da Natureza e dos Recursos Naturais (IUCN) das espécies ameaçadas."</t>
-  </si>
-  <si>
-    <t>"Refere se a espécie dependente de conservação (CD) de acordo com a Lista Vermelha da União Internacional para a Conservação da Natureza e dos Recursos Naturais (IUCN) das espécies ameaçadas."</t>
-  </si>
-  <si>
-    <t>"Refere se a espécie pouco preocupante (LC) de acordo com a Lista Vermelha da União Internacional para a Conservação da Natureza e dos Recursos Naturais (IUCN) das espécies ameaçadas."</t>
-  </si>
-  <si>
-    <t>"Refere se a espécie dados deficientes (DD) de acordo com a Lista Vermelha da União Internacional para a Conservação da Natureza e dos Recursos Naturais (IUCN) das espécies ameaçadas."</t>
-  </si>
-  <si>
-    <t>"Refere se a espécie não avaliado (NE) de acordo com a Lista Vermelha da União Internacional para a Conservação da Natureza e dos Recursos Naturais (IUCN) das espécies ameaçadas."</t>
-  </si>
-  <si>
     <t>Conservação.Animal</t>
   </si>
   <si>
@@ -3199,10 +3169,38 @@
     <t>0 Val</t>
   </si>
   <si>
-    <t>Quando o valor de uma propriedade for '0' ou '-' significa que ainda não foi cadastrado, por não ter sido achado ou ainda 
-estar sendo verificado e transferido para a ontologia. Os valores dimensionais, como diámetros, alturas e profundidades 
-são aproximados, pois dependem das condições do ambiente de crescimento e do tratamento (poda, irrigação, etc) de 
+    <t>Quando o valor de uma propriedade for '0' ou '-' significa que ainda não foi cadastrado, por não ter sido achado ou ainda  estar sendo verificado e transferido para a ontologia. Os valores dimensionais, como diámetros, alturas e profundidades  são aproximados, pois dependem das condições do ambiente de crescimento e do tratamento (poda, irrigação, etc) de 
 cada indivíduo.</t>
+  </si>
+  <si>
+    <t>"Declara que a espécie está extinta (EX) de acordo com a Lista Vermelha da União Internacional para a Conservação da Natureza e dos Recursos Naturais (IUCN) das espécies ameaçadas."</t>
+  </si>
+  <si>
+    <t>"Declara que a espécie está extinta na natureza (EW) de acordo com a Lista Vermelha da União Internacional para a Conservação da Natureza e dos Recursos Naturais (IUCN) das espécies ameaçadas."</t>
+  </si>
+  <si>
+    <t>"Declara que a espécie está criticamente em perigo (CR) de acordo com a Lista Vermelha da União Internacional para a Conservação da Natureza e dos Recursos Naturais (IUCN) das espécies ameaçadas."</t>
+  </si>
+  <si>
+    <t>"Declara que a espécie está em perigo (EN) de acordo com a Lista Vermelha da União Internacional para a Conservação da Natureza e dos Recursos Naturais (IUCN) das espécies ameaçadas."</t>
+  </si>
+  <si>
+    <t>"Declara que a espécie está vulnerável (VU) de acordo com a Lista Vermelha da União Internacional para a Conservação da Natureza e dos Recursos Naturais (IUCN) das espécies ameaçadas."</t>
+  </si>
+  <si>
+    <t>"Declara que a espécie está quase ameaçada (NT) de acordo com a Lista Vermelha da União Internacional para a Conservação da Natureza e dos Recursos Naturais (IUCN) das espécies ameaçadas."</t>
+  </si>
+  <si>
+    <t>"Declara que a espécie é dependente de conservação (CD) de acordo com a Lista Vermelha da União Internacional para a Conservação da Natureza e dos Recursos Naturais (IUCN) das espécies ameaçadas."</t>
+  </si>
+  <si>
+    <t>"Declara que a ameaça de extinção da espécie é pouco preocupante (LC) de acordo com a Lista Vermelha da União Internacional para a Conservação da Natureza e dos Recursos Naturais (IUCN) das espécies ameaçadas."</t>
+  </si>
+  <si>
+    <t>"Declara que há dados deficientes (DD) para verificar o perigo de extinção da espécie de acordo com a Lista Vermelha da União Internacional para a Conservação da Natureza e dos Recursos Naturais (IUCN) das espécies ameaçadas."</t>
+  </si>
+  <si>
+    <t>"Declara que o perigo de extinção da espécie não foi avaliado (NE) de acordo com a Lista Vermelha da União Internacional para a Conservação da Natureza e dos Recursos Naturais (IUCN) das espécies ameaçadas."</t>
   </si>
 </sst>
 </file>
@@ -3768,13 +3766,13 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3786,13 +3784,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="52">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3926,6 +3917,13 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -4563,16 +4561,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612B613C-8B96-43A0-BB50-A45AC26373E3}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C18" sqref="C18"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="6" customWidth="1"/>
-    <col min="2" max="2" width="49.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="60.85546875" style="6" customWidth="1"/>
     <col min="3" max="16384" width="3.28515625" style="6"/>
   </cols>
   <sheetData>
@@ -4720,7 +4718,7 @@
       </c>
       <c r="B18" s="86">
         <f ca="1">NOW()</f>
-        <v>45953.648592245372</v>
+        <v>45953.660791319446</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4784,7 +4782,7 @@
         <v>980</v>
       </c>
       <c r="B26" s="94" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4829,9 +4827,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375F50FD-D5BA-45CD-9CBD-E4284A1EA77F}">
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3:D9"/>
+    <sheetView topLeftCell="I1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5033,7 +5031,7 @@
         <v>93</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>92</v>
@@ -5119,7 +5117,7 @@
         <v>93</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="E4" s="35" t="s">
         <v>92</v>
@@ -5205,7 +5203,7 @@
         <v>93</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="E5" s="35" t="s">
         <v>92</v>
@@ -5291,7 +5289,7 @@
         <v>93</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="E6" s="35" t="s">
         <v>92</v>
@@ -5377,7 +5375,7 @@
         <v>93</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="E7" s="35" t="s">
         <v>92</v>
@@ -5463,7 +5461,7 @@
         <v>93</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="E8" s="35" t="s">
         <v>92</v>
@@ -5549,7 +5547,7 @@
         <v>93</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="E9" s="35" t="s">
         <v>389</v>
@@ -5641,7 +5639,7 @@
         <v>997</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="G10" s="41" t="s">
         <v>1</v>
@@ -5675,10 +5673,10 @@
         <v>Conservação Animal</v>
       </c>
       <c r="P10" s="31" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="Q10" s="31" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
       <c r="R10" s="29" t="s">
         <v>1</v>
@@ -5727,7 +5725,7 @@
         <v>997</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="G11" s="41" t="s">
         <v>1</v>
@@ -5761,10 +5759,10 @@
         <v>Conservação Vegetal</v>
       </c>
       <c r="P11" s="31" t="s">
-        <v>1034</v>
+        <v>1024</v>
       </c>
       <c r="Q11" s="31" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="R11" s="29" t="s">
         <v>1</v>
@@ -5813,7 +5811,7 @@
         <v>997</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="G12" s="41" t="s">
         <v>1</v>
@@ -5847,10 +5845,10 @@
         <v>Conservação Mineral</v>
       </c>
       <c r="P12" s="31" t="s">
-        <v>1035</v>
+        <v>1025</v>
       </c>
       <c r="Q12" s="31" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
       <c r="R12" s="29" t="s">
         <v>1</v>
@@ -6850,10 +6848,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B52AA7-680B-4C72-8598-6D856F54368E}">
   <dimension ref="A1:AS256"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="AM193" sqref="AM193:AM198"/>
+      <selection pane="bottomLeft" activeCell="AK11" sqref="AK11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="166.28515625" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6920,49 +6918,49 @@
         <v>33</v>
       </c>
       <c r="E1" s="66" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>33</v>
       </c>
       <c r="G1" s="66" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>33</v>
       </c>
       <c r="I1" s="66" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="J1" s="19" t="s">
         <v>33</v>
       </c>
       <c r="K1" s="66" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="L1" s="19" t="s">
         <v>33</v>
       </c>
       <c r="M1" s="66" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="N1" s="19" t="s">
         <v>33</v>
       </c>
       <c r="O1" s="66" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="P1" s="80" t="s">
         <v>33</v>
       </c>
       <c r="Q1" s="66" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="R1" s="80" t="s">
         <v>33</v>
       </c>
       <c r="S1" s="66" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="T1" s="80" t="s">
         <v>33</v>
@@ -6972,13 +6970,13 @@
       </c>
       <c r="V1" s="38"/>
       <c r="W1" s="66" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="X1" s="19" t="s">
         <v>33</v>
       </c>
       <c r="Y1" s="66" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="Z1" s="19" t="s">
         <v>33</v>
@@ -6990,55 +6988,55 @@
         <v>33</v>
       </c>
       <c r="AC1" s="66" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="AD1" s="68" t="s">
         <v>33</v>
       </c>
       <c r="AE1" s="66" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="AF1" s="19" t="s">
         <v>33</v>
       </c>
       <c r="AG1" s="66" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="AH1" s="19" t="s">
         <v>33</v>
       </c>
       <c r="AI1" s="66" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="AJ1" s="19" t="s">
         <v>33</v>
       </c>
       <c r="AK1" s="66" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="AL1" s="19" t="s">
         <v>33</v>
       </c>
       <c r="AM1" s="66" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="AN1" s="19" t="s">
         <v>33</v>
       </c>
       <c r="AO1" s="66" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="AP1" s="19" t="s">
         <v>33</v>
       </c>
       <c r="AQ1" s="66" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="AR1" s="19" t="s">
         <v>33</v>
       </c>
       <c r="AS1" s="66" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="2" spans="1:45" ht="9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7049,7 +7047,7 @@
         <v>998</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="D2" s="36" t="s">
         <v>999</v>
@@ -7151,7 +7149,7 @@
         <v>197</v>
       </c>
       <c r="AK2" s="51" t="s">
-        <v>1021</v>
+        <v>1033</v>
       </c>
       <c r="AL2" s="36" t="s">
         <v>1</v>
@@ -7186,7 +7184,7 @@
         <v>1017</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="D3" s="36" t="s">
         <v>999</v>
@@ -7288,7 +7286,7 @@
         <v>197</v>
       </c>
       <c r="AK3" s="51" t="s">
-        <v>1022</v>
+        <v>1034</v>
       </c>
       <c r="AL3" s="36" t="s">
         <v>1</v>
@@ -7323,7 +7321,7 @@
         <v>1016</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="D4" s="36" t="s">
         <v>999</v>
@@ -7425,7 +7423,7 @@
         <v>197</v>
       </c>
       <c r="AK4" s="51" t="s">
-        <v>1023</v>
+        <v>1035</v>
       </c>
       <c r="AL4" s="36" t="s">
         <v>1</v>
@@ -7460,7 +7458,7 @@
         <v>1015</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="D5" s="36" t="s">
         <v>999</v>
@@ -7562,7 +7560,7 @@
         <v>197</v>
       </c>
       <c r="AK5" s="51" t="s">
-        <v>1024</v>
+        <v>1036</v>
       </c>
       <c r="AL5" s="36" t="s">
         <v>1</v>
@@ -7597,7 +7595,7 @@
         <v>1010</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="D6" s="36" t="s">
         <v>999</v>
@@ -7699,7 +7697,7 @@
         <v>197</v>
       </c>
       <c r="AK6" s="51" t="s">
-        <v>1025</v>
+        <v>1037</v>
       </c>
       <c r="AL6" s="36" t="s">
         <v>1</v>
@@ -7734,7 +7732,7 @@
         <v>1014</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="D7" s="36" t="s">
         <v>999</v>
@@ -7836,7 +7834,7 @@
         <v>197</v>
       </c>
       <c r="AK7" s="51" t="s">
-        <v>1026</v>
+        <v>1038</v>
       </c>
       <c r="AL7" s="36" t="s">
         <v>1</v>
@@ -7871,7 +7869,7 @@
         <v>1019</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="D8" s="36" t="s">
         <v>999</v>
@@ -7973,7 +7971,7 @@
         <v>197</v>
       </c>
       <c r="AK8" s="51" t="s">
-        <v>1027</v>
+        <v>1039</v>
       </c>
       <c r="AL8" s="36" t="s">
         <v>1</v>
@@ -8008,7 +8006,7 @@
         <v>1013</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="D9" s="36" t="s">
         <v>999</v>
@@ -8110,7 +8108,7 @@
         <v>197</v>
       </c>
       <c r="AK9" s="51" t="s">
-        <v>1028</v>
+        <v>1040</v>
       </c>
       <c r="AL9" s="36" t="s">
         <v>1</v>
@@ -8145,7 +8143,7 @@
         <v>1012</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>999</v>
@@ -8247,7 +8245,7 @@
         <v>197</v>
       </c>
       <c r="AK10" s="51" t="s">
-        <v>1029</v>
+        <v>1041</v>
       </c>
       <c r="AL10" s="36" t="s">
         <v>1</v>
@@ -8282,7 +8280,7 @@
         <v>1011</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="D11" s="36" t="s">
         <v>999</v>
@@ -8384,7 +8382,7 @@
         <v>197</v>
       </c>
       <c r="AK11" s="51" t="s">
-        <v>1030</v>
+        <v>1042</v>
       </c>
       <c r="AL11" s="36" t="s">
         <v>1</v>
@@ -41998,100 +41996,100 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="B104">
     <cfRule type="duplicateValues" dxfId="26" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="28"/>
     <cfRule type="duplicateValues" dxfId="24" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B257:B1048576 B243:B252 B11:B87">
-    <cfRule type="duplicateValues" dxfId="22" priority="269"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="341"/>
     <cfRule type="duplicateValues" dxfId="21" priority="340"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="341"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="269"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B257:B1048576 B243:B252 B11:B88">
     <cfRule type="duplicateValues" dxfId="19" priority="238"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:AE4 AF2:AG80 AH2:AI88 AE11:AE88 C12:C88 C91:AI91 AL91:AR91 AL163:AO256 C243:C256 D251:AD256 AH251:AI256 AL1:AR88 C1:AI1 D26:Z26 AB26:AD26 D6:AE10 D5:Z5 AB5:AE5 D11:AD25 D27:AD41 N42:AD88 A1:A256">
-    <cfRule type="cellIs" dxfId="0" priority="293" operator="equal">
+  <conditionalFormatting sqref="C1:AI1 AL1:AR88 A1:A256 D2:AE4 AF2:AG80 AH2:AI88 D5:Z5 AB5:AE5 D6:AE10 D11:AD25 AE11:AE88 C12:C88 D26:Z26 AB26:AD26 D27:AD41 N42:AD88 C91:AI91 AL91:AR91 AL163:AO256 C243:C256 D251:AD256 AH251:AI256">
+    <cfRule type="cellIs" dxfId="18" priority="293" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:M87">
-    <cfRule type="cellIs" dxfId="18" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="34" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="duplicateValues" dxfId="17" priority="1732"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1732"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89:E90 E148:E242 E92:E146">
-    <cfRule type="duplicateValues" dxfId="16" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="duplicateValues" dxfId="15" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E147">
-    <cfRule type="duplicateValues" dxfId="14" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E257:E1048576 E243:E250">
-    <cfRule type="duplicateValues" dxfId="13" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="268"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N245:N250">
-    <cfRule type="cellIs" dxfId="12" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="21" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N243:O244">
-    <cfRule type="cellIs" dxfId="11" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="20" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P243:Q250">
-    <cfRule type="cellIs" dxfId="10" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="129" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE230">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF81:AF88 AG81:AG90 AG92:AG102">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF163:AG256">
-    <cfRule type="cellIs" dxfId="7" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK1">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP243:AP250">
-    <cfRule type="cellIs" dxfId="6" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="17" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP163:AQ241">
-    <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="15" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP251:AQ256">
-    <cfRule type="cellIs" dxfId="4" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="261" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR243:AR256">
-    <cfRule type="cellIs" dxfId="3" priority="14" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK1">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS1">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Versão5/VEGE/Ontologia_VEGET.xlsx
+++ b/Versão5/VEGE/Ontologia_VEGET.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\VEGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68589FC6-D94A-4A4A-990D-CD2C0D74ED71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AF70B1-756D-4CC4-8C22-2B98695AD7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="577" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="577" activeTab="3" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="26" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11514" uniqueCount="1110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11517" uniqueCount="1110">
   <si>
     <t>Key</t>
   </si>
@@ -3136,10 +3136,6 @@
     <t>0 Val</t>
   </si>
   <si>
-    <t>Quando o valor de uma propriedade for '0' ou '-' significa que ainda não foi cadastrado, por não ter sido achado ou ainda  estar sendo verificado e transferido para a ontologia. Os valores dimensionais, como diámetros, alturas e profundidades  são aproximados, pois dependem das condições do ambiente de crescimento e do tratamento (poda, irrigação, etc) de 
-cada indivíduo.</t>
-  </si>
-  <si>
     <t>"Declara que a espécie está extinta (EX) de acordo com a Lista Vermelha da União Internacional para a Conservação da Natureza e dos Recursos Naturais (IUCN) das espécies ameaçadas."</t>
   </si>
   <si>
@@ -3302,9 +3298,6 @@
     <t>Planta que cresce apoiando-se em estruturas ou outras plantas. Usam gavinhas, raízes ou espinhos para se fixar. Com caules flexíveis são plantadas para cobrir pérgolas, muros e cercas. Fazem fotossíntese.</t>
   </si>
   <si>
-    <t xml:space="preserve">Planta que combina características de arbustos e herbáceas. Geralmente com altura inferior a 1 metro. Possui base lenhosa (como um arbusto), mas seus ramos superiores são mais frágeis e podem ser herbáceos. Muitas espécies são perenes, mas os ramos mais altos podem morrer e se renovar periodicamente. Exemplos: Lavanda, Tomilho e Alecrim. </t>
-  </si>
-  <si>
     <t>Planta de caule macio, não lenhoso, geralmente de ciclo curto, com altura baixa, são produtoras de alimentos, ornamental ou medicinal.</t>
   </si>
   <si>
@@ -3341,9 +3334,6 @@
     <t>Planta tipo trepadeira lenhosa. Germina no solo e cresce apoiando-se em outras plantas para alcançar luz no dossel das florestas. Caule flexível capaz de se deformar sem quebrar. Usa gavinhas, raízes grampiformes ou terminações adesivas para escalar. Conecta copas de árvores, serve de caminho para animais, aumenta a diversidade florística. Usadas para fazer cordas, artesanato, medicina tradicional anti-inflamatório, antirreumático. Para o Serviço Florestal Brasileiro é um Hábito do indivíduo definido no Inventário Florestal Nacional.</t>
   </si>
   <si>
-    <t>Planta arbustiva ou subarbustiva. Com caule carnoso, fotossintético que armazena água. Pode ter forma globosa, colunar ou em raquete. Folhas modificadas em espinhos, que protegem e reduzem evaporação. Raiz superficial e extensa, absorve rapidamente água após chuvas. Tem aréolas que são estruturas exclusivas dos cactos, de onde surgem espinhos, flores e brotos. Flores grandes, vistosas, hermafroditas, com cores variadas. Metabolismo CAM (fotossíntese noturna), espinhos, armazenamento de água. Muito usados para ornamentação, alimentação (ex: figo-da-índia), forragem, medicina popular.  Para o Serviço Florestal Brasileiro é um Hábito do indivíduo definido no Inventário Florestal Nacional.</t>
-  </si>
-  <si>
     <t>Planta tipo gramínea lenhosa. com caule cilíndrico e oco chamado de colmo segmentado por nós. Pode atingir até 30 metros de altura. Folhas alongadas, verdes e resistentes. Rizomatoso, permitindo propagação subterrânea. Usado em cnstrução civil, artesanato, alimentação (brotos), papel, fibras têxteis e ornamentação. Para o Serviço Florestal Brasileiro é um Hábito do indivíduo definido no Inventário Florestal Nacional.</t>
   </si>
   <si>
@@ -3402,13 +3392,22 @@
   </si>
   <si>
     <t>https://mapas.florestal.gov.br</t>
+  </si>
+  <si>
+    <t>Quando o valor de uma propriedade for '0' ou '-' significa que ainda não foi cadastrado, por não ter sido achado ou ainda  estar sendo verificado e transferido para a ontologia. Os valores dimensionais, como diámetros, alturas e profundidades  são aproximados, pois dependem das condições do ambiente de crescimento e do tratamento (poda, irrigação, etc) de cada indivíduo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planta que combina características de arbustos e herbáceas. Geralmente com altura inferior a 1 metro. Possui base lenhosa (como um arbusto), mas seus ramos superiores são mais frágeis e podem ser herbáceos. Muitas espécies são perenes, mas os ramos mais altos podem morrer e se renovar periodicamente. Alguns exemplos de subarbustos são a Lavanda e o tomilho. </t>
+  </si>
+  <si>
+    <t>Planta arbustiva ou subarbustiva. Com caule carnoso, fotossintético que armazena água. Pode ter forma globosa, colunar ou em raquete. Folhas modificadas em espinhos, que protegem e reduzem evaporação. Raiz superficial e extensa, absorve rapidamente água após chuvas. Tem aréolas que são estruturas exclusivas dos cactos, de onde surgem espinhos, flores e brotos. Flores grandes, vistosas, hermafroditas, com cores variadas. Metabolismo CAM (fazem fotossíntese noturna), espinhos, armazenamento de água. Muito usados para ornamentação, alimentação (figo da índia), forragem, medicina popular. Para o Serviço Florestal Brasileiro é um Hábito do indivíduo definido no Inventário Florestal Nacional.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3492,13 +3491,6 @@
       <b/>
       <i/>
       <sz val="6"/>
-      <name val="Arial Nova Cond Light"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="6"/>
-      <color theme="1"/>
       <name val="Arial Nova Cond Light"/>
       <family val="2"/>
     </font>
@@ -3713,7 +3705,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3986,10 +3978,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4779,16 +4767,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612B613C-8B96-43A0-BB50-A45AC26373E3}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C18" sqref="C18"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.3046875" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" style="6" customWidth="1"/>
-    <col min="2" max="2" width="60.84375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="42.23046875" style="6" customWidth="1"/>
     <col min="3" max="16384" width="3.3046875" style="6"/>
   </cols>
   <sheetData>
@@ -4936,7 +4924,7 @@
       </c>
       <c r="B18" s="84">
         <f ca="1">NOW()</f>
-        <v>45954.344800462961</v>
+        <v>45954.357890046296</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4997,10 +4985,10 @@
     </row>
     <row r="26" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B26" s="97" t="s">
-        <v>1109</v>
+        <v>1105</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>1106</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -5008,7 +4996,7 @@
         <v>969</v>
       </c>
       <c r="B27" s="92" t="s">
-        <v>1021</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5053,39 +5041,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375F50FD-D5BA-45CD-9CBD-E4284A1EA77F}">
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="32.07421875" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.3046875" customWidth="1"/>
-    <col min="2" max="2" width="4.15234375" customWidth="1"/>
-    <col min="3" max="3" width="4.921875" customWidth="1"/>
-    <col min="4" max="4" width="6.4609375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.4609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.4609375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.69140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.4609375" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="6.3828125" style="37" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.53515625" style="37" customWidth="1"/>
-    <col min="12" max="12" width="7.53515625" customWidth="1"/>
-    <col min="13" max="13" width="7.23046875" customWidth="1"/>
-    <col min="14" max="14" width="7.61328125" customWidth="1"/>
-    <col min="15" max="15" width="8.53515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="107.4609375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="75.4609375" customWidth="1"/>
+    <col min="7" max="10" width="6.4609375" style="37" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.69140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.69140625" customWidth="1"/>
+    <col min="13" max="13" width="8.15234375" customWidth="1"/>
+    <col min="14" max="14" width="8.765625" customWidth="1"/>
+    <col min="15" max="15" width="10.3046875" customWidth="1"/>
+    <col min="16" max="16" width="164.61328125" customWidth="1"/>
+    <col min="17" max="17" width="255.69140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3.69140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.53515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.3828125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.69140625" customWidth="1"/>
-    <col min="22" max="22" width="6.53515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.53515625" customWidth="1"/>
-    <col min="24" max="24" width="8.84375" customWidth="1"/>
-    <col min="25" max="25" width="12.3046875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.69140625" customWidth="1"/>
+    <col min="19" max="19" width="6.69140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.4609375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.69140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.69140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.15234375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.61328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="37.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13">
         <v>1</v>
       </c>
@@ -5299,10 +5286,10 @@
         <v>Árvore</v>
       </c>
       <c r="P3" s="31" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="Q3" s="31" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="R3" s="29" t="s">
         <v>1</v>
@@ -5385,10 +5372,10 @@
         <v>Arbusto</v>
       </c>
       <c r="P4" s="31" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="R4" s="29" t="s">
         <v>1</v>
@@ -5437,7 +5424,7 @@
         <v>92</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="G5" s="41" t="s">
         <v>1</v>
@@ -5451,8 +5438,8 @@
       <c r="J5" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="96" t="s">
-        <v>409</v>
+      <c r="K5" s="41" t="s">
+        <v>1</v>
       </c>
       <c r="L5" s="31" t="str">
         <f t="shared" si="2"/>
@@ -5471,10 +5458,10 @@
         <v>Subarbusto</v>
       </c>
       <c r="P5" s="31" t="s">
-        <v>1076</v>
+        <v>1108</v>
       </c>
       <c r="Q5" s="31" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="R5" s="29" t="s">
         <v>1</v>
@@ -5538,7 +5525,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="41" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="L6" s="31" t="str">
         <f t="shared" si="2"/>
@@ -5560,7 +5547,7 @@
         <v>444</v>
       </c>
       <c r="Q6" s="31" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="R6" s="29" t="s">
         <v>1</v>
@@ -5643,10 +5630,10 @@
         <v>Trepadeira</v>
       </c>
       <c r="P7" s="31" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="Q7" s="31" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="R7" s="29" t="s">
         <v>1</v>
@@ -5729,10 +5716,10 @@
         <v>Palmeira</v>
       </c>
       <c r="P8" s="31" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="Q8" s="31" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="R8" s="29" t="s">
         <v>1</v>
@@ -5781,7 +5768,7 @@
         <v>92</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="G9" s="41" t="s">
         <v>1</v>
@@ -5815,10 +5802,10 @@
         <v>Herbácea</v>
       </c>
       <c r="P9" s="31" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="Q9" s="31" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="R9" s="29" t="s">
         <v>1</v>
@@ -5867,7 +5854,7 @@
         <v>92</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G10" s="41" t="s">
         <v>1</v>
@@ -5882,7 +5869,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="41" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="L10" s="31" t="str">
         <f t="shared" si="20"/>
@@ -5901,10 +5888,10 @@
         <v>Gramínea</v>
       </c>
       <c r="P10" s="31" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="Q10" s="31" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="R10" s="29" t="s">
         <v>1</v>
@@ -5953,7 +5940,7 @@
         <v>92</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G11" s="41" t="s">
         <v>1</v>
@@ -5968,7 +5955,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="41" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="L11" s="31" t="str">
         <f t="shared" si="20"/>
@@ -6039,7 +6026,7 @@
         <v>92</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="G12" s="41" t="s">
         <v>1</v>
@@ -6054,7 +6041,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="41" t="s">
-        <v>1069</v>
+        <v>1</v>
       </c>
       <c r="L12" s="31" t="str">
         <f t="shared" si="20"/>
@@ -6073,10 +6060,10 @@
         <v>Bambu</v>
       </c>
       <c r="P12" s="31" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="Q12" s="31" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="R12" s="29" t="s">
         <v>1</v>
@@ -6125,7 +6112,7 @@
         <v>92</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="G13" s="41" t="s">
         <v>1</v>
@@ -6140,7 +6127,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="41" t="s">
-        <v>416</v>
+        <v>1</v>
       </c>
       <c r="L13" s="31" t="str">
         <f t="shared" ref="L13:L16" si="37">_xlfn.CONCAT(SUBSTITUTE(C13,"1.",""))</f>
@@ -6159,10 +6146,10 @@
         <v>Liana</v>
       </c>
       <c r="P13" s="31" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="Q13" s="31" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="R13" s="29" t="s">
         <v>1</v>
@@ -6211,22 +6198,22 @@
         <v>92</v>
       </c>
       <c r="F14" s="35" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="41" t="s">
         <v>1082</v>
-      </c>
-      <c r="G14" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="K14" s="41" t="s">
-        <v>1084</v>
       </c>
       <c r="L14" s="31" t="str">
         <f t="shared" si="37"/>
@@ -6245,10 +6232,10 @@
         <v>Cacto</v>
       </c>
       <c r="P14" s="31" t="s">
-        <v>1089</v>
+        <v>1109</v>
       </c>
       <c r="Q14" s="31" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="R14" s="29" t="s">
         <v>1</v>
@@ -6297,7 +6284,7 @@
         <v>92</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G15" s="41" t="s">
         <v>1</v>
@@ -6312,7 +6299,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="41" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="L15" s="31" t="str">
         <f t="shared" si="37"/>
@@ -6331,10 +6318,10 @@
         <v>Gramínea</v>
       </c>
       <c r="P15" s="31" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="Q15" s="31" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="R15" s="29" t="s">
         <v>1</v>
@@ -6383,7 +6370,7 @@
         <v>92</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G16" s="41" t="s">
         <v>1</v>
@@ -6503,10 +6490,10 @@
         <v>Flor</v>
       </c>
       <c r="P17" s="31" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="Q17" s="31" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="R17" s="29" t="s">
         <v>1</v>
@@ -7510,7 +7497,7 @@
     <cfRule type="duplicateValues" dxfId="42" priority="899"/>
     <cfRule type="duplicateValues" dxfId="41" priority="903"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29:W1048576 A1:C1 F1:W1 Y1:XFD1 Y28:XFD1048576 A29:C1048576 B2:B28 Y3:XFD18 G3:U3 G5:J5 L5:P5 G4:P4 G6:P17 Q4:U17 G18:U28">
+  <conditionalFormatting sqref="F29:W1048576 A1:C1 F1:W1 Y1:XFD1 B2:B28 Y3:XFD18 Y28:XFD1048576 A29:C1048576 G3:U28">
     <cfRule type="cellIs" dxfId="40" priority="375" operator="equal">
       <formula>"null"</formula>
     </cfRule>
@@ -7763,10 +7750,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7BFE13-E93E-488C-9C8F-4E4982DFBAE7}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C18" sqref="C18"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.3828125" defaultRowHeight="6" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7795,10 +7782,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>1</v>
+        <v>1078</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>1</v>
+        <v>1068</v>
       </c>
       <c r="D2" s="49" t="s">
         <v>1</v>
@@ -7809,20 +7796,28 @@
         <v>3</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>1</v>
+        <v>1079</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>1</v>
+        <v>416</v>
       </c>
       <c r="D3" s="49" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="39" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
+    <row r="4" spans="1:4" s="39" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
+        <v>4</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>409</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:4" s="39" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5"/>
@@ -7837,7 +7832,7 @@
       <c r="D6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A3">
+  <conditionalFormatting sqref="A1:A4">
     <cfRule type="cellIs" dxfId="35" priority="32" operator="equal">
       <formula>"null"</formula>
     </cfRule>
@@ -7851,7 +7846,7 @@
   <dimension ref="A1:AS267"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R1" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="E259" sqref="E259"/>
     </sheetView>
@@ -8151,7 +8146,7 @@
         <v>197</v>
       </c>
       <c r="AK2" s="50" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="AL2" s="36" t="s">
         <v>1</v>
@@ -8288,7 +8283,7 @@
         <v>197</v>
       </c>
       <c r="AK3" s="50" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AL3" s="36" t="s">
         <v>1</v>
@@ -8425,7 +8420,7 @@
         <v>197</v>
       </c>
       <c r="AK4" s="50" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AL4" s="36" t="s">
         <v>1</v>
@@ -8562,7 +8557,7 @@
         <v>197</v>
       </c>
       <c r="AK5" s="50" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AL5" s="36" t="s">
         <v>1</v>
@@ -8699,7 +8694,7 @@
         <v>197</v>
       </c>
       <c r="AK6" s="50" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AL6" s="36" t="s">
         <v>1</v>
@@ -8836,7 +8831,7 @@
         <v>197</v>
       </c>
       <c r="AK7" s="50" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AL7" s="36" t="s">
         <v>1</v>
@@ -8973,7 +8968,7 @@
         <v>197</v>
       </c>
       <c r="AK8" s="50" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="AL8" s="36" t="s">
         <v>1</v>
@@ -9110,7 +9105,7 @@
         <v>197</v>
       </c>
       <c r="AK9" s="50" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="AL9" s="36" t="s">
         <v>1</v>
@@ -9247,7 +9242,7 @@
         <v>197</v>
       </c>
       <c r="AK10" s="50" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="AL10" s="36" t="s">
         <v>1</v>
@@ -9384,7 +9379,7 @@
         <v>197</v>
       </c>
       <c r="AK11" s="50" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="AL11" s="36" t="s">
         <v>1</v>
@@ -12978,7 +12973,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="45" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C38" s="87" t="s">
         <v>298</v>
@@ -13083,7 +13078,7 @@
         <v>197</v>
       </c>
       <c r="AK38" s="50" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="AL38" s="36" t="s">
         <v>1</v>
@@ -18869,7 +18864,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="46" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C81" s="59" t="s">
         <v>296</v>
@@ -18974,7 +18969,7 @@
         <v>197</v>
       </c>
       <c r="AK81" s="50" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="AL81" s="36" t="s">
         <v>1</v>
@@ -42433,16 +42428,16 @@
         <v>253</v>
       </c>
       <c r="B253" s="94" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C253" s="35" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D253" s="52" t="s">
         <v>194</v>
       </c>
       <c r="E253" s="91" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F253" s="58" t="s">
         <v>308</v>
@@ -42460,19 +42455,19 @@
         <v>370</v>
       </c>
       <c r="K253" s="93" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="L253" s="58" t="s">
         <v>371</v>
       </c>
       <c r="M253" s="93" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="N253" s="53" t="s">
         <v>372</v>
       </c>
       <c r="O253" s="50" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="P253" s="54" t="s">
         <v>1</v>
@@ -42532,13 +42527,13 @@
         <v>192</v>
       </c>
       <c r="AI253" s="91" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="AJ253" s="81" t="s">
         <v>197</v>
       </c>
       <c r="AK253" s="91" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="AL253" s="36" t="s">
         <v>1</v>
@@ -42570,16 +42565,16 @@
         <v>254</v>
       </c>
       <c r="B254" s="94" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C254" s="35" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D254" s="52" t="s">
         <v>194</v>
       </c>
       <c r="E254" s="91" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F254" s="58" t="s">
         <v>308</v>
@@ -42597,19 +42592,19 @@
         <v>370</v>
       </c>
       <c r="K254" s="93" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="L254" s="58" t="s">
         <v>371</v>
       </c>
       <c r="M254" s="93" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="N254" s="53" t="s">
         <v>372</v>
       </c>
       <c r="O254" s="50" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="P254" s="54" t="s">
         <v>1</v>
@@ -42669,13 +42664,13 @@
         <v>192</v>
       </c>
       <c r="AI254" s="91" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AJ254" s="81" t="s">
         <v>197</v>
       </c>
       <c r="AK254" s="91" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="AL254" s="36" t="s">
         <v>1</v>
@@ -42707,16 +42702,16 @@
         <v>255</v>
       </c>
       <c r="B255" s="94" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C255" s="35" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D255" s="52" t="s">
         <v>194</v>
       </c>
       <c r="E255" s="91" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F255" s="58" t="s">
         <v>308</v>
@@ -42734,19 +42729,19 @@
         <v>370</v>
       </c>
       <c r="K255" s="93" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="L255" s="58" t="s">
         <v>371</v>
       </c>
       <c r="M255" s="93" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="N255" s="53" t="s">
         <v>372</v>
       </c>
       <c r="O255" s="50" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="P255" s="54" t="s">
         <v>1</v>
@@ -42806,13 +42801,13 @@
         <v>192</v>
       </c>
       <c r="AI255" s="91" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AJ255" s="81" t="s">
         <v>197</v>
       </c>
       <c r="AK255" s="91" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="AL255" s="36" t="s">
         <v>1</v>
@@ -42844,16 +42839,16 @@
         <v>256</v>
       </c>
       <c r="B256" s="94" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C256" s="35" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D256" s="52" t="s">
         <v>194</v>
       </c>
       <c r="E256" s="91" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F256" s="58" t="s">
         <v>308</v>
@@ -42871,19 +42866,19 @@
         <v>370</v>
       </c>
       <c r="K256" s="93" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="L256" s="58" t="s">
         <v>371</v>
       </c>
       <c r="M256" s="93" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="N256" s="53" t="s">
         <v>372</v>
       </c>
       <c r="O256" s="50" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="P256" s="54" t="s">
         <v>1</v>
@@ -42943,13 +42938,13 @@
         <v>192</v>
       </c>
       <c r="AI256" s="91" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AJ256" s="81" t="s">
         <v>197</v>
       </c>
       <c r="AK256" s="91" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="AL256" s="36" t="s">
         <v>1</v>
@@ -42981,16 +42976,16 @@
         <v>257</v>
       </c>
       <c r="B257" s="94" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C257" s="35" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D257" s="52" t="s">
         <v>194</v>
       </c>
       <c r="E257" s="91" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F257" s="58" t="s">
         <v>308</v>
@@ -43008,19 +43003,19 @@
         <v>370</v>
       </c>
       <c r="K257" s="93" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="L257" s="58" t="s">
         <v>371</v>
       </c>
       <c r="M257" s="93" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="N257" s="53" t="s">
         <v>372</v>
       </c>
       <c r="O257" s="50" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="P257" s="54" t="s">
         <v>1</v>
@@ -43080,13 +43075,13 @@
         <v>192</v>
       </c>
       <c r="AI257" s="91" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="AJ257" s="81" t="s">
         <v>197</v>
       </c>
       <c r="AK257" s="91" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="AL257" s="36" t="s">
         <v>1</v>
@@ -43118,16 +43113,16 @@
         <v>258</v>
       </c>
       <c r="B258" s="94" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C258" s="35" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D258" s="52" t="s">
         <v>194</v>
       </c>
       <c r="E258" s="91" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F258" s="58" t="s">
         <v>308</v>
@@ -43145,19 +43140,19 @@
         <v>370</v>
       </c>
       <c r="K258" s="93" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="L258" s="58" t="s">
         <v>371</v>
       </c>
       <c r="M258" s="93" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="N258" s="53" t="s">
         <v>372</v>
       </c>
       <c r="O258" s="50" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="P258" s="54" t="s">
         <v>1</v>
@@ -43217,13 +43212,13 @@
         <v>192</v>
       </c>
       <c r="AI258" s="91" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="AJ258" s="81" t="s">
         <v>197</v>
       </c>
       <c r="AK258" s="91" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="AL258" s="36" t="s">
         <v>1</v>
@@ -43255,16 +43250,16 @@
         <v>259</v>
       </c>
       <c r="B259" s="94" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="C259" s="35" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D259" s="52" t="s">
         <v>194</v>
       </c>
       <c r="E259" s="91" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F259" s="58" t="s">
         <v>308</v>
@@ -43354,13 +43349,13 @@
         <v>192</v>
       </c>
       <c r="AI259" s="91" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="AJ259" s="81" t="s">
         <v>197</v>
       </c>
       <c r="AK259" s="91" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="AL259" s="36" t="s">
         <v>1</v>
@@ -43392,16 +43387,16 @@
         <v>260</v>
       </c>
       <c r="B260" s="94" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C260" s="35" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D260" s="52" t="s">
         <v>194</v>
       </c>
       <c r="E260" s="91" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F260" s="58" t="s">
         <v>308</v>
@@ -43431,7 +43426,7 @@
         <v>372</v>
       </c>
       <c r="O260" s="50" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="P260" s="54" t="s">
         <v>1</v>
@@ -43491,13 +43486,13 @@
         <v>192</v>
       </c>
       <c r="AI260" s="91" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AJ260" s="81" t="s">
         <v>197</v>
       </c>
       <c r="AK260" s="91" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="AL260" s="36" t="s">
         <v>1</v>
@@ -43529,16 +43524,16 @@
         <v>261</v>
       </c>
       <c r="B261" s="94" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C261" s="35" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D261" s="52" t="s">
         <v>194</v>
       </c>
       <c r="E261" s="91" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F261" s="58" t="s">
         <v>308</v>
@@ -43556,19 +43551,19 @@
         <v>370</v>
       </c>
       <c r="K261" s="93" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="L261" s="58" t="s">
         <v>371</v>
       </c>
       <c r="M261" s="93" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="N261" s="53" t="s">
         <v>372</v>
       </c>
       <c r="O261" s="50" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="P261" s="54" t="s">
         <v>1</v>
@@ -43628,13 +43623,13 @@
         <v>192</v>
       </c>
       <c r="AI261" s="91" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AJ261" s="81" t="s">
         <v>197</v>
       </c>
       <c r="AK261" s="91" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="AL261" s="36" t="s">
         <v>1</v>
@@ -44501,18 +44496,18 @@
     <cfRule type="duplicateValues" dxfId="29" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B106">
-    <cfRule type="duplicateValues" dxfId="28" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B262:B1048576 B11:B252">
     <cfRule type="duplicateValues" dxfId="24" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B268:B1048576 B245:B252 B262:B263 B11:B89">
-    <cfRule type="duplicateValues" dxfId="23" priority="271"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="343"/>
     <cfRule type="duplicateValues" dxfId="22" priority="342"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="343"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="271"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B268:B1048576 B245:B252 B262:B263 B11:B90">
     <cfRule type="duplicateValues" dxfId="20" priority="240"/>

--- a/Versão5/VEGE/Ontologia_VEGET.xlsx
+++ b/Versão5/VEGE/Ontologia_VEGET.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\VEGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B42E672-36A3-4A68-95BC-98751759D5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B34FB13-D40B-4678-883F-93C3EAB9BC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="577" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="577" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="26" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11869" uniqueCount="1120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11884" uniqueCount="1124">
   <si>
     <t>Key</t>
   </si>
@@ -3431,6 +3431,18 @@
   </si>
   <si>
     <t>"Arbustos, árvores, ervas e lianas"</t>
+  </si>
+  <si>
+    <t>Crédito.de.Carbono</t>
+  </si>
+  <si>
+    <t>Criado em 1997 no Protocolo de Kyoto como parte dos mecanismos de flexibilização para ajudar países a cumprir metas de redução de emissões. Unidade: Cada crédito equivale a 1 tonelada de Dióxido de Carbono não emitida ou removida da atmosfera.</t>
+  </si>
+  <si>
+    <t>Ecologia</t>
+  </si>
+  <si>
+    <t>Creado en 1997 en el Protocolo de Kioto como parte de los mecanismos de flexibilidad para ayudar a los países a cumplir con los objetivos de reducción de emisiones. Unidad: Cada crédito equivale a 1 tonelada de dióxido de carbono no emitido o eliminado de la atmósfera.</t>
   </si>
 </sst>
 </file>
@@ -4009,21 +4021,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
+  <dxfs count="53">
     <dxf>
       <font>
         <b val="0"/>
@@ -4154,6 +4152,13 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -4955,7 +4960,7 @@
       </c>
       <c r="B18" s="83">
         <f ca="1">NOW()</f>
-        <v>45954.395587384257</v>
+        <v>45954.409828124997</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5070,11 +5075,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375F50FD-D5BA-45CD-9CBD-E4284A1EA77F}">
-  <dimension ref="A1:Y28"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.07421875" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5084,7 +5089,7 @@
     <col min="3" max="3" width="6.69140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.3828125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.84375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.4609375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="10" width="6.4609375" style="37" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.69140625" style="37" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.69140625" customWidth="1"/>
@@ -5252,7 +5257,7 @@
         <v>Informação</v>
       </c>
       <c r="V2" s="30" t="str">
-        <f t="shared" ref="V2:V23" si="1">SUBSTITUTE(C2, ".", " ")</f>
+        <f t="shared" ref="V2:V24" si="1">SUBSTITUTE(C2, ".", " ")</f>
         <v>Gestão</v>
       </c>
       <c r="W2" s="18" t="str">
@@ -5342,7 +5347,7 @@
         <v>Reinos</v>
       </c>
       <c r="W3" s="18" t="str">
-        <f t="shared" ref="W3:W28" si="9">CONCATENATE("K.",LEFT(C3,3),".",A3)</f>
+        <f t="shared" ref="W3:W29" si="9">CONCATENATE("K.",LEFT(C3,3),".",A3)</f>
         <v>K.Rei.3</v>
       </c>
       <c r="X3" s="28" t="s">
@@ -6505,19 +6510,19 @@
         <v>1</v>
       </c>
       <c r="L17" s="31" t="str">
-        <f t="shared" ref="L17:L23" si="46">_xlfn.CONCAT(SUBSTITUTE(C17,"1.",""))</f>
+        <f t="shared" ref="L17:L24" si="46">_xlfn.CONCAT(SUBSTITUTE(C17,"1.",""))</f>
         <v>Reinos</v>
       </c>
       <c r="M17" s="31" t="str">
-        <f t="shared" ref="M17:M23" si="47">_xlfn.CONCAT(SUBSTITUTE(D17,"."," "))</f>
+        <f t="shared" ref="M17:M24" si="47">_xlfn.CONCAT(SUBSTITUTE(D17,"."," "))</f>
         <v>Vegetal</v>
       </c>
       <c r="N17" s="31" t="str">
-        <f t="shared" ref="N17:N23" si="48">_xlfn.CONCAT(SUBSTITUTE(E17,"."," "))</f>
+        <f t="shared" ref="N17:N24" si="48">_xlfn.CONCAT(SUBSTITUTE(E17,"."," "))</f>
         <v>Plantas</v>
       </c>
       <c r="O17" s="31" t="str">
-        <f t="shared" ref="O17:O23" si="49">_xlfn.CONCAT(SUBSTITUTE(F17,"."," "))</f>
+        <f t="shared" ref="O17:O24" si="49">_xlfn.CONCAT(SUBSTITUTE(F17,"."," "))</f>
         <v>Flor</v>
       </c>
       <c r="P17" s="31" t="s">
@@ -6530,15 +6535,15 @@
         <v>1</v>
       </c>
       <c r="S17" s="30" t="str">
-        <f t="shared" ref="S17:S23" si="50">SUBSTITUTE(C17, ".", " ")</f>
+        <f t="shared" ref="S17:S24" si="50">SUBSTITUTE(C17, ".", " ")</f>
         <v>Reinos</v>
       </c>
       <c r="T17" s="30" t="str">
-        <f t="shared" ref="T17:T23" si="51">SUBSTITUTE(D17, ".", " ")</f>
+        <f t="shared" ref="T17:T24" si="51">SUBSTITUTE(D17, ".", " ")</f>
         <v>Vegetal</v>
       </c>
       <c r="U17" s="30" t="str">
-        <f t="shared" ref="U17:U23" si="52">SUBSTITUTE(E17, ".", " ")</f>
+        <f t="shared" ref="U17:U24" si="52">SUBSTITUTE(E17, ".", " ")</f>
         <v>Plantas</v>
       </c>
       <c r="V17" s="30" t="str">
@@ -6632,7 +6637,7 @@
         <v>Reinos</v>
       </c>
       <c r="W18" s="18" t="str">
-        <f t="shared" ref="W18:W23" si="53">CONCATENATE("K.",LEFT(C18,3),".",A18)</f>
+        <f t="shared" ref="W18:W24" si="53">CONCATENATE("K.",LEFT(C18,3),".",A18)</f>
         <v>K.Rei.18</v>
       </c>
       <c r="X18" s="28" t="s">
@@ -6650,7 +6655,7 @@
         <v>75</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>93</v>
+        <v>1122</v>
       </c>
       <c r="D19" s="35" t="s">
         <v>1008</v>
@@ -6677,19 +6682,19 @@
         <v>1</v>
       </c>
       <c r="L19" s="31" t="str">
-        <f t="shared" ref="L19:L20" si="54">_xlfn.CONCAT(SUBSTITUTE(C19,"1.",""))</f>
-        <v>Reinos</v>
+        <f t="shared" ref="L19:L21" si="54">_xlfn.CONCAT(SUBSTITUTE(C19,"1.",""))</f>
+        <v>Ecologia</v>
       </c>
       <c r="M19" s="31" t="str">
-        <f t="shared" ref="M19:M20" si="55">_xlfn.CONCAT(SUBSTITUTE(D19,"."," "))</f>
+        <f t="shared" ref="M19:M21" si="55">_xlfn.CONCAT(SUBSTITUTE(D19,"."," "))</f>
         <v>Ecossistema</v>
       </c>
       <c r="N19" s="31" t="str">
-        <f t="shared" ref="N19:N20" si="56">_xlfn.CONCAT(SUBSTITUTE(E19,"."," "))</f>
+        <f t="shared" ref="N19:N21" si="56">_xlfn.CONCAT(SUBSTITUTE(E19,"."," "))</f>
         <v>Conservação</v>
       </c>
       <c r="O19" s="31" t="str">
-        <f t="shared" ref="O19:O20" si="57">_xlfn.CONCAT(SUBSTITUTE(F19,"."," "))</f>
+        <f t="shared" ref="O19:O21" si="57">_xlfn.CONCAT(SUBSTITUTE(F19,"."," "))</f>
         <v>Conservação Animal</v>
       </c>
       <c r="P19" s="31" t="s">
@@ -6702,24 +6707,24 @@
         <v>1</v>
       </c>
       <c r="S19" s="30" t="str">
-        <f t="shared" ref="S19:S20" si="58">SUBSTITUTE(C19, ".", " ")</f>
-        <v>Reinos</v>
+        <f t="shared" ref="S19:S21" si="58">SUBSTITUTE(C19, ".", " ")</f>
+        <v>Ecologia</v>
       </c>
       <c r="T19" s="30" t="str">
-        <f t="shared" ref="T19:T20" si="59">SUBSTITUTE(D19, ".", " ")</f>
+        <f t="shared" ref="T19:T21" si="59">SUBSTITUTE(D19, ".", " ")</f>
         <v>Ecossistema</v>
       </c>
       <c r="U19" s="30" t="str">
-        <f t="shared" ref="U19:U20" si="60">SUBSTITUTE(E19, ".", " ")</f>
+        <f t="shared" ref="U19:U21" si="60">SUBSTITUTE(E19, ".", " ")</f>
         <v>Conservação</v>
       </c>
       <c r="V19" s="30" t="str">
-        <f t="shared" ref="V19:V20" si="61">SUBSTITUTE(C19, ".", " ")</f>
-        <v>Reinos</v>
+        <f t="shared" ref="V19:V21" si="61">SUBSTITUTE(C19, ".", " ")</f>
+        <v>Ecologia</v>
       </c>
       <c r="W19" s="18" t="str">
-        <f t="shared" ref="W19:W20" si="62">CONCATENATE("K.",LEFT(C19,3),".",A19)</f>
-        <v>K.Rei.19</v>
+        <f t="shared" ref="W19:W21" si="62">CONCATENATE("K.",LEFT(C19,3),".",A19)</f>
+        <v>K.Eco.19</v>
       </c>
       <c r="X19" s="28" t="s">
         <v>1</v>
@@ -6736,7 +6741,7 @@
         <v>75</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>93</v>
+        <v>1122</v>
       </c>
       <c r="D20" s="35" t="s">
         <v>1008</v>
@@ -6764,7 +6769,7 @@
       </c>
       <c r="L20" s="31" t="str">
         <f t="shared" si="54"/>
-        <v>Reinos</v>
+        <v>Ecologia</v>
       </c>
       <c r="M20" s="31" t="str">
         <f t="shared" si="55"/>
@@ -6789,7 +6794,7 @@
       </c>
       <c r="S20" s="30" t="str">
         <f t="shared" si="58"/>
-        <v>Reinos</v>
+        <v>Ecologia</v>
       </c>
       <c r="T20" s="30" t="str">
         <f t="shared" si="59"/>
@@ -6801,11 +6806,11 @@
       </c>
       <c r="V20" s="30" t="str">
         <f t="shared" si="61"/>
-        <v>Reinos</v>
+        <v>Ecologia</v>
       </c>
       <c r="W20" s="18" t="str">
         <f t="shared" si="62"/>
-        <v>K.Rei.20</v>
+        <v>K.Eco.20</v>
       </c>
       <c r="X20" s="28" t="s">
         <v>1</v>
@@ -6822,7 +6827,7 @@
         <v>75</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>93</v>
+        <v>1122</v>
       </c>
       <c r="D21" s="35" t="s">
         <v>1008</v>
@@ -6849,19 +6854,19 @@
         <v>1</v>
       </c>
       <c r="L21" s="31" t="str">
-        <f t="shared" si="46"/>
-        <v>Reinos</v>
+        <f t="shared" si="54"/>
+        <v>Ecologia</v>
       </c>
       <c r="M21" s="31" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>Ecossistema</v>
       </c>
       <c r="N21" s="31" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>Conservação</v>
       </c>
       <c r="O21" s="31" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>Conservação Mineral</v>
       </c>
       <c r="P21" s="31" t="s">
@@ -6874,24 +6879,24 @@
         <v>1</v>
       </c>
       <c r="S21" s="30" t="str">
-        <f t="shared" si="50"/>
-        <v>Reinos</v>
+        <f t="shared" si="58"/>
+        <v>Ecologia</v>
       </c>
       <c r="T21" s="30" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>Ecossistema</v>
       </c>
       <c r="U21" s="30" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>Conservação</v>
       </c>
       <c r="V21" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Reinos</v>
+        <f t="shared" si="61"/>
+        <v>Ecologia</v>
       </c>
       <c r="W21" s="18" t="str">
-        <f t="shared" si="53"/>
-        <v>K.Rei.21</v>
+        <f t="shared" si="62"/>
+        <v>K.Eco.21</v>
       </c>
       <c r="X21" s="28" t="s">
         <v>1</v>
@@ -6908,16 +6913,16 @@
         <v>75</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>580</v>
+        <v>1122</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>581</v>
+        <v>1008</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>582</v>
-      </c>
-      <c r="F22" s="69" t="s">
-        <v>572</v>
+        <v>985</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>1120</v>
       </c>
       <c r="G22" s="41" t="s">
         <v>1</v>
@@ -6936,54 +6941,54 @@
       </c>
       <c r="L22" s="31" t="str">
         <f t="shared" si="46"/>
-        <v>Jardim</v>
+        <v>Ecologia</v>
       </c>
       <c r="M22" s="31" t="str">
         <f t="shared" si="47"/>
-        <v>Solos</v>
+        <v>Ecossistema</v>
       </c>
       <c r="N22" s="31" t="str">
         <f t="shared" si="48"/>
-        <v>Solo</v>
+        <v>Conservação</v>
       </c>
       <c r="O22" s="31" t="str">
         <f t="shared" si="49"/>
-        <v>Solo Arenoso</v>
+        <v>Crédito de Carbono</v>
       </c>
       <c r="P22" s="31" t="s">
-        <v>591</v>
+        <v>1121</v>
       </c>
       <c r="Q22" s="31" t="s">
-        <v>594</v>
+        <v>1123</v>
       </c>
       <c r="R22" s="29" t="s">
         <v>1</v>
       </c>
       <c r="S22" s="30" t="str">
         <f t="shared" si="50"/>
-        <v>Jardim</v>
+        <v>Ecologia</v>
       </c>
       <c r="T22" s="30" t="str">
         <f t="shared" si="51"/>
-        <v>Solos</v>
+        <v>Ecossistema</v>
       </c>
       <c r="U22" s="30" t="str">
         <f t="shared" si="52"/>
-        <v>Solo</v>
+        <v>Conservação</v>
       </c>
       <c r="V22" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>Jardim</v>
+        <v>Ecologia</v>
       </c>
       <c r="W22" s="18" t="str">
         <f t="shared" si="53"/>
-        <v>K.Jar.22</v>
+        <v>K.Eco.22</v>
       </c>
       <c r="X22" s="28" t="s">
-        <v>600</v>
-      </c>
-      <c r="Y22" s="30" t="s">
-        <v>601</v>
+        <v>1</v>
+      </c>
+      <c r="Y22" s="28" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
@@ -7003,7 +7008,7 @@
         <v>582</v>
       </c>
       <c r="F23" s="69" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G23" s="41" t="s">
         <v>1</v>
@@ -7034,13 +7039,13 @@
       </c>
       <c r="O23" s="31" t="str">
         <f t="shared" si="49"/>
-        <v>Solo Argiloso</v>
+        <v>Solo Arenoso</v>
       </c>
       <c r="P23" s="31" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Q23" s="31" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="R23" s="29" t="s">
         <v>1</v>
@@ -7089,7 +7094,7 @@
         <v>582</v>
       </c>
       <c r="F24" s="69" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="G24" s="41" t="s">
         <v>1</v>
@@ -7107,48 +7112,48 @@
         <v>1</v>
       </c>
       <c r="L24" s="31" t="str">
-        <f t="shared" ref="L24:L26" si="63">_xlfn.CONCAT(SUBSTITUTE(C24,"1.",""))</f>
+        <f t="shared" si="46"/>
         <v>Jardim</v>
       </c>
       <c r="M24" s="31" t="str">
-        <f t="shared" ref="M24:M26" si="64">_xlfn.CONCAT(SUBSTITUTE(D24,"."," "))</f>
+        <f t="shared" si="47"/>
         <v>Solos</v>
       </c>
       <c r="N24" s="31" t="str">
-        <f t="shared" ref="N24:N26" si="65">_xlfn.CONCAT(SUBSTITUTE(E24,"."," "))</f>
+        <f t="shared" si="48"/>
         <v>Solo</v>
       </c>
       <c r="O24" s="31" t="str">
-        <f t="shared" ref="O24:O26" si="66">_xlfn.CONCAT(SUBSTITUTE(F24,"."," "))</f>
-        <v>Solo Compacto</v>
+        <f t="shared" si="49"/>
+        <v>Solo Argiloso</v>
       </c>
       <c r="P24" s="31" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Q24" s="31" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="R24" s="29" t="s">
         <v>1</v>
       </c>
       <c r="S24" s="30" t="str">
-        <f t="shared" ref="S24:S26" si="67">SUBSTITUTE(C24, ".", " ")</f>
+        <f t="shared" si="50"/>
         <v>Jardim</v>
       </c>
       <c r="T24" s="30" t="str">
-        <f t="shared" ref="T24:T26" si="68">SUBSTITUTE(D24, ".", " ")</f>
+        <f t="shared" si="51"/>
         <v>Solos</v>
       </c>
       <c r="U24" s="30" t="str">
-        <f t="shared" ref="U24:U26" si="69">SUBSTITUTE(E24, ".", " ")</f>
+        <f t="shared" si="52"/>
         <v>Solo</v>
       </c>
       <c r="V24" s="30" t="str">
-        <f t="shared" ref="V24:V26" si="70">SUBSTITUTE(C24, ".", " ")</f>
+        <f t="shared" si="1"/>
         <v>Jardim</v>
       </c>
       <c r="W24" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="53"/>
         <v>K.Jar.24</v>
       </c>
       <c r="X24" s="28" t="s">
@@ -7169,13 +7174,13 @@
         <v>580</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F25" s="69" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="G25" s="41" t="s">
         <v>1</v>
@@ -7193,44 +7198,44 @@
         <v>1</v>
       </c>
       <c r="L25" s="31" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" ref="L25:L27" si="63">_xlfn.CONCAT(SUBSTITUTE(C25,"1.",""))</f>
         <v>Jardim</v>
       </c>
       <c r="M25" s="31" t="str">
-        <f t="shared" si="64"/>
-        <v>Luz Solar</v>
+        <f t="shared" ref="M25:M27" si="64">_xlfn.CONCAT(SUBSTITUTE(D25,"."," "))</f>
+        <v>Solos</v>
       </c>
       <c r="N25" s="31" t="str">
-        <f t="shared" si="65"/>
-        <v>Exposição ao Sol</v>
+        <f t="shared" ref="N25:N27" si="65">_xlfn.CONCAT(SUBSTITUTE(E25,"."," "))</f>
+        <v>Solo</v>
       </c>
       <c r="O25" s="31" t="str">
-        <f t="shared" si="66"/>
-        <v>Sol Pleno</v>
+        <f t="shared" ref="O25:O27" si="66">_xlfn.CONCAT(SUBSTITUTE(F25,"."," "))</f>
+        <v>Solo Compacto</v>
       </c>
       <c r="P25" s="31" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="Q25" s="31" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="R25" s="29" t="s">
         <v>1</v>
       </c>
       <c r="S25" s="30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" ref="S25:S27" si="67">SUBSTITUTE(C25, ".", " ")</f>
         <v>Jardim</v>
       </c>
       <c r="T25" s="30" t="str">
-        <f t="shared" si="68"/>
-        <v>Luz Solar</v>
+        <f t="shared" ref="T25:T27" si="68">SUBSTITUTE(D25, ".", " ")</f>
+        <v>Solos</v>
       </c>
       <c r="U25" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v>Exposição ao Sol</v>
+        <f t="shared" ref="U25:U27" si="69">SUBSTITUTE(E25, ".", " ")</f>
+        <v>Solo</v>
       </c>
       <c r="V25" s="30" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" ref="V25:V27" si="70">SUBSTITUTE(C25, ".", " ")</f>
         <v>Jardim</v>
       </c>
       <c r="W25" s="18" t="str">
@@ -7238,10 +7243,10 @@
         <v>K.Jar.25</v>
       </c>
       <c r="X25" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="28" t="s">
-        <v>1</v>
+        <v>600</v>
+      </c>
+      <c r="Y25" s="30" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
@@ -7261,7 +7266,7 @@
         <v>587</v>
       </c>
       <c r="F26" s="69" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G26" s="41" t="s">
         <v>1</v>
@@ -7292,13 +7297,13 @@
       </c>
       <c r="O26" s="31" t="str">
         <f t="shared" si="66"/>
-        <v>Sol Parcial</v>
+        <v>Sol Pleno</v>
       </c>
       <c r="P26" s="31" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Q26" s="31" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="R26" s="29" t="s">
         <v>1</v>
@@ -7347,7 +7352,7 @@
         <v>587</v>
       </c>
       <c r="F27" s="69" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="G27" s="41" t="s">
         <v>1</v>
@@ -7365,48 +7370,48 @@
         <v>1</v>
       </c>
       <c r="L27" s="31" t="str">
-        <f t="shared" ref="L27" si="71">_xlfn.CONCAT(SUBSTITUTE(C27,"1.",""))</f>
+        <f t="shared" si="63"/>
         <v>Jardim</v>
       </c>
       <c r="M27" s="31" t="str">
-        <f t="shared" ref="M27" si="72">_xlfn.CONCAT(SUBSTITUTE(D27,"."," "))</f>
+        <f t="shared" si="64"/>
         <v>Luz Solar</v>
       </c>
       <c r="N27" s="31" t="str">
-        <f t="shared" ref="N27" si="73">_xlfn.CONCAT(SUBSTITUTE(E27,"."," "))</f>
+        <f t="shared" si="65"/>
         <v>Exposição ao Sol</v>
       </c>
       <c r="O27" s="31" t="str">
-        <f t="shared" ref="O27" si="74">_xlfn.CONCAT(SUBSTITUTE(F27,"."," "))</f>
-        <v>Sombra</v>
+        <f t="shared" si="66"/>
+        <v>Sol Parcial</v>
       </c>
       <c r="P27" s="31" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="Q27" s="31" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="R27" s="29" t="s">
         <v>1</v>
       </c>
       <c r="S27" s="30" t="str">
-        <f t="shared" ref="S27" si="75">SUBSTITUTE(C27, ".", " ")</f>
+        <f t="shared" si="67"/>
         <v>Jardim</v>
       </c>
       <c r="T27" s="30" t="str">
-        <f t="shared" ref="T27" si="76">SUBSTITUTE(D27, ".", " ")</f>
+        <f t="shared" si="68"/>
         <v>Luz Solar</v>
       </c>
       <c r="U27" s="30" t="str">
-        <f t="shared" ref="U27" si="77">SUBSTITUTE(E27, ".", " ")</f>
+        <f t="shared" si="69"/>
         <v>Exposição ao Sol</v>
       </c>
       <c r="V27" s="30" t="str">
-        <f t="shared" ref="V27" si="78">SUBSTITUTE(C27, ".", " ")</f>
+        <f t="shared" si="70"/>
         <v>Jardim</v>
       </c>
       <c r="W27" s="18" t="str">
-        <f t="shared" ref="W27" si="79">CONCATENATE("K.",LEFT(C27,3),".",A27)</f>
+        <f t="shared" si="9"/>
         <v>K.Jar.27</v>
       </c>
       <c r="X27" s="28" t="s">
@@ -7424,127 +7429,213 @@
         <v>75</v>
       </c>
       <c r="C28" s="35" t="s">
+        <v>580</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>583</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>587</v>
+      </c>
+      <c r="F28" s="69" t="s">
+        <v>573</v>
+      </c>
+      <c r="G28" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="L28" s="31" t="str">
+        <f t="shared" ref="L28" si="71">_xlfn.CONCAT(SUBSTITUTE(C28,"1.",""))</f>
+        <v>Jardim</v>
+      </c>
+      <c r="M28" s="31" t="str">
+        <f t="shared" ref="M28" si="72">_xlfn.CONCAT(SUBSTITUTE(D28,"."," "))</f>
+        <v>Luz Solar</v>
+      </c>
+      <c r="N28" s="31" t="str">
+        <f t="shared" ref="N28" si="73">_xlfn.CONCAT(SUBSTITUTE(E28,"."," "))</f>
+        <v>Exposição ao Sol</v>
+      </c>
+      <c r="O28" s="31" t="str">
+        <f t="shared" ref="O28" si="74">_xlfn.CONCAT(SUBSTITUTE(F28,"."," "))</f>
+        <v>Sombra</v>
+      </c>
+      <c r="P28" s="31" t="s">
+        <v>588</v>
+      </c>
+      <c r="Q28" s="31" t="s">
+        <v>599</v>
+      </c>
+      <c r="R28" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="S28" s="30" t="str">
+        <f t="shared" ref="S28" si="75">SUBSTITUTE(C28, ".", " ")</f>
+        <v>Jardim</v>
+      </c>
+      <c r="T28" s="30" t="str">
+        <f t="shared" ref="T28" si="76">SUBSTITUTE(D28, ".", " ")</f>
+        <v>Luz Solar</v>
+      </c>
+      <c r="U28" s="30" t="str">
+        <f t="shared" ref="U28" si="77">SUBSTITUTE(E28, ".", " ")</f>
+        <v>Exposição ao Sol</v>
+      </c>
+      <c r="V28" s="30" t="str">
+        <f t="shared" ref="V28" si="78">SUBSTITUTE(C28, ".", " ")</f>
+        <v>Jardim</v>
+      </c>
+      <c r="W28" s="18" t="str">
+        <f t="shared" ref="W28" si="79">CONCATENATE("K.",LEFT(C28,3),".",A28)</f>
+        <v>K.Jar.28</v>
+      </c>
+      <c r="X28" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="26">
+        <v>29</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="35" t="s">
         <v>297</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D29" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E29" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="F28" s="35" t="s">
+      <c r="F29" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="G28" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="I28" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="J28" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="K28" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="L28" s="31" t="str">
-        <f t="shared" ref="L28" si="80">_xlfn.CONCAT(SUBSTITUTE(C28,"1.",""))</f>
+      <c r="G29" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="L29" s="31" t="str">
+        <f t="shared" ref="L29" si="80">_xlfn.CONCAT(SUBSTITUTE(C29,"1.",""))</f>
         <v>Divisão.Botânica</v>
       </c>
-      <c r="M28" s="31" t="str">
-        <f t="shared" ref="M28" si="81">_xlfn.CONCAT(SUBSTITUTE(D28,"."," "))</f>
+      <c r="M29" s="31" t="str">
+        <f t="shared" ref="M29" si="81">_xlfn.CONCAT(SUBSTITUTE(D29,"."," "))</f>
         <v>Classe Botânica</v>
       </c>
-      <c r="N28" s="31" t="str">
-        <f t="shared" ref="N28" si="82">_xlfn.CONCAT(SUBSTITUTE(E28,"."," "))</f>
+      <c r="N29" s="31" t="str">
+        <f t="shared" ref="N29" si="82">_xlfn.CONCAT(SUBSTITUTE(E29,"."," "))</f>
         <v>Ordem Botânica</v>
       </c>
-      <c r="O28" s="31" t="str">
-        <f t="shared" ref="O28" si="83">_xlfn.CONCAT(SUBSTITUTE(F28,"."," "))</f>
+      <c r="O29" s="31" t="str">
+        <f t="shared" ref="O29" si="83">_xlfn.CONCAT(SUBSTITUTE(F29,"."," "))</f>
         <v>Família Botânica</v>
       </c>
-      <c r="P28" s="31" t="s">
+      <c r="P29" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="Q28" s="31" t="s">
+      <c r="Q29" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="R28" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="S28" s="30" t="str">
-        <f t="shared" ref="S28" si="84">SUBSTITUTE(C28, ".", " ")</f>
+      <c r="R29" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="S29" s="30" t="str">
+        <f t="shared" ref="S29" si="84">SUBSTITUTE(C29, ".", " ")</f>
         <v>Divisão Botânica</v>
       </c>
-      <c r="T28" s="30" t="str">
-        <f t="shared" ref="T28" si="85">SUBSTITUTE(D28, ".", " ")</f>
+      <c r="T29" s="30" t="str">
+        <f t="shared" ref="T29" si="85">SUBSTITUTE(D29, ".", " ")</f>
         <v>Classe Botânica</v>
       </c>
-      <c r="U28" s="30" t="str">
-        <f t="shared" ref="U28" si="86">SUBSTITUTE(E28, ".", " ")</f>
+      <c r="U29" s="30" t="str">
+        <f t="shared" ref="U29" si="86">SUBSTITUTE(E29, ".", " ")</f>
         <v>Ordem Botânica</v>
       </c>
-      <c r="V28" s="30" t="str">
-        <f t="shared" ref="V28" si="87">SUBSTITUTE(C28, ".", " ")</f>
+      <c r="V29" s="30" t="str">
+        <f t="shared" ref="V29" si="87">SUBSTITUTE(C29, ".", " ")</f>
         <v>Divisão Botânica</v>
       </c>
-      <c r="W28" s="18" t="str">
+      <c r="W29" s="18" t="str">
         <f t="shared" si="9"/>
-        <v>K.Div.28</v>
-      </c>
-      <c r="X28" s="28" t="s">
+        <v>K.Div.29</v>
+      </c>
+      <c r="X29" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="Y28" s="30" t="s">
+      <c r="Y29" s="30" t="s">
         <v>85</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="53" priority="1413"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="1413"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="52" priority="1655"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="1656"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="1655"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="1656"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:F27">
-    <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
+  <conditionalFormatting sqref="F23:F28">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29:F1048576 F1">
-    <cfRule type="duplicateValues" dxfId="49" priority="892"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="907"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="911"/>
+  <conditionalFormatting sqref="F30:F1048576 F1">
+    <cfRule type="duplicateValues" dxfId="48" priority="892"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="907"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="911"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29:F1048576">
-    <cfRule type="duplicateValues" dxfId="46" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="79"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="895"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="899"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="903"/>
+  <conditionalFormatting sqref="F30:F1048576">
+    <cfRule type="duplicateValues" dxfId="45" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="895"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="899"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="903"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29:W1048576 A1:C1 F1:W1 Y1:XFD1 B2:B28 Y3:XFD18 G3:U28 Y28:XFD1048576 A29:C1048576">
-    <cfRule type="cellIs" dxfId="41" priority="375" operator="equal">
+  <conditionalFormatting sqref="F30:W1048576 A1:C1 F1:W1 Y1:XFD1 Y3:XFD18 Y29:XFD1048576 A30:C1048576 B2:B29 G3:U29">
+    <cfRule type="cellIs" dxfId="40" priority="375" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:K2">
-    <cfRule type="cellIs" dxfId="40" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="15" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2 Z19:XFD21 Y22:XFD24 Z25:XFD27">
-    <cfRule type="cellIs" dxfId="39" priority="18" operator="equal">
+  <conditionalFormatting sqref="R2 Y23:XFD25 Z26:XFD28 Z19:XFD22">
+    <cfRule type="cellIs" dxfId="38" priority="18" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:Y2">
-    <cfRule type="cellIs" dxfId="38" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7768,7 +7859,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7864,7 +7955,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A4">
-    <cfRule type="cellIs" dxfId="36" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="32" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7876,7 +7967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B52AA7-680B-4C72-8598-6D856F54368E}">
   <dimension ref="A1:AS275"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
+    <sheetView zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R1" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
@@ -45611,128 +45702,123 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B97:B98">
-    <cfRule type="duplicateValues" dxfId="35" priority="1724"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="1724"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B100 B115:B252 B102:B113">
-    <cfRule type="duplicateValues" dxfId="34" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101">
-    <cfRule type="duplicateValues" dxfId="33" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B114">
-    <cfRule type="duplicateValues" dxfId="29" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B270:B1048576 B11:B260">
-    <cfRule type="duplicateValues" dxfId="25" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B276:B1048576 B253:B260 B270:B271 B11:B96">
-    <cfRule type="duplicateValues" dxfId="24" priority="273"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="344"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="345"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="273"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="344"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="345"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B276:B1048576 B253:B260 B270:B271 B11:B98">
-    <cfRule type="duplicateValues" dxfId="21" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="242"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:AI1 D2:AE4 AF2:AI20 D5:Z5 AB5:AE5 D6:AE20 C12:C20 C21:AI24 D27:AD28 AE27:AI39 D29:Z29 AB29:AD29 D30:AD39 N89:AE98 AH89:AI98 C101:AI101 AL101:AR101 AL173:AO275 C253:C260 P261:AD269 C270:AD275 AH270:AI275 C25:C39 N59:AI88 C59:C98 D59:M99 C52:AI58 AL1:AR98 A1:A275">
-    <cfRule type="cellIs" dxfId="0" priority="297" operator="equal">
+  <conditionalFormatting sqref="C1:AI1 AL1:AR98 A1:A275 D2:AE4 AF2:AI20 D5:Z5 AB5:AE5 D6:AE20 C12:C20 C21:AI24 C25:C39 D27:AD28 AE27:AI39 D29:Z29 AB29:AD29 D30:AD39 N59:AI88 C59:C98 D59:M99 N89:AE98 AH89:AI98 C101:AI101 AL101:AR101 AL173:AO275 C253:C260 P261:AD269 C270:AD275 AH270:AI275">
+    <cfRule type="cellIs" dxfId="19" priority="297" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40:AI51">
-    <cfRule type="cellIs" dxfId="20" priority="38" operator="equal">
+  <conditionalFormatting sqref="C40:AI58">
+    <cfRule type="cellIs" dxfId="18" priority="38" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:AI26">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+  <conditionalFormatting sqref="D25:AI26">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100 E158:E252 E102:E156">
-    <cfRule type="duplicateValues" dxfId="18" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="duplicateValues" dxfId="17" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E157">
-    <cfRule type="duplicateValues" dxfId="16" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E276:E1048576 E253:E260">
-    <cfRule type="duplicateValues" dxfId="15" priority="272"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="272"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N255:N269">
-    <cfRule type="cellIs" dxfId="14" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="25" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N253:O254">
-    <cfRule type="cellIs" dxfId="13" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="24" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P253:Q260">
-    <cfRule type="cellIs" dxfId="12" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="133" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE240">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE261:AE275">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF89:AG97 AF98 AG98:AG100 AG102:AG112">
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF173:AG275">
-    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="16" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK1">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP253:AP260">
-    <cfRule type="cellIs" dxfId="6" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="21" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP173:AQ251">
-    <cfRule type="cellIs" dxfId="5" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="19" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP261:AQ275">
-    <cfRule type="cellIs" dxfId="4" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="265" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR253:AR275">
-    <cfRule type="cellIs" dxfId="3" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="18" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS1">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:AI25">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Versão5/VEGE/Ontologia_VEGET.xlsx
+++ b/Versão5/VEGE/Ontologia_VEGET.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\VEGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DECDC69-BFBE-46CB-A50E-E74ED3A67B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C8A052-7FF2-470B-8529-29A8CAC0B0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="577" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -3109,24 +3109,6 @@
     <t>Conservação.Mineral</t>
   </si>
   <si>
-    <t>Sistema de conservação Vegetal.</t>
-  </si>
-  <si>
-    <t>Sistema de conservação Mineral.</t>
-  </si>
-  <si>
-    <t>Sistema de conservación Vegetal.</t>
-  </si>
-  <si>
-    <t>Sistema de conservación Mineral.</t>
-  </si>
-  <si>
-    <t>Sistema de conservación Animal.</t>
-  </si>
-  <si>
-    <t>Sistema de conservação Animal.</t>
-  </si>
-  <si>
     <t>Vegetal</t>
   </si>
   <si>
@@ -3563,6 +3545,24 @@
   </si>
   <si>
     <t>Captura.de.CO2</t>
+  </si>
+  <si>
+    <t>Sistema de conservação da fauna.</t>
+  </si>
+  <si>
+    <t>Sistema de conservação da flora.</t>
+  </si>
+  <si>
+    <t>Sistema de conservação dos solos.</t>
+  </si>
+  <si>
+    <t>Sistema de conservación de los suelos</t>
+  </si>
+  <si>
+    <t>Sistema de conservación de la flora</t>
+  </si>
+  <si>
+    <t>Sistema de conservación de la fauna</t>
   </si>
 </sst>
 </file>
@@ -5288,7 +5288,7 @@
       </c>
       <c r="B18" s="82">
         <f ca="1">NOW()</f>
-        <v>45954.483662037041</v>
+        <v>45954.539094097221</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5349,10 +5349,10 @@
     </row>
     <row r="26" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -5360,7 +5360,7 @@
         <v>968</v>
       </c>
       <c r="B27" s="90" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5406,34 +5406,33 @@
   <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.07421875" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.4609375" customWidth="1"/>
     <col min="2" max="2" width="4.3828125" customWidth="1"/>
-    <col min="3" max="3" width="6.921875" customWidth="1"/>
-    <col min="4" max="4" width="7.23046875" customWidth="1"/>
-    <col min="5" max="5" width="9.15234375" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="3" max="3" width="6.61328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.15234375" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="6.4609375" style="37" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.69140625" style="37" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.69140625" customWidth="1"/>
     <col min="13" max="13" width="8.15234375" customWidth="1"/>
     <col min="14" max="14" width="8.765625" customWidth="1"/>
     <col min="15" max="15" width="10.3046875" customWidth="1"/>
-    <col min="16" max="16" width="164.61328125" customWidth="1"/>
-    <col min="17" max="17" width="255.69140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="255.69140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3.69140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="6.69140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6.4609375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6.69140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.4609375" customWidth="1"/>
-    <col min="24" max="24" width="6.15234375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.61328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.07421875" customWidth="1"/>
+    <col min="24" max="24" width="8.07421875" customWidth="1"/>
+    <col min="25" max="25" width="10.69140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="37.85" customHeight="1" x14ac:dyDescent="0.4">
@@ -5610,7 +5609,7 @@
         <v>93</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>92</v>
@@ -5650,10 +5649,10 @@
         <v>Árvore</v>
       </c>
       <c r="P3" s="31" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="Q3" s="31" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="R3" s="29" t="s">
         <v>1</v>
@@ -5696,7 +5695,7 @@
         <v>93</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="E4" s="35" t="s">
         <v>92</v>
@@ -5736,10 +5735,10 @@
         <v>Arbusto</v>
       </c>
       <c r="P4" s="31" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="R4" s="29" t="s">
         <v>1</v>
@@ -5782,13 +5781,13 @@
         <v>93</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="E5" s="35" t="s">
         <v>92</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="G5" s="40" t="s">
         <v>1</v>
@@ -5822,10 +5821,10 @@
         <v>Subarbusto</v>
       </c>
       <c r="P5" s="31" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="Q5" s="31" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="R5" s="29" t="s">
         <v>1</v>
@@ -5868,7 +5867,7 @@
         <v>93</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="E6" s="35" t="s">
         <v>92</v>
@@ -5889,7 +5888,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="40" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="L6" s="31" t="str">
         <f t="shared" si="2"/>
@@ -5911,7 +5910,7 @@
         <v>443</v>
       </c>
       <c r="Q6" s="31" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="R6" s="29" t="s">
         <v>1</v>
@@ -5954,7 +5953,7 @@
         <v>93</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="E7" s="35" t="s">
         <v>92</v>
@@ -5994,10 +5993,10 @@
         <v>Trepadeira</v>
       </c>
       <c r="P7" s="31" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="Q7" s="31" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="R7" s="29" t="s">
         <v>1</v>
@@ -6040,7 +6039,7 @@
         <v>93</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="E8" s="35" t="s">
         <v>92</v>
@@ -6080,10 +6079,10 @@
         <v>Palmeira</v>
       </c>
       <c r="P8" s="31" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="Q8" s="31" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="R8" s="29" t="s">
         <v>1</v>
@@ -6126,13 +6125,13 @@
         <v>93</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="E9" s="35" t="s">
         <v>92</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="G9" s="40" t="s">
         <v>1</v>
@@ -6166,10 +6165,10 @@
         <v>Herbácea</v>
       </c>
       <c r="P9" s="31" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="Q9" s="31" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="R9" s="29" t="s">
         <v>1</v>
@@ -6212,13 +6211,13 @@
         <v>93</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="E10" s="35" t="s">
         <v>92</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>1</v>
@@ -6233,7 +6232,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="40" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="L10" s="31" t="str">
         <f t="shared" si="18"/>
@@ -6252,10 +6251,10 @@
         <v>Gramínea</v>
       </c>
       <c r="P10" s="31" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="Q10" s="31" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="R10" s="29" t="s">
         <v>1</v>
@@ -6298,13 +6297,13 @@
         <v>93</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="E11" s="35" t="s">
         <v>92</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="G11" s="40" t="s">
         <v>1</v>
@@ -6319,7 +6318,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="40" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="L11" s="31" t="str">
         <f t="shared" si="18"/>
@@ -6384,13 +6383,13 @@
         <v>93</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="E12" s="35" t="s">
         <v>92</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="G12" s="40" t="s">
         <v>1</v>
@@ -6424,10 +6423,10 @@
         <v>Bambu</v>
       </c>
       <c r="P12" s="31" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="Q12" s="31" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="R12" s="29" t="s">
         <v>1</v>
@@ -6470,13 +6469,13 @@
         <v>93</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="E13" s="35" t="s">
         <v>92</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="G13" s="40" t="s">
         <v>1</v>
@@ -6510,10 +6509,10 @@
         <v>Liana</v>
       </c>
       <c r="P13" s="31" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="Q13" s="31" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="R13" s="29" t="s">
         <v>1</v>
@@ -6556,13 +6555,13 @@
         <v>93</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="E14" s="35" t="s">
         <v>92</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="G14" s="40" t="s">
         <v>1</v>
@@ -6577,7 +6576,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="40" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="L14" s="31" t="str">
         <f t="shared" si="34"/>
@@ -6596,10 +6595,10 @@
         <v>Cacto</v>
       </c>
       <c r="P14" s="31" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="Q14" s="31" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="R14" s="29" t="s">
         <v>1</v>
@@ -6642,13 +6641,13 @@
         <v>93</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="E15" s="35" t="s">
         <v>92</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="G15" s="40" t="s">
         <v>1</v>
@@ -6663,7 +6662,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="40" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="L15" s="31" t="str">
         <f t="shared" si="34"/>
@@ -6682,10 +6681,10 @@
         <v>Gramínea</v>
       </c>
       <c r="P15" s="31" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="Q15" s="31" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="R15" s="29" t="s">
         <v>1</v>
@@ -6728,13 +6727,13 @@
         <v>93</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="E16" s="35" t="s">
         <v>92</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="G16" s="40" t="s">
         <v>1</v>
@@ -6814,7 +6813,7 @@
         <v>93</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="E17" s="35" t="s">
         <v>92</v>
@@ -6854,10 +6853,10 @@
         <v>Flor</v>
       </c>
       <c r="P17" s="31" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="Q17" s="31" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="R17" s="29" t="s">
         <v>1</v>
@@ -6900,7 +6899,7 @@
         <v>93</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="E18" s="35" t="s">
         <v>389</v>
@@ -6983,7 +6982,7 @@
         <v>75</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="D19" s="35" t="s">
         <v>1008</v>
@@ -7026,10 +7025,10 @@
         <v>Conservação Animal</v>
       </c>
       <c r="P19" s="31" t="s">
-        <v>1017</v>
+        <v>1158</v>
       </c>
       <c r="Q19" s="31" t="s">
-        <v>1016</v>
+        <v>1163</v>
       </c>
       <c r="R19" s="29" t="s">
         <v>1</v>
@@ -7069,7 +7068,7 @@
         <v>75</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="D20" s="35" t="s">
         <v>1008</v>
@@ -7112,10 +7111,10 @@
         <v>Conservação Vegetal</v>
       </c>
       <c r="P20" s="31" t="s">
-        <v>1012</v>
+        <v>1159</v>
       </c>
       <c r="Q20" s="31" t="s">
-        <v>1014</v>
+        <v>1162</v>
       </c>
       <c r="R20" s="29" t="s">
         <v>1</v>
@@ -7155,7 +7154,7 @@
         <v>75</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="D21" s="35" t="s">
         <v>1008</v>
@@ -7198,10 +7197,10 @@
         <v>Conservação Mineral</v>
       </c>
       <c r="P21" s="31" t="s">
-        <v>1013</v>
+        <v>1160</v>
       </c>
       <c r="Q21" s="31" t="s">
-        <v>1015</v>
+        <v>1161</v>
       </c>
       <c r="R21" s="29" t="s">
         <v>1</v>
@@ -7241,16 +7240,16 @@
         <v>75</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="D22" s="35" t="s">
         <v>1008</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="G22" s="40" t="s">
         <v>1</v>
@@ -7284,10 +7283,10 @@
         <v>Crédito de Carbono</v>
       </c>
       <c r="P22" s="31" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="Q22" s="31" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="R22" s="29" t="s">
         <v>1</v>
@@ -7327,16 +7326,16 @@
         <v>75</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="D23" s="35" t="s">
         <v>1008</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="G23" s="40" t="s">
         <v>1</v>
@@ -7370,10 +7369,10 @@
         <v>Certificado de Carbono</v>
       </c>
       <c r="P23" s="31" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="Q23" s="31" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="R23" s="29" t="s">
         <v>1</v>
@@ -8318,10 +8317,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="D2" s="48" t="s">
         <v>1</v>
@@ -8332,7 +8331,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>415</v>
@@ -8349,7 +8348,7 @@
         <v>408</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="D4" s="48" t="s">
         <v>1</v>
@@ -8451,49 +8450,49 @@
         <v>33</v>
       </c>
       <c r="E1" s="64" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>33</v>
       </c>
       <c r="G1" s="64" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>33</v>
       </c>
       <c r="I1" s="64" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="J1" s="19" t="s">
         <v>33</v>
       </c>
       <c r="K1" s="64" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="L1" s="19" t="s">
         <v>33</v>
       </c>
       <c r="M1" s="64" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="N1" s="19" t="s">
         <v>33</v>
       </c>
       <c r="O1" s="64" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="P1" s="76" t="s">
         <v>33</v>
       </c>
       <c r="Q1" s="64" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="R1" s="76" t="s">
         <v>33</v>
       </c>
       <c r="S1" s="64" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="T1" s="76" t="s">
         <v>33</v>
@@ -8503,13 +8502,13 @@
       </c>
       <c r="V1" s="98"/>
       <c r="W1" s="64" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="X1" s="103" t="s">
         <v>33</v>
       </c>
       <c r="Y1" s="64" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="Z1" s="19" t="s">
         <v>33</v>
@@ -8521,55 +8520,55 @@
         <v>33</v>
       </c>
       <c r="AC1" s="64" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="AD1" s="66" t="s">
         <v>33</v>
       </c>
       <c r="AE1" s="64" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="AF1" s="19" t="s">
         <v>33</v>
       </c>
       <c r="AG1" s="64" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="AH1" s="19" t="s">
         <v>33</v>
       </c>
       <c r="AI1" s="64" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="AJ1" s="19" t="s">
         <v>33</v>
       </c>
       <c r="AK1" s="64" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="AL1" s="19" t="s">
         <v>33</v>
       </c>
       <c r="AM1" s="64" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="AN1" s="19" t="s">
         <v>33</v>
       </c>
       <c r="AO1" s="64" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="AP1" s="19" t="s">
         <v>33</v>
       </c>
       <c r="AQ1" s="64" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="AR1" s="19" t="s">
         <v>33</v>
       </c>
       <c r="AS1" s="64" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="2" spans="1:45" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
@@ -8682,7 +8681,7 @@
         <v>197</v>
       </c>
       <c r="AK2" s="49" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="AL2" s="36" t="s">
         <v>1</v>
@@ -8819,7 +8818,7 @@
         <v>197</v>
       </c>
       <c r="AK3" s="49" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="AL3" s="36" t="s">
         <v>1</v>
@@ -8956,7 +8955,7 @@
         <v>197</v>
       </c>
       <c r="AK4" s="49" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="AL4" s="36" t="s">
         <v>1</v>
@@ -9093,7 +9092,7 @@
         <v>197</v>
       </c>
       <c r="AK5" s="49" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="AL5" s="36" t="s">
         <v>1</v>
@@ -9230,7 +9229,7 @@
         <v>197</v>
       </c>
       <c r="AK6" s="49" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="AL6" s="36" t="s">
         <v>1</v>
@@ -9367,7 +9366,7 @@
         <v>197</v>
       </c>
       <c r="AK7" s="49" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="AL7" s="36" t="s">
         <v>1</v>
@@ -9504,7 +9503,7 @@
         <v>197</v>
       </c>
       <c r="AK8" s="49" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="AL8" s="36" t="s">
         <v>1</v>
@@ -9641,7 +9640,7 @@
         <v>197</v>
       </c>
       <c r="AK9" s="49" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="AL9" s="36" t="s">
         <v>1</v>
@@ -9778,7 +9777,7 @@
         <v>197</v>
       </c>
       <c r="AK10" s="49" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="AL10" s="36" t="s">
         <v>1</v>
@@ -9915,7 +9914,7 @@
         <v>197</v>
       </c>
       <c r="AK11" s="49" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="AL11" s="36" t="s">
         <v>1</v>
@@ -9947,13 +9946,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="C12" s="85" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="E12" s="34" t="s">
         <v>195</v>
@@ -10052,7 +10051,7 @@
         <v>197</v>
       </c>
       <c r="AK12" s="111" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="AL12" s="36" t="s">
         <v>1</v>
@@ -10084,16 +10083,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="C13" s="85" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="F13" s="36" t="s">
         <v>1</v>
@@ -10189,7 +10188,7 @@
         <v>197</v>
       </c>
       <c r="AK13" s="111" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="AL13" s="36" t="s">
         <v>1</v>
@@ -10221,16 +10220,16 @@
         <v>14</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="C14" s="85" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="F14" s="36" t="s">
         <v>1</v>
@@ -10326,7 +10325,7 @@
         <v>197</v>
       </c>
       <c r="AK14" s="111" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="AL14" s="36" t="s">
         <v>1</v>
@@ -10358,22 +10357,22 @@
         <v>15</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="C15" s="85" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D15" s="36" t="s">
         <v>1139</v>
       </c>
-      <c r="D15" s="36" t="s">
-        <v>1145</v>
-      </c>
       <c r="E15" s="34" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="F15" s="112" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="G15" s="113" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="H15" s="36" t="s">
         <v>1</v>
@@ -10463,7 +10462,7 @@
         <v>197</v>
       </c>
       <c r="AK15" s="111" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="AL15" s="36" t="s">
         <v>1</v>
@@ -10495,22 +10494,22 @@
         <v>16</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="C16" s="85" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D16" s="36" t="s">
         <v>1139</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="E16" s="34" t="s">
         <v>1145</v>
       </c>
-      <c r="E16" s="34" t="s">
-        <v>1151</v>
-      </c>
       <c r="F16" s="112" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="G16" s="113" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="H16" s="36" t="s">
         <v>1</v>
@@ -10600,7 +10599,7 @@
         <v>197</v>
       </c>
       <c r="AK16" s="111" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="AL16" s="36" t="s">
         <v>1</v>
@@ -10632,22 +10631,22 @@
         <v>17</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="C17" s="85" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D17" s="36" t="s">
         <v>1139</v>
       </c>
-      <c r="D17" s="36" t="s">
-        <v>1145</v>
-      </c>
       <c r="E17" s="34" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="F17" s="112" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="G17" s="113" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="H17" s="36" t="s">
         <v>1</v>
@@ -10737,7 +10736,7 @@
         <v>197</v>
       </c>
       <c r="AK17" s="111" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="AL17" s="36" t="s">
         <v>1</v>
@@ -12107,7 +12106,7 @@
         <v>197</v>
       </c>
       <c r="AK27" s="49" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="AL27" s="36" t="s">
         <v>1</v>
@@ -12655,7 +12654,7 @@
         <v>197</v>
       </c>
       <c r="AK31" s="49" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="AL31" s="36" t="s">
         <v>1</v>
@@ -12792,7 +12791,7 @@
         <v>197</v>
       </c>
       <c r="AK32" s="49" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="AL32" s="36" t="s">
         <v>1</v>
@@ -14710,7 +14709,7 @@
         <v>197</v>
       </c>
       <c r="AK46" s="49" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="AL46" s="36" t="s">
         <v>1</v>
@@ -14879,7 +14878,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="44" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="C48" s="85" t="s">
         <v>298</v>
@@ -14984,7 +14983,7 @@
         <v>197</v>
       </c>
       <c r="AK48" s="49" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="AL48" s="36" t="s">
         <v>1</v>
@@ -16217,7 +16216,7 @@
         <v>197</v>
       </c>
       <c r="AK57" s="49" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="AL57" s="36" t="s">
         <v>1</v>
@@ -17110,7 +17109,7 @@
         <v>372</v>
       </c>
       <c r="O64" s="49" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="P64" s="53" t="s">
         <v>1</v>
@@ -17176,7 +17175,7 @@
         <v>197</v>
       </c>
       <c r="AK64" s="49" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="AL64" s="36" t="s">
         <v>1</v>
@@ -17313,7 +17312,7 @@
         <v>197</v>
       </c>
       <c r="AK65" s="49" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="AL65" s="36" t="s">
         <v>1</v>
@@ -17345,7 +17344,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="45" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="C66" s="58" t="s">
         <v>296</v>
@@ -17384,7 +17383,7 @@
         <v>372</v>
       </c>
       <c r="O66" s="49" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="P66" s="53" t="s">
         <v>1</v>
@@ -17450,7 +17449,7 @@
         <v>197</v>
       </c>
       <c r="AK66" s="49" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="AL66" s="36" t="s">
         <v>1</v>
@@ -18617,7 +18616,7 @@
         <v>372</v>
       </c>
       <c r="O75" s="49" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="P75" s="53" t="s">
         <v>1</v>
@@ -21318,7 +21317,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="45" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="C95" s="58" t="s">
         <v>296</v>
@@ -21423,7 +21422,7 @@
         <v>197</v>
       </c>
       <c r="AK95" s="49" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="AL95" s="36" t="s">
         <v>1</v>
@@ -22590,7 +22589,7 @@
         <v>372</v>
       </c>
       <c r="O104" s="49" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="P104" s="53" t="s">
         <v>1</v>
@@ -22656,7 +22655,7 @@
         <v>197</v>
       </c>
       <c r="AK104" s="49" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AL104" s="36" t="s">
         <v>1</v>
@@ -25291,16 +25290,16 @@
         <v>124</v>
       </c>
       <c r="B124" s="80" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="C124" s="35" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="D124" s="51" t="s">
         <v>194</v>
       </c>
       <c r="E124" s="49" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="F124" s="57" t="s">
         <v>308</v>
@@ -25318,19 +25317,19 @@
         <v>370</v>
       </c>
       <c r="K124" s="91" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="L124" s="57" t="s">
         <v>371</v>
       </c>
       <c r="M124" s="91" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="N124" s="51" t="s">
         <v>372</v>
       </c>
       <c r="O124" s="89" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="P124" s="94" t="s">
         <v>447</v>
@@ -25366,7 +25365,7 @@
         <v>189</v>
       </c>
       <c r="AA124" s="89" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="AB124" s="36" t="s">
         <v>190</v>
@@ -25390,13 +25389,13 @@
         <v>192</v>
       </c>
       <c r="AI124" s="89" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="AJ124" s="79" t="s">
         <v>197</v>
       </c>
       <c r="AK124" s="89" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="AL124" s="95" t="s">
         <v>616</v>
@@ -26798,16 +26797,16 @@
         <v>135</v>
       </c>
       <c r="B135" s="80" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="C135" s="35" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="D135" s="51" t="s">
         <v>194</v>
       </c>
       <c r="E135" s="49" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="F135" s="57" t="s">
         <v>308</v>
@@ -26831,13 +26830,13 @@
         <v>371</v>
       </c>
       <c r="M135" s="91" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="N135" s="51" t="s">
         <v>372</v>
       </c>
       <c r="O135" s="89" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="P135" s="94" t="s">
         <v>447</v>
@@ -26873,7 +26872,7 @@
         <v>189</v>
       </c>
       <c r="AA135" s="89" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="AB135" s="36" t="s">
         <v>190</v>
@@ -26891,19 +26890,19 @@
         <v>615</v>
       </c>
       <c r="AG135" s="49" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="AH135" s="79" t="s">
         <v>192</v>
       </c>
       <c r="AI135" s="89" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="AJ135" s="79" t="s">
         <v>197</v>
       </c>
       <c r="AK135" s="89" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="AL135" s="95" t="s">
         <v>616</v>
@@ -45293,16 +45292,16 @@
         <v>270</v>
       </c>
       <c r="B270" s="92" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="C270" s="35" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="D270" s="51" t="s">
         <v>194</v>
       </c>
       <c r="E270" s="89" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="F270" s="57" t="s">
         <v>308</v>
@@ -45320,19 +45319,19 @@
         <v>370</v>
       </c>
       <c r="K270" s="91" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="L270" s="57" t="s">
         <v>371</v>
       </c>
       <c r="M270" s="91" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="N270" s="52" t="s">
         <v>372</v>
       </c>
       <c r="O270" s="49" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="P270" s="53" t="s">
         <v>1</v>
@@ -45392,13 +45391,13 @@
         <v>192</v>
       </c>
       <c r="AI270" s="89" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="AJ270" s="79" t="s">
         <v>197</v>
       </c>
       <c r="AK270" s="89" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="AL270" s="36" t="s">
         <v>1</v>
@@ -45430,16 +45429,16 @@
         <v>271</v>
       </c>
       <c r="B271" s="92" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C271" s="35" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="D271" s="51" t="s">
         <v>194</v>
       </c>
       <c r="E271" s="89" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="F271" s="57" t="s">
         <v>308</v>
@@ -45457,19 +45456,19 @@
         <v>370</v>
       </c>
       <c r="K271" s="91" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="L271" s="57" t="s">
         <v>371</v>
       </c>
       <c r="M271" s="91" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="N271" s="52" t="s">
         <v>372</v>
       </c>
       <c r="O271" s="49" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="P271" s="53" t="s">
         <v>1</v>
@@ -45529,13 +45528,13 @@
         <v>192</v>
       </c>
       <c r="AI271" s="89" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="AJ271" s="79" t="s">
         <v>197</v>
       </c>
       <c r="AK271" s="89" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="AL271" s="36" t="s">
         <v>1</v>
@@ -45567,16 +45566,16 @@
         <v>272</v>
       </c>
       <c r="B272" s="92" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C272" s="35" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="D272" s="51" t="s">
         <v>194</v>
       </c>
       <c r="E272" s="89" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="F272" s="57" t="s">
         <v>308</v>
@@ -45594,19 +45593,19 @@
         <v>370</v>
       </c>
       <c r="K272" s="91" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="L272" s="57" t="s">
         <v>371</v>
       </c>
       <c r="M272" s="91" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="N272" s="52" t="s">
         <v>372</v>
       </c>
       <c r="O272" s="49" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="P272" s="53" t="s">
         <v>1</v>
@@ -45666,13 +45665,13 @@
         <v>192</v>
       </c>
       <c r="AI272" s="89" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="AJ272" s="79" t="s">
         <v>197</v>
       </c>
       <c r="AK272" s="89" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="AL272" s="36" t="s">
         <v>1</v>
@@ -45704,16 +45703,16 @@
         <v>273</v>
       </c>
       <c r="B273" s="92" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="C273" s="35" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="D273" s="51" t="s">
         <v>194</v>
       </c>
       <c r="E273" s="89" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="F273" s="57" t="s">
         <v>308</v>
@@ -45731,19 +45730,19 @@
         <v>370</v>
       </c>
       <c r="K273" s="91" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="L273" s="57" t="s">
         <v>371</v>
       </c>
       <c r="M273" s="91" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="N273" s="52" t="s">
         <v>372</v>
       </c>
       <c r="O273" s="49" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="P273" s="53" t="s">
         <v>1</v>
@@ -45803,13 +45802,13 @@
         <v>192</v>
       </c>
       <c r="AI273" s="89" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="AJ273" s="79" t="s">
         <v>197</v>
       </c>
       <c r="AK273" s="89" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="AL273" s="36" t="s">
         <v>1</v>
@@ -45841,16 +45840,16 @@
         <v>274</v>
       </c>
       <c r="B274" s="92" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="C274" s="35" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="D274" s="51" t="s">
         <v>194</v>
       </c>
       <c r="E274" s="89" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="F274" s="57" t="s">
         <v>308</v>
@@ -45868,19 +45867,19 @@
         <v>370</v>
       </c>
       <c r="K274" s="91" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="L274" s="57" t="s">
         <v>371</v>
       </c>
       <c r="M274" s="91" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="N274" s="52" t="s">
         <v>372</v>
       </c>
       <c r="O274" s="49" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="P274" s="53" t="s">
         <v>1</v>
@@ -45940,13 +45939,13 @@
         <v>192</v>
       </c>
       <c r="AI274" s="89" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="AJ274" s="79" t="s">
         <v>197</v>
       </c>
       <c r="AK274" s="89" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="AL274" s="36" t="s">
         <v>1</v>
@@ -45978,16 +45977,16 @@
         <v>275</v>
       </c>
       <c r="B275" s="92" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="C275" s="35" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="D275" s="51" t="s">
         <v>194</v>
       </c>
       <c r="E275" s="89" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="F275" s="57" t="s">
         <v>308</v>
@@ -46005,19 +46004,19 @@
         <v>370</v>
       </c>
       <c r="K275" s="91" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="L275" s="57" t="s">
         <v>371</v>
       </c>
       <c r="M275" s="91" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="N275" s="52" t="s">
         <v>372</v>
       </c>
       <c r="O275" s="49" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="P275" s="53" t="s">
         <v>1</v>
@@ -46077,13 +46076,13 @@
         <v>192</v>
       </c>
       <c r="AI275" s="89" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="AJ275" s="79" t="s">
         <v>197</v>
       </c>
       <c r="AK275" s="89" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="AL275" s="36" t="s">
         <v>1</v>
@@ -46115,16 +46114,16 @@
         <v>276</v>
       </c>
       <c r="B276" s="92" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="C276" s="35" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="D276" s="51" t="s">
         <v>194</v>
       </c>
       <c r="E276" s="89" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="F276" s="57" t="s">
         <v>308</v>
@@ -46214,13 +46213,13 @@
         <v>192</v>
       </c>
       <c r="AI276" s="89" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="AJ276" s="79" t="s">
         <v>197</v>
       </c>
       <c r="AK276" s="89" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="AL276" s="36" t="s">
         <v>1</v>
@@ -46252,16 +46251,16 @@
         <v>277</v>
       </c>
       <c r="B277" s="92" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="C277" s="35" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="D277" s="51" t="s">
         <v>194</v>
       </c>
       <c r="E277" s="89" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="F277" s="57" t="s">
         <v>308</v>
@@ -46291,7 +46290,7 @@
         <v>372</v>
       </c>
       <c r="O277" s="49" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="P277" s="53" t="s">
         <v>1</v>
@@ -46351,13 +46350,13 @@
         <v>192</v>
       </c>
       <c r="AI277" s="89" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="AJ277" s="79" t="s">
         <v>197</v>
       </c>
       <c r="AK277" s="89" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="AL277" s="36" t="s">
         <v>1</v>
@@ -46389,16 +46388,16 @@
         <v>278</v>
       </c>
       <c r="B278" s="92" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="C278" s="35" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="D278" s="51" t="s">
         <v>194</v>
       </c>
       <c r="E278" s="89" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="F278" s="57" t="s">
         <v>308</v>
@@ -46416,19 +46415,19 @@
         <v>370</v>
       </c>
       <c r="K278" s="91" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="L278" s="57" t="s">
         <v>371</v>
       </c>
       <c r="M278" s="91" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="N278" s="52" t="s">
         <v>372</v>
       </c>
       <c r="O278" s="49" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="P278" s="53" t="s">
         <v>1</v>
@@ -46488,13 +46487,13 @@
         <v>192</v>
       </c>
       <c r="AI278" s="89" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="AJ278" s="79" t="s">
         <v>197</v>
       </c>
       <c r="AK278" s="89" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="AL278" s="36" t="s">
         <v>1</v>

--- a/Versão5/VEGE/Ontologia_VEGET.xlsx
+++ b/Versão5/VEGE/Ontologia_VEGET.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\VEGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE25A02-BC79-42B9-8189-7E022E050B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7438678-342F-467F-8AA3-614C27DCFB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="577" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -4471,10 +4471,83 @@
   <dxfs count="74">
     <dxf>
       <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
+        <color rgb="FF9C0006"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4988,83 +5061,10 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -5578,7 +5578,7 @@
       </c>
       <c r="B18" s="82">
         <f ca="1">NOW()</f>
-        <v>45956.428741550924</v>
+        <v>45956.432249305559</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5695,9 +5695,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375F50FD-D5BA-45CD-9CBD-E4284A1EA77F}">
   <dimension ref="A1:Y48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U19" sqref="U19:Y23"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W2" sqref="W2:W48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.07421875" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5709,12 +5709,13 @@
     <col min="5" max="5" width="8.15234375" customWidth="1"/>
     <col min="6" max="6" width="10.23046875" customWidth="1"/>
     <col min="7" max="10" width="6.4609375" style="37" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.921875" style="37" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.53515625" style="37" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.69140625" customWidth="1"/>
     <col min="13" max="13" width="11.765625" customWidth="1"/>
     <col min="14" max="14" width="8.765625" customWidth="1"/>
     <col min="15" max="15" width="10.84375" customWidth="1"/>
-    <col min="16" max="17" width="255.69140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="88.4609375" customWidth="1"/>
+    <col min="17" max="17" width="94.15234375" customWidth="1"/>
     <col min="18" max="18" width="3.69140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.07421875" customWidth="1"/>
     <col min="20" max="20" width="10.921875" customWidth="1"/>
@@ -8286,7 +8287,7 @@
         <v>Paisagístico</v>
       </c>
       <c r="W30" s="18" t="str">
-        <f t="shared" ref="W30:W46" si="81">CONCATENATE("K.",LEFT(C30,3),".",A30)</f>
+        <f t="shared" si="9"/>
         <v>K.Pai.30</v>
       </c>
       <c r="X30" s="28" t="s">
@@ -8372,7 +8373,7 @@
         <v>Paisagístico</v>
       </c>
       <c r="W31" s="18" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="9"/>
         <v>K.Pai.31</v>
       </c>
       <c r="X31" s="28" t="s">
@@ -8417,19 +8418,19 @@
         <v>1</v>
       </c>
       <c r="L32" s="31" t="str">
-        <f t="shared" ref="L32:L37" si="82">_xlfn.CONCAT(SUBSTITUTE(C32,"1.",""))</f>
+        <f t="shared" ref="L32:L37" si="81">_xlfn.CONCAT(SUBSTITUTE(C32,"1.",""))</f>
         <v>Paisagístico</v>
       </c>
       <c r="M32" s="31" t="str">
-        <f t="shared" ref="M32:M37" si="83">_xlfn.CONCAT(SUBSTITUTE(D32,"."," "))</f>
+        <f t="shared" ref="M32:M37" si="82">_xlfn.CONCAT(SUBSTITUTE(D32,"."," "))</f>
         <v>Composição Paisagística</v>
       </c>
       <c r="N32" s="31" t="str">
-        <f t="shared" ref="N32:N37" si="84">_xlfn.CONCAT(SUBSTITUTE(E32,"."," "))</f>
+        <f t="shared" ref="N32:N37" si="83">_xlfn.CONCAT(SUBSTITUTE(E32,"."," "))</f>
         <v>Plantações</v>
       </c>
       <c r="O32" s="31" t="str">
-        <f t="shared" ref="O32:O37" si="85">_xlfn.CONCAT(SUBSTITUTE(F32,"."," "))</f>
+        <f t="shared" ref="O32:O37" si="84">_xlfn.CONCAT(SUBSTITUTE(F32,"."," "))</f>
         <v>Planta de Bordadura</v>
       </c>
       <c r="P32" s="31" t="s">
@@ -8442,23 +8443,23 @@
         <v>1</v>
       </c>
       <c r="S32" s="30" t="str">
-        <f t="shared" ref="S32:S37" si="86">SUBSTITUTE(C32, ".", " ")</f>
+        <f t="shared" ref="S32:S37" si="85">SUBSTITUTE(C32, ".", " ")</f>
         <v>Paisagístico</v>
       </c>
       <c r="T32" s="30" t="str">
-        <f t="shared" ref="T32:T37" si="87">SUBSTITUTE(D32, ".", " ")</f>
+        <f t="shared" ref="T32:T37" si="86">SUBSTITUTE(D32, ".", " ")</f>
         <v>Composição Paisagística</v>
       </c>
       <c r="U32" s="30" t="str">
-        <f t="shared" ref="U32:U37" si="88">SUBSTITUTE(E32, ".", " ")</f>
+        <f t="shared" ref="U32:U37" si="87">SUBSTITUTE(E32, ".", " ")</f>
         <v>Plantações</v>
       </c>
       <c r="V32" s="30" t="str">
-        <f t="shared" ref="V32:V37" si="89">SUBSTITUTE(C32, ".", " ")</f>
+        <f t="shared" ref="V32:V37" si="88">SUBSTITUTE(C32, ".", " ")</f>
         <v>Paisagístico</v>
       </c>
       <c r="W32" s="18" t="str">
-        <f t="shared" ref="W32:W37" si="90">CONCATENATE("K.",LEFT(C32,3),".",A32)</f>
+        <f t="shared" si="9"/>
         <v>K.Pai.32</v>
       </c>
       <c r="X32" s="28" t="s">
@@ -8503,19 +8504,19 @@
         <v>1</v>
       </c>
       <c r="L33" s="31" t="str">
-        <f t="shared" ref="L33" si="91">_xlfn.CONCAT(SUBSTITUTE(C33,"1.",""))</f>
+        <f t="shared" ref="L33" si="89">_xlfn.CONCAT(SUBSTITUTE(C33,"1.",""))</f>
         <v>Paisagístico</v>
       </c>
       <c r="M33" s="31" t="str">
-        <f t="shared" ref="M33" si="92">_xlfn.CONCAT(SUBSTITUTE(D33,"."," "))</f>
+        <f t="shared" ref="M33" si="90">_xlfn.CONCAT(SUBSTITUTE(D33,"."," "))</f>
         <v>Composição Paisagística</v>
       </c>
       <c r="N33" s="31" t="str">
-        <f t="shared" ref="N33" si="93">_xlfn.CONCAT(SUBSTITUTE(E33,"."," "))</f>
+        <f t="shared" ref="N33" si="91">_xlfn.CONCAT(SUBSTITUTE(E33,"."," "))</f>
         <v>Plantações</v>
       </c>
       <c r="O33" s="31" t="str">
-        <f t="shared" ref="O33" si="94">_xlfn.CONCAT(SUBSTITUTE(F33,"."," "))</f>
+        <f t="shared" ref="O33" si="92">_xlfn.CONCAT(SUBSTITUTE(F33,"."," "))</f>
         <v>Planta de Canteiro</v>
       </c>
       <c r="P33" s="31" t="s">
@@ -8528,23 +8529,23 @@
         <v>1</v>
       </c>
       <c r="S33" s="30" t="str">
-        <f t="shared" ref="S33" si="95">SUBSTITUTE(C33, ".", " ")</f>
+        <f t="shared" ref="S33" si="93">SUBSTITUTE(C33, ".", " ")</f>
         <v>Paisagístico</v>
       </c>
       <c r="T33" s="30" t="str">
-        <f t="shared" ref="T33" si="96">SUBSTITUTE(D33, ".", " ")</f>
+        <f t="shared" ref="T33" si="94">SUBSTITUTE(D33, ".", " ")</f>
         <v>Composição Paisagística</v>
       </c>
       <c r="U33" s="30" t="str">
-        <f t="shared" ref="U33" si="97">SUBSTITUTE(E33, ".", " ")</f>
+        <f t="shared" ref="U33" si="95">SUBSTITUTE(E33, ".", " ")</f>
         <v>Plantações</v>
       </c>
       <c r="V33" s="30" t="str">
-        <f t="shared" ref="V33" si="98">SUBSTITUTE(C33, ".", " ")</f>
+        <f t="shared" ref="V33" si="96">SUBSTITUTE(C33, ".", " ")</f>
         <v>Paisagístico</v>
       </c>
       <c r="W33" s="18" t="str">
-        <f t="shared" ref="W33" si="99">CONCATENATE("K.",LEFT(C33,3),".",A33)</f>
+        <f t="shared" si="9"/>
         <v>K.Pai.33</v>
       </c>
       <c r="X33" s="28" t="s">
@@ -8589,19 +8590,19 @@
         <v>1</v>
       </c>
       <c r="L34" s="31" t="str">
+        <f t="shared" si="81"/>
+        <v>Paisagístico</v>
+      </c>
+      <c r="M34" s="31" t="str">
         <f t="shared" si="82"/>
-        <v>Paisagístico</v>
-      </c>
-      <c r="M34" s="31" t="str">
+        <v>Composição Paisagística</v>
+      </c>
+      <c r="N34" s="31" t="str">
         <f t="shared" si="83"/>
-        <v>Composição Paisagística</v>
-      </c>
-      <c r="N34" s="31" t="str">
+        <v>Plantações</v>
+      </c>
+      <c r="O34" s="31" t="str">
         <f t="shared" si="84"/>
-        <v>Plantações</v>
-      </c>
-      <c r="O34" s="31" t="str">
-        <f t="shared" si="85"/>
         <v>Planta de Maciço</v>
       </c>
       <c r="P34" s="31" t="s">
@@ -8614,23 +8615,23 @@
         <v>1</v>
       </c>
       <c r="S34" s="30" t="str">
+        <f t="shared" si="85"/>
+        <v>Paisagístico</v>
+      </c>
+      <c r="T34" s="30" t="str">
         <f t="shared" si="86"/>
+        <v>Composição Paisagística</v>
+      </c>
+      <c r="U34" s="30" t="str">
+        <f t="shared" si="87"/>
+        <v>Plantações</v>
+      </c>
+      <c r="V34" s="30" t="str">
+        <f t="shared" si="88"/>
         <v>Paisagístico</v>
       </c>
-      <c r="T34" s="30" t="str">
-        <f t="shared" si="87"/>
-        <v>Composição Paisagística</v>
-      </c>
-      <c r="U34" s="30" t="str">
-        <f t="shared" si="88"/>
-        <v>Plantações</v>
-      </c>
-      <c r="V34" s="30" t="str">
-        <f t="shared" si="89"/>
-        <v>Paisagístico</v>
-      </c>
       <c r="W34" s="18" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="9"/>
         <v>K.Pai.34</v>
       </c>
       <c r="X34" s="28" t="s">
@@ -8675,19 +8676,19 @@
         <v>1</v>
       </c>
       <c r="L35" s="31" t="str">
-        <f t="shared" ref="L35" si="100">_xlfn.CONCAT(SUBSTITUTE(C35,"1.",""))</f>
+        <f t="shared" ref="L35" si="97">_xlfn.CONCAT(SUBSTITUTE(C35,"1.",""))</f>
         <v>Paisagístico</v>
       </c>
       <c r="M35" s="31" t="str">
-        <f t="shared" ref="M35" si="101">_xlfn.CONCAT(SUBSTITUTE(D35,"."," "))</f>
+        <f t="shared" ref="M35" si="98">_xlfn.CONCAT(SUBSTITUTE(D35,"."," "))</f>
         <v>Composição Paisagística</v>
       </c>
       <c r="N35" s="31" t="str">
-        <f t="shared" ref="N35" si="102">_xlfn.CONCAT(SUBSTITUTE(E35,"."," "))</f>
+        <f t="shared" ref="N35" si="99">_xlfn.CONCAT(SUBSTITUTE(E35,"."," "))</f>
         <v>Plantações</v>
       </c>
       <c r="O35" s="31" t="str">
-        <f t="shared" ref="O35" si="103">_xlfn.CONCAT(SUBSTITUTE(F35,"."," "))</f>
+        <f t="shared" ref="O35" si="100">_xlfn.CONCAT(SUBSTITUTE(F35,"."," "))</f>
         <v>Planta de Renque</v>
       </c>
       <c r="P35" s="31" t="s">
@@ -8700,23 +8701,23 @@
         <v>1</v>
       </c>
       <c r="S35" s="30" t="str">
-        <f t="shared" ref="S35" si="104">SUBSTITUTE(C35, ".", " ")</f>
+        <f t="shared" ref="S35" si="101">SUBSTITUTE(C35, ".", " ")</f>
         <v>Paisagístico</v>
       </c>
       <c r="T35" s="30" t="str">
-        <f t="shared" ref="T35" si="105">SUBSTITUTE(D35, ".", " ")</f>
+        <f t="shared" ref="T35" si="102">SUBSTITUTE(D35, ".", " ")</f>
         <v>Composição Paisagística</v>
       </c>
       <c r="U35" s="30" t="str">
-        <f t="shared" ref="U35" si="106">SUBSTITUTE(E35, ".", " ")</f>
+        <f t="shared" ref="U35" si="103">SUBSTITUTE(E35, ".", " ")</f>
         <v>Plantações</v>
       </c>
       <c r="V35" s="30" t="str">
-        <f t="shared" ref="V35" si="107">SUBSTITUTE(C35, ".", " ")</f>
+        <f t="shared" ref="V35" si="104">SUBSTITUTE(C35, ".", " ")</f>
         <v>Paisagístico</v>
       </c>
       <c r="W35" s="18" t="str">
-        <f t="shared" ref="W35" si="108">CONCATENATE("K.",LEFT(C35,3),".",A35)</f>
+        <f t="shared" si="9"/>
         <v>K.Pai.35</v>
       </c>
       <c r="X35" s="28" t="s">
@@ -8761,19 +8762,19 @@
         <v>1</v>
       </c>
       <c r="L36" s="31" t="str">
+        <f t="shared" si="81"/>
+        <v>Paisagístico</v>
+      </c>
+      <c r="M36" s="31" t="str">
         <f t="shared" si="82"/>
-        <v>Paisagístico</v>
-      </c>
-      <c r="M36" s="31" t="str">
+        <v>Composição Paisagística</v>
+      </c>
+      <c r="N36" s="31" t="str">
         <f t="shared" si="83"/>
-        <v>Composição Paisagística</v>
-      </c>
-      <c r="N36" s="31" t="str">
+        <v>Plantações</v>
+      </c>
+      <c r="O36" s="31" t="str">
         <f t="shared" si="84"/>
-        <v>Plantações</v>
-      </c>
-      <c r="O36" s="31" t="str">
-        <f t="shared" si="85"/>
         <v>Planta de Calçada</v>
       </c>
       <c r="P36" s="31" t="s">
@@ -8786,23 +8787,23 @@
         <v>1</v>
       </c>
       <c r="S36" s="30" t="str">
+        <f t="shared" si="85"/>
+        <v>Paisagístico</v>
+      </c>
+      <c r="T36" s="30" t="str">
         <f t="shared" si="86"/>
+        <v>Composição Paisagística</v>
+      </c>
+      <c r="U36" s="30" t="str">
+        <f t="shared" si="87"/>
+        <v>Plantações</v>
+      </c>
+      <c r="V36" s="30" t="str">
+        <f t="shared" si="88"/>
         <v>Paisagístico</v>
       </c>
-      <c r="T36" s="30" t="str">
-        <f t="shared" si="87"/>
-        <v>Composição Paisagística</v>
-      </c>
-      <c r="U36" s="30" t="str">
-        <f t="shared" si="88"/>
-        <v>Plantações</v>
-      </c>
-      <c r="V36" s="30" t="str">
-        <f t="shared" si="89"/>
-        <v>Paisagístico</v>
-      </c>
       <c r="W36" s="18" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="9"/>
         <v>K.Pai.36</v>
       </c>
       <c r="X36" s="28" t="s">
@@ -8847,19 +8848,19 @@
         <v>1</v>
       </c>
       <c r="L37" s="31" t="str">
+        <f t="shared" si="81"/>
+        <v>Paisagístico</v>
+      </c>
+      <c r="M37" s="31" t="str">
         <f t="shared" si="82"/>
-        <v>Paisagístico</v>
-      </c>
-      <c r="M37" s="31" t="str">
+        <v>Composição Paisagística</v>
+      </c>
+      <c r="N37" s="31" t="str">
         <f t="shared" si="83"/>
-        <v>Composição Paisagística</v>
-      </c>
-      <c r="N37" s="31" t="str">
+        <v>Plantações</v>
+      </c>
+      <c r="O37" s="31" t="str">
         <f t="shared" si="84"/>
-        <v>Plantações</v>
-      </c>
-      <c r="O37" s="31" t="str">
-        <f t="shared" si="85"/>
         <v>Planta de Pérgola</v>
       </c>
       <c r="P37" s="31" t="s">
@@ -8872,23 +8873,23 @@
         <v>1</v>
       </c>
       <c r="S37" s="30" t="str">
+        <f t="shared" si="85"/>
+        <v>Paisagístico</v>
+      </c>
+      <c r="T37" s="30" t="str">
         <f t="shared" si="86"/>
+        <v>Composição Paisagística</v>
+      </c>
+      <c r="U37" s="30" t="str">
+        <f t="shared" si="87"/>
+        <v>Plantações</v>
+      </c>
+      <c r="V37" s="30" t="str">
+        <f t="shared" si="88"/>
         <v>Paisagístico</v>
       </c>
-      <c r="T37" s="30" t="str">
-        <f t="shared" si="87"/>
-        <v>Composição Paisagística</v>
-      </c>
-      <c r="U37" s="30" t="str">
-        <f t="shared" si="88"/>
-        <v>Plantações</v>
-      </c>
-      <c r="V37" s="30" t="str">
-        <f t="shared" si="89"/>
-        <v>Paisagístico</v>
-      </c>
       <c r="W37" s="18" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="9"/>
         <v>K.Pai.37</v>
       </c>
       <c r="X37" s="28" t="s">
@@ -8974,7 +8975,7 @@
         <v>Paisagístico</v>
       </c>
       <c r="W38" s="18" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="9"/>
         <v>K.Pai.38</v>
       </c>
       <c r="X38" s="28" t="s">
@@ -9060,7 +9061,7 @@
         <v>Paisagístico</v>
       </c>
       <c r="W39" s="18" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="9"/>
         <v>K.Pai.39</v>
       </c>
       <c r="X39" s="28" t="s">
@@ -9146,7 +9147,7 @@
         <v>Paisagístico</v>
       </c>
       <c r="W40" s="18" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="9"/>
         <v>K.Pai.40</v>
       </c>
       <c r="X40" s="28" t="s">
@@ -9191,19 +9192,19 @@
         <v>1</v>
       </c>
       <c r="L41" s="31" t="str">
-        <f t="shared" ref="L41:L43" si="109">_xlfn.CONCAT(SUBSTITUTE(C41,"1.",""))</f>
+        <f t="shared" ref="L41:L43" si="105">_xlfn.CONCAT(SUBSTITUTE(C41,"1.",""))</f>
         <v>Paisagístico</v>
       </c>
       <c r="M41" s="31" t="str">
-        <f t="shared" ref="M41:M43" si="110">_xlfn.CONCAT(SUBSTITUTE(D41,"."," "))</f>
+        <f t="shared" ref="M41:M43" si="106">_xlfn.CONCAT(SUBSTITUTE(D41,"."," "))</f>
         <v>Composição Paisagística</v>
       </c>
       <c r="N41" s="31" t="str">
-        <f t="shared" ref="N41:N43" si="111">_xlfn.CONCAT(SUBSTITUTE(E41,"."," "))</f>
+        <f t="shared" ref="N41:N43" si="107">_xlfn.CONCAT(SUBSTITUTE(E41,"."," "))</f>
         <v>Tipos de Jardim</v>
       </c>
       <c r="O41" s="31" t="str">
-        <f t="shared" ref="O41:O43" si="112">_xlfn.CONCAT(SUBSTITUTE(F41,"."," "))</f>
+        <f t="shared" ref="O41:O43" si="108">_xlfn.CONCAT(SUBSTITUTE(F41,"."," "))</f>
         <v>Jardim Zen</v>
       </c>
       <c r="P41" s="31" t="s">
@@ -9216,23 +9217,23 @@
         <v>1</v>
       </c>
       <c r="S41" s="30" t="str">
-        <f t="shared" ref="S41:S43" si="113">SUBSTITUTE(C41, ".", " ")</f>
+        <f t="shared" ref="S41:S43" si="109">SUBSTITUTE(C41, ".", " ")</f>
         <v>Paisagístico</v>
       </c>
       <c r="T41" s="30" t="str">
-        <f t="shared" ref="T41:T43" si="114">SUBSTITUTE(D41, ".", " ")</f>
+        <f t="shared" ref="T41:T43" si="110">SUBSTITUTE(D41, ".", " ")</f>
         <v>Composição Paisagística</v>
       </c>
       <c r="U41" s="30" t="str">
-        <f t="shared" ref="U41:U43" si="115">SUBSTITUTE(E41, ".", " ")</f>
+        <f t="shared" ref="U41:U43" si="111">SUBSTITUTE(E41, ".", " ")</f>
         <v>Tipos de Jardim</v>
       </c>
       <c r="V41" s="30" t="str">
-        <f t="shared" ref="V41:V43" si="116">SUBSTITUTE(C41, ".", " ")</f>
+        <f t="shared" ref="V41:V43" si="112">SUBSTITUTE(C41, ".", " ")</f>
         <v>Paisagístico</v>
       </c>
       <c r="W41" s="18" t="str">
-        <f t="shared" ref="W41:W43" si="117">CONCATENATE("K.",LEFT(C41,3),".",A41)</f>
+        <f t="shared" si="9"/>
         <v>K.Pai.41</v>
       </c>
       <c r="X41" s="28" t="s">
@@ -9277,48 +9278,48 @@
         <v>1</v>
       </c>
       <c r="L42" s="31" t="str">
+        <f t="shared" si="105"/>
+        <v>Paisagístico</v>
+      </c>
+      <c r="M42" s="31" t="str">
+        <f t="shared" si="106"/>
+        <v>Composição Paisagística</v>
+      </c>
+      <c r="N42" s="31" t="str">
+        <f t="shared" si="107"/>
+        <v>Elementos Hídricos</v>
+      </c>
+      <c r="O42" s="31" t="str">
+        <f t="shared" si="108"/>
+        <v>Espelho de Agua</v>
+      </c>
+      <c r="P42" s="31" t="s">
+        <v>1222</v>
+      </c>
+      <c r="Q42" s="31" t="s">
+        <v>1226</v>
+      </c>
+      <c r="R42" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="S42" s="30" t="str">
         <f t="shared" si="109"/>
         <v>Paisagístico</v>
       </c>
-      <c r="M42" s="31" t="str">
+      <c r="T42" s="30" t="str">
         <f t="shared" si="110"/>
         <v>Composição Paisagística</v>
       </c>
-      <c r="N42" s="31" t="str">
+      <c r="U42" s="30" t="str">
         <f t="shared" si="111"/>
         <v>Elementos Hídricos</v>
       </c>
-      <c r="O42" s="31" t="str">
+      <c r="V42" s="30" t="str">
         <f t="shared" si="112"/>
-        <v>Espelho de Agua</v>
-      </c>
-      <c r="P42" s="31" t="s">
-        <v>1222</v>
-      </c>
-      <c r="Q42" s="31" t="s">
-        <v>1226</v>
-      </c>
-      <c r="R42" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="S42" s="30" t="str">
-        <f t="shared" si="113"/>
         <v>Paisagístico</v>
       </c>
-      <c r="T42" s="30" t="str">
-        <f t="shared" si="114"/>
-        <v>Composição Paisagística</v>
-      </c>
-      <c r="U42" s="30" t="str">
-        <f t="shared" si="115"/>
-        <v>Elementos Hídricos</v>
-      </c>
-      <c r="V42" s="30" t="str">
-        <f t="shared" si="116"/>
-        <v>Paisagístico</v>
-      </c>
       <c r="W42" s="18" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="9"/>
         <v>K.Pai.42</v>
       </c>
       <c r="X42" s="28" t="s">
@@ -9363,48 +9364,48 @@
         <v>1</v>
       </c>
       <c r="L43" s="31" t="str">
+        <f t="shared" si="105"/>
+        <v>Paisagístico</v>
+      </c>
+      <c r="M43" s="31" t="str">
+        <f t="shared" si="106"/>
+        <v>Composição Paisagística</v>
+      </c>
+      <c r="N43" s="31" t="str">
+        <f t="shared" si="107"/>
+        <v>Elementos Hídricos</v>
+      </c>
+      <c r="O43" s="31" t="str">
+        <f t="shared" si="108"/>
+        <v>Chafariz</v>
+      </c>
+      <c r="P43" s="31" t="s">
+        <v>1221</v>
+      </c>
+      <c r="Q43" s="31" t="s">
+        <v>1227</v>
+      </c>
+      <c r="R43" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="S43" s="30" t="str">
         <f t="shared" si="109"/>
         <v>Paisagístico</v>
       </c>
-      <c r="M43" s="31" t="str">
+      <c r="T43" s="30" t="str">
         <f t="shared" si="110"/>
         <v>Composição Paisagística</v>
       </c>
-      <c r="N43" s="31" t="str">
+      <c r="U43" s="30" t="str">
         <f t="shared" si="111"/>
         <v>Elementos Hídricos</v>
       </c>
-      <c r="O43" s="31" t="str">
+      <c r="V43" s="30" t="str">
         <f t="shared" si="112"/>
-        <v>Chafariz</v>
-      </c>
-      <c r="P43" s="31" t="s">
-        <v>1221</v>
-      </c>
-      <c r="Q43" s="31" t="s">
-        <v>1227</v>
-      </c>
-      <c r="R43" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="S43" s="30" t="str">
-        <f t="shared" si="113"/>
         <v>Paisagístico</v>
       </c>
-      <c r="T43" s="30" t="str">
-        <f t="shared" si="114"/>
-        <v>Composição Paisagística</v>
-      </c>
-      <c r="U43" s="30" t="str">
-        <f t="shared" si="115"/>
-        <v>Elementos Hídricos</v>
-      </c>
-      <c r="V43" s="30" t="str">
-        <f t="shared" si="116"/>
-        <v>Paisagístico</v>
-      </c>
       <c r="W43" s="18" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="9"/>
         <v>K.Pai.43</v>
       </c>
       <c r="X43" s="28" t="s">
@@ -9490,7 +9491,7 @@
         <v>Paisagístico</v>
       </c>
       <c r="W44" s="18" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="9"/>
         <v>K.Pai.44</v>
       </c>
       <c r="X44" s="28" t="s">
@@ -9535,19 +9536,19 @@
         <v>1</v>
       </c>
       <c r="L45" s="31" t="str">
-        <f t="shared" ref="L45" si="118">_xlfn.CONCAT(SUBSTITUTE(C45,"1.",""))</f>
+        <f t="shared" ref="L45" si="113">_xlfn.CONCAT(SUBSTITUTE(C45,"1.",""))</f>
         <v>Paisagístico</v>
       </c>
       <c r="M45" s="31" t="str">
-        <f t="shared" ref="M45" si="119">_xlfn.CONCAT(SUBSTITUTE(D45,"."," "))</f>
+        <f t="shared" ref="M45" si="114">_xlfn.CONCAT(SUBSTITUTE(D45,"."," "))</f>
         <v>Composição Paisagística</v>
       </c>
       <c r="N45" s="31" t="str">
-        <f t="shared" ref="N45" si="120">_xlfn.CONCAT(SUBSTITUTE(E45,"."," "))</f>
+        <f t="shared" ref="N45" si="115">_xlfn.CONCAT(SUBSTITUTE(E45,"."," "))</f>
         <v>Elementos Verdes</v>
       </c>
       <c r="O45" s="31" t="str">
-        <f t="shared" ref="O45" si="121">_xlfn.CONCAT(SUBSTITUTE(F45,"."," "))</f>
+        <f t="shared" ref="O45" si="116">_xlfn.CONCAT(SUBSTITUTE(F45,"."," "))</f>
         <v>Cerca Viva</v>
       </c>
       <c r="P45" s="31" t="s">
@@ -9560,23 +9561,23 @@
         <v>1</v>
       </c>
       <c r="S45" s="30" t="str">
-        <f t="shared" ref="S45" si="122">SUBSTITUTE(C45, ".", " ")</f>
+        <f t="shared" ref="S45" si="117">SUBSTITUTE(C45, ".", " ")</f>
         <v>Paisagístico</v>
       </c>
       <c r="T45" s="30" t="str">
-        <f t="shared" ref="T45" si="123">SUBSTITUTE(D45, ".", " ")</f>
+        <f t="shared" ref="T45" si="118">SUBSTITUTE(D45, ".", " ")</f>
         <v>Composição Paisagística</v>
       </c>
       <c r="U45" s="30" t="str">
-        <f t="shared" ref="U45" si="124">SUBSTITUTE(E45, ".", " ")</f>
+        <f t="shared" ref="U45" si="119">SUBSTITUTE(E45, ".", " ")</f>
         <v>Elementos Verdes</v>
       </c>
       <c r="V45" s="30" t="str">
-        <f t="shared" ref="V45" si="125">SUBSTITUTE(C45, ".", " ")</f>
+        <f t="shared" ref="V45" si="120">SUBSTITUTE(C45, ".", " ")</f>
         <v>Paisagístico</v>
       </c>
       <c r="W45" s="18" t="str">
-        <f t="shared" ref="W45" si="126">CONCATENATE("K.",LEFT(C45,3),".",A45)</f>
+        <f t="shared" si="9"/>
         <v>K.Pai.45</v>
       </c>
       <c r="X45" s="28" t="s">
@@ -9637,10 +9638,10 @@
         <v>Área Gramada</v>
       </c>
       <c r="P46" s="31" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="Q46" s="31" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="R46" s="29" t="s">
         <v>1</v>
@@ -9662,7 +9663,7 @@
         <v>Paisagístico</v>
       </c>
       <c r="W46" s="18" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="9"/>
         <v>K.Pai.46</v>
       </c>
       <c r="X46" s="28" t="s">
@@ -9723,10 +9724,10 @@
         <v>Área Mineral</v>
       </c>
       <c r="P47" s="31" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="Q47" s="31" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="R47" s="29" t="s">
         <v>1</v>
@@ -9793,19 +9794,19 @@
         <v>1</v>
       </c>
       <c r="L48" s="31" t="str">
-        <f t="shared" ref="L48" si="127">_xlfn.CONCAT(SUBSTITUTE(C48,"1.",""))</f>
+        <f t="shared" ref="L48" si="121">_xlfn.CONCAT(SUBSTITUTE(C48,"1.",""))</f>
         <v>Divisão.Botânica</v>
       </c>
       <c r="M48" s="31" t="str">
-        <f t="shared" ref="M48" si="128">_xlfn.CONCAT(SUBSTITUTE(D48,"."," "))</f>
+        <f t="shared" ref="M48" si="122">_xlfn.CONCAT(SUBSTITUTE(D48,"."," "))</f>
         <v>Classe Botânica</v>
       </c>
       <c r="N48" s="31" t="str">
-        <f t="shared" ref="N48" si="129">_xlfn.CONCAT(SUBSTITUTE(E48,"."," "))</f>
+        <f t="shared" ref="N48" si="123">_xlfn.CONCAT(SUBSTITUTE(E48,"."," "))</f>
         <v>Ordem Botânica</v>
       </c>
       <c r="O48" s="31" t="str">
-        <f t="shared" ref="O48" si="130">_xlfn.CONCAT(SUBSTITUTE(F48,"."," "))</f>
+        <f t="shared" ref="O48" si="124">_xlfn.CONCAT(SUBSTITUTE(F48,"."," "))</f>
         <v>Família Botânica</v>
       </c>
       <c r="P48" s="31" t="s">
@@ -9818,19 +9819,19 @@
         <v>1</v>
       </c>
       <c r="S48" s="30" t="str">
-        <f t="shared" ref="S48" si="131">SUBSTITUTE(C48, ".", " ")</f>
+        <f t="shared" ref="S48" si="125">SUBSTITUTE(C48, ".", " ")</f>
         <v>Divisão Botânica</v>
       </c>
       <c r="T48" s="30" t="str">
-        <f t="shared" ref="T48" si="132">SUBSTITUTE(D48, ".", " ")</f>
+        <f t="shared" ref="T48" si="126">SUBSTITUTE(D48, ".", " ")</f>
         <v>Classe Botânica</v>
       </c>
       <c r="U48" s="30" t="str">
-        <f t="shared" ref="U48" si="133">SUBSTITUTE(E48, ".", " ")</f>
+        <f t="shared" ref="U48" si="127">SUBSTITUTE(E48, ".", " ")</f>
         <v>Ordem Botânica</v>
       </c>
       <c r="V48" s="30" t="str">
-        <f t="shared" ref="V48" si="134">SUBSTITUTE(C48, ".", " ")</f>
+        <f t="shared" ref="V48" si="128">SUBSTITUTE(C48, ".", " ")</f>
         <v>Divisão Botânica</v>
       </c>
       <c r="W48" s="18" t="str">
@@ -9847,58 +9848,58 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="73" priority="1416"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="1418"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="72" priority="1658"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="1659"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="1660"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="1661"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F47">
-    <cfRule type="cellIs" dxfId="70" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="6" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F49:F1048576 F1">
-    <cfRule type="duplicateValues" dxfId="69" priority="895"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="910"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="914"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49:F1048576">
-    <cfRule type="duplicateValues" dxfId="66" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="82"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="898"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="902"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="906"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49:W1048576 A1:C1 F1:W1 Y1:XFD1 G3:U16 Y3:XFD18 G17:J17 L17:U17 Y48:XFD1048576 A49:C1048576 B2:B48 X27:XFD29 G18:U48 Z44:XFD47 X44:Y44 Y45 X38:XFD43 Y30:XFD37">
-    <cfRule type="cellIs" dxfId="61" priority="378" operator="equal">
+  <conditionalFormatting sqref="A1:C1 F1:W1 Y1:XFD1 B2:B48 G3:U16 Y3:XFD18 G17:J17 L17:U17 X27:XFD29 Y30:XFD37 X38:XFD43 X44:Y44 Z44:XFD47 G18:U48 A49:C1048576 Y48:XFD1048576 F49:W1048576">
+    <cfRule type="cellIs" dxfId="69" priority="380" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:K2">
-    <cfRule type="cellIs" dxfId="60" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="20" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2 Y24:XFD26">
-    <cfRule type="cellIs" dxfId="59" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="23" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:Y2">
-    <cfRule type="cellIs" dxfId="58" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="10" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X19:XFD23">
-    <cfRule type="cellIs" dxfId="57" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y46:Y47">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="Y45:Y47">
+    <cfRule type="cellIs" dxfId="64" priority="3" operator="equal">
       <formula>"null"</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1 F49:F1048576">
+    <cfRule type="duplicateValues" dxfId="7" priority="1889"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1890"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1891"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49:F1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="1901"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1902"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1903"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1904"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1905"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -10120,7 +10121,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10216,7 +10217,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A4">
-    <cfRule type="cellIs" dxfId="55" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="32" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -50155,190 +50156,190 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B106:B107">
-    <cfRule type="duplicateValues" dxfId="54" priority="1804"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="1804"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110">
-    <cfRule type="duplicateValues" dxfId="53" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="88"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="89"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="duplicateValues" dxfId="49" priority="109"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="110"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="111"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="45" priority="70"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="43" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159">
-    <cfRule type="duplicateValues" dxfId="42" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160:B264 B108:B109 B124:B125 B111:B122 B127:B136 B138:B158">
-    <cfRule type="duplicateValues" dxfId="39" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160:B1048576 B1:B158">
-    <cfRule type="duplicateValues" dxfId="38" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B282:B1048576 B127:B136 B138:B158 B160:B272 B11:B125">
-    <cfRule type="duplicateValues" dxfId="37" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B292:B1048576 B265:B272 B282:B283 B11:B105">
-    <cfRule type="duplicateValues" dxfId="36" priority="353"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="424"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="425"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="353"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="424"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="425"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B292:B1048576 B265:B272 B282:B283 B11:B107">
-    <cfRule type="duplicateValues" dxfId="33" priority="322"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="322"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C287:C291">
-    <cfRule type="cellIs" dxfId="32" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="42" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:D1 H1:AH1 A1:A291 H2:AE4 D2:D11 AF2:AH11 H5:Z5 AB5:AE5 H6:AE11 H33:AD34 AE33:AH45 H35:Z35 AB35:AD35 H36:AD45 N68:AH96 H68:M100 N97:AE100 AH97:AH108 H101:AE101 C102:C107 N102:AE107 D102:D108 H102:M108 P108:AE108 C110:D110 F110 H110:AH110 AL110:AR110 AF137:AG137 AL137 AN137 AP137:AQ137 AL185:AO291 C265:C272 P273:AD281 C282:E286">
-    <cfRule type="cellIs" dxfId="31" priority="377" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="377" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E108">
-    <cfRule type="cellIs" dxfId="30" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E291">
-    <cfRule type="duplicateValues" dxfId="29" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F108 H12:AH32 C12:D101">
-    <cfRule type="cellIs" dxfId="28" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="81" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F282:AD291">
-    <cfRule type="cellIs" dxfId="27" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="8" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G14">
-    <cfRule type="cellIs" dxfId="26" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:G108">
-    <cfRule type="cellIs" dxfId="25" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="6" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46:AH67">
-    <cfRule type="cellIs" dxfId="24" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="118" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N267:N281">
-    <cfRule type="cellIs" dxfId="23" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="105" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N265:O266">
-    <cfRule type="cellIs" dxfId="22" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="104" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P265:Q272">
-    <cfRule type="cellIs" dxfId="21" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="213" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE252">
-    <cfRule type="cellIs" dxfId="20" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="93" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE273:AE291">
-    <cfRule type="cellIs" dxfId="19" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="83" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF97:AG106 AF107:AF108 AG107:AG109 AG111:AG121">
-    <cfRule type="cellIs" dxfId="18" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="95" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF126:AG126">
-    <cfRule type="cellIs" dxfId="17" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="68" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF185:AG291">
-    <cfRule type="cellIs" dxfId="16" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="34" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH282:AI291">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI1:AI129">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ287:AK291">
-    <cfRule type="cellIs" dxfId="13" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="37" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK1">
-    <cfRule type="cellIs" dxfId="12" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="86" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK12:AK17">
-    <cfRule type="duplicateValues" dxfId="11" priority="1885"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="1886"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="1887"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="1888"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="1885"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1886"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1887"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="1888"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL126 AN126">
-    <cfRule type="cellIs" dxfId="7" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="73" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL1:AS108">
-    <cfRule type="cellIs" dxfId="6" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="52" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP265:AP272">
-    <cfRule type="cellIs" dxfId="5" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="101" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP126:AQ126">
-    <cfRule type="cellIs" dxfId="4" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="69" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP185:AQ263">
-    <cfRule type="cellIs" dxfId="3" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="99" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP273:AQ291">
-    <cfRule type="cellIs" dxfId="2" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="36" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR265:AS291">
-    <cfRule type="cellIs" dxfId="1" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="35" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Versão5/VEGE/Ontologia_VEGET.xlsx
+++ b/Versão5/VEGE/Ontologia_VEGET.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\VEGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B855D6D-9E0F-4C05-B21F-881814F27BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1E15CB-CE63-464C-A99B-8B00071E1A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="577" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -3853,16 +3853,16 @@
     <t>"Medicinal fitoterápico (fonte de salicina, precursor da aspirina), ornamentação, estabilização de solos"</t>
   </si>
   <si>
-    <t>"Árvore de folhas lanceoladas, casca cinzenta, ramos flexíveis. Proporciona elementos para uso medicinal para dor e febre"</t>
-  </si>
-  <si>
     <t>"50 anos"</t>
   </si>
   <si>
     <t>"Biomassa, cestaria, restauração ambiental e fixação de margens de rios"</t>
   </si>
   <si>
-    <t>"Arbusto ou pequena árvore, geralmente entre 3 e 7 metros de altura. Pode atingir até 10 metros em condições ideais. Folhas: Longas, estreitas e lanceoladas, com margens finamente serrilhadas. Superfície superior verde-escura e inferior esbranquiçada. Ramos muito finos, flexíveis e longos, ideais para trançados e cestaria. Flores pequenas, dispostas em amentilhos (inflorescências alongadas), com floração no início da primavera. Planta dióica (flores masculinas e femininas em indivíduos diferentes). Sistema radicular denso e superficial, com boa capacidade de fixação em solos úmidos"</t>
+    <t>"Árvore de folhas lanceoladas, casca cinzenta, ramos flexíveis. Proporciona elementos para uso medicinal para dor e febre. Em Argentina é da famílina de árvores conhecidas como 'sauces'"</t>
+  </si>
+  <si>
+    <t>"Arbusto ou pequena árvore, geralmente entre 3 e 7 metros de altura. Pode atingir até 10 metros em condições ideais. Folhas: Longas, estreitas e lanceoladas, com margens finamente serrilhadas. Superfície superior verde-escura e inferior esbranquiçada. Ramos muito finos, flexíveis e longos, ideais para trançados e cestaria. Flores pequenas, dispostas em amentilhos (inflorescências alongadas), com floração no início da primavera. Planta dióica (flores masculinas e femininas em indivíduos diferentes). Sistema radicular denso e superficial, com boa capacidade de fixação em solos úmidos. Em Argentina é da famílina de árvores conhecidas como 'sauces'"</t>
   </si>
 </sst>
 </file>
@@ -4592,13 +4592,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i/>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -4765,6 +4758,13 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -5650,7 +5650,7 @@
       </c>
       <c r="B18" s="82">
         <f ca="1">NOW()</f>
-        <v>45956.503828472225</v>
+        <v>45956.506793171298</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10301,10 +10301,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B52AA7-680B-4C72-8598-6D856F54368E}">
   <dimension ref="A1:AS295"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A295"/>
+      <selection pane="bottomLeft" activeCell="AK264" sqref="AK264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="166.3046875" defaultRowHeight="7.3" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -46222,7 +46222,7 @@
         <v>196</v>
       </c>
       <c r="AK262" s="49" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="AL262" s="52" t="s">
         <v>604</v>
@@ -46347,13 +46347,13 @@
         <v>603</v>
       </c>
       <c r="AG263" s="49" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="AH263" s="79" t="s">
         <v>191</v>
       </c>
       <c r="AI263" s="49" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="AJ263" s="79" t="s">
         <v>196</v>
@@ -50775,45 +50775,45 @@
     <sortCondition ref="A1:A291"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B158 B160:B1048576">
+    <cfRule type="duplicateValues" dxfId="53" priority="67"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B106:B107">
-    <cfRule type="duplicateValues" dxfId="53" priority="1804"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="1804"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B108:B109 B124:B125 B111:B122 B127:B136 B138:B158 B160:B268">
+    <cfRule type="duplicateValues" dxfId="51" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110">
-    <cfRule type="duplicateValues" dxfId="52" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="88"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="88"/>
     <cfRule type="duplicateValues" dxfId="49" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="duplicateValues" dxfId="48" priority="109"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="110"/>
     <cfRule type="duplicateValues" dxfId="46" priority="111"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="44" priority="70"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="42" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159">
-    <cfRule type="duplicateValues" dxfId="41" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B108:B109 B124:B125 B111:B122 B127:B136 B138:B158 B160:B268">
-    <cfRule type="duplicateValues" dxfId="38" priority="113"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B158 B160:B1048576">
-    <cfRule type="duplicateValues" dxfId="37" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B286:B1048576 B127:B136 B138:B158 B11:B125 B160:B276">
     <cfRule type="duplicateValues" dxfId="36" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B296:B1048576 B269:B276 B286:B287 B11:B105">
-    <cfRule type="duplicateValues" dxfId="35" priority="353"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="424"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="424"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="353"/>
     <cfRule type="duplicateValues" dxfId="33" priority="425"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B296:B1048576 B269:B276 B286:B287 B11:B107">
@@ -50824,142 +50824,142 @@
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:D1 H1:AH1 H2:AE4 D2:D11 AF2:AH11 H5:Z5 AB5:AE5 H6:AE11 H33:AD34 AE33:AH45 H35:Z35 AB35:AD35 H36:AD45 N68:AH96 H68:M100 N97:AE100 AH97:AH108 H101:AE101 C102:C107 N102:AE107 D102:D108 H102:M108 P108:AE108 C110:D110 F110 H110:AH110 AL110:AR110 AF137:AG137 AL137 AN137 AP137:AQ137 C269:C276 P277:AD285 C286:E290 AL187:AO295 A1:A295">
-    <cfRule type="cellIs" dxfId="0" priority="377" operator="equal">
+  <conditionalFormatting sqref="C1:D1 H1:AH1 A1:A295 H2:AE4 D2:D11 AF2:AH11 H5:Z5 AB5:AE5 H6:AE11 H33:AD34 AE33:AH45 H35:Z35 AB35:AD35 H36:AD45 N68:AH96 H68:M100 N97:AE100 AH97:AH108 H101:AE101 C102:C107 N102:AE107 D102:D108 H102:M108 P108:AE108 C110:D110 F110 H110:AH110 AL110:AR110 AF137:AG137 AL137 AN137 AP137:AQ137 AL187:AO295 C269:C276 P277:AD285 C286:E290">
+    <cfRule type="cellIs" dxfId="30" priority="377" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E108">
-    <cfRule type="cellIs" dxfId="30" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E295">
-    <cfRule type="duplicateValues" dxfId="29" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F108 H12:AH32 C12:D101">
-    <cfRule type="cellIs" dxfId="28" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="81" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F286:AD295">
-    <cfRule type="cellIs" dxfId="27" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="8" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G14">
-    <cfRule type="cellIs" dxfId="26" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:G108">
-    <cfRule type="cellIs" dxfId="25" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="6" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46:AH67">
-    <cfRule type="cellIs" dxfId="24" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="118" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N271:N285">
-    <cfRule type="cellIs" dxfId="23" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="105" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N269:O270">
-    <cfRule type="cellIs" dxfId="22" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="104" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P269:Q276">
-    <cfRule type="cellIs" dxfId="21" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="213" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE254">
-    <cfRule type="cellIs" dxfId="20" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="93" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE277:AE295">
-    <cfRule type="cellIs" dxfId="19" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="83" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF97:AG106 AF107:AF108 AG107:AG109 AG111:AG121">
-    <cfRule type="cellIs" dxfId="18" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="95" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF126:AG126">
-    <cfRule type="cellIs" dxfId="17" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="68" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF187:AG295">
-    <cfRule type="cellIs" dxfId="16" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="34" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH286:AI295">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI1:AI129">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ291:AK295">
-    <cfRule type="cellIs" dxfId="13" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="37" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK1">
-    <cfRule type="cellIs" dxfId="12" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="86" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK12:AK17">
-    <cfRule type="duplicateValues" dxfId="11" priority="1885"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="1886"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="1887"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="1888"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1888"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1885"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1886"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1887"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL126 AN126">
-    <cfRule type="cellIs" dxfId="7" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="73" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL1:AS108">
-    <cfRule type="cellIs" dxfId="6" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="52" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP269:AP276">
-    <cfRule type="cellIs" dxfId="5" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="101" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP126:AQ126">
-    <cfRule type="cellIs" dxfId="4" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="69" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP187:AQ267">
-    <cfRule type="cellIs" dxfId="3" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="99" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP277:AQ295">
-    <cfRule type="cellIs" dxfId="2" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="36" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR269:AS295">
-    <cfRule type="cellIs" dxfId="1" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="35" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Versão5/VEGE/Ontologia_VEGET.xlsx
+++ b/Versão5/VEGE/Ontologia_VEGET.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\VEGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625E1F9B-A448-417D-B948-D0789CDDF347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF957EAB-DF88-4C89-824C-97B19928A582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" tabRatio="577" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" tabRatio="577" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="26" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Disjunt" sheetId="3" r:id="rId3"/>
     <sheet name="Interop" sheetId="27" r:id="rId4"/>
     <sheet name="FatosIn" sheetId="32" r:id="rId5"/>
-    <sheet name="Planilha1" sheetId="33" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">FatosIn!$C$1:$C$298</definedName>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13223" uniqueCount="1315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13164" uniqueCount="1287">
   <si>
     <t>Key</t>
   </si>
@@ -2951,9 +2950,6 @@
     <t>Planta de caule macio, não lenhoso, geralmente de ciclo curto, com altura baixa, são produtoras de alimentos, ornamental ou medicinal.</t>
   </si>
   <si>
-    <t>Plantas geralmente herbáceas, com folhas estreitas, caules ocos e flores agrupadas em espiguetas.</t>
-  </si>
-  <si>
     <t>Bambu</t>
   </si>
   <si>
@@ -3881,108 +3877,6 @@
     <t>Bambu.Imperial</t>
   </si>
   <si>
-    <t>nome.popular.no.brasil</t>
-  </si>
-  <si>
-    <t>divisão.botânica</t>
-  </si>
-  <si>
-    <t>classe.botânica</t>
-  </si>
-  <si>
-    <t>ordem.botânica</t>
-  </si>
-  <si>
-    <t>família.botânica</t>
-  </si>
-  <si>
-    <t>diâmetro.do.tronco.DAP</t>
-  </si>
-  <si>
-    <t>diâmetro.mínimo.da.copa</t>
-  </si>
-  <si>
-    <t>diâmetro.máximo.da.copa</t>
-  </si>
-  <si>
-    <t>profundidade.da.raiz.em.metros</t>
-  </si>
-  <si>
-    <t>tempo.de.crescimento.em.anos</t>
-  </si>
-  <si>
-    <t>meses.de.floração</t>
-  </si>
-  <si>
-    <t>descrição morfológica.e.curiosidades</t>
-  </si>
-  <si>
-    <t>ameaçada.de.extinção</t>
-  </si>
-  <si>
-    <t>Phyllostachys aurea</t>
-  </si>
-  <si>
-    <t>Magnoliophyta</t>
-  </si>
-  <si>
-    <t>Gramínea arbustiva</t>
-  </si>
-  <si>
-    <t>Sdado</t>
-  </si>
-  <si>
-    <t>Rizomatosa</t>
-  </si>
-  <si>
-    <t>Paisagismo, cercas vivas, artesanato</t>
-  </si>
-  <si>
-    <t>Sim</t>
-  </si>
-  <si>
-    <t>Mata Atlântica</t>
-  </si>
-  <si>
-    <t>Bambu ornamental com colmos amarelados e entrenós curtos; muito usado em jardins e como cerca viva</t>
-  </si>
-  <si>
-    <t>Não</t>
-  </si>
-  <si>
-    <t>Dendrocalamus giganteus</t>
-  </si>
-  <si>
-    <t>Gramínea arbórea</t>
-  </si>
-  <si>
-    <t>Construção civil, móveis, paisagismo</t>
-  </si>
-  <si>
-    <t>Floresta tropical</t>
-  </si>
-  <si>
-    <t>Maior espécie de bambu do mundo; colmos podem ultrapassar 30 cm de diâmetro e 30 m de altura</t>
-  </si>
-  <si>
-    <t>Bambusa vulgaris</t>
-  </si>
-  <si>
-    <t>Artesanato, construção leve, paisagismo</t>
-  </si>
-  <si>
-    <t>Colmos verdes ou amarelos com estrias; muito cultivado no Brasil para fins ornamentais e utilitários</t>
-  </si>
-  <si>
-    <t>Bambusa gracilis</t>
-  </si>
-  <si>
-    <t>Paisagismo, cercas vivas</t>
-  </si>
-  <si>
-    <t>Bambu de pequeno porte, ideal para calçadas e espaços urbanos; crescimento rápido e denso</t>
-  </si>
-  <si>
     <t>"Gramínea arbustiva"</t>
   </si>
   <si>
@@ -4020,6 +3914,27 @@
   </si>
   <si>
     <t>"Bambu ornamental com colmos amarelados e entrenós curtos. Também conhecido como bambu dourado ou japonês. Muito usado em jardins e como cerca viva. Planta perene que tende a morrer após floração"</t>
+  </si>
+  <si>
+    <t>Corbelha</t>
+  </si>
+  <si>
+    <t>Elemento paisagístico criado por associação de várias espécies formando um volume vegetal escultórico que pode combinar cores e texturas no jardim</t>
+  </si>
+  <si>
+    <t>Elemento paisajístico creado por asociación de varias especies formando un volumen vegetal escultórico que puede combinar colores y texturas en el jardín</t>
+  </si>
+  <si>
+    <t>3E.02.12</t>
+  </si>
+  <si>
+    <t>3E.02.12.02</t>
+  </si>
+  <si>
+    <t>3E.02.12.03</t>
+  </si>
+  <si>
+    <t>ABNT</t>
   </si>
 </sst>
 </file>
@@ -4697,56 +4612,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="80">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
+  <dxfs count="77">
     <dxf>
       <font>
         <b val="0"/>
@@ -4964,6 +4830,13 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -5252,6 +5125,57 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -5346,33 +5270,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5849,7 +5746,7 @@
       </c>
       <c r="B18" s="82">
         <f ca="1">NOW()</f>
-        <v>45958.306618171293</v>
+        <v>45958.4393837963</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5910,10 +5807,10 @@
     </row>
     <row r="26" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
+        <v>982</v>
+      </c>
+      <c r="B26" s="38" t="s">
         <v>983</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5921,7 +5818,7 @@
         <v>862</v>
       </c>
       <c r="B27" s="89" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5964,20 +5861,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375F50FD-D5BA-45CD-9CBD-E4284A1EA77F}">
-  <dimension ref="A1:Y48"/>
+  <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W2" sqref="W2:W48"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA30" sqref="AA30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.140625" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" customWidth="1"/>
     <col min="7" max="10" width="6.42578125" style="37" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.5703125" style="37" bestFit="1" customWidth="1"/>
@@ -5993,11 +5890,12 @@
     <col min="21" max="21" width="9.28515625" customWidth="1"/>
     <col min="22" max="22" width="7.5703125" customWidth="1"/>
     <col min="23" max="23" width="6.140625" customWidth="1"/>
-    <col min="24" max="24" width="7.28515625" customWidth="1"/>
+    <col min="24" max="24" width="8.5703125" customWidth="1"/>
     <col min="25" max="25" width="10.28515625" customWidth="1"/>
+    <col min="26" max="26" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13">
         <v>1</v>
       </c>
@@ -6073,8 +5971,11 @@
       <c r="Y1" s="15" t="s">
         <v>83</v>
       </c>
+      <c r="Z1" s="15" t="s">
+        <v>1286</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26">
         <v>2</v>
       </c>
@@ -6146,7 +6047,7 @@
         <v>Informação</v>
       </c>
       <c r="V2" s="30" t="str">
-        <f t="shared" ref="V2:V25" si="1">SUBSTITUTE(C2, ".", " ")</f>
+        <f t="shared" ref="V2:V23" si="1">SUBSTITUTE(C2, ".", " ")</f>
         <v>Gestão</v>
       </c>
       <c r="W2" s="18" t="str">
@@ -6159,8 +6060,11 @@
       <c r="Y2" s="28" t="s">
         <v>1</v>
       </c>
+      <c r="Z2" s="28" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>3</v>
       </c>
@@ -6174,7 +6078,7 @@
         <v>905</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F3" s="35" t="s">
         <v>401</v>
@@ -6211,10 +6115,10 @@
         <v>Árvore</v>
       </c>
       <c r="P3" s="31" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="Q3" s="31" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="R3" s="29" t="s">
         <v>1</v>
@@ -6236,7 +6140,7 @@
         <v>Reinos</v>
       </c>
       <c r="W3" s="18" t="str">
-        <f t="shared" ref="W3:W48" si="9">CONCATENATE("K.",LEFT(C3,3),".",A3)</f>
+        <f t="shared" ref="W3:W47" si="9">CONCATENATE("K.",LEFT(C3,3),".",A3)</f>
         <v>K.Rei.3</v>
       </c>
       <c r="X3" s="28" t="s">
@@ -6245,8 +6149,11 @@
       <c r="Y3" s="30" t="s">
         <v>85</v>
       </c>
+      <c r="Z3" s="30" t="s">
+        <v>1283</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>4</v>
       </c>
@@ -6260,7 +6167,7 @@
         <v>905</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F4" s="35" t="s">
         <v>406</v>
@@ -6297,10 +6204,10 @@
         <v>Arbusto</v>
       </c>
       <c r="P4" s="31" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="R4" s="29" t="s">
         <v>1</v>
@@ -6331,8 +6238,11 @@
       <c r="Y4" s="30" t="s">
         <v>85</v>
       </c>
+      <c r="Z4" s="30" t="s">
+        <v>1283</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>5</v>
       </c>
@@ -6346,7 +6256,7 @@
         <v>905</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F5" s="35" t="s">
         <v>954</v>
@@ -6383,10 +6293,10 @@
         <v>Subarbusto</v>
       </c>
       <c r="P5" s="31" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="Q5" s="31" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="R5" s="29" t="s">
         <v>1</v>
@@ -6417,8 +6327,11 @@
       <c r="Y5" s="30" t="s">
         <v>85</v>
       </c>
+      <c r="Z5" s="30" t="s">
+        <v>1283</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>6</v>
       </c>
@@ -6432,7 +6345,7 @@
         <v>905</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F6" s="35" t="s">
         <v>438</v>
@@ -6450,7 +6363,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="40" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="L6" s="31" t="str">
         <f t="shared" si="2"/>
@@ -6472,7 +6385,7 @@
         <v>440</v>
       </c>
       <c r="Q6" s="31" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="R6" s="29" t="s">
         <v>1</v>
@@ -6503,8 +6416,11 @@
       <c r="Y6" s="30" t="s">
         <v>85</v>
       </c>
+      <c r="Z6" s="30" t="s">
+        <v>1283</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>7</v>
       </c>
@@ -6518,7 +6434,7 @@
         <v>905</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F7" s="35" t="s">
         <v>413</v>
@@ -6558,7 +6474,7 @@
         <v>956</v>
       </c>
       <c r="Q7" s="31" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="R7" s="29" t="s">
         <v>1</v>
@@ -6589,8 +6505,11 @@
       <c r="Y7" s="30" t="s">
         <v>85</v>
       </c>
+      <c r="Z7" s="30" t="s">
+        <v>1283</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>8</v>
       </c>
@@ -6604,7 +6523,7 @@
         <v>905</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F8" s="35" t="s">
         <v>595</v>
@@ -6641,10 +6560,10 @@
         <v>Palmeira</v>
       </c>
       <c r="P8" s="31" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="Q8" s="31" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="R8" s="29" t="s">
         <v>1</v>
@@ -6675,8 +6594,11 @@
       <c r="Y8" s="30" t="s">
         <v>85</v>
       </c>
+      <c r="Z8" s="30" t="s">
+        <v>1283</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>9</v>
       </c>
@@ -6690,7 +6612,7 @@
         <v>905</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F9" s="35" t="s">
         <v>955</v>
@@ -6730,7 +6652,7 @@
         <v>957</v>
       </c>
       <c r="Q9" s="31" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="R9" s="29" t="s">
         <v>1</v>
@@ -6761,8 +6683,11 @@
       <c r="Y9" s="30" t="s">
         <v>85</v>
       </c>
+      <c r="Z9" s="30" t="s">
+        <v>1283</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>10</v>
       </c>
@@ -6776,7 +6701,7 @@
         <v>905</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F10" s="35" t="s">
         <v>950</v>
@@ -6794,7 +6719,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="40" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="L10" s="31" t="str">
         <f t="shared" si="18"/>
@@ -6813,10 +6738,10 @@
         <v>Gramínea</v>
       </c>
       <c r="P10" s="31" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="Q10" s="31" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="R10" s="29" t="s">
         <v>1</v>
@@ -6847,8 +6772,11 @@
       <c r="Y10" s="30" t="s">
         <v>85</v>
       </c>
+      <c r="Z10" s="30" t="s">
+        <v>1284</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>11</v>
       </c>
@@ -6862,7 +6790,7 @@
         <v>905</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F11" s="35" t="s">
         <v>953</v>
@@ -6880,7 +6808,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="40" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="L11" s="31" t="str">
         <f t="shared" si="18"/>
@@ -6933,8 +6861,11 @@
       <c r="Y11" s="30" t="s">
         <v>85</v>
       </c>
+      <c r="Z11" s="30" t="s">
+        <v>1284</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>12</v>
       </c>
@@ -6948,10 +6879,10 @@
         <v>905</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="G12" s="40" t="s">
         <v>1</v>
@@ -6985,10 +6916,10 @@
         <v>Bambu</v>
       </c>
       <c r="P12" s="31" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q12" s="31" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="R12" s="29" t="s">
         <v>1</v>
@@ -7019,8 +6950,11 @@
       <c r="Y12" s="30" t="s">
         <v>85</v>
       </c>
+      <c r="Z12" s="30" t="s">
+        <v>1283</v>
+      </c>
     </row>
-    <row r="13" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>13</v>
       </c>
@@ -7034,10 +6968,10 @@
         <v>905</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="G13" s="40" t="s">
         <v>1</v>
@@ -7055,44 +6989,44 @@
         <v>1</v>
       </c>
       <c r="L13" s="31" t="str">
-        <f t="shared" ref="L13:L16" si="34">_xlfn.CONCAT(SUBSTITUTE(C13,"1.",""))</f>
+        <f t="shared" ref="L13:L14" si="34">_xlfn.CONCAT(SUBSTITUTE(C13,"1.",""))</f>
         <v>Reinos</v>
       </c>
       <c r="M13" s="31" t="str">
-        <f t="shared" ref="M13:M16" si="35">_xlfn.CONCAT(SUBSTITUTE(D13,"."," "))</f>
+        <f t="shared" ref="M13:M14" si="35">_xlfn.CONCAT(SUBSTITUTE(D13,"."," "))</f>
         <v>Vegetal</v>
       </c>
       <c r="N13" s="31" t="str">
-        <f t="shared" ref="N13:N16" si="36">_xlfn.CONCAT(SUBSTITUTE(E13,"."," "))</f>
+        <f t="shared" ref="N13:N14" si="36">_xlfn.CONCAT(SUBSTITUTE(E13,"."," "))</f>
         <v>Flora</v>
       </c>
       <c r="O13" s="31" t="str">
-        <f t="shared" ref="O13:O16" si="37">_xlfn.CONCAT(SUBSTITUTE(F13,"."," "))</f>
+        <f t="shared" ref="O13:O14" si="37">_xlfn.CONCAT(SUBSTITUTE(F13,"."," "))</f>
         <v>Liana</v>
       </c>
       <c r="P13" s="31" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="Q13" s="31" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="R13" s="29" t="s">
         <v>1</v>
       </c>
       <c r="S13" s="30" t="str">
-        <f t="shared" ref="S13:S16" si="38">SUBSTITUTE(C13, ".", " ")</f>
+        <f t="shared" ref="S13:S14" si="38">SUBSTITUTE(C13, ".", " ")</f>
         <v>Reinos</v>
       </c>
       <c r="T13" s="30" t="str">
-        <f t="shared" ref="T13:T16" si="39">SUBSTITUTE(D13, ".", " ")</f>
+        <f t="shared" ref="T13:T14" si="39">SUBSTITUTE(D13, ".", " ")</f>
         <v>Vegetal</v>
       </c>
       <c r="U13" s="30" t="str">
-        <f t="shared" ref="U13:U16" si="40">SUBSTITUTE(E13, ".", " ")</f>
+        <f t="shared" ref="U13:U14" si="40">SUBSTITUTE(E13, ".", " ")</f>
         <v>Flora</v>
       </c>
       <c r="V13" s="30" t="str">
-        <f t="shared" ref="V13:V16" si="41">SUBSTITUTE(C13, ".", " ")</f>
+        <f t="shared" ref="V13:V14" si="41">SUBSTITUTE(C13, ".", " ")</f>
         <v>Reinos</v>
       </c>
       <c r="W13" s="18" t="str">
@@ -7105,8 +7039,11 @@
       <c r="Y13" s="30" t="s">
         <v>85</v>
       </c>
+      <c r="Z13" s="30" t="s">
+        <v>1283</v>
+      </c>
     </row>
-    <row r="14" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>14</v>
       </c>
@@ -7120,10 +7057,10 @@
         <v>905</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="G14" s="40" t="s">
         <v>1</v>
@@ -7138,7 +7075,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="40" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="L14" s="31" t="str">
         <f t="shared" si="34"/>
@@ -7157,10 +7094,10 @@
         <v>Cacto</v>
       </c>
       <c r="P14" s="31" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="Q14" s="31" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="R14" s="29" t="s">
         <v>1</v>
@@ -7191,8 +7128,11 @@
       <c r="Y14" s="30" t="s">
         <v>85</v>
       </c>
+      <c r="Z14" s="30" t="s">
+        <v>1283</v>
+      </c>
     </row>
-    <row r="15" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>15</v>
       </c>
@@ -7206,10 +7146,10 @@
         <v>905</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>950</v>
+        <v>436</v>
       </c>
       <c r="G15" s="40" t="s">
         <v>1</v>
@@ -7223,48 +7163,48 @@
       <c r="J15" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="K15" s="40" t="s">
-        <v>1071</v>
+      <c r="K15" s="108" t="s">
+        <v>1068</v>
       </c>
       <c r="L15" s="31" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="L15:L23" si="42">_xlfn.CONCAT(SUBSTITUTE(C15,"1.",""))</f>
         <v>Reinos</v>
       </c>
       <c r="M15" s="31" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="M15:M23" si="43">_xlfn.CONCAT(SUBSTITUTE(D15,"."," "))</f>
         <v>Vegetal</v>
       </c>
       <c r="N15" s="31" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="N15:N23" si="44">_xlfn.CONCAT(SUBSTITUTE(E15,"."," "))</f>
         <v>Flora</v>
       </c>
       <c r="O15" s="31" t="str">
-        <f t="shared" si="37"/>
-        <v>Gramínea</v>
+        <f t="shared" ref="O15:O23" si="45">_xlfn.CONCAT(SUBSTITUTE(F15,"."," "))</f>
+        <v>Flor</v>
       </c>
       <c r="P15" s="31" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="Q15" s="31" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="R15" s="29" t="s">
         <v>1</v>
       </c>
       <c r="S15" s="30" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="S15:S23" si="46">SUBSTITUTE(C15, ".", " ")</f>
         <v>Reinos</v>
       </c>
       <c r="T15" s="30" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="T15:T23" si="47">SUBSTITUTE(D15, ".", " ")</f>
         <v>Vegetal</v>
       </c>
       <c r="U15" s="30" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="U15:U23" si="48">SUBSTITUTE(E15, ".", " ")</f>
         <v>Flora</v>
       </c>
       <c r="V15" s="30" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="1"/>
         <v>Reinos</v>
       </c>
       <c r="W15" s="18" t="str">
@@ -7277,8 +7217,11 @@
       <c r="Y15" s="30" t="s">
         <v>85</v>
       </c>
+      <c r="Z15" s="30" t="s">
+        <v>1283</v>
+      </c>
     </row>
-    <row r="16" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>16</v>
       </c>
@@ -7292,10 +7235,10 @@
         <v>905</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>1043</v>
+        <v>387</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>953</v>
+        <v>303</v>
       </c>
       <c r="G16" s="40" t="s">
         <v>1</v>
@@ -7313,44 +7256,44 @@
         <v>1</v>
       </c>
       <c r="L16" s="31" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>Reinos</v>
       </c>
       <c r="M16" s="31" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>Vegetal</v>
       </c>
       <c r="N16" s="31" t="str">
-        <f t="shared" si="36"/>
-        <v>Flora</v>
+        <f t="shared" si="44"/>
+        <v>Fungos</v>
       </c>
       <c r="O16" s="31" t="str">
-        <f t="shared" si="37"/>
-        <v>Rasteira</v>
+        <f t="shared" si="45"/>
+        <v>Fungo</v>
       </c>
       <c r="P16" s="31" t="s">
-        <v>437</v>
+        <v>388</v>
       </c>
       <c r="Q16" s="31" t="s">
-        <v>439</v>
+        <v>389</v>
       </c>
       <c r="R16" s="29" t="s">
         <v>1</v>
       </c>
       <c r="S16" s="30" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>Reinos</v>
       </c>
       <c r="T16" s="30" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>Vegetal</v>
       </c>
       <c r="U16" s="30" t="str">
-        <f t="shared" si="40"/>
-        <v>Flora</v>
+        <f t="shared" si="48"/>
+        <v>Fungos</v>
       </c>
       <c r="V16" s="30" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="1"/>
         <v>Reinos</v>
       </c>
       <c r="W16" s="18" t="str">
@@ -7363,8 +7306,11 @@
       <c r="Y16" s="30" t="s">
         <v>85</v>
       </c>
+      <c r="Z16" s="30" t="s">
+        <v>1283</v>
+      </c>
     </row>
-    <row r="17" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <v>17</v>
       </c>
@@ -7372,16 +7318,16 @@
         <v>75</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>92</v>
+        <v>1000</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>1043</v>
+        <v>878</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>436</v>
+        <v>902</v>
       </c>
       <c r="G17" s="40" t="s">
         <v>1</v>
@@ -7395,62 +7341,65 @@
       <c r="J17" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="K17" s="108" t="s">
-        <v>1069</v>
+      <c r="K17" s="40" t="s">
+        <v>1</v>
       </c>
       <c r="L17" s="31" t="str">
-        <f t="shared" ref="L17:L25" si="42">_xlfn.CONCAT(SUBSTITUTE(C17,"1.",""))</f>
-        <v>Reinos</v>
+        <f t="shared" ref="L17:L20" si="49">_xlfn.CONCAT(SUBSTITUTE(C17,"1.",""))</f>
+        <v>Ecologia</v>
       </c>
       <c r="M17" s="31" t="str">
-        <f t="shared" ref="M17:M25" si="43">_xlfn.CONCAT(SUBSTITUTE(D17,"."," "))</f>
-        <v>Vegetal</v>
+        <f t="shared" ref="M17:M20" si="50">_xlfn.CONCAT(SUBSTITUTE(D17,"."," "))</f>
+        <v>Ecossistema</v>
       </c>
       <c r="N17" s="31" t="str">
-        <f t="shared" ref="N17:N25" si="44">_xlfn.CONCAT(SUBSTITUTE(E17,"."," "))</f>
-        <v>Flora</v>
+        <f t="shared" ref="N17:N20" si="51">_xlfn.CONCAT(SUBSTITUTE(E17,"."," "))</f>
+        <v>Conservação</v>
       </c>
       <c r="O17" s="31" t="str">
-        <f t="shared" ref="O17:O25" si="45">_xlfn.CONCAT(SUBSTITUTE(F17,"."," "))</f>
-        <v>Flor</v>
+        <f t="shared" ref="O17:O20" si="52">_xlfn.CONCAT(SUBSTITUTE(F17,"."," "))</f>
+        <v>Conservação Animal</v>
       </c>
       <c r="P17" s="31" t="s">
-        <v>963</v>
+        <v>1036</v>
       </c>
       <c r="Q17" s="31" t="s">
-        <v>979</v>
+        <v>1041</v>
       </c>
       <c r="R17" s="29" t="s">
         <v>1</v>
       </c>
       <c r="S17" s="30" t="str">
-        <f t="shared" ref="S17:S25" si="46">SUBSTITUTE(C17, ".", " ")</f>
-        <v>Reinos</v>
+        <f t="shared" ref="S17:S20" si="53">SUBSTITUTE(C17, ".", " ")</f>
+        <v>Ecologia</v>
       </c>
       <c r="T17" s="30" t="str">
-        <f t="shared" ref="T17:T25" si="47">SUBSTITUTE(D17, ".", " ")</f>
-        <v>Vegetal</v>
+        <f t="shared" ref="T17:T20" si="54">SUBSTITUTE(D17, ".", " ")</f>
+        <v>Ecossistema</v>
       </c>
       <c r="U17" s="30" t="str">
-        <f t="shared" ref="U17:U25" si="48">SUBSTITUTE(E17, ".", " ")</f>
-        <v>Flora</v>
+        <f t="shared" ref="U17:U20" si="55">SUBSTITUTE(E17, ".", " ")</f>
+        <v>Conservação</v>
       </c>
       <c r="V17" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Reinos</v>
+        <f t="shared" ref="V17:V20" si="56">SUBSTITUTE(C17, ".", " ")</f>
+        <v>Ecologia</v>
       </c>
       <c r="W17" s="18" t="str">
         <f t="shared" si="9"/>
-        <v>K.Rei.17</v>
+        <v>K.Eco.17</v>
       </c>
       <c r="X17" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y17" s="30" t="s">
-        <v>85</v>
+        <v>1</v>
+      </c>
+      <c r="Y17" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="28" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>18</v>
       </c>
@@ -7458,16 +7407,16 @@
         <v>75</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>92</v>
+        <v>1000</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>387</v>
+        <v>878</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>303</v>
+        <v>903</v>
       </c>
       <c r="G18" s="40" t="s">
         <v>1</v>
@@ -7485,58 +7434,61 @@
         <v>1</v>
       </c>
       <c r="L18" s="31" t="str">
-        <f t="shared" si="42"/>
-        <v>Reinos</v>
+        <f t="shared" si="49"/>
+        <v>Ecologia</v>
       </c>
       <c r="M18" s="31" t="str">
-        <f t="shared" si="43"/>
-        <v>Vegetal</v>
+        <f t="shared" si="50"/>
+        <v>Ecossistema</v>
       </c>
       <c r="N18" s="31" t="str">
-        <f t="shared" si="44"/>
-        <v>Fungos</v>
+        <f t="shared" si="51"/>
+        <v>Conservação</v>
       </c>
       <c r="O18" s="31" t="str">
-        <f t="shared" si="45"/>
-        <v>Fungo</v>
+        <f t="shared" si="52"/>
+        <v>Conservação Vegetal</v>
       </c>
       <c r="P18" s="31" t="s">
-        <v>388</v>
+        <v>1037</v>
       </c>
       <c r="Q18" s="31" t="s">
-        <v>389</v>
+        <v>1040</v>
       </c>
       <c r="R18" s="29" t="s">
         <v>1</v>
       </c>
       <c r="S18" s="30" t="str">
-        <f t="shared" si="46"/>
-        <v>Reinos</v>
+        <f t="shared" si="53"/>
+        <v>Ecologia</v>
       </c>
       <c r="T18" s="30" t="str">
-        <f t="shared" si="47"/>
-        <v>Vegetal</v>
+        <f t="shared" si="54"/>
+        <v>Ecossistema</v>
       </c>
       <c r="U18" s="30" t="str">
-        <f t="shared" si="48"/>
-        <v>Fungos</v>
+        <f t="shared" si="55"/>
+        <v>Conservação</v>
       </c>
       <c r="V18" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Reinos</v>
+        <f t="shared" si="56"/>
+        <v>Ecologia</v>
       </c>
       <c r="W18" s="18" t="str">
         <f t="shared" si="9"/>
-        <v>K.Rei.18</v>
+        <v>K.Eco.18</v>
       </c>
       <c r="X18" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y18" s="30" t="s">
-        <v>85</v>
+        <v>1</v>
+      </c>
+      <c r="Y18" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="28" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>19</v>
       </c>
@@ -7544,7 +7496,7 @@
         <v>75</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D19" s="35" t="s">
         <v>901</v>
@@ -7553,7 +7505,7 @@
         <v>878</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="G19" s="40" t="s">
         <v>1</v>
@@ -7571,44 +7523,44 @@
         <v>1</v>
       </c>
       <c r="L19" s="31" t="str">
-        <f t="shared" ref="L19:L22" si="49">_xlfn.CONCAT(SUBSTITUTE(C19,"1.",""))</f>
+        <f t="shared" si="49"/>
         <v>Ecologia</v>
       </c>
       <c r="M19" s="31" t="str">
-        <f t="shared" ref="M19:M22" si="50">_xlfn.CONCAT(SUBSTITUTE(D19,"."," "))</f>
+        <f t="shared" si="50"/>
         <v>Ecossistema</v>
       </c>
       <c r="N19" s="31" t="str">
-        <f t="shared" ref="N19:N22" si="51">_xlfn.CONCAT(SUBSTITUTE(E19,"."," "))</f>
+        <f t="shared" si="51"/>
         <v>Conservação</v>
       </c>
       <c r="O19" s="31" t="str">
-        <f t="shared" ref="O19:O22" si="52">_xlfn.CONCAT(SUBSTITUTE(F19,"."," "))</f>
-        <v>Conservação Animal</v>
+        <f t="shared" si="52"/>
+        <v>Conservação Mineral</v>
       </c>
       <c r="P19" s="31" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="Q19" s="31" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="R19" s="29" t="s">
         <v>1</v>
       </c>
       <c r="S19" s="30" t="str">
-        <f t="shared" ref="S19:S22" si="53">SUBSTITUTE(C19, ".", " ")</f>
+        <f t="shared" si="53"/>
         <v>Ecologia</v>
       </c>
       <c r="T19" s="30" t="str">
-        <f t="shared" ref="T19:T22" si="54">SUBSTITUTE(D19, ".", " ")</f>
+        <f t="shared" si="54"/>
         <v>Ecossistema</v>
       </c>
       <c r="U19" s="30" t="str">
-        <f t="shared" ref="U19:U22" si="55">SUBSTITUTE(E19, ".", " ")</f>
+        <f t="shared" si="55"/>
         <v>Conservação</v>
       </c>
       <c r="V19" s="30" t="str">
-        <f t="shared" ref="V19:V22" si="56">SUBSTITUTE(C19, ".", " ")</f>
+        <f t="shared" si="56"/>
         <v>Ecologia</v>
       </c>
       <c r="W19" s="18" t="str">
@@ -7621,8 +7573,11 @@
       <c r="Y19" s="28" t="s">
         <v>1</v>
       </c>
+      <c r="Z19" s="28" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>20</v>
       </c>
@@ -7630,16 +7585,16 @@
         <v>75</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D20" s="35" t="s">
         <v>901</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>878</v>
+        <v>1035</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>903</v>
+        <v>998</v>
       </c>
       <c r="G20" s="40" t="s">
         <v>1</v>
@@ -7666,17 +7621,17 @@
       </c>
       <c r="N20" s="31" t="str">
         <f t="shared" si="51"/>
-        <v>Conservação</v>
+        <v>Captura de CO2</v>
       </c>
       <c r="O20" s="31" t="str">
         <f t="shared" si="52"/>
-        <v>Conservação Vegetal</v>
+        <v>Crédito de Carbono</v>
       </c>
       <c r="P20" s="31" t="s">
-        <v>1038</v>
+        <v>999</v>
       </c>
       <c r="Q20" s="31" t="s">
-        <v>1041</v>
+        <v>1001</v>
       </c>
       <c r="R20" s="29" t="s">
         <v>1</v>
@@ -7691,7 +7646,7 @@
       </c>
       <c r="U20" s="30" t="str">
         <f t="shared" si="55"/>
-        <v>Conservação</v>
+        <v>Captura de CO2</v>
       </c>
       <c r="V20" s="30" t="str">
         <f t="shared" si="56"/>
@@ -7707,8 +7662,11 @@
       <c r="Y20" s="28" t="s">
         <v>1</v>
       </c>
+      <c r="Z20" s="28" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>21</v>
       </c>
@@ -7716,16 +7674,16 @@
         <v>75</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D21" s="35" t="s">
         <v>901</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>878</v>
+        <v>1035</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>904</v>
+        <v>1012</v>
       </c>
       <c r="G21" s="40" t="s">
         <v>1</v>
@@ -7743,44 +7701,44 @@
         <v>1</v>
       </c>
       <c r="L21" s="31" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="42"/>
         <v>Ecologia</v>
       </c>
       <c r="M21" s="31" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="43"/>
         <v>Ecossistema</v>
       </c>
       <c r="N21" s="31" t="str">
-        <f t="shared" si="51"/>
-        <v>Conservação</v>
+        <f t="shared" si="44"/>
+        <v>Captura de CO2</v>
       </c>
       <c r="O21" s="31" t="str">
-        <f t="shared" si="52"/>
-        <v>Conservação Mineral</v>
+        <f t="shared" si="45"/>
+        <v>Certificado de Carbono</v>
       </c>
       <c r="P21" s="31" t="s">
-        <v>1039</v>
+        <v>1013</v>
       </c>
       <c r="Q21" s="31" t="s">
-        <v>1040</v>
+        <v>1014</v>
       </c>
       <c r="R21" s="29" t="s">
         <v>1</v>
       </c>
       <c r="S21" s="30" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="46"/>
         <v>Ecologia</v>
       </c>
       <c r="T21" s="30" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="47"/>
         <v>Ecossistema</v>
       </c>
       <c r="U21" s="30" t="str">
-        <f t="shared" si="55"/>
-        <v>Conservação</v>
+        <f t="shared" si="48"/>
+        <v>Captura de CO2</v>
       </c>
       <c r="V21" s="30" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="1"/>
         <v>Ecologia</v>
       </c>
       <c r="W21" s="18" t="str">
@@ -7793,8 +7751,11 @@
       <c r="Y21" s="28" t="s">
         <v>1</v>
       </c>
+      <c r="Z21" s="28" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <v>22</v>
       </c>
@@ -7802,16 +7763,16 @@
         <v>75</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>1001</v>
+        <v>1045</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>901</v>
+        <v>1191</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>1036</v>
-      </c>
-      <c r="F22" s="35" t="s">
-        <v>999</v>
+        <v>1193</v>
+      </c>
+      <c r="F22" s="68" t="s">
+        <v>566</v>
       </c>
       <c r="G22" s="40" t="s">
         <v>1</v>
@@ -7829,58 +7790,61 @@
         <v>1</v>
       </c>
       <c r="L22" s="31" t="str">
-        <f t="shared" si="49"/>
-        <v>Ecologia</v>
+        <f t="shared" si="42"/>
+        <v>Paisagístico</v>
       </c>
       <c r="M22" s="31" t="str">
-        <f t="shared" si="50"/>
-        <v>Ecossistema</v>
+        <f t="shared" si="43"/>
+        <v>Contexto Paisagístico</v>
       </c>
       <c r="N22" s="31" t="str">
-        <f t="shared" si="51"/>
-        <v>Captura de CO2</v>
+        <f t="shared" si="44"/>
+        <v>Tipos de Solo</v>
       </c>
       <c r="O22" s="31" t="str">
-        <f t="shared" si="52"/>
-        <v>Crédito de Carbono</v>
+        <f t="shared" si="45"/>
+        <v>Solo Arenoso</v>
       </c>
       <c r="P22" s="31" t="s">
-        <v>1000</v>
+        <v>577</v>
       </c>
       <c r="Q22" s="31" t="s">
-        <v>1002</v>
+        <v>580</v>
       </c>
       <c r="R22" s="29" t="s">
         <v>1</v>
       </c>
       <c r="S22" s="30" t="str">
-        <f t="shared" si="53"/>
-        <v>Ecologia</v>
+        <f t="shared" si="46"/>
+        <v>Paisagístico</v>
       </c>
       <c r="T22" s="30" t="str">
-        <f t="shared" si="54"/>
-        <v>Ecossistema</v>
+        <f t="shared" si="47"/>
+        <v>Contexto Paisagístico</v>
       </c>
       <c r="U22" s="30" t="str">
-        <f t="shared" si="55"/>
-        <v>Captura de CO2</v>
+        <f t="shared" si="48"/>
+        <v>Tipos de Solo</v>
       </c>
       <c r="V22" s="30" t="str">
-        <f t="shared" si="56"/>
-        <v>Ecologia</v>
+        <f t="shared" si="1"/>
+        <v>Paisagístico</v>
       </c>
       <c r="W22" s="18" t="str">
         <f t="shared" si="9"/>
-        <v>K.Eco.22</v>
+        <v>K.Pai.22</v>
       </c>
       <c r="X22" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="28" t="s">
-        <v>1</v>
+        <v>586</v>
+      </c>
+      <c r="Y22" s="30" t="s">
+        <v>587</v>
+      </c>
+      <c r="Z22" s="30" t="s">
+        <v>1284</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
         <v>23</v>
       </c>
@@ -7888,16 +7852,16 @@
         <v>75</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>1001</v>
+        <v>1045</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>901</v>
+        <v>1191</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>1036</v>
-      </c>
-      <c r="F23" s="35" t="s">
-        <v>1013</v>
+        <v>1193</v>
+      </c>
+      <c r="F23" s="68" t="s">
+        <v>565</v>
       </c>
       <c r="G23" s="40" t="s">
         <v>1</v>
@@ -7916,57 +7880,60 @@
       </c>
       <c r="L23" s="31" t="str">
         <f t="shared" si="42"/>
-        <v>Ecologia</v>
+        <v>Paisagístico</v>
       </c>
       <c r="M23" s="31" t="str">
         <f t="shared" si="43"/>
-        <v>Ecossistema</v>
+        <v>Contexto Paisagístico</v>
       </c>
       <c r="N23" s="31" t="str">
         <f t="shared" si="44"/>
-        <v>Captura de CO2</v>
+        <v>Tipos de Solo</v>
       </c>
       <c r="O23" s="31" t="str">
         <f t="shared" si="45"/>
-        <v>Certificado de Carbono</v>
+        <v>Solo Argiloso</v>
       </c>
       <c r="P23" s="31" t="s">
-        <v>1014</v>
+        <v>578</v>
       </c>
       <c r="Q23" s="31" t="s">
-        <v>1015</v>
+        <v>581</v>
       </c>
       <c r="R23" s="29" t="s">
         <v>1</v>
       </c>
       <c r="S23" s="30" t="str">
         <f t="shared" si="46"/>
-        <v>Ecologia</v>
+        <v>Paisagístico</v>
       </c>
       <c r="T23" s="30" t="str">
         <f t="shared" si="47"/>
-        <v>Ecossistema</v>
+        <v>Contexto Paisagístico</v>
       </c>
       <c r="U23" s="30" t="str">
         <f t="shared" si="48"/>
-        <v>Captura de CO2</v>
+        <v>Tipos de Solo</v>
       </c>
       <c r="V23" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>Ecologia</v>
+        <v>Paisagístico</v>
       </c>
       <c r="W23" s="18" t="str">
         <f t="shared" si="9"/>
-        <v>K.Eco.23</v>
+        <v>K.Pai.23</v>
       </c>
       <c r="X23" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="28" t="s">
-        <v>1</v>
+        <v>586</v>
+      </c>
+      <c r="Y23" s="30" t="s">
+        <v>587</v>
+      </c>
+      <c r="Z23" s="30" t="s">
+        <v>1284</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
         <v>24</v>
       </c>
@@ -7974,16 +7941,16 @@
         <v>75</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="F24" s="68" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="G24" s="40" t="s">
         <v>1</v>
@@ -8001,44 +7968,44 @@
         <v>1</v>
       </c>
       <c r="L24" s="31" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="L24:L26" si="57">_xlfn.CONCAT(SUBSTITUTE(C24,"1.",""))</f>
         <v>Paisagístico</v>
       </c>
       <c r="M24" s="31" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="M24:M26" si="58">_xlfn.CONCAT(SUBSTITUTE(D24,"."," "))</f>
         <v>Contexto Paisagístico</v>
       </c>
       <c r="N24" s="31" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="N24:N26" si="59">_xlfn.CONCAT(SUBSTITUTE(E24,"."," "))</f>
         <v>Tipos de Solo</v>
       </c>
       <c r="O24" s="31" t="str">
-        <f t="shared" si="45"/>
-        <v>Solo Arenoso</v>
+        <f t="shared" ref="O24:O26" si="60">_xlfn.CONCAT(SUBSTITUTE(F24,"."," "))</f>
+        <v>Solo Compacto</v>
       </c>
       <c r="P24" s="31" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="Q24" s="31" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="R24" s="29" t="s">
         <v>1</v>
       </c>
       <c r="S24" s="30" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="S24:S26" si="61">SUBSTITUTE(C24, ".", " ")</f>
         <v>Paisagístico</v>
       </c>
       <c r="T24" s="30" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="T24:T26" si="62">SUBSTITUTE(D24, ".", " ")</f>
         <v>Contexto Paisagístico</v>
       </c>
       <c r="U24" s="30" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="U24:U26" si="63">SUBSTITUTE(E24, ".", " ")</f>
         <v>Tipos de Solo</v>
       </c>
       <c r="V24" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="V24:V26" si="64">SUBSTITUTE(C24, ".", " ")</f>
         <v>Paisagístico</v>
       </c>
       <c r="W24" s="18" t="str">
@@ -8051,8 +8018,11 @@
       <c r="Y24" s="30" t="s">
         <v>587</v>
       </c>
+      <c r="Z24" s="30" t="s">
+        <v>1285</v>
+      </c>
     </row>
-    <row r="25" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>25</v>
       </c>
@@ -8060,16 +8030,16 @@
         <v>75</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D25" s="35" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E25" s="35" t="s">
         <v>1192</v>
       </c>
-      <c r="E25" s="35" t="s">
-        <v>1194</v>
-      </c>
       <c r="F25" s="68" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="G25" s="40" t="s">
         <v>1</v>
@@ -8087,44 +8057,44 @@
         <v>1</v>
       </c>
       <c r="L25" s="31" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="57"/>
         <v>Paisagístico</v>
       </c>
       <c r="M25" s="31" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="58"/>
         <v>Contexto Paisagístico</v>
       </c>
       <c r="N25" s="31" t="str">
-        <f t="shared" si="44"/>
-        <v>Tipos de Solo</v>
+        <f t="shared" si="59"/>
+        <v>Exposição Solar</v>
       </c>
       <c r="O25" s="31" t="str">
-        <f t="shared" si="45"/>
-        <v>Solo Argiloso</v>
+        <f t="shared" si="60"/>
+        <v>Sol Pleno</v>
       </c>
       <c r="P25" s="31" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="Q25" s="31" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="R25" s="29" t="s">
         <v>1</v>
       </c>
       <c r="S25" s="30" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="61"/>
         <v>Paisagístico</v>
       </c>
       <c r="T25" s="30" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="62"/>
         <v>Contexto Paisagístico</v>
       </c>
       <c r="U25" s="30" t="str">
-        <f t="shared" si="48"/>
-        <v>Tipos de Solo</v>
+        <f t="shared" si="63"/>
+        <v>Exposição Solar</v>
       </c>
       <c r="V25" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="64"/>
         <v>Paisagístico</v>
       </c>
       <c r="W25" s="18" t="str">
@@ -8132,13 +8102,16 @@
         <v>K.Pai.25</v>
       </c>
       <c r="X25" s="28" t="s">
-        <v>586</v>
-      </c>
-      <c r="Y25" s="30" t="s">
-        <v>587</v>
+        <v>1</v>
+      </c>
+      <c r="Y25" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="28" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
         <v>26</v>
       </c>
@@ -8146,16 +8119,16 @@
         <v>75</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D26" s="35" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E26" s="35" t="s">
         <v>1192</v>
       </c>
-      <c r="E26" s="35" t="s">
-        <v>1194</v>
-      </c>
       <c r="F26" s="68" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="G26" s="40" t="s">
         <v>1</v>
@@ -8173,44 +8146,44 @@
         <v>1</v>
       </c>
       <c r="L26" s="31" t="str">
-        <f t="shared" ref="L26:L28" si="57">_xlfn.CONCAT(SUBSTITUTE(C26,"1.",""))</f>
+        <f t="shared" si="57"/>
         <v>Paisagístico</v>
       </c>
       <c r="M26" s="31" t="str">
-        <f t="shared" ref="M26:M28" si="58">_xlfn.CONCAT(SUBSTITUTE(D26,"."," "))</f>
+        <f t="shared" si="58"/>
         <v>Contexto Paisagístico</v>
       </c>
       <c r="N26" s="31" t="str">
-        <f t="shared" ref="N26:N28" si="59">_xlfn.CONCAT(SUBSTITUTE(E26,"."," "))</f>
-        <v>Tipos de Solo</v>
+        <f t="shared" si="59"/>
+        <v>Exposição Solar</v>
       </c>
       <c r="O26" s="31" t="str">
-        <f t="shared" ref="O26:O28" si="60">_xlfn.CONCAT(SUBSTITUTE(F26,"."," "))</f>
-        <v>Solo Compacto</v>
+        <f t="shared" si="60"/>
+        <v>Sol Parcial</v>
       </c>
       <c r="P26" s="31" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="Q26" s="31" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="R26" s="29" t="s">
         <v>1</v>
       </c>
       <c r="S26" s="30" t="str">
-        <f t="shared" ref="S26:S28" si="61">SUBSTITUTE(C26, ".", " ")</f>
+        <f t="shared" si="61"/>
         <v>Paisagístico</v>
       </c>
       <c r="T26" s="30" t="str">
-        <f t="shared" ref="T26:T28" si="62">SUBSTITUTE(D26, ".", " ")</f>
+        <f t="shared" si="62"/>
         <v>Contexto Paisagístico</v>
       </c>
       <c r="U26" s="30" t="str">
-        <f t="shared" ref="U26:U28" si="63">SUBSTITUTE(E26, ".", " ")</f>
-        <v>Tipos de Solo</v>
+        <f t="shared" si="63"/>
+        <v>Exposição Solar</v>
       </c>
       <c r="V26" s="30" t="str">
-        <f t="shared" ref="V26:V28" si="64">SUBSTITUTE(C26, ".", " ")</f>
+        <f t="shared" si="64"/>
         <v>Paisagístico</v>
       </c>
       <c r="W26" s="18" t="str">
@@ -8218,13 +8191,16 @@
         <v>K.Pai.26</v>
       </c>
       <c r="X26" s="28" t="s">
-        <v>586</v>
-      </c>
-      <c r="Y26" s="30" t="s">
-        <v>587</v>
+        <v>1</v>
+      </c>
+      <c r="Y26" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="28" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
         <v>27</v>
       </c>
@@ -8232,16 +8208,16 @@
         <v>75</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D27" s="35" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E27" s="35" t="s">
         <v>1192</v>
       </c>
-      <c r="E27" s="35" t="s">
-        <v>1193</v>
-      </c>
       <c r="F27" s="68" t="s">
-        <v>567</v>
+        <v>1194</v>
       </c>
       <c r="G27" s="40" t="s">
         <v>1</v>
@@ -8259,44 +8235,44 @@
         <v>1</v>
       </c>
       <c r="L27" s="31" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" ref="L27:L46" si="65">_xlfn.CONCAT(SUBSTITUTE(C27,"1.",""))</f>
         <v>Paisagístico</v>
       </c>
       <c r="M27" s="31" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" ref="M27:M46" si="66">_xlfn.CONCAT(SUBSTITUTE(D27,"."," "))</f>
         <v>Contexto Paisagístico</v>
       </c>
       <c r="N27" s="31" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" ref="N27:N46" si="67">_xlfn.CONCAT(SUBSTITUTE(E27,"."," "))</f>
         <v>Exposição Solar</v>
       </c>
       <c r="O27" s="31" t="str">
-        <f t="shared" si="60"/>
-        <v>Sol Pleno</v>
+        <f t="shared" ref="O27:O46" si="68">_xlfn.CONCAT(SUBSTITUTE(F27,"."," "))</f>
+        <v>Em Sombra</v>
       </c>
       <c r="P27" s="31" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="Q27" s="31" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="R27" s="29" t="s">
         <v>1</v>
       </c>
       <c r="S27" s="30" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" ref="S27:S46" si="69">SUBSTITUTE(C27, ".", " ")</f>
         <v>Paisagístico</v>
       </c>
       <c r="T27" s="30" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" ref="T27:T46" si="70">SUBSTITUTE(D27, ".", " ")</f>
         <v>Contexto Paisagístico</v>
       </c>
       <c r="U27" s="30" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" ref="U27:U46" si="71">SUBSTITUTE(E27, ".", " ")</f>
         <v>Exposição Solar</v>
       </c>
       <c r="V27" s="30" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" ref="V27:V46" si="72">SUBSTITUTE(C27, ".", " ")</f>
         <v>Paisagístico</v>
       </c>
       <c r="W27" s="18" t="str">
@@ -8309,8 +8285,11 @@
       <c r="Y27" s="28" t="s">
         <v>1</v>
       </c>
+      <c r="Z27" s="28" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
         <v>28</v>
       </c>
@@ -8318,16 +8297,16 @@
         <v>75</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>1192</v>
+        <v>1138</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="F28" s="68" t="s">
-        <v>568</v>
+        <v>1043</v>
       </c>
       <c r="G28" s="40" t="s">
         <v>1</v>
@@ -8345,44 +8324,44 @@
         <v>1</v>
       </c>
       <c r="L28" s="31" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" ref="L28:L45" si="73">_xlfn.CONCAT(SUBSTITUTE(C28,"1.",""))</f>
         <v>Paisagístico</v>
       </c>
       <c r="M28" s="31" t="str">
-        <f t="shared" si="58"/>
-        <v>Contexto Paisagístico</v>
+        <f t="shared" ref="M28:M45" si="74">_xlfn.CONCAT(SUBSTITUTE(D28,"."," "))</f>
+        <v>Composição Paisagística</v>
       </c>
       <c r="N28" s="31" t="str">
-        <f t="shared" si="59"/>
-        <v>Exposição Solar</v>
+        <f t="shared" ref="N28:N45" si="75">_xlfn.CONCAT(SUBSTITUTE(E28,"."," "))</f>
+        <v>Plantações</v>
       </c>
       <c r="O28" s="31" t="str">
-        <f t="shared" si="60"/>
-        <v>Sol Parcial</v>
+        <f t="shared" ref="O28:O45" si="76">_xlfn.CONCAT(SUBSTITUTE(F28,"."," "))</f>
+        <v>Planta de Bosque</v>
       </c>
       <c r="P28" s="31" t="s">
-        <v>576</v>
+        <v>1160</v>
       </c>
       <c r="Q28" s="31" t="s">
-        <v>584</v>
+        <v>1150</v>
       </c>
       <c r="R28" s="29" t="s">
         <v>1</v>
       </c>
       <c r="S28" s="30" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" ref="S28:S45" si="77">SUBSTITUTE(C28, ".", " ")</f>
         <v>Paisagístico</v>
       </c>
       <c r="T28" s="30" t="str">
-        <f t="shared" si="62"/>
-        <v>Contexto Paisagístico</v>
+        <f t="shared" ref="T28:T45" si="78">SUBSTITUTE(D28, ".", " ")</f>
+        <v>Composição Paisagística</v>
       </c>
       <c r="U28" s="30" t="str">
-        <f t="shared" si="63"/>
-        <v>Exposição Solar</v>
+        <f t="shared" ref="U28:U45" si="79">SUBSTITUTE(E28, ".", " ")</f>
+        <v>Plantações</v>
       </c>
       <c r="V28" s="30" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" ref="V28:V45" si="80">SUBSTITUTE(C28, ".", " ")</f>
         <v>Paisagístico</v>
       </c>
       <c r="W28" s="18" t="str">
@@ -8390,13 +8369,16 @@
         <v>K.Pai.28</v>
       </c>
       <c r="X28" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="28" t="s">
-        <v>1</v>
+        <v>86</v>
+      </c>
+      <c r="Y28" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z28" s="30" t="s">
+        <v>1283</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26">
         <v>29</v>
       </c>
@@ -8404,16 +8386,16 @@
         <v>75</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>1192</v>
+        <v>1138</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="F29" s="68" t="s">
-        <v>1195</v>
+        <v>1044</v>
       </c>
       <c r="G29" s="40" t="s">
         <v>1</v>
@@ -8431,44 +8413,44 @@
         <v>1</v>
       </c>
       <c r="L29" s="31" t="str">
-        <f t="shared" ref="L29:L47" si="65">_xlfn.CONCAT(SUBSTITUTE(C29,"1.",""))</f>
+        <f t="shared" si="73"/>
         <v>Paisagístico</v>
       </c>
       <c r="M29" s="31" t="str">
-        <f t="shared" ref="M29:M47" si="66">_xlfn.CONCAT(SUBSTITUTE(D29,"."," "))</f>
-        <v>Contexto Paisagístico</v>
+        <f t="shared" si="74"/>
+        <v>Composição Paisagística</v>
       </c>
       <c r="N29" s="31" t="str">
-        <f t="shared" ref="N29:N47" si="67">_xlfn.CONCAT(SUBSTITUTE(E29,"."," "))</f>
-        <v>Exposição Solar</v>
+        <f t="shared" si="75"/>
+        <v>Plantações</v>
       </c>
       <c r="O29" s="31" t="str">
-        <f t="shared" ref="O29:O47" si="68">_xlfn.CONCAT(SUBSTITUTE(F29,"."," "))</f>
-        <v>Em Sombra</v>
+        <f t="shared" si="76"/>
+        <v>Planta de Alameda</v>
       </c>
       <c r="P29" s="31" t="s">
-        <v>574</v>
+        <v>1161</v>
       </c>
       <c r="Q29" s="31" t="s">
-        <v>585</v>
+        <v>1151</v>
       </c>
       <c r="R29" s="29" t="s">
         <v>1</v>
       </c>
       <c r="S29" s="30" t="str">
-        <f t="shared" ref="S29:S47" si="69">SUBSTITUTE(C29, ".", " ")</f>
+        <f t="shared" si="77"/>
         <v>Paisagístico</v>
       </c>
       <c r="T29" s="30" t="str">
-        <f t="shared" ref="T29:T47" si="70">SUBSTITUTE(D29, ".", " ")</f>
-        <v>Contexto Paisagístico</v>
+        <f t="shared" si="78"/>
+        <v>Composição Paisagística</v>
       </c>
       <c r="U29" s="30" t="str">
-        <f t="shared" ref="U29:U47" si="71">SUBSTITUTE(E29, ".", " ")</f>
-        <v>Exposição Solar</v>
+        <f t="shared" si="79"/>
+        <v>Plantações</v>
       </c>
       <c r="V29" s="30" t="str">
-        <f t="shared" ref="V29:V47" si="72">SUBSTITUTE(C29, ".", " ")</f>
+        <f t="shared" si="80"/>
         <v>Paisagístico</v>
       </c>
       <c r="W29" s="18" t="str">
@@ -8476,13 +8458,16 @@
         <v>K.Pai.29</v>
       </c>
       <c r="X29" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y29" s="28" t="s">
-        <v>1</v>
+        <v>86</v>
+      </c>
+      <c r="Y29" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z29" s="30" t="s">
+        <v>1283</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="26">
         <v>30</v>
       </c>
@@ -8490,17 +8475,17 @@
         <v>75</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D30" s="35" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F30" s="68" t="s">
         <v>1139</v>
       </c>
-      <c r="E30" s="35" t="s">
-        <v>1191</v>
-      </c>
-      <c r="F30" s="68" t="s">
-        <v>1044</v>
-      </c>
       <c r="G30" s="40" t="s">
         <v>1</v>
       </c>
@@ -8517,44 +8502,44 @@
         <v>1</v>
       </c>
       <c r="L30" s="31" t="str">
-        <f t="shared" ref="L30:L46" si="73">_xlfn.CONCAT(SUBSTITUTE(C30,"1.",""))</f>
+        <f t="shared" ref="L30:L35" si="81">_xlfn.CONCAT(SUBSTITUTE(C30,"1.",""))</f>
         <v>Paisagístico</v>
       </c>
       <c r="M30" s="31" t="str">
-        <f t="shared" ref="M30:M46" si="74">_xlfn.CONCAT(SUBSTITUTE(D30,"."," "))</f>
+        <f t="shared" ref="M30:M35" si="82">_xlfn.CONCAT(SUBSTITUTE(D30,"."," "))</f>
         <v>Composição Paisagística</v>
       </c>
       <c r="N30" s="31" t="str">
-        <f t="shared" ref="N30:N46" si="75">_xlfn.CONCAT(SUBSTITUTE(E30,"."," "))</f>
+        <f t="shared" ref="N30:N35" si="83">_xlfn.CONCAT(SUBSTITUTE(E30,"."," "))</f>
         <v>Plantações</v>
       </c>
       <c r="O30" s="31" t="str">
-        <f t="shared" ref="O30:O46" si="76">_xlfn.CONCAT(SUBSTITUTE(F30,"."," "))</f>
-        <v>Planta de Bosque</v>
+        <f t="shared" ref="O30:O35" si="84">_xlfn.CONCAT(SUBSTITUTE(F30,"."," "))</f>
+        <v>Planta de Bordadura</v>
       </c>
       <c r="P30" s="31" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="Q30" s="31" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="R30" s="29" t="s">
         <v>1</v>
       </c>
       <c r="S30" s="30" t="str">
-        <f t="shared" ref="S30:S46" si="77">SUBSTITUTE(C30, ".", " ")</f>
+        <f t="shared" ref="S30:S35" si="85">SUBSTITUTE(C30, ".", " ")</f>
         <v>Paisagístico</v>
       </c>
       <c r="T30" s="30" t="str">
-        <f t="shared" ref="T30:T46" si="78">SUBSTITUTE(D30, ".", " ")</f>
+        <f t="shared" ref="T30:T35" si="86">SUBSTITUTE(D30, ".", " ")</f>
         <v>Composição Paisagística</v>
       </c>
       <c r="U30" s="30" t="str">
-        <f t="shared" ref="U30:U46" si="79">SUBSTITUTE(E30, ".", " ")</f>
+        <f t="shared" ref="U30:U35" si="87">SUBSTITUTE(E30, ".", " ")</f>
         <v>Plantações</v>
       </c>
       <c r="V30" s="30" t="str">
-        <f t="shared" ref="V30:V46" si="80">SUBSTITUTE(C30, ".", " ")</f>
+        <f t="shared" ref="V30:V35" si="88">SUBSTITUTE(C30, ".", " ")</f>
         <v>Paisagístico</v>
       </c>
       <c r="W30" s="18" t="str">
@@ -8567,8 +8552,11 @@
       <c r="Y30" s="30" t="s">
         <v>85</v>
       </c>
+      <c r="Z30" s="30" t="s">
+        <v>1283</v>
+      </c>
     </row>
-    <row r="31" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="26">
         <v>31</v>
       </c>
@@ -8576,16 +8564,16 @@
         <v>75</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F31" s="68" t="s">
-        <v>1045</v>
+        <v>1140</v>
       </c>
       <c r="G31" s="40" t="s">
         <v>1</v>
@@ -8603,44 +8591,44 @@
         <v>1</v>
       </c>
       <c r="L31" s="31" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" ref="L31" si="89">_xlfn.CONCAT(SUBSTITUTE(C31,"1.",""))</f>
         <v>Paisagístico</v>
       </c>
       <c r="M31" s="31" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" ref="M31" si="90">_xlfn.CONCAT(SUBSTITUTE(D31,"."," "))</f>
         <v>Composição Paisagística</v>
       </c>
       <c r="N31" s="31" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" ref="N31" si="91">_xlfn.CONCAT(SUBSTITUTE(E31,"."," "))</f>
         <v>Plantações</v>
       </c>
       <c r="O31" s="31" t="str">
-        <f t="shared" si="76"/>
-        <v>Planta de Alameda</v>
+        <f t="shared" ref="O31" si="92">_xlfn.CONCAT(SUBSTITUTE(F31,"."," "))</f>
+        <v>Planta de Canteiro</v>
       </c>
       <c r="P31" s="31" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="Q31" s="31" t="s">
-        <v>1152</v>
+        <v>1055</v>
       </c>
       <c r="R31" s="29" t="s">
         <v>1</v>
       </c>
       <c r="S31" s="30" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" ref="S31" si="93">SUBSTITUTE(C31, ".", " ")</f>
         <v>Paisagístico</v>
       </c>
       <c r="T31" s="30" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" ref="T31" si="94">SUBSTITUTE(D31, ".", " ")</f>
         <v>Composição Paisagística</v>
       </c>
       <c r="U31" s="30" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" ref="U31" si="95">SUBSTITUTE(E31, ".", " ")</f>
         <v>Plantações</v>
       </c>
       <c r="V31" s="30" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" ref="V31" si="96">SUBSTITUTE(C31, ".", " ")</f>
         <v>Paisagístico</v>
       </c>
       <c r="W31" s="18" t="str">
@@ -8653,8 +8641,11 @@
       <c r="Y31" s="30" t="s">
         <v>85</v>
       </c>
+      <c r="Z31" s="30" t="s">
+        <v>1283</v>
+      </c>
     </row>
-    <row r="32" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="26">
         <v>32</v>
       </c>
@@ -8662,16 +8653,16 @@
         <v>75</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F32" s="68" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
       <c r="G32" s="40" t="s">
         <v>1</v>
@@ -8689,23 +8680,23 @@
         <v>1</v>
       </c>
       <c r="L32" s="31" t="str">
-        <f t="shared" ref="L32:L37" si="81">_xlfn.CONCAT(SUBSTITUTE(C32,"1.",""))</f>
+        <f t="shared" si="81"/>
         <v>Paisagístico</v>
       </c>
       <c r="M32" s="31" t="str">
-        <f t="shared" ref="M32:M37" si="82">_xlfn.CONCAT(SUBSTITUTE(D32,"."," "))</f>
+        <f t="shared" si="82"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="N32" s="31" t="str">
-        <f t="shared" ref="N32:N37" si="83">_xlfn.CONCAT(SUBSTITUTE(E32,"."," "))</f>
+        <f t="shared" si="83"/>
         <v>Plantações</v>
       </c>
       <c r="O32" s="31" t="str">
-        <f t="shared" ref="O32:O37" si="84">_xlfn.CONCAT(SUBSTITUTE(F32,"."," "))</f>
-        <v>Planta de Bordadura</v>
+        <f t="shared" si="84"/>
+        <v>Planta de Maciço</v>
       </c>
       <c r="P32" s="31" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="Q32" s="31" t="s">
         <v>1153</v>
@@ -8714,19 +8705,19 @@
         <v>1</v>
       </c>
       <c r="S32" s="30" t="str">
-        <f t="shared" ref="S32:S37" si="85">SUBSTITUTE(C32, ".", " ")</f>
+        <f t="shared" si="85"/>
         <v>Paisagístico</v>
       </c>
       <c r="T32" s="30" t="str">
-        <f t="shared" ref="T32:T37" si="86">SUBSTITUTE(D32, ".", " ")</f>
+        <f t="shared" si="86"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="U32" s="30" t="str">
-        <f t="shared" ref="U32:U37" si="87">SUBSTITUTE(E32, ".", " ")</f>
+        <f t="shared" si="87"/>
         <v>Plantações</v>
       </c>
       <c r="V32" s="30" t="str">
-        <f t="shared" ref="V32:V37" si="88">SUBSTITUTE(C32, ".", " ")</f>
+        <f t="shared" si="88"/>
         <v>Paisagístico</v>
       </c>
       <c r="W32" s="18" t="str">
@@ -8739,8 +8730,11 @@
       <c r="Y32" s="30" t="s">
         <v>85</v>
       </c>
+      <c r="Z32" s="30" t="s">
+        <v>1283</v>
+      </c>
     </row>
-    <row r="33" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="26">
         <v>33</v>
       </c>
@@ -8748,16 +8742,16 @@
         <v>75</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F33" s="68" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="G33" s="40" t="s">
         <v>1</v>
@@ -8775,44 +8769,44 @@
         <v>1</v>
       </c>
       <c r="L33" s="31" t="str">
-        <f t="shared" ref="L33" si="89">_xlfn.CONCAT(SUBSTITUTE(C33,"1.",""))</f>
+        <f t="shared" ref="L33" si="97">_xlfn.CONCAT(SUBSTITUTE(C33,"1.",""))</f>
         <v>Paisagístico</v>
       </c>
       <c r="M33" s="31" t="str">
-        <f t="shared" ref="M33" si="90">_xlfn.CONCAT(SUBSTITUTE(D33,"."," "))</f>
+        <f t="shared" ref="M33" si="98">_xlfn.CONCAT(SUBSTITUTE(D33,"."," "))</f>
         <v>Composição Paisagística</v>
       </c>
       <c r="N33" s="31" t="str">
-        <f t="shared" ref="N33" si="91">_xlfn.CONCAT(SUBSTITUTE(E33,"."," "))</f>
+        <f t="shared" ref="N33" si="99">_xlfn.CONCAT(SUBSTITUTE(E33,"."," "))</f>
         <v>Plantações</v>
       </c>
       <c r="O33" s="31" t="str">
-        <f t="shared" ref="O33" si="92">_xlfn.CONCAT(SUBSTITUTE(F33,"."," "))</f>
-        <v>Planta de Canteiro</v>
+        <f t="shared" ref="O33" si="100">_xlfn.CONCAT(SUBSTITUTE(F33,"."," "))</f>
+        <v>Planta de Renque</v>
       </c>
       <c r="P33" s="31" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="Q33" s="31" t="s">
-        <v>1056</v>
+        <v>1154</v>
       </c>
       <c r="R33" s="29" t="s">
         <v>1</v>
       </c>
       <c r="S33" s="30" t="str">
-        <f t="shared" ref="S33" si="93">SUBSTITUTE(C33, ".", " ")</f>
+        <f t="shared" ref="S33" si="101">SUBSTITUTE(C33, ".", " ")</f>
         <v>Paisagístico</v>
       </c>
       <c r="T33" s="30" t="str">
-        <f t="shared" ref="T33" si="94">SUBSTITUTE(D33, ".", " ")</f>
+        <f t="shared" ref="T33" si="102">SUBSTITUTE(D33, ".", " ")</f>
         <v>Composição Paisagística</v>
       </c>
       <c r="U33" s="30" t="str">
-        <f t="shared" ref="U33" si="95">SUBSTITUTE(E33, ".", " ")</f>
+        <f t="shared" ref="U33" si="103">SUBSTITUTE(E33, ".", " ")</f>
         <v>Plantações</v>
       </c>
       <c r="V33" s="30" t="str">
-        <f t="shared" ref="V33" si="96">SUBSTITUTE(C33, ".", " ")</f>
+        <f t="shared" ref="V33" si="104">SUBSTITUTE(C33, ".", " ")</f>
         <v>Paisagístico</v>
       </c>
       <c r="W33" s="18" t="str">
@@ -8825,8 +8819,11 @@
       <c r="Y33" s="30" t="s">
         <v>85</v>
       </c>
+      <c r="Z33" s="30" t="s">
+        <v>1283</v>
+      </c>
     </row>
-    <row r="34" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="26">
         <v>34</v>
       </c>
@@ -8834,16 +8831,16 @@
         <v>75</v>
       </c>
       <c r="C34" s="35" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F34" s="68" t="s">
         <v>1046</v>
-      </c>
-      <c r="D34" s="35" t="s">
-        <v>1139</v>
-      </c>
-      <c r="E34" s="35" t="s">
-        <v>1191</v>
-      </c>
-      <c r="F34" s="68" t="s">
-        <v>1145</v>
       </c>
       <c r="G34" s="40" t="s">
         <v>1</v>
@@ -8874,13 +8871,13 @@
       </c>
       <c r="O34" s="31" t="str">
         <f t="shared" si="84"/>
-        <v>Planta de Maciço</v>
+        <v>Planta de Calçada</v>
       </c>
       <c r="P34" s="31" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="Q34" s="31" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="R34" s="29" t="s">
         <v>1</v>
@@ -8911,8 +8908,11 @@
       <c r="Y34" s="30" t="s">
         <v>85</v>
       </c>
+      <c r="Z34" s="30" t="s">
+        <v>1283</v>
+      </c>
     </row>
-    <row r="35" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="26">
         <v>35</v>
       </c>
@@ -8920,16 +8920,16 @@
         <v>75</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F35" s="68" t="s">
-        <v>1144</v>
+        <v>1053</v>
       </c>
       <c r="G35" s="40" t="s">
         <v>1</v>
@@ -8947,44 +8947,44 @@
         <v>1</v>
       </c>
       <c r="L35" s="31" t="str">
-        <f t="shared" ref="L35" si="97">_xlfn.CONCAT(SUBSTITUTE(C35,"1.",""))</f>
+        <f t="shared" si="81"/>
         <v>Paisagístico</v>
       </c>
       <c r="M35" s="31" t="str">
-        <f t="shared" ref="M35" si="98">_xlfn.CONCAT(SUBSTITUTE(D35,"."," "))</f>
+        <f t="shared" si="82"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="N35" s="31" t="str">
-        <f t="shared" ref="N35" si="99">_xlfn.CONCAT(SUBSTITUTE(E35,"."," "))</f>
+        <f t="shared" si="83"/>
         <v>Plantações</v>
       </c>
       <c r="O35" s="31" t="str">
-        <f t="shared" ref="O35" si="100">_xlfn.CONCAT(SUBSTITUTE(F35,"."," "))</f>
-        <v>Planta de Renque</v>
+        <f t="shared" si="84"/>
+        <v>Planta de Pérgola</v>
       </c>
       <c r="P35" s="31" t="s">
-        <v>1166</v>
+        <v>1047</v>
       </c>
       <c r="Q35" s="31" t="s">
-        <v>1155</v>
+        <v>1056</v>
       </c>
       <c r="R35" s="29" t="s">
         <v>1</v>
       </c>
       <c r="S35" s="30" t="str">
-        <f t="shared" ref="S35" si="101">SUBSTITUTE(C35, ".", " ")</f>
+        <f t="shared" si="85"/>
         <v>Paisagístico</v>
       </c>
       <c r="T35" s="30" t="str">
-        <f t="shared" ref="T35" si="102">SUBSTITUTE(D35, ".", " ")</f>
+        <f t="shared" si="86"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="U35" s="30" t="str">
-        <f t="shared" ref="U35" si="103">SUBSTITUTE(E35, ".", " ")</f>
+        <f t="shared" si="87"/>
         <v>Plantações</v>
       </c>
       <c r="V35" s="30" t="str">
-        <f t="shared" ref="V35" si="104">SUBSTITUTE(C35, ".", " ")</f>
+        <f t="shared" si="88"/>
         <v>Paisagístico</v>
       </c>
       <c r="W35" s="18" t="str">
@@ -8997,8 +8997,11 @@
       <c r="Y35" s="30" t="s">
         <v>85</v>
       </c>
+      <c r="Z35" s="30" t="s">
+        <v>1283</v>
+      </c>
     </row>
-    <row r="36" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26">
         <v>36</v>
       </c>
@@ -9006,16 +9009,16 @@
         <v>75</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>1191</v>
+        <v>1172</v>
       </c>
       <c r="F36" s="68" t="s">
-        <v>1047</v>
+        <v>1171</v>
       </c>
       <c r="G36" s="40" t="s">
         <v>1</v>
@@ -9033,20 +9036,20 @@
         <v>1</v>
       </c>
       <c r="L36" s="31" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="73"/>
         <v>Paisagístico</v>
       </c>
       <c r="M36" s="31" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="74"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="N36" s="31" t="str">
-        <f t="shared" si="83"/>
-        <v>Plantações</v>
+        <f t="shared" si="75"/>
+        <v>Tipos de Jardim</v>
       </c>
       <c r="O36" s="31" t="str">
-        <f t="shared" si="84"/>
-        <v>Planta de Calçada</v>
+        <f t="shared" si="76"/>
+        <v>Jardim Contemplativo</v>
       </c>
       <c r="P36" s="31" t="s">
         <v>1167</v>
@@ -9058,19 +9061,19 @@
         <v>1</v>
       </c>
       <c r="S36" s="30" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="77"/>
         <v>Paisagístico</v>
       </c>
       <c r="T36" s="30" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="78"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="U36" s="30" t="str">
-        <f t="shared" si="87"/>
-        <v>Plantações</v>
+        <f t="shared" si="79"/>
+        <v>Tipos de Jardim</v>
       </c>
       <c r="V36" s="30" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="80"/>
         <v>Paisagístico</v>
       </c>
       <c r="W36" s="18" t="str">
@@ -9078,13 +9081,16 @@
         <v>K.Pai.36</v>
       </c>
       <c r="X36" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y36" s="30" t="s">
-        <v>85</v>
+        <v>1</v>
+      </c>
+      <c r="Y36" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="30" t="s">
+        <v>1283</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26">
         <v>37</v>
       </c>
@@ -9092,16 +9098,16 @@
         <v>75</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>1191</v>
+        <v>1172</v>
       </c>
       <c r="F37" s="68" t="s">
-        <v>1054</v>
+        <v>1141</v>
       </c>
       <c r="G37" s="40" t="s">
         <v>1</v>
@@ -9119,44 +9125,44 @@
         <v>1</v>
       </c>
       <c r="L37" s="31" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="73"/>
         <v>Paisagístico</v>
       </c>
       <c r="M37" s="31" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="74"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="N37" s="31" t="str">
-        <f t="shared" si="83"/>
-        <v>Plantações</v>
+        <f t="shared" si="75"/>
+        <v>Tipos de Jardim</v>
       </c>
       <c r="O37" s="31" t="str">
-        <f t="shared" si="84"/>
-        <v>Planta de Pérgola</v>
+        <f t="shared" si="76"/>
+        <v>Jardim Formal</v>
       </c>
       <c r="P37" s="31" t="s">
-        <v>1048</v>
+        <v>1168</v>
       </c>
       <c r="Q37" s="31" t="s">
-        <v>1057</v>
+        <v>1157</v>
       </c>
       <c r="R37" s="29" t="s">
         <v>1</v>
       </c>
       <c r="S37" s="30" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="77"/>
         <v>Paisagístico</v>
       </c>
       <c r="T37" s="30" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="78"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="U37" s="30" t="str">
-        <f t="shared" si="87"/>
-        <v>Plantações</v>
+        <f t="shared" si="79"/>
+        <v>Tipos de Jardim</v>
       </c>
       <c r="V37" s="30" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="80"/>
         <v>Paisagístico</v>
       </c>
       <c r="W37" s="18" t="str">
@@ -9164,13 +9170,16 @@
         <v>K.Pai.37</v>
       </c>
       <c r="X37" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y37" s="30" t="s">
-        <v>85</v>
+        <v>1</v>
+      </c>
+      <c r="Y37" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="30" t="s">
+        <v>1283</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26">
         <v>38</v>
       </c>
@@ -9178,16 +9187,16 @@
         <v>75</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="F38" s="68" t="s">
-        <v>1172</v>
+        <v>1142</v>
       </c>
       <c r="G38" s="40" t="s">
         <v>1</v>
@@ -9218,13 +9227,13 @@
       </c>
       <c r="O38" s="31" t="str">
         <f t="shared" si="76"/>
-        <v>Jardim Contemplativo</v>
+        <v>Jardim Informal</v>
       </c>
       <c r="P38" s="31" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="Q38" s="31" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="R38" s="29" t="s">
         <v>1</v>
@@ -9255,8 +9264,11 @@
       <c r="Y38" s="28" t="s">
         <v>1</v>
       </c>
+      <c r="Z38" s="30" t="s">
+        <v>1283</v>
+      </c>
     </row>
-    <row r="39" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26">
         <v>39</v>
       </c>
@@ -9264,16 +9276,16 @@
         <v>75</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="F39" s="68" t="s">
-        <v>1142</v>
+        <v>1146</v>
       </c>
       <c r="G39" s="40" t="s">
         <v>1</v>
@@ -9291,44 +9303,44 @@
         <v>1</v>
       </c>
       <c r="L39" s="31" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" ref="L39:L41" si="105">_xlfn.CONCAT(SUBSTITUTE(C39,"1.",""))</f>
         <v>Paisagístico</v>
       </c>
       <c r="M39" s="31" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" ref="M39:M41" si="106">_xlfn.CONCAT(SUBSTITUTE(D39,"."," "))</f>
         <v>Composição Paisagística</v>
       </c>
       <c r="N39" s="31" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" ref="N39:N41" si="107">_xlfn.CONCAT(SUBSTITUTE(E39,"."," "))</f>
         <v>Tipos de Jardim</v>
       </c>
       <c r="O39" s="31" t="str">
-        <f t="shared" si="76"/>
-        <v>Jardim Formal</v>
+        <f t="shared" ref="O39:O41" si="108">_xlfn.CONCAT(SUBSTITUTE(F39,"."," "))</f>
+        <v>Jardim Zen</v>
       </c>
       <c r="P39" s="31" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="Q39" s="31" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="R39" s="29" t="s">
         <v>1</v>
       </c>
       <c r="S39" s="30" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" ref="S39:S41" si="109">SUBSTITUTE(C39, ".", " ")</f>
         <v>Paisagístico</v>
       </c>
       <c r="T39" s="30" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" ref="T39:T41" si="110">SUBSTITUTE(D39, ".", " ")</f>
         <v>Composição Paisagística</v>
       </c>
       <c r="U39" s="30" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" ref="U39:U41" si="111">SUBSTITUTE(E39, ".", " ")</f>
         <v>Tipos de Jardim</v>
       </c>
       <c r="V39" s="30" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" ref="V39:V41" si="112">SUBSTITUTE(C39, ".", " ")</f>
         <v>Paisagístico</v>
       </c>
       <c r="W39" s="18" t="str">
@@ -9341,8 +9353,11 @@
       <c r="Y39" s="28" t="s">
         <v>1</v>
       </c>
+      <c r="Z39" s="30" t="s">
+        <v>1283</v>
+      </c>
     </row>
-    <row r="40" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="26">
         <v>40</v>
       </c>
@@ -9350,16 +9365,16 @@
         <v>75</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>1173</v>
+        <v>1186</v>
       </c>
       <c r="F40" s="68" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="G40" s="40" t="s">
         <v>1</v>
@@ -9377,44 +9392,44 @@
         <v>1</v>
       </c>
       <c r="L40" s="31" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="105"/>
         <v>Paisagístico</v>
       </c>
       <c r="M40" s="31" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="106"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="N40" s="31" t="str">
-        <f t="shared" si="75"/>
-        <v>Tipos de Jardim</v>
+        <f t="shared" si="107"/>
+        <v>Elementos Hídricos</v>
       </c>
       <c r="O40" s="31" t="str">
-        <f t="shared" si="76"/>
-        <v>Jardim Informal</v>
+        <f t="shared" si="108"/>
+        <v>Espelho de Agua</v>
       </c>
       <c r="P40" s="31" t="s">
-        <v>1170</v>
+        <v>1177</v>
       </c>
       <c r="Q40" s="31" t="s">
-        <v>1159</v>
+        <v>1181</v>
       </c>
       <c r="R40" s="29" t="s">
         <v>1</v>
       </c>
       <c r="S40" s="30" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="109"/>
         <v>Paisagístico</v>
       </c>
       <c r="T40" s="30" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="U40" s="30" t="str">
-        <f t="shared" si="79"/>
-        <v>Tipos de Jardim</v>
+        <f t="shared" si="111"/>
+        <v>Elementos Hídricos</v>
       </c>
       <c r="V40" s="30" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="112"/>
         <v>Paisagístico</v>
       </c>
       <c r="W40" s="18" t="str">
@@ -9427,8 +9442,11 @@
       <c r="Y40" s="28" t="s">
         <v>1</v>
       </c>
+      <c r="Z40" s="30" t="s">
+        <v>1283</v>
+      </c>
     </row>
-    <row r="41" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="26">
         <v>41</v>
       </c>
@@ -9436,16 +9454,16 @@
         <v>75</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>1173</v>
+        <v>1186</v>
       </c>
       <c r="F41" s="68" t="s">
-        <v>1147</v>
+        <v>1175</v>
       </c>
       <c r="G41" s="40" t="s">
         <v>1</v>
@@ -9463,44 +9481,44 @@
         <v>1</v>
       </c>
       <c r="L41" s="31" t="str">
-        <f t="shared" ref="L41:L43" si="105">_xlfn.CONCAT(SUBSTITUTE(C41,"1.",""))</f>
+        <f t="shared" si="105"/>
         <v>Paisagístico</v>
       </c>
       <c r="M41" s="31" t="str">
-        <f t="shared" ref="M41:M43" si="106">_xlfn.CONCAT(SUBSTITUTE(D41,"."," "))</f>
+        <f t="shared" si="106"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="N41" s="31" t="str">
-        <f t="shared" ref="N41:N43" si="107">_xlfn.CONCAT(SUBSTITUTE(E41,"."," "))</f>
-        <v>Tipos de Jardim</v>
+        <f t="shared" si="107"/>
+        <v>Elementos Hídricos</v>
       </c>
       <c r="O41" s="31" t="str">
-        <f t="shared" ref="O41:O43" si="108">_xlfn.CONCAT(SUBSTITUTE(F41,"."," "))</f>
-        <v>Jardim Zen</v>
+        <f t="shared" si="108"/>
+        <v>Chafariz</v>
       </c>
       <c r="P41" s="31" t="s">
-        <v>1171</v>
+        <v>1176</v>
       </c>
       <c r="Q41" s="31" t="s">
-        <v>1160</v>
+        <v>1182</v>
       </c>
       <c r="R41" s="29" t="s">
         <v>1</v>
       </c>
       <c r="S41" s="30" t="str">
-        <f t="shared" ref="S41:S43" si="109">SUBSTITUTE(C41, ".", " ")</f>
+        <f t="shared" si="109"/>
         <v>Paisagístico</v>
       </c>
       <c r="T41" s="30" t="str">
-        <f t="shared" ref="T41:T43" si="110">SUBSTITUTE(D41, ".", " ")</f>
+        <f t="shared" si="110"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="U41" s="30" t="str">
-        <f t="shared" ref="U41:U43" si="111">SUBSTITUTE(E41, ".", " ")</f>
-        <v>Tipos de Jardim</v>
+        <f t="shared" si="111"/>
+        <v>Elementos Hídricos</v>
       </c>
       <c r="V41" s="30" t="str">
-        <f t="shared" ref="V41:V43" si="112">SUBSTITUTE(C41, ".", " ")</f>
+        <f t="shared" si="112"/>
         <v>Paisagístico</v>
       </c>
       <c r="W41" s="18" t="str">
@@ -9513,8 +9531,11 @@
       <c r="Y41" s="28" t="s">
         <v>1</v>
       </c>
+      <c r="Z41" s="30" t="s">
+        <v>1283</v>
+      </c>
     </row>
-    <row r="42" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="26">
         <v>42</v>
       </c>
@@ -9522,17 +9543,17 @@
         <v>75</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E42" s="35" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F42" s="68" t="s">
         <v>1187</v>
       </c>
-      <c r="F42" s="68" t="s">
-        <v>1146</v>
-      </c>
       <c r="G42" s="40" t="s">
         <v>1</v>
       </c>
@@ -9549,44 +9570,44 @@
         <v>1</v>
       </c>
       <c r="L42" s="31" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="73"/>
         <v>Paisagístico</v>
       </c>
       <c r="M42" s="31" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="74"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="N42" s="31" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="75"/>
         <v>Elementos Hídricos</v>
       </c>
       <c r="O42" s="31" t="str">
-        <f t="shared" si="108"/>
-        <v>Espelho de Agua</v>
+        <f t="shared" si="76"/>
+        <v>Cascata</v>
       </c>
       <c r="P42" s="31" t="s">
-        <v>1178</v>
+        <v>1188</v>
       </c>
       <c r="Q42" s="31" t="s">
-        <v>1182</v>
+        <v>1189</v>
       </c>
       <c r="R42" s="29" t="s">
         <v>1</v>
       </c>
       <c r="S42" s="30" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="77"/>
         <v>Paisagístico</v>
       </c>
       <c r="T42" s="30" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="78"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="U42" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="79"/>
         <v>Elementos Hídricos</v>
       </c>
       <c r="V42" s="30" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="80"/>
         <v>Paisagístico</v>
       </c>
       <c r="W42" s="18" t="str">
@@ -9599,8 +9620,11 @@
       <c r="Y42" s="28" t="s">
         <v>1</v>
       </c>
+      <c r="Z42" s="30" t="s">
+        <v>1283</v>
+      </c>
     </row>
-    <row r="43" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="26">
         <v>43</v>
       </c>
@@ -9608,16 +9632,16 @@
         <v>75</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>1187</v>
+        <v>1173</v>
       </c>
       <c r="F43" s="68" t="s">
-        <v>1176</v>
+        <v>1149</v>
       </c>
       <c r="G43" s="40" t="s">
         <v>1</v>
@@ -9635,23 +9659,23 @@
         <v>1</v>
       </c>
       <c r="L43" s="31" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="73"/>
         <v>Paisagístico</v>
       </c>
       <c r="M43" s="31" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="74"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="N43" s="31" t="str">
-        <f t="shared" si="107"/>
-        <v>Elementos Hídricos</v>
+        <f t="shared" si="75"/>
+        <v>Elementos Verdes</v>
       </c>
       <c r="O43" s="31" t="str">
-        <f t="shared" si="108"/>
-        <v>Chafariz</v>
+        <f t="shared" si="76"/>
+        <v>Cerca Viva</v>
       </c>
       <c r="P43" s="31" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="Q43" s="31" t="s">
         <v>1183</v>
@@ -9660,33 +9684,36 @@
         <v>1</v>
       </c>
       <c r="S43" s="30" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="77"/>
         <v>Paisagístico</v>
       </c>
       <c r="T43" s="30" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="78"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="U43" s="30" t="str">
-        <f t="shared" si="111"/>
-        <v>Elementos Hídricos</v>
+        <f t="shared" si="79"/>
+        <v>Elementos Verdes</v>
       </c>
       <c r="V43" s="30" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="80"/>
         <v>Paisagístico</v>
       </c>
       <c r="W43" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="W43" si="113">CONCATENATE("K.",LEFT(C43,3),".",A43)</f>
         <v>K.Pai.43</v>
       </c>
       <c r="X43" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y43" s="28" t="s">
-        <v>1</v>
+        <v>86</v>
+      </c>
+      <c r="Y43" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z43" s="30" t="s">
+        <v>1283</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="26">
         <v>44</v>
       </c>
@@ -9694,16 +9721,16 @@
         <v>75</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>1187</v>
+        <v>1173</v>
       </c>
       <c r="F44" s="68" t="s">
-        <v>1188</v>
+        <v>1280</v>
       </c>
       <c r="G44" s="40" t="s">
         <v>1</v>
@@ -9721,44 +9748,44 @@
         <v>1</v>
       </c>
       <c r="L44" s="31" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" ref="L44" si="114">_xlfn.CONCAT(SUBSTITUTE(C44,"1.",""))</f>
         <v>Paisagístico</v>
       </c>
       <c r="M44" s="31" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" ref="M44" si="115">_xlfn.CONCAT(SUBSTITUTE(D44,"."," "))</f>
         <v>Composição Paisagística</v>
       </c>
       <c r="N44" s="31" t="str">
-        <f t="shared" si="75"/>
-        <v>Elementos Hídricos</v>
+        <f t="shared" ref="N44" si="116">_xlfn.CONCAT(SUBSTITUTE(E44,"."," "))</f>
+        <v>Elementos Verdes</v>
       </c>
       <c r="O44" s="31" t="str">
-        <f t="shared" si="76"/>
-        <v>Cascata</v>
+        <f t="shared" ref="O44" si="117">_xlfn.CONCAT(SUBSTITUTE(F44,"."," "))</f>
+        <v>Corbelha</v>
       </c>
       <c r="P44" s="31" t="s">
-        <v>1189</v>
+        <v>1281</v>
       </c>
       <c r="Q44" s="31" t="s">
-        <v>1190</v>
+        <v>1282</v>
       </c>
       <c r="R44" s="29" t="s">
         <v>1</v>
       </c>
       <c r="S44" s="30" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" ref="S44" si="118">SUBSTITUTE(C44, ".", " ")</f>
         <v>Paisagístico</v>
       </c>
       <c r="T44" s="30" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" ref="T44" si="119">SUBSTITUTE(D44, ".", " ")</f>
         <v>Composição Paisagística</v>
       </c>
       <c r="U44" s="30" t="str">
-        <f t="shared" si="79"/>
-        <v>Elementos Hídricos</v>
+        <f t="shared" ref="U44" si="120">SUBSTITUTE(E44, ".", " ")</f>
+        <v>Elementos Verdes</v>
       </c>
       <c r="V44" s="30" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" ref="V44" si="121">SUBSTITUTE(C44, ".", " ")</f>
         <v>Paisagístico</v>
       </c>
       <c r="W44" s="18" t="str">
@@ -9766,13 +9793,16 @@
         <v>K.Pai.44</v>
       </c>
       <c r="X44" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y44" s="28" t="s">
-        <v>1</v>
+        <v>86</v>
+      </c>
+      <c r="Y44" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z44" s="30" t="s">
+        <v>1283</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="26">
         <v>45</v>
       </c>
@@ -9780,16 +9810,16 @@
         <v>75</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E45" s="35" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F45" s="68" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="G45" s="40" t="s">
         <v>1</v>
@@ -9807,44 +9837,44 @@
         <v>1</v>
       </c>
       <c r="L45" s="31" t="str">
-        <f t="shared" ref="L45" si="113">_xlfn.CONCAT(SUBSTITUTE(C45,"1.",""))</f>
+        <f t="shared" si="73"/>
         <v>Paisagístico</v>
       </c>
       <c r="M45" s="31" t="str">
-        <f t="shared" ref="M45" si="114">_xlfn.CONCAT(SUBSTITUTE(D45,"."," "))</f>
+        <f t="shared" si="74"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="N45" s="31" t="str">
-        <f t="shared" ref="N45" si="115">_xlfn.CONCAT(SUBSTITUTE(E45,"."," "))</f>
+        <f t="shared" si="75"/>
         <v>Elementos Verdes</v>
       </c>
       <c r="O45" s="31" t="str">
-        <f t="shared" ref="O45" si="116">_xlfn.CONCAT(SUBSTITUTE(F45,"."," "))</f>
-        <v>Cerca Viva</v>
+        <f t="shared" si="76"/>
+        <v>Área Gramada</v>
       </c>
       <c r="P45" s="31" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="Q45" s="31" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="R45" s="29" t="s">
         <v>1</v>
       </c>
       <c r="S45" s="30" t="str">
-        <f t="shared" ref="S45" si="117">SUBSTITUTE(C45, ".", " ")</f>
+        <f t="shared" si="77"/>
         <v>Paisagístico</v>
       </c>
       <c r="T45" s="30" t="str">
-        <f t="shared" ref="T45" si="118">SUBSTITUTE(D45, ".", " ")</f>
+        <f t="shared" si="78"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="U45" s="30" t="str">
-        <f t="shared" ref="U45" si="119">SUBSTITUTE(E45, ".", " ")</f>
+        <f t="shared" si="79"/>
         <v>Elementos Verdes</v>
       </c>
       <c r="V45" s="30" t="str">
-        <f t="shared" ref="V45" si="120">SUBSTITUTE(C45, ".", " ")</f>
+        <f t="shared" si="80"/>
         <v>Paisagístico</v>
       </c>
       <c r="W45" s="18" t="str">
@@ -9852,13 +9882,16 @@
         <v>K.Pai.45</v>
       </c>
       <c r="X45" s="28" t="s">
-        <v>86</v>
+        <v>586</v>
       </c>
       <c r="Y45" s="30" t="s">
-        <v>85</v>
+        <v>587</v>
+      </c>
+      <c r="Z45" s="30" t="s">
+        <v>1284</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="26">
         <v>46</v>
       </c>
@@ -9866,16 +9899,16 @@
         <v>75</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E46" s="35" t="s">
         <v>1174</v>
       </c>
       <c r="F46" s="68" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="G46" s="40" t="s">
         <v>1</v>
@@ -9893,44 +9926,44 @@
         <v>1</v>
       </c>
       <c r="L46" s="31" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="65"/>
         <v>Paisagístico</v>
       </c>
       <c r="M46" s="31" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="66"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="N46" s="31" t="str">
-        <f t="shared" si="75"/>
-        <v>Elementos Verdes</v>
+        <f t="shared" si="67"/>
+        <v>Elementos Secos</v>
       </c>
       <c r="O46" s="31" t="str">
-        <f t="shared" si="76"/>
-        <v>Área Gramada</v>
+        <f t="shared" si="68"/>
+        <v>Área Mineral</v>
       </c>
       <c r="P46" s="31" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="Q46" s="31" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="R46" s="29" t="s">
         <v>1</v>
       </c>
       <c r="S46" s="30" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="69"/>
         <v>Paisagístico</v>
       </c>
       <c r="T46" s="30" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="U46" s="30" t="str">
-        <f t="shared" si="79"/>
-        <v>Elementos Verdes</v>
+        <f t="shared" si="71"/>
+        <v>Elementos Secos</v>
       </c>
       <c r="V46" s="30" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="72"/>
         <v>Paisagístico</v>
       </c>
       <c r="W46" s="18" t="str">
@@ -9943,8 +9976,11 @@
       <c r="Y46" s="30" t="s">
         <v>587</v>
       </c>
+      <c r="Z46" s="30" t="s">
+        <v>1284</v>
+      </c>
     </row>
-    <row r="47" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="26">
         <v>47</v>
       </c>
@@ -9952,16 +9988,16 @@
         <v>75</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>1046</v>
+        <v>296</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>1139</v>
+        <v>298</v>
       </c>
       <c r="E47" s="35" t="s">
-        <v>1175</v>
-      </c>
-      <c r="F47" s="68" t="s">
-        <v>1148</v>
+        <v>297</v>
+      </c>
+      <c r="F47" s="35" t="s">
+        <v>295</v>
       </c>
       <c r="G47" s="40" t="s">
         <v>1</v>
@@ -9979,196 +10015,126 @@
         <v>1</v>
       </c>
       <c r="L47" s="31" t="str">
-        <f t="shared" si="65"/>
-        <v>Paisagístico</v>
+        <f t="shared" ref="L47" si="122">_xlfn.CONCAT(SUBSTITUTE(C47,"1.",""))</f>
+        <v>Divisão.Botânica</v>
       </c>
       <c r="M47" s="31" t="str">
-        <f t="shared" si="66"/>
-        <v>Composição Paisagística</v>
+        <f t="shared" ref="M47" si="123">_xlfn.CONCAT(SUBSTITUTE(D47,"."," "))</f>
+        <v>Classe Botânica</v>
       </c>
       <c r="N47" s="31" t="str">
-        <f t="shared" si="67"/>
-        <v>Elementos Secos</v>
+        <f t="shared" ref="N47" si="124">_xlfn.CONCAT(SUBSTITUTE(E47,"."," "))</f>
+        <v>Ordem Botânica</v>
       </c>
       <c r="O47" s="31" t="str">
-        <f t="shared" si="68"/>
-        <v>Área Mineral</v>
+        <f t="shared" ref="O47" si="125">_xlfn.CONCAT(SUBSTITUTE(F47,"."," "))</f>
+        <v>Família Botânica</v>
       </c>
       <c r="P47" s="31" t="s">
-        <v>1179</v>
+        <v>300</v>
       </c>
       <c r="Q47" s="31" t="s">
-        <v>1185</v>
+        <v>299</v>
       </c>
       <c r="R47" s="29" t="s">
         <v>1</v>
       </c>
       <c r="S47" s="30" t="str">
-        <f t="shared" si="69"/>
-        <v>Paisagístico</v>
+        <f t="shared" ref="S47" si="126">SUBSTITUTE(C47, ".", " ")</f>
+        <v>Divisão Botânica</v>
       </c>
       <c r="T47" s="30" t="str">
-        <f t="shared" si="70"/>
-        <v>Composição Paisagística</v>
+        <f t="shared" ref="T47" si="127">SUBSTITUTE(D47, ".", " ")</f>
+        <v>Classe Botânica</v>
       </c>
       <c r="U47" s="30" t="str">
-        <f t="shared" si="71"/>
-        <v>Elementos Secos</v>
+        <f t="shared" ref="U47" si="128">SUBSTITUTE(E47, ".", " ")</f>
+        <v>Ordem Botânica</v>
       </c>
       <c r="V47" s="30" t="str">
-        <f t="shared" si="72"/>
-        <v>Paisagístico</v>
+        <f t="shared" ref="V47" si="129">SUBSTITUTE(C47, ".", " ")</f>
+        <v>Divisão Botânica</v>
       </c>
       <c r="W47" s="18" t="str">
         <f t="shared" si="9"/>
-        <v>K.Pai.47</v>
+        <v>K.Div.47</v>
       </c>
       <c r="X47" s="28" t="s">
-        <v>586</v>
+        <v>86</v>
       </c>
       <c r="Y47" s="30" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="26">
-        <v>48</v>
-      </c>
-      <c r="B48" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="35" t="s">
-        <v>296</v>
-      </c>
-      <c r="D48" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="E48" s="35" t="s">
-        <v>297</v>
-      </c>
-      <c r="F48" s="35" t="s">
-        <v>295</v>
-      </c>
-      <c r="G48" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="H48" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="I48" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="J48" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="K48" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="L48" s="31" t="str">
-        <f t="shared" ref="L48" si="121">_xlfn.CONCAT(SUBSTITUTE(C48,"1.",""))</f>
-        <v>Divisão.Botânica</v>
-      </c>
-      <c r="M48" s="31" t="str">
-        <f t="shared" ref="M48" si="122">_xlfn.CONCAT(SUBSTITUTE(D48,"."," "))</f>
-        <v>Classe Botânica</v>
-      </c>
-      <c r="N48" s="31" t="str">
-        <f t="shared" ref="N48" si="123">_xlfn.CONCAT(SUBSTITUTE(E48,"."," "))</f>
-        <v>Ordem Botânica</v>
-      </c>
-      <c r="O48" s="31" t="str">
-        <f t="shared" ref="O48" si="124">_xlfn.CONCAT(SUBSTITUTE(F48,"."," "))</f>
-        <v>Família Botânica</v>
-      </c>
-      <c r="P48" s="31" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q48" s="31" t="s">
-        <v>299</v>
-      </c>
-      <c r="R48" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="S48" s="30" t="str">
-        <f t="shared" ref="S48" si="125">SUBSTITUTE(C48, ".", " ")</f>
-        <v>Divisão Botânica</v>
-      </c>
-      <c r="T48" s="30" t="str">
-        <f t="shared" ref="T48" si="126">SUBSTITUTE(D48, ".", " ")</f>
-        <v>Classe Botânica</v>
-      </c>
-      <c r="U48" s="30" t="str">
-        <f t="shared" ref="U48" si="127">SUBSTITUTE(E48, ".", " ")</f>
-        <v>Ordem Botânica</v>
-      </c>
-      <c r="V48" s="30" t="str">
-        <f t="shared" ref="V48" si="128">SUBSTITUTE(C48, ".", " ")</f>
-        <v>Divisão Botânica</v>
-      </c>
-      <c r="W48" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>K.Div.48</v>
-      </c>
-      <c r="X48" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y48" s="30" t="s">
         <v>85</v>
+      </c>
+      <c r="Z47" s="30" t="s">
+        <v>1283</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:C1 F1:W1 Y1:XFD1 B2:B48 G3:U16 Y3:XFD18 G17:J17 L17:U17 G18:U48 X27:XFD29 Y30:XFD37 X38:XFD43 X44:Y44 Z44:XFD47 Y48:XFD1048576 A49:C1048576 F49:W1048576">
-    <cfRule type="cellIs" dxfId="79" priority="380" operator="equal">
+  <conditionalFormatting sqref="F1">
+    <cfRule type="duplicateValues" dxfId="76" priority="1422"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="duplicateValues" dxfId="75" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="duplicateValues" dxfId="74" priority="1664"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="1665"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22:F46">
+    <cfRule type="cellIs" dxfId="72" priority="10" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1 F49:F1048576">
-    <cfRule type="duplicateValues" dxfId="78" priority="1889"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="1890"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="1891"/>
+  <conditionalFormatting sqref="F48:F1048576 F1">
+    <cfRule type="duplicateValues" dxfId="71" priority="1893"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="1894"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="1895"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="75" priority="1418"/>
+  <conditionalFormatting sqref="F48:F1048576">
+    <cfRule type="duplicateValues" dxfId="68" priority="1905"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="1906"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="1907"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="1908"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="1909"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="74" priority="1660"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="1661"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24:F47">
-    <cfRule type="cellIs" dxfId="72" priority="6" operator="equal">
+  <conditionalFormatting sqref="F1:W1 F48:W1048576 A1:C1 Y1:XFD1 B2:B47 G3:U14 G15:J15 L15:U15 G16:U47 X25:Y27 Y28:Y35 X36:Y42 A48:C1048576">
+    <cfRule type="cellIs" dxfId="63" priority="384" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F49:F1048576">
-    <cfRule type="duplicateValues" dxfId="71" priority="1901"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="1902"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="1903"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="1904"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="1905"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G2:K2">
-    <cfRule type="cellIs" dxfId="66" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="24" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2 Y24:XFD26">
-    <cfRule type="cellIs" dxfId="65" priority="23" operator="equal">
+  <conditionalFormatting sqref="R2">
+    <cfRule type="cellIs" dxfId="61" priority="27" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:Y2">
-    <cfRule type="cellIs" dxfId="64" priority="10" operator="equal">
+  <conditionalFormatting sqref="X2:Z2">
+    <cfRule type="cellIs" dxfId="60" priority="14" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X19:XFD23">
-    <cfRule type="cellIs" dxfId="63" priority="5" operator="equal">
+  <conditionalFormatting sqref="X17:XFD21">
+    <cfRule type="cellIs" dxfId="59" priority="9" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y45:Y47">
-    <cfRule type="cellIs" dxfId="62" priority="3" operator="equal">
+  <conditionalFormatting sqref="Y3:XFD16">
+    <cfRule type="cellIs" dxfId="58" priority="1" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y22:XFD24">
+    <cfRule type="cellIs" dxfId="57" priority="4" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z25:XFD47 Y43:Y47 Y48:XFD1048576">
+    <cfRule type="cellIs" dxfId="56" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10392,7 +10358,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="61" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10437,7 +10403,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C2" s="48" t="s">
         <v>950</v>
@@ -10451,7 +10417,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>413</v>
@@ -10488,7 +10454,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A4">
-    <cfRule type="cellIs" dxfId="60" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="32" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10500,8 +10466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B52AA7-680B-4C72-8598-6D856F54368E}">
   <dimension ref="A1:AS298"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R1" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
@@ -12066,13 +12032,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C12" s="85" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E12" s="34" t="s">
         <v>194</v>
@@ -12171,7 +12137,7 @@
         <v>196</v>
       </c>
       <c r="AK12" s="102" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AL12" s="36" t="s">
         <v>1</v>
@@ -12203,16 +12169,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C13" s="85" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F13" s="53" t="s">
         <v>1</v>
@@ -12308,7 +12274,7 @@
         <v>196</v>
       </c>
       <c r="AK13" s="102" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AL13" s="36" t="s">
         <v>1</v>
@@ -12340,16 +12306,16 @@
         <v>14</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C14" s="85" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D14" s="36" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E14" s="34" t="s">
         <v>1019</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>1020</v>
       </c>
       <c r="F14" s="53" t="s">
         <v>1</v>
@@ -12445,7 +12411,7 @@
         <v>196</v>
       </c>
       <c r="AK14" s="102" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AL14" s="36" t="s">
         <v>1</v>
@@ -12477,22 +12443,22 @@
         <v>15</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C15" s="85" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F15" s="109" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="G15" s="103" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H15" s="36" t="s">
         <v>1</v>
@@ -12582,7 +12548,7 @@
         <v>196</v>
       </c>
       <c r="AK15" s="102" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="AL15" s="36" t="s">
         <v>1</v>
@@ -12614,22 +12580,22 @@
         <v>16</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C16" s="85" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F16" s="109" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="G16" s="103" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H16" s="36" t="s">
         <v>1</v>
@@ -12719,7 +12685,7 @@
         <v>196</v>
       </c>
       <c r="AK16" s="102" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="AL16" s="36" t="s">
         <v>1</v>
@@ -12751,22 +12717,22 @@
         <v>17</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C17" s="85" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F17" s="109" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="G17" s="103" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H17" s="36" t="s">
         <v>1</v>
@@ -12856,7 +12822,7 @@
         <v>196</v>
       </c>
       <c r="AK17" s="102" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="AL17" s="36" t="s">
         <v>1</v>
@@ -14226,7 +14192,7 @@
         <v>196</v>
       </c>
       <c r="AK27" s="49" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AL27" s="36" t="s">
         <v>1</v>
@@ -14774,7 +14740,7 @@
         <v>196</v>
       </c>
       <c r="AK31" s="49" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AL31" s="36" t="s">
         <v>1</v>
@@ -14911,7 +14877,7 @@
         <v>196</v>
       </c>
       <c r="AK32" s="49" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AL32" s="36" t="s">
         <v>1</v>
@@ -16829,7 +16795,7 @@
         <v>196</v>
       </c>
       <c r="AK46" s="49" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AL46" s="36" t="s">
         <v>1</v>
@@ -17683,7 +17649,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="44" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C53" s="35" t="s">
         <v>297</v>
@@ -17788,7 +17754,7 @@
         <v>196</v>
       </c>
       <c r="AK53" s="49" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="AL53" s="36" t="s">
         <v>1</v>
@@ -18473,7 +18439,7 @@
         <v>196</v>
       </c>
       <c r="AK58" s="49" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AL58" s="36" t="s">
         <v>1</v>
@@ -19366,7 +19332,7 @@
         <v>371</v>
       </c>
       <c r="O65" s="49" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="P65" s="53" t="s">
         <v>1</v>
@@ -19432,7 +19398,7 @@
         <v>196</v>
       </c>
       <c r="AK65" s="49" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AL65" s="36" t="s">
         <v>1</v>
@@ -19569,7 +19535,7 @@
         <v>196</v>
       </c>
       <c r="AK66" s="49" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="AL66" s="36" t="s">
         <v>1</v>
@@ -19601,7 +19567,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="45" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C67" s="58" t="s">
         <v>295</v>
@@ -19640,7 +19606,7 @@
         <v>371</v>
       </c>
       <c r="O67" s="49" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="P67" s="53" t="s">
         <v>1</v>
@@ -19706,7 +19672,7 @@
         <v>196</v>
       </c>
       <c r="AK67" s="49" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AL67" s="36" t="s">
         <v>1</v>
@@ -20873,7 +20839,7 @@
         <v>371</v>
       </c>
       <c r="O76" s="49" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="P76" s="53" t="s">
         <v>1</v>
@@ -24396,7 +24362,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="45" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C102" s="58" t="s">
         <v>295</v>
@@ -24435,7 +24401,7 @@
         <v>371</v>
       </c>
       <c r="O102" s="49" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="P102" s="53" t="s">
         <v>1</v>
@@ -24501,7 +24467,7 @@
         <v>196</v>
       </c>
       <c r="AK102" s="49" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="AL102" s="36" t="s">
         <v>1</v>
@@ -24983,7 +24949,7 @@
         <v>371</v>
       </c>
       <c r="O106" s="49" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="P106" s="53" t="s">
         <v>1</v>
@@ -25049,7 +25015,7 @@
         <v>196</v>
       </c>
       <c r="AK106" s="49" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="AL106" s="36" t="s">
         <v>1</v>
@@ -25454,13 +25420,13 @@
         <v>191</v>
       </c>
       <c r="AI109" s="49" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="AJ109" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK109" s="49" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="AL109" s="52" t="s">
         <v>602</v>
@@ -25591,13 +25557,13 @@
         <v>191</v>
       </c>
       <c r="AI110" s="49" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="AJ110" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK110" s="49" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="AL110" s="52" t="s">
         <v>602</v>
@@ -25728,13 +25694,13 @@
         <v>191</v>
       </c>
       <c r="AI111" s="49" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="AJ111" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK111" s="49" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AL111" s="52" t="s">
         <v>602</v>
@@ -25865,7 +25831,7 @@
         <v>191</v>
       </c>
       <c r="AI112" s="49" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="AJ112" s="79" t="s">
         <v>196</v>
@@ -26002,13 +25968,13 @@
         <v>191</v>
       </c>
       <c r="AI113" s="49" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="AJ113" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK113" s="49" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="AL113" s="52" t="s">
         <v>602</v>
@@ -26139,7 +26105,7 @@
         <v>191</v>
       </c>
       <c r="AI114" s="49" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="AJ114" s="79" t="s">
         <v>196</v>
@@ -26276,7 +26242,7 @@
         <v>191</v>
       </c>
       <c r="AI115" s="49" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AJ115" s="79" t="s">
         <v>196</v>
@@ -26413,13 +26379,13 @@
         <v>191</v>
       </c>
       <c r="AI116" s="49" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="AJ116" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK116" s="49" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="AL116" s="52" t="s">
         <v>602</v>
@@ -26550,13 +26516,13 @@
         <v>191</v>
       </c>
       <c r="AI117" s="49" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="AJ117" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK117" s="49" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="AL117" s="52" t="s">
         <v>602</v>
@@ -26687,13 +26653,13 @@
         <v>191</v>
       </c>
       <c r="AI118" s="49" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="AJ118" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK118" s="49" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="AL118" s="52" t="s">
         <v>602</v>
@@ -26824,7 +26790,7 @@
         <v>191</v>
       </c>
       <c r="AI119" s="49" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="AJ119" s="79" t="s">
         <v>196</v>
@@ -26961,7 +26927,7 @@
         <v>191</v>
       </c>
       <c r="AI120" s="49" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="AJ120" s="79" t="s">
         <v>196</v>
@@ -27098,13 +27064,13 @@
         <v>191</v>
       </c>
       <c r="AI121" s="49" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AJ121" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK121" s="49" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="AL121" s="52" t="s">
         <v>602</v>
@@ -27235,13 +27201,13 @@
         <v>191</v>
       </c>
       <c r="AI122" s="49" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="AJ122" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK122" s="49" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="AL122" s="52" t="s">
         <v>602</v>
@@ -27372,13 +27338,13 @@
         <v>191</v>
       </c>
       <c r="AI123" s="49" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="AJ123" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK123" s="49" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AL123" s="52" t="s">
         <v>602</v>
@@ -27509,13 +27475,13 @@
         <v>191</v>
       </c>
       <c r="AI124" s="49" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="AJ124" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK124" s="49" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="AL124" s="52" t="s">
         <v>602</v>
@@ -27646,13 +27612,13 @@
         <v>191</v>
       </c>
       <c r="AI125" s="49" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="AJ125" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK125" s="49" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="AL125" s="52" t="s">
         <v>602</v>
@@ -27684,16 +27650,16 @@
         <v>126</v>
       </c>
       <c r="B126" s="80" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C126" s="35" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D126" s="51" t="s">
         <v>193</v>
       </c>
       <c r="E126" s="49" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="F126" s="57" t="s">
         <v>307</v>
@@ -27723,7 +27689,7 @@
         <v>371</v>
       </c>
       <c r="O126" s="62" t="s">
-        <v>1302</v>
+        <v>1267</v>
       </c>
       <c r="P126" s="93" t="s">
         <v>444</v>
@@ -27759,7 +27725,7 @@
         <v>188</v>
       </c>
       <c r="AA126" s="88" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AB126" s="36" t="s">
         <v>189</v>
@@ -27783,19 +27749,19 @@
         <v>191</v>
       </c>
       <c r="AI126" s="62" t="s">
-        <v>1307</v>
+        <v>1272</v>
       </c>
       <c r="AJ126" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK126" s="49" t="s">
-        <v>1314</v>
+        <v>1279</v>
       </c>
       <c r="AL126" s="94" t="s">
         <v>602</v>
       </c>
       <c r="AM126" s="49" t="s">
-        <v>1309</v>
+        <v>1274</v>
       </c>
       <c r="AN126" s="94" t="s">
         <v>197</v>
@@ -27821,16 +27787,16 @@
         <v>127</v>
       </c>
       <c r="B127" s="80" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C127" s="35" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D127" s="51" t="s">
         <v>193</v>
       </c>
       <c r="E127" s="49" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="F127" s="57" t="s">
         <v>307</v>
@@ -27860,7 +27826,7 @@
         <v>371</v>
       </c>
       <c r="O127" s="62" t="s">
-        <v>1303</v>
+        <v>1268</v>
       </c>
       <c r="P127" s="93" t="s">
         <v>444</v>
@@ -27896,7 +27862,7 @@
         <v>188</v>
       </c>
       <c r="AA127" s="88" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AB127" s="36" t="s">
         <v>189</v>
@@ -27920,19 +27886,19 @@
         <v>191</v>
       </c>
       <c r="AI127" s="62" t="s">
-        <v>1305</v>
+        <v>1270</v>
       </c>
       <c r="AJ127" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK127" s="49" t="s">
-        <v>1313</v>
+        <v>1278</v>
       </c>
       <c r="AL127" s="94" t="s">
         <v>602</v>
       </c>
       <c r="AM127" s="49" t="s">
-        <v>1309</v>
+        <v>1274</v>
       </c>
       <c r="AN127" s="94" t="s">
         <v>197</v>
@@ -27958,16 +27924,16 @@
         <v>128</v>
       </c>
       <c r="B128" s="80" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C128" s="35" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D128" s="51" t="s">
         <v>193</v>
       </c>
       <c r="E128" s="49" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F128" s="57" t="s">
         <v>307</v>
@@ -27997,7 +27963,7 @@
         <v>371</v>
       </c>
       <c r="O128" s="62" t="s">
-        <v>1302</v>
+        <v>1267</v>
       </c>
       <c r="P128" s="93" t="s">
         <v>444</v>
@@ -28033,7 +27999,7 @@
         <v>188</v>
       </c>
       <c r="AA128" s="88" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AB128" s="36" t="s">
         <v>189</v>
@@ -28051,19 +28017,19 @@
         <v>601</v>
       </c>
       <c r="AG128" s="49" t="s">
-        <v>1312</v>
+        <v>1277</v>
       </c>
       <c r="AH128" s="79" t="s">
         <v>191</v>
       </c>
       <c r="AI128" s="62" t="s">
-        <v>1306</v>
+        <v>1271</v>
       </c>
       <c r="AJ128" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK128" s="49" t="s">
-        <v>1308</v>
+        <v>1273</v>
       </c>
       <c r="AL128" s="94" t="s">
         <v>602</v>
@@ -28095,16 +28061,16 @@
         <v>129</v>
       </c>
       <c r="B129" s="80" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C129" s="35" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D129" s="51" t="s">
         <v>193</v>
       </c>
       <c r="E129" s="49" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="F129" s="57" t="s">
         <v>307</v>
@@ -28134,7 +28100,7 @@
         <v>371</v>
       </c>
       <c r="O129" s="62" t="s">
-        <v>1302</v>
+        <v>1267</v>
       </c>
       <c r="P129" s="93" t="s">
         <v>444</v>
@@ -28170,7 +28136,7 @@
         <v>188</v>
       </c>
       <c r="AA129" s="88" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AB129" s="36" t="s">
         <v>189</v>
@@ -28194,19 +28160,19 @@
         <v>191</v>
       </c>
       <c r="AI129" s="62" t="s">
-        <v>1304</v>
+        <v>1269</v>
       </c>
       <c r="AJ129" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK129" s="49" t="s">
-        <v>1310</v>
+        <v>1275</v>
       </c>
       <c r="AL129" s="94" t="s">
         <v>602</v>
       </c>
       <c r="AM129" s="49" t="s">
-        <v>1311</v>
+        <v>1276</v>
       </c>
       <c r="AN129" s="94" t="s">
         <v>197</v>
@@ -28331,7 +28297,7 @@
         <v>191</v>
       </c>
       <c r="AI130" s="49" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="AJ130" s="79" t="s">
         <v>196</v>
@@ -28468,7 +28434,7 @@
         <v>191</v>
       </c>
       <c r="AI131" s="49" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="AJ131" s="79" t="s">
         <v>196</v>
@@ -28605,7 +28571,7 @@
         <v>191</v>
       </c>
       <c r="AI132" s="49" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="AJ132" s="79" t="s">
         <v>196</v>
@@ -28742,7 +28708,7 @@
         <v>191</v>
       </c>
       <c r="AI133" s="49" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="AJ133" s="79" t="s">
         <v>196</v>
@@ -28879,7 +28845,7 @@
         <v>191</v>
       </c>
       <c r="AI134" s="49" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="AJ134" s="79" t="s">
         <v>196</v>
@@ -29016,7 +28982,7 @@
         <v>191</v>
       </c>
       <c r="AI135" s="49" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="AJ135" s="79" t="s">
         <v>196</v>
@@ -29153,13 +29119,13 @@
         <v>191</v>
       </c>
       <c r="AI136" s="49" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="AJ136" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK136" s="49" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="AL136" s="52" t="s">
         <v>602</v>
@@ -29290,7 +29256,7 @@
         <v>191</v>
       </c>
       <c r="AI137" s="49" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="AJ137" s="79" t="s">
         <v>196</v>
@@ -29427,13 +29393,13 @@
         <v>191</v>
       </c>
       <c r="AI138" s="49" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="AJ138" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK138" s="49" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="AL138" s="52" t="s">
         <v>602</v>
@@ -29564,13 +29530,13 @@
         <v>191</v>
       </c>
       <c r="AI139" s="49" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="AJ139" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK139" s="49" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="AL139" s="52" t="s">
         <v>602</v>
@@ -29602,16 +29568,16 @@
         <v>140</v>
       </c>
       <c r="B140" s="80" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C140" s="35" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D140" s="51" t="s">
         <v>193</v>
       </c>
       <c r="E140" s="49" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F140" s="57" t="s">
         <v>307</v>
@@ -29635,13 +29601,13 @@
         <v>370</v>
       </c>
       <c r="M140" s="111" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="N140" s="51" t="s">
         <v>371</v>
       </c>
       <c r="O140" s="49" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="P140" s="93" t="s">
         <v>444</v>
@@ -29677,7 +29643,7 @@
         <v>188</v>
       </c>
       <c r="AA140" s="88" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AB140" s="36" t="s">
         <v>189</v>
@@ -29695,19 +29661,19 @@
         <v>601</v>
       </c>
       <c r="AG140" s="49" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="AH140" s="79" t="s">
         <v>191</v>
       </c>
       <c r="AI140" s="49" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="AJ140" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK140" s="49" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="AL140" s="94" t="s">
         <v>602</v>
@@ -29838,13 +29804,13 @@
         <v>191</v>
       </c>
       <c r="AI141" s="49" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AJ141" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK141" s="49" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="AL141" s="52" t="s">
         <v>602</v>
@@ -29975,13 +29941,13 @@
         <v>191</v>
       </c>
       <c r="AI142" s="49" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AJ142" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK142" s="49" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="AL142" s="52" t="s">
         <v>602</v>
@@ -30112,13 +30078,13 @@
         <v>191</v>
       </c>
       <c r="AI143" s="49" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AJ143" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK143" s="49" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="AL143" s="52" t="s">
         <v>602</v>
@@ -30249,13 +30215,13 @@
         <v>191</v>
       </c>
       <c r="AI144" s="49" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="AJ144" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK144" s="49" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="AL144" s="52" t="s">
         <v>602</v>
@@ -30386,13 +30352,13 @@
         <v>191</v>
       </c>
       <c r="AI145" s="49" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AJ145" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK145" s="49" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="AL145" s="52" t="s">
         <v>602</v>
@@ -30523,13 +30489,13 @@
         <v>191</v>
       </c>
       <c r="AI146" s="49" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AJ146" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK146" s="49" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="AL146" s="52" t="s">
         <v>602</v>
@@ -30660,13 +30626,13 @@
         <v>191</v>
       </c>
       <c r="AI147" s="49" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="AJ147" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK147" s="49" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="AL147" s="52" t="s">
         <v>602</v>
@@ -30797,13 +30763,13 @@
         <v>191</v>
       </c>
       <c r="AI148" s="49" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="AJ148" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK148" s="49" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="AL148" s="52" t="s">
         <v>602</v>
@@ -30934,7 +30900,7 @@
         <v>191</v>
       </c>
       <c r="AI149" s="49" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="AJ149" s="79" t="s">
         <v>196</v>
@@ -31071,7 +31037,7 @@
         <v>191</v>
       </c>
       <c r="AI150" s="49" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="AJ150" s="79" t="s">
         <v>196</v>
@@ -31208,13 +31174,13 @@
         <v>191</v>
       </c>
       <c r="AI151" s="49" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="AJ151" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK151" s="49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="AL151" s="52" t="s">
         <v>602</v>
@@ -31345,13 +31311,13 @@
         <v>191</v>
       </c>
       <c r="AI152" s="49" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="AJ152" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK152" s="49" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="AL152" s="52" t="s">
         <v>602</v>
@@ -31482,13 +31448,13 @@
         <v>191</v>
       </c>
       <c r="AI153" s="49" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="AJ153" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK153" s="49" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="AL153" s="52" t="s">
         <v>602</v>
@@ -31619,7 +31585,7 @@
         <v>191</v>
       </c>
       <c r="AI154" s="49" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="AJ154" s="79" t="s">
         <v>196</v>
@@ -31756,13 +31722,13 @@
         <v>191</v>
       </c>
       <c r="AI155" s="49" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="AJ155" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK155" s="49" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="AL155" s="52" t="s">
         <v>602</v>
@@ -31893,7 +31859,7 @@
         <v>191</v>
       </c>
       <c r="AI156" s="49" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="AJ156" s="79" t="s">
         <v>196</v>
@@ -32030,7 +31996,7 @@
         <v>191</v>
       </c>
       <c r="AI157" s="49" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="AJ157" s="79" t="s">
         <v>196</v>
@@ -32167,7 +32133,7 @@
         <v>191</v>
       </c>
       <c r="AI158" s="49" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="AJ158" s="79" t="s">
         <v>196</v>
@@ -32304,7 +32270,7 @@
         <v>191</v>
       </c>
       <c r="AI159" s="49" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="AJ159" s="79" t="s">
         <v>196</v>
@@ -32441,7 +32407,7 @@
         <v>191</v>
       </c>
       <c r="AI160" s="49" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="AJ160" s="79" t="s">
         <v>196</v>
@@ -32578,7 +32544,7 @@
         <v>191</v>
       </c>
       <c r="AI161" s="49" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AJ161" s="79" t="s">
         <v>196</v>
@@ -32616,7 +32582,7 @@
         <v>162</v>
       </c>
       <c r="B162" s="80" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C162" s="35" t="s">
         <v>438</v>
@@ -32625,7 +32591,7 @@
         <v>193</v>
       </c>
       <c r="E162" s="49" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F162" s="57" t="s">
         <v>307</v>
@@ -32643,13 +32609,13 @@
         <v>369</v>
       </c>
       <c r="K162" s="63" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="L162" s="61" t="s">
         <v>370</v>
       </c>
       <c r="M162" s="63" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="N162" s="51" t="s">
         <v>371</v>
@@ -32697,7 +32663,7 @@
         <v>189</v>
       </c>
       <c r="AC162" s="54" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="AD162" s="79" t="s">
         <v>190</v>
@@ -32709,25 +32675,25 @@
         <v>601</v>
       </c>
       <c r="AG162" s="49" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="AH162" s="79" t="s">
         <v>191</v>
       </c>
       <c r="AI162" s="49" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="AJ162" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK162" s="49" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="AL162" s="52" t="s">
         <v>602</v>
       </c>
       <c r="AM162" s="62" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="AN162" s="52" t="s">
         <v>197</v>
@@ -32852,7 +32818,7 @@
         <v>191</v>
       </c>
       <c r="AI163" s="49" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="AJ163" s="79" t="s">
         <v>196</v>
@@ -32989,7 +32955,7 @@
         <v>191</v>
       </c>
       <c r="AI164" s="49" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="AJ164" s="79" t="s">
         <v>196</v>
@@ -33126,7 +33092,7 @@
         <v>191</v>
       </c>
       <c r="AI165" s="49" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="AJ165" s="79" t="s">
         <v>196</v>
@@ -33251,7 +33217,7 @@
         <v>190</v>
       </c>
       <c r="AE166" s="54" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="AF166" s="53" t="s">
         <v>601</v>
@@ -33263,7 +33229,7 @@
         <v>191</v>
       </c>
       <c r="AI166" s="49" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AJ166" s="79" t="s">
         <v>196</v>
@@ -33301,7 +33267,7 @@
         <v>167</v>
       </c>
       <c r="B167" s="80" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C167" s="35" t="s">
         <v>401</v>
@@ -33310,7 +33276,7 @@
         <v>193</v>
       </c>
       <c r="E167" s="49" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="F167" s="57" t="s">
         <v>307</v>
@@ -33376,7 +33342,7 @@
         <v>188</v>
       </c>
       <c r="AA167" s="49" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AB167" s="36" t="s">
         <v>189</v>
@@ -33388,7 +33354,7 @@
         <v>190</v>
       </c>
       <c r="AE167" s="54" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="AF167" s="53" t="s">
         <v>601</v>
@@ -33400,19 +33366,19 @@
         <v>191</v>
       </c>
       <c r="AI167" s="88" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="AJ167" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK167" s="49" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="AL167" s="52" t="s">
         <v>602</v>
       </c>
       <c r="AM167" s="49" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="AN167" s="52" t="s">
         <v>197</v>
@@ -33438,7 +33404,7 @@
         <v>168</v>
       </c>
       <c r="B168" s="80" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C168" s="35" t="s">
         <v>401</v>
@@ -33447,7 +33413,7 @@
         <v>193</v>
       </c>
       <c r="E168" s="49" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="F168" s="57" t="s">
         <v>307</v>
@@ -33513,7 +33479,7 @@
         <v>188</v>
       </c>
       <c r="AA168" s="49" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AB168" s="36" t="s">
         <v>189</v>
@@ -33525,25 +33491,25 @@
         <v>190</v>
       </c>
       <c r="AE168" s="54" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="AF168" s="53" t="s">
         <v>601</v>
       </c>
       <c r="AG168" s="49" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="AH168" s="79" t="s">
         <v>191</v>
       </c>
       <c r="AI168" s="88" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="AJ168" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK168" s="49" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="AL168" s="52" t="s">
         <v>602</v>
@@ -33555,7 +33521,7 @@
         <v>197</v>
       </c>
       <c r="AO168" s="49" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="AP168" s="52" t="s">
         <v>192</v>
@@ -33674,7 +33640,7 @@
         <v>191</v>
       </c>
       <c r="AI169" s="49" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="AJ169" s="79" t="s">
         <v>196</v>
@@ -33811,7 +33777,7 @@
         <v>191</v>
       </c>
       <c r="AI170" s="49" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="AJ170" s="79" t="s">
         <v>196</v>
@@ -33849,7 +33815,7 @@
         <v>171</v>
       </c>
       <c r="B171" s="80" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C171" s="35" t="s">
         <v>438</v>
@@ -33948,13 +33914,13 @@
         <v>191</v>
       </c>
       <c r="AI171" s="49" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="AJ171" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK171" s="49" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="AL171" s="52" t="s">
         <v>602</v>
@@ -34085,7 +34051,7 @@
         <v>191</v>
       </c>
       <c r="AI172" s="49" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AJ172" s="79" t="s">
         <v>196</v>
@@ -34222,7 +34188,7 @@
         <v>191</v>
       </c>
       <c r="AI173" s="49" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="AJ173" s="79" t="s">
         <v>196</v>
@@ -34359,7 +34325,7 @@
         <v>191</v>
       </c>
       <c r="AI174" s="49" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="AJ174" s="79" t="s">
         <v>196</v>
@@ -34496,7 +34462,7 @@
         <v>191</v>
       </c>
       <c r="AI175" s="49" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="AJ175" s="79" t="s">
         <v>196</v>
@@ -34633,13 +34599,13 @@
         <v>191</v>
       </c>
       <c r="AI176" s="49" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="AJ176" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK176" s="49" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="AL176" s="52" t="s">
         <v>602</v>
@@ -34770,13 +34736,13 @@
         <v>191</v>
       </c>
       <c r="AI177" s="49" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="AJ177" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK177" s="49" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="AL177" s="52" t="s">
         <v>602</v>
@@ -34788,7 +34754,7 @@
         <v>197</v>
       </c>
       <c r="AO177" s="49" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="AP177" s="52" t="s">
         <v>192</v>
@@ -34907,7 +34873,7 @@
         <v>191</v>
       </c>
       <c r="AI178" s="49" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="AJ178" s="79" t="s">
         <v>196</v>
@@ -35044,7 +35010,7 @@
         <v>191</v>
       </c>
       <c r="AI179" s="49" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="AJ179" s="79" t="s">
         <v>196</v>
@@ -35181,7 +35147,7 @@
         <v>191</v>
       </c>
       <c r="AI180" s="49" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="AJ180" s="79" t="s">
         <v>196</v>
@@ -35318,7 +35284,7 @@
         <v>191</v>
       </c>
       <c r="AI181" s="49" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="AJ181" s="79" t="s">
         <v>196</v>
@@ -35455,7 +35421,7 @@
         <v>191</v>
       </c>
       <c r="AI182" s="49" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="AJ182" s="79" t="s">
         <v>196</v>
@@ -35592,7 +35558,7 @@
         <v>191</v>
       </c>
       <c r="AI183" s="49" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AJ183" s="79" t="s">
         <v>196</v>
@@ -35729,7 +35695,7 @@
         <v>191</v>
       </c>
       <c r="AI184" s="49" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="AJ184" s="79" t="s">
         <v>196</v>
@@ -35866,7 +35832,7 @@
         <v>191</v>
       </c>
       <c r="AI185" s="49" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="AJ185" s="79" t="s">
         <v>196</v>
@@ -36003,7 +35969,7 @@
         <v>191</v>
       </c>
       <c r="AI186" s="49" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="AJ186" s="79" t="s">
         <v>196</v>
@@ -36140,7 +36106,7 @@
         <v>191</v>
       </c>
       <c r="AI187" s="49" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="AJ187" s="79" t="s">
         <v>196</v>
@@ -36277,7 +36243,7 @@
         <v>191</v>
       </c>
       <c r="AI188" s="49" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="AJ188" s="79" t="s">
         <v>196</v>
@@ -36414,7 +36380,7 @@
         <v>191</v>
       </c>
       <c r="AI189" s="49" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="AJ189" s="79" t="s">
         <v>196</v>
@@ -36551,13 +36517,13 @@
         <v>191</v>
       </c>
       <c r="AI190" s="49" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="AJ190" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK190" s="49" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="AL190" s="52" t="s">
         <v>602</v>
@@ -36688,7 +36654,7 @@
         <v>191</v>
       </c>
       <c r="AI191" s="49" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="AJ191" s="79" t="s">
         <v>196</v>
@@ -36825,7 +36791,7 @@
         <v>191</v>
       </c>
       <c r="AI192" s="49" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AJ192" s="79" t="s">
         <v>196</v>
@@ -36962,13 +36928,13 @@
         <v>191</v>
       </c>
       <c r="AI193" s="49" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="AJ193" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK193" s="49" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="AL193" s="52" t="s">
         <v>602</v>
@@ -37099,13 +37065,13 @@
         <v>191</v>
       </c>
       <c r="AI194" s="49" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="AJ194" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK194" s="49" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AL194" s="52" t="s">
         <v>602</v>
@@ -37236,13 +37202,13 @@
         <v>191</v>
       </c>
       <c r="AI195" s="49" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="AJ195" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK195" s="49" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AL195" s="52" t="s">
         <v>602</v>
@@ -37373,13 +37339,13 @@
         <v>191</v>
       </c>
       <c r="AI196" s="49" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="AJ196" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK196" s="49" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="AL196" s="52" t="s">
         <v>602</v>
@@ -37510,7 +37476,7 @@
         <v>191</v>
       </c>
       <c r="AI197" s="49" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="AJ197" s="79" t="s">
         <v>196</v>
@@ -37647,13 +37613,13 @@
         <v>191</v>
       </c>
       <c r="AI198" s="49" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AJ198" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK198" s="49" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="AL198" s="52" t="s">
         <v>602</v>
@@ -37784,7 +37750,7 @@
         <v>191</v>
       </c>
       <c r="AI199" s="49" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AJ199" s="79" t="s">
         <v>196</v>
@@ -37921,7 +37887,7 @@
         <v>191</v>
       </c>
       <c r="AI200" s="49" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="AJ200" s="79" t="s">
         <v>196</v>
@@ -38058,7 +38024,7 @@
         <v>191</v>
       </c>
       <c r="AI201" s="49" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="AJ201" s="79" t="s">
         <v>196</v>
@@ -38195,7 +38161,7 @@
         <v>191</v>
       </c>
       <c r="AI202" s="49" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="AJ202" s="79" t="s">
         <v>196</v>
@@ -38332,7 +38298,7 @@
         <v>191</v>
       </c>
       <c r="AI203" s="49" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="AJ203" s="79" t="s">
         <v>196</v>
@@ -38469,7 +38435,7 @@
         <v>191</v>
       </c>
       <c r="AI204" s="49" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="AJ204" s="79" t="s">
         <v>196</v>
@@ -38606,7 +38572,7 @@
         <v>191</v>
       </c>
       <c r="AI205" s="49" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="AJ205" s="79" t="s">
         <v>196</v>
@@ -38743,7 +38709,7 @@
         <v>191</v>
       </c>
       <c r="AI206" s="49" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="AJ206" s="79" t="s">
         <v>196</v>
@@ -38880,7 +38846,7 @@
         <v>191</v>
       </c>
       <c r="AI207" s="49" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="AJ207" s="79" t="s">
         <v>196</v>
@@ -39017,7 +38983,7 @@
         <v>191</v>
       </c>
       <c r="AI208" s="49" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="AJ208" s="79" t="s">
         <v>196</v>
@@ -39154,7 +39120,7 @@
         <v>191</v>
       </c>
       <c r="AI209" s="49" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AJ209" s="79" t="s">
         <v>196</v>
@@ -39291,7 +39257,7 @@
         <v>191</v>
       </c>
       <c r="AI210" s="49" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="AJ210" s="79" t="s">
         <v>196</v>
@@ -39428,7 +39394,7 @@
         <v>191</v>
       </c>
       <c r="AI211" s="49" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="AJ211" s="79" t="s">
         <v>196</v>
@@ -39565,7 +39531,7 @@
         <v>191</v>
       </c>
       <c r="AI212" s="49" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AJ212" s="79" t="s">
         <v>196</v>
@@ -39702,7 +39668,7 @@
         <v>191</v>
       </c>
       <c r="AI213" s="49" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="AJ213" s="79" t="s">
         <v>196</v>
@@ -39839,7 +39805,7 @@
         <v>191</v>
       </c>
       <c r="AI214" s="49" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="AJ214" s="79" t="s">
         <v>196</v>
@@ -39976,7 +39942,7 @@
         <v>191</v>
       </c>
       <c r="AI215" s="49" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="AJ215" s="79" t="s">
         <v>196</v>
@@ -40113,7 +40079,7 @@
         <v>191</v>
       </c>
       <c r="AI216" s="49" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="AJ216" s="79" t="s">
         <v>196</v>
@@ -40250,7 +40216,7 @@
         <v>191</v>
       </c>
       <c r="AI217" s="49" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AJ217" s="79" t="s">
         <v>196</v>
@@ -40387,7 +40353,7 @@
         <v>191</v>
       </c>
       <c r="AI218" s="49" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="AJ218" s="79" t="s">
         <v>196</v>
@@ -40524,7 +40490,7 @@
         <v>191</v>
       </c>
       <c r="AI219" s="49" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="AJ219" s="79" t="s">
         <v>196</v>
@@ -40661,7 +40627,7 @@
         <v>191</v>
       </c>
       <c r="AI220" s="49" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="AJ220" s="79" t="s">
         <v>196</v>
@@ -40798,7 +40764,7 @@
         <v>191</v>
       </c>
       <c r="AI221" s="49" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="AJ221" s="79" t="s">
         <v>196</v>
@@ -40935,7 +40901,7 @@
         <v>191</v>
       </c>
       <c r="AI222" s="49" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="AJ222" s="79" t="s">
         <v>196</v>
@@ -41072,7 +41038,7 @@
         <v>191</v>
       </c>
       <c r="AI223" s="49" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="AJ223" s="79" t="s">
         <v>196</v>
@@ -41209,7 +41175,7 @@
         <v>191</v>
       </c>
       <c r="AI224" s="49" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="AJ224" s="79" t="s">
         <v>196</v>
@@ -41346,7 +41312,7 @@
         <v>191</v>
       </c>
       <c r="AI225" s="49" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="AJ225" s="79" t="s">
         <v>196</v>
@@ -41483,7 +41449,7 @@
         <v>191</v>
       </c>
       <c r="AI226" s="49" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="AJ226" s="79" t="s">
         <v>196</v>
@@ -41620,7 +41586,7 @@
         <v>191</v>
       </c>
       <c r="AI227" s="49" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="AJ227" s="79" t="s">
         <v>196</v>
@@ -41757,7 +41723,7 @@
         <v>191</v>
       </c>
       <c r="AI228" s="49" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="AJ228" s="79" t="s">
         <v>196</v>
@@ -41894,7 +41860,7 @@
         <v>191</v>
       </c>
       <c r="AI229" s="49" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="AJ229" s="79" t="s">
         <v>196</v>
@@ -42031,7 +41997,7 @@
         <v>191</v>
       </c>
       <c r="AI230" s="49" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="AJ230" s="79" t="s">
         <v>196</v>
@@ -42168,7 +42134,7 @@
         <v>191</v>
       </c>
       <c r="AI231" s="49" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="AJ231" s="79" t="s">
         <v>196</v>
@@ -42305,7 +42271,7 @@
         <v>191</v>
       </c>
       <c r="AI232" s="49" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AJ232" s="79" t="s">
         <v>196</v>
@@ -42442,7 +42408,7 @@
         <v>191</v>
       </c>
       <c r="AI233" s="49" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="AJ233" s="79" t="s">
         <v>196</v>
@@ -42579,7 +42545,7 @@
         <v>191</v>
       </c>
       <c r="AI234" s="49" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AJ234" s="79" t="s">
         <v>196</v>
@@ -42716,7 +42682,7 @@
         <v>191</v>
       </c>
       <c r="AI235" s="49" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AJ235" s="79" t="s">
         <v>196</v>
@@ -42853,7 +42819,7 @@
         <v>191</v>
       </c>
       <c r="AI236" s="49" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="AJ236" s="79" t="s">
         <v>196</v>
@@ -42990,7 +42956,7 @@
         <v>191</v>
       </c>
       <c r="AI237" s="49" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="AJ237" s="79" t="s">
         <v>196</v>
@@ -43127,7 +43093,7 @@
         <v>191</v>
       </c>
       <c r="AI238" s="49" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="AJ238" s="79" t="s">
         <v>196</v>
@@ -43264,7 +43230,7 @@
         <v>191</v>
       </c>
       <c r="AI239" s="49" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="AJ239" s="79" t="s">
         <v>196</v>
@@ -43401,7 +43367,7 @@
         <v>191</v>
       </c>
       <c r="AI240" s="49" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="AJ240" s="79" t="s">
         <v>196</v>
@@ -43538,7 +43504,7 @@
         <v>191</v>
       </c>
       <c r="AI241" s="49" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AJ241" s="79" t="s">
         <v>196</v>
@@ -43675,7 +43641,7 @@
         <v>191</v>
       </c>
       <c r="AI242" s="49" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AJ242" s="79" t="s">
         <v>196</v>
@@ -43812,7 +43778,7 @@
         <v>191</v>
       </c>
       <c r="AI243" s="49" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AJ243" s="79" t="s">
         <v>196</v>
@@ -43949,7 +43915,7 @@
         <v>191</v>
       </c>
       <c r="AI244" s="49" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AJ244" s="79" t="s">
         <v>196</v>
@@ -44086,7 +44052,7 @@
         <v>191</v>
       </c>
       <c r="AI245" s="49" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AJ245" s="79" t="s">
         <v>196</v>
@@ -44223,7 +44189,7 @@
         <v>191</v>
       </c>
       <c r="AI246" s="49" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AJ246" s="79" t="s">
         <v>196</v>
@@ -44360,7 +44326,7 @@
         <v>191</v>
       </c>
       <c r="AI247" s="49" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AJ247" s="79" t="s">
         <v>196</v>
@@ -44497,7 +44463,7 @@
         <v>191</v>
       </c>
       <c r="AI248" s="49" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="AJ248" s="79" t="s">
         <v>196</v>
@@ -44634,7 +44600,7 @@
         <v>191</v>
       </c>
       <c r="AI249" s="49" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="AJ249" s="79" t="s">
         <v>196</v>
@@ -44771,7 +44737,7 @@
         <v>191</v>
       </c>
       <c r="AI250" s="49" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AJ250" s="79" t="s">
         <v>196</v>
@@ -44908,7 +44874,7 @@
         <v>191</v>
       </c>
       <c r="AI251" s="49" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="AJ251" s="79" t="s">
         <v>196</v>
@@ -45045,7 +45011,7 @@
         <v>191</v>
       </c>
       <c r="AI252" s="49" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="AJ252" s="79" t="s">
         <v>196</v>
@@ -45182,7 +45148,7 @@
         <v>191</v>
       </c>
       <c r="AI253" s="49" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="AJ253" s="79" t="s">
         <v>196</v>
@@ -45319,7 +45285,7 @@
         <v>191</v>
       </c>
       <c r="AI254" s="49" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="AJ254" s="79" t="s">
         <v>196</v>
@@ -45456,7 +45422,7 @@
         <v>191</v>
       </c>
       <c r="AI255" s="49" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="AJ255" s="79" t="s">
         <v>196</v>
@@ -45593,7 +45559,7 @@
         <v>191</v>
       </c>
       <c r="AI256" s="49" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="AJ256" s="79" t="s">
         <v>196</v>
@@ -45730,7 +45696,7 @@
         <v>191</v>
       </c>
       <c r="AI257" s="49" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="AJ257" s="79" t="s">
         <v>196</v>
@@ -45867,7 +45833,7 @@
         <v>191</v>
       </c>
       <c r="AI258" s="49" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AJ258" s="79" t="s">
         <v>196</v>
@@ -46004,7 +45970,7 @@
         <v>191</v>
       </c>
       <c r="AI259" s="49" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="AJ259" s="79" t="s">
         <v>196</v>
@@ -46141,13 +46107,13 @@
         <v>191</v>
       </c>
       <c r="AI260" s="49" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AJ260" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK260" s="49" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="AL260" s="52" t="s">
         <v>602</v>
@@ -46278,13 +46244,13 @@
         <v>191</v>
       </c>
       <c r="AI261" s="49" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="AJ261" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK261" s="49" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="AL261" s="52" t="s">
         <v>602</v>
@@ -46415,13 +46381,13 @@
         <v>191</v>
       </c>
       <c r="AI262" s="49" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="AJ262" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK262" s="49" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="AL262" s="52" t="s">
         <v>602</v>
@@ -46552,7 +46518,7 @@
         <v>191</v>
       </c>
       <c r="AI263" s="49" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="AJ263" s="79" t="s">
         <v>196</v>
@@ -46689,7 +46655,7 @@
         <v>191</v>
       </c>
       <c r="AI264" s="49" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AJ264" s="79" t="s">
         <v>196</v>
@@ -46727,7 +46693,7 @@
         <v>265</v>
       </c>
       <c r="B265" s="80" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C265" s="35" t="s">
         <v>401</v>
@@ -46736,7 +46702,7 @@
         <v>193</v>
       </c>
       <c r="E265" s="49" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="F265" s="57" t="s">
         <v>307</v>
@@ -46814,25 +46780,25 @@
         <v>190</v>
       </c>
       <c r="AE265" s="54" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="AF265" s="53" t="s">
         <v>601</v>
       </c>
       <c r="AG265" s="49" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="AH265" s="79" t="s">
         <v>191</v>
       </c>
       <c r="AI265" s="50" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="AJ265" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK265" s="49" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="AL265" s="52" t="s">
         <v>602</v>
@@ -46864,7 +46830,7 @@
         <v>266</v>
       </c>
       <c r="B266" s="80" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C266" s="35" t="s">
         <v>438</v>
@@ -46873,7 +46839,7 @@
         <v>193</v>
       </c>
       <c r="E266" s="49" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="F266" s="57" t="s">
         <v>307</v>
@@ -46957,19 +46923,19 @@
         <v>601</v>
       </c>
       <c r="AG266" s="49" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="AH266" s="79" t="s">
         <v>191</v>
       </c>
       <c r="AI266" s="49" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="AJ266" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK266" s="49" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="AL266" s="52" t="s">
         <v>602</v>
@@ -47100,7 +47066,7 @@
         <v>191</v>
       </c>
       <c r="AI267" s="49" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="AJ267" s="79" t="s">
         <v>196</v>
@@ -47237,13 +47203,13 @@
         <v>191</v>
       </c>
       <c r="AI268" s="49" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="AJ268" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK268" s="49" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="AL268" s="52" t="s">
         <v>602</v>
@@ -47374,13 +47340,13 @@
         <v>191</v>
       </c>
       <c r="AI269" s="49" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="AJ269" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK269" s="49" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="AL269" s="52" t="s">
         <v>602</v>
@@ -47511,7 +47477,7 @@
         <v>191</v>
       </c>
       <c r="AI270" s="49" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AJ270" s="79" t="s">
         <v>196</v>
@@ -47648,13 +47614,13 @@
         <v>191</v>
       </c>
       <c r="AI271" s="49" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AJ271" s="79" t="s">
         <v>196</v>
       </c>
       <c r="AK271" s="49" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="AL271" s="52" t="s">
         <v>602</v>
@@ -48059,7 +48025,7 @@
         <v>191</v>
       </c>
       <c r="AI274" s="49" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="AJ274" s="79" t="s">
         <v>196</v>
@@ -48196,7 +48162,7 @@
         <v>191</v>
       </c>
       <c r="AI275" s="49" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="AJ275" s="79" t="s">
         <v>196</v>
@@ -48333,7 +48299,7 @@
         <v>191</v>
       </c>
       <c r="AI276" s="49" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="AJ276" s="79" t="s">
         <v>196</v>
@@ -48881,7 +48847,7 @@
         <v>191</v>
       </c>
       <c r="AI280" s="49" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="AJ280" s="79" t="s">
         <v>196</v>
@@ -49018,7 +48984,7 @@
         <v>191</v>
       </c>
       <c r="AI281" s="49" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="AJ281" s="79" t="s">
         <v>196</v>
@@ -49429,7 +49395,7 @@
         <v>191</v>
       </c>
       <c r="AI284" s="49" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="AJ284" s="79" t="s">
         <v>196</v>
@@ -49604,7 +49570,7 @@
         <v>286</v>
       </c>
       <c r="B286" s="91" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C286" s="35" t="s">
         <v>955</v>
@@ -49709,7 +49675,7 @@
         <v>196</v>
       </c>
       <c r="AK286" s="49" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="AL286" s="36" t="s">
         <v>1</v>
@@ -49840,7 +49806,7 @@
         <v>191</v>
       </c>
       <c r="AI287" s="49" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="AJ287" s="79" t="s">
         <v>196</v>
@@ -50700,13 +50666,13 @@
         <v>294</v>
       </c>
       <c r="B294" s="55" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C294" s="68" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D294" s="57" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E294" s="104" t="s">
         <v>136</v>
@@ -50837,13 +50803,13 @@
         <v>295</v>
       </c>
       <c r="B295" s="55" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C295" s="68" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D295" s="57" t="s">
         <v>1050</v>
-      </c>
-      <c r="C295" s="68" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D295" s="57" t="s">
-        <v>1051</v>
       </c>
       <c r="E295" s="104" t="s">
         <v>176</v>
@@ -50974,13 +50940,13 @@
         <v>296</v>
       </c>
       <c r="B296" s="55" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C296" s="68" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D296" s="57" t="s">
         <v>1054</v>
-      </c>
-      <c r="D296" s="57" t="s">
-        <v>1055</v>
       </c>
       <c r="E296" s="56" t="s">
         <v>559</v>
@@ -51111,13 +51077,13 @@
         <v>297</v>
       </c>
       <c r="B297" s="55" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C297" s="68" t="s">
         <v>1053</v>
       </c>
-      <c r="C297" s="68" t="s">
+      <c r="D297" s="57" t="s">
         <v>1054</v>
-      </c>
-      <c r="D297" s="57" t="s">
-        <v>1055</v>
       </c>
       <c r="E297" s="56" t="s">
         <v>559</v>
@@ -51248,13 +51214,13 @@
         <v>298</v>
       </c>
       <c r="B298" s="55" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C298" s="68" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D298" s="57" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E298" s="90" t="s">
         <v>921</v>
@@ -51385,603 +51351,194 @@
     <sortCondition ref="A1:A294"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B163:B1048576 B1:B161">
-    <cfRule type="duplicateValues" dxfId="59" priority="73"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B106:B107">
-    <cfRule type="duplicateValues" dxfId="58" priority="1810"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="1810"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108:B109 B124:B125 B111:B122 B130:B139 B141:B161 B163:B271">
-    <cfRule type="duplicateValues" dxfId="57" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110">
-    <cfRule type="duplicateValues" dxfId="56" priority="93"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="94"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="duplicateValues" dxfId="52" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="116"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="117"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126:B129">
-    <cfRule type="duplicateValues" dxfId="48" priority="76"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140">
-    <cfRule type="duplicateValues" dxfId="46" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162">
-    <cfRule type="duplicateValues" dxfId="45" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B163:B1048576 B1:B161">
+    <cfRule type="duplicateValues" dxfId="37" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289:B1048576 B130:B139 B141:B161 B11:B125 B163:B279">
-    <cfRule type="duplicateValues" dxfId="42" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B299:B1048576 B272:B279 B289:B290 B11:B105">
-    <cfRule type="duplicateValues" dxfId="41" priority="359"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="430"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="431"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="430"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="359"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="431"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B299:B1048576 B272:B279 B289:B290 B11:B107">
-    <cfRule type="duplicateValues" dxfId="38" priority="328"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="328"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C294:C298">
-    <cfRule type="cellIs" dxfId="37" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="48" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:D1 H1:AH1 H2:AE4 D2:D11 AF2:AH11 H5:Z5 AB5:AE5 H6:AE11 H33:AD34 AE33:AH45 H35:Z35 AB35:AD35 H36:AD45 N68:AH96 H68:M100 N97:AE100 AH97:AH108 H101:AE101 C102:C107 N102:AE107 D102:D108 H102:M108 P108:AE108 C110:D110 F110 H110:AH110 AL110:AR110 AF140:AG140 AL140 AN140 AP140:AQ140 AL190:AO298 C272:C279 P280:AD288 C289:E293 A1:A298">
-    <cfRule type="cellIs" dxfId="0" priority="383" operator="equal">
+  <conditionalFormatting sqref="C1:D1 H1:AH1 A1:A298 H2:AE4 D2:D11 AF2:AH11 H5:Z5 AB5:AE5 H6:AE11 H33:AD34 AE33:AH45 H35:Z35 AB35:AD35 H36:AD45 N68:AH96 H68:M100 N97:AE100 AH97:AH108 H101:AE101 C102:C107 N102:AE107 D102:D108 H102:M108 P108:AE108 C110:D110 F110 H110:AH110 AL110:AR110 AF140:AG140 AL140 AN140 AP140:AQ140 AL190:AO298 C272:C279 P280:AD288 C289:E293">
+    <cfRule type="cellIs" dxfId="30" priority="383" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E108">
-    <cfRule type="cellIs" dxfId="36" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E298">
-    <cfRule type="duplicateValues" dxfId="35" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F108 H12:AH32 C12:D101">
-    <cfRule type="cellIs" dxfId="34" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="87" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F289:AD298">
-    <cfRule type="cellIs" dxfId="33" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G14">
-    <cfRule type="cellIs" dxfId="32" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:G108">
-    <cfRule type="cellIs" dxfId="31" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46:AH67">
-    <cfRule type="cellIs" dxfId="30" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="124" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N274:N288">
-    <cfRule type="cellIs" dxfId="29" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="111" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N272:O273">
-    <cfRule type="cellIs" dxfId="28" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="110" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P272:Q279">
-    <cfRule type="cellIs" dxfId="27" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="219" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE257">
-    <cfRule type="cellIs" dxfId="26" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="99" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE280:AE298">
-    <cfRule type="cellIs" dxfId="25" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="89" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF97:AG106 AF107:AF108 AG107:AG109 AG111:AG121">
-    <cfRule type="cellIs" dxfId="24" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="101" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF129:AG129">
-    <cfRule type="cellIs" dxfId="23" priority="74" operator="equal">
+  <conditionalFormatting sqref="AF126:AG129">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF190:AG298">
-    <cfRule type="cellIs" dxfId="22" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="40" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH289:AI298">
-    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI1:AI132">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ294:AK298">
-    <cfRule type="cellIs" dxfId="19" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="43" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK1">
-    <cfRule type="cellIs" dxfId="18" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="92" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK12:AK17">
-    <cfRule type="duplicateValues" dxfId="17" priority="1891"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="1892"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="1893"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="1894"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1894"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1891"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1892"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1893"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL126:AL129 AN126:AN129">
-    <cfRule type="cellIs" dxfId="13" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="79" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL1:AS108">
-    <cfRule type="cellIs" dxfId="12" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="58" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP272:AP279">
-    <cfRule type="cellIs" dxfId="11" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="107" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP129:AQ129">
-    <cfRule type="cellIs" dxfId="10" priority="75" operator="equal">
+  <conditionalFormatting sqref="AP126:AQ129">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP190:AQ270">
-    <cfRule type="cellIs" dxfId="9" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="105" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP280:AQ298">
-    <cfRule type="cellIs" dxfId="8" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="42" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR272:AS298">
-    <cfRule type="cellIs" dxfId="7" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="41" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF126:AG126">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP126:AQ126">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF127:AG127">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP127:AQ127">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF128:AG128">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP128:AQ128">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2BF475-87A8-4799-9360-051FAEDBF9E1}">
-  <dimension ref="A1:V5"/>
-  <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4:U5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="2" width="14.28515625" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="38" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="38" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" style="38" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" style="38" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10" style="38" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" style="38" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.28515625" style="38" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5703125" style="38" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="55.28515625" style="38" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="38"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A1" s="75" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>1269</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>1270</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>1271</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>1272</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>371</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>1273</v>
-      </c>
-      <c r="I1" s="38" t="s">
-        <v>1274</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>1275</v>
-      </c>
-      <c r="K1" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="L1" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="M1" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="N1" s="38" t="s">
-        <v>1276</v>
-      </c>
-      <c r="O1" s="38" t="s">
-        <v>1277</v>
-      </c>
-      <c r="P1" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q1" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="R1" s="38" t="s">
-        <v>601</v>
-      </c>
-      <c r="S1" s="38" t="s">
-        <v>1278</v>
-      </c>
-      <c r="T1" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="U1" s="38" t="s">
-        <v>1279</v>
-      </c>
-      <c r="V1" s="38" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A2" s="75" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>1281</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>1282</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>308</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>917</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>918</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>1283</v>
-      </c>
-      <c r="H2" s="38" t="s">
-        <v>1284</v>
-      </c>
-      <c r="I2" s="38" t="s">
-        <v>1284</v>
-      </c>
-      <c r="J2" s="38" t="s">
-        <v>1284</v>
-      </c>
-      <c r="K2" s="38">
-        <v>5</v>
-      </c>
-      <c r="L2" s="38">
-        <v>9</v>
-      </c>
-      <c r="M2" s="38" t="s">
-        <v>1285</v>
-      </c>
-      <c r="N2" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="O2" s="38">
-        <v>3</v>
-      </c>
-      <c r="P2" s="38" t="s">
-        <v>1286</v>
-      </c>
-      <c r="Q2" s="38" t="s">
-        <v>1287</v>
-      </c>
-      <c r="R2" s="38" t="s">
-        <v>1284</v>
-      </c>
-      <c r="S2" s="38" t="s">
-        <v>1284</v>
-      </c>
-      <c r="T2" s="38" t="s">
-        <v>1288</v>
-      </c>
-      <c r="U2" s="38" t="s">
-        <v>1289</v>
-      </c>
-      <c r="V2" s="38" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A3" s="75" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>1282</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>308</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>917</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>918</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>1292</v>
-      </c>
-      <c r="H3" s="38">
-        <v>30</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>1284</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>1284</v>
-      </c>
-      <c r="K3" s="38">
-        <v>20</v>
-      </c>
-      <c r="L3" s="38">
-        <v>30</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>1285</v>
-      </c>
-      <c r="N3" s="38">
-        <v>1.5</v>
-      </c>
-      <c r="O3" s="38">
-        <v>5</v>
-      </c>
-      <c r="P3" s="38" t="s">
-        <v>1293</v>
-      </c>
-      <c r="Q3" s="38" t="s">
-        <v>1290</v>
-      </c>
-      <c r="R3" s="38" t="s">
-        <v>1284</v>
-      </c>
-      <c r="S3" s="38" t="s">
-        <v>1284</v>
-      </c>
-      <c r="T3" s="38" t="s">
-        <v>1294</v>
-      </c>
-      <c r="U3" s="38" t="s">
-        <v>1295</v>
-      </c>
-      <c r="V3" s="38" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="75" t="s">
-        <v>1296</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>1282</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>308</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>917</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>918</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>1283</v>
-      </c>
-      <c r="H4" s="38">
-        <v>10</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>1284</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>1284</v>
-      </c>
-      <c r="K4" s="38">
-        <v>10</v>
-      </c>
-      <c r="L4" s="38">
-        <v>15</v>
-      </c>
-      <c r="M4" s="38" t="s">
-        <v>1285</v>
-      </c>
-      <c r="N4" s="38">
-        <v>1</v>
-      </c>
-      <c r="O4" s="38">
-        <v>3</v>
-      </c>
-      <c r="P4" s="38" t="s">
-        <v>1297</v>
-      </c>
-      <c r="Q4" s="38" t="s">
-        <v>1287</v>
-      </c>
-      <c r="R4" s="38" t="s">
-        <v>1284</v>
-      </c>
-      <c r="S4" s="38" t="s">
-        <v>1284</v>
-      </c>
-      <c r="T4" s="38" t="s">
-        <v>1288</v>
-      </c>
-      <c r="U4" s="38" t="s">
-        <v>1298</v>
-      </c>
-      <c r="V4" s="38" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A5" s="75" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>1299</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>1282</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>308</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>917</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>918</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>1283</v>
-      </c>
-      <c r="H5" s="38">
-        <v>5</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>1284</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>1284</v>
-      </c>
-      <c r="K5" s="38">
-        <v>3</v>
-      </c>
-      <c r="L5" s="38">
-        <v>6</v>
-      </c>
-      <c r="M5" s="38" t="s">
-        <v>1285</v>
-      </c>
-      <c r="N5" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="O5" s="38">
-        <v>2</v>
-      </c>
-      <c r="P5" s="38" t="s">
-        <v>1300</v>
-      </c>
-      <c r="Q5" s="38" t="s">
-        <v>1287</v>
-      </c>
-      <c r="R5" s="38" t="s">
-        <v>1284</v>
-      </c>
-      <c r="S5" s="38" t="s">
-        <v>1284</v>
-      </c>
-      <c r="T5" s="38" t="s">
-        <v>1288</v>
-      </c>
-      <c r="U5" s="38" t="s">
-        <v>1301</v>
-      </c>
-      <c r="V5" s="38" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/Versão5/VEGE/Ontologia_VEGET.xlsx
+++ b/Versão5/VEGE/Ontologia_VEGET.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\VEGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF957EAB-DF88-4C89-824C-97B19928A582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED83488D-FB01-470D-9C84-8220A00DA266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" tabRatio="577" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="577" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="26" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13164" uniqueCount="1287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13165" uniqueCount="1288">
   <si>
     <t>Key</t>
   </si>
@@ -3935,13 +3935,16 @@
   </si>
   <si>
     <t>ABNT</t>
+  </si>
+  <si>
+    <t>000 Translate Classe 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4025,6 +4028,13 @@
       <b/>
       <i/>
       <sz val="6"/>
+      <name val="Arial Nova Cond Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="5"/>
+      <color rgb="FF000000"/>
       <name val="Arial Nova Cond Light"/>
       <family val="2"/>
     </font>
@@ -4271,7 +4281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4608,11 +4618,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="77">
+  <dxfs count="78">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -5595,14 +5616,14 @@
       <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.3046875" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" style="6" customWidth="1"/>
-    <col min="2" max="2" width="42.28515625" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="3.28515625" style="6"/>
+    <col min="2" max="2" width="42.3046875" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="3.3046875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>35</v>
       </c>
@@ -5610,7 +5631,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>44</v>
       </c>
@@ -5618,7 +5639,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
         <v>45</v>
       </c>
@@ -5626,7 +5647,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
         <v>36</v>
       </c>
@@ -5634,7 +5655,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
         <v>37</v>
       </c>
@@ -5643,7 +5664,7 @@
         <v>BIMProp</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
         <v>38</v>
       </c>
@@ -5652,7 +5673,7 @@
         <v>BIMData</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
         <v>39</v>
       </c>
@@ -5660,7 +5681,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
         <v>40</v>
       </c>
@@ -5668,7 +5689,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
         <v>49</v>
       </c>
@@ -5676,7 +5697,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
         <v>51</v>
       </c>
@@ -5684,7 +5705,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="8" t="s">
         <v>41</v>
       </c>
@@ -5692,7 +5713,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8" t="s">
         <v>42</v>
       </c>
@@ -5700,7 +5721,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
         <v>52</v>
       </c>
@@ -5708,7 +5729,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8" t="s">
         <v>53</v>
       </c>
@@ -5716,7 +5737,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8" t="s">
         <v>54</v>
       </c>
@@ -5724,7 +5745,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="8" t="s">
         <v>55</v>
       </c>
@@ -5732,7 +5753,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="8" t="s">
         <v>43</v>
       </c>
@@ -5740,16 +5761,16 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B18" s="82">
         <f ca="1">NOW()</f>
-        <v>45958.4393837963</v>
+        <v>45989.683172685189</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>848</v>
       </c>
@@ -5757,7 +5778,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>849</v>
       </c>
@@ -5765,7 +5786,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>850</v>
       </c>
@@ -5773,7 +5794,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>851</v>
       </c>
@@ -5781,7 +5802,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>852</v>
       </c>
@@ -5789,7 +5810,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>853</v>
       </c>
@@ -5797,7 +5818,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>855</v>
       </c>
@@ -5805,7 +5826,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>982</v>
       </c>
@@ -5813,7 +5834,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="8" t="s">
         <v>862</v>
       </c>
@@ -5821,7 +5842,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8" t="s">
         <v>57</v>
       </c>
@@ -5829,7 +5850,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="8" t="s">
         <v>58</v>
       </c>
@@ -5837,7 +5858,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
         <v>59</v>
       </c>
@@ -5845,7 +5866,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="10" t="s">
         <v>60</v>
       </c>
@@ -5861,41 +5882,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375F50FD-D5BA-45CD-9CBD-E4284A1EA77F}">
-  <dimension ref="A1:Z47"/>
+  <dimension ref="A1:AA47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA30" sqref="AA30"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA2" sqref="AA2:AA47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.140625" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="32.15234375" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="10" width="6.42578125" style="37" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" style="37" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" customWidth="1"/>
-    <col min="16" max="16" width="88.42578125" customWidth="1"/>
-    <col min="17" max="17" width="94.140625" customWidth="1"/>
-    <col min="18" max="18" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.140625" customWidth="1"/>
-    <col min="20" max="20" width="10.85546875" customWidth="1"/>
-    <col min="21" max="21" width="9.28515625" customWidth="1"/>
-    <col min="22" max="22" width="7.5703125" customWidth="1"/>
-    <col min="23" max="23" width="6.140625" customWidth="1"/>
-    <col min="24" max="24" width="8.5703125" customWidth="1"/>
-    <col min="25" max="25" width="10.28515625" customWidth="1"/>
-    <col min="26" max="26" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.3828125" customWidth="1"/>
+    <col min="3" max="3" width="7.84375" customWidth="1"/>
+    <col min="4" max="4" width="11.3046875" customWidth="1"/>
+    <col min="5" max="5" width="8.84375" customWidth="1"/>
+    <col min="6" max="6" width="10.3046875" customWidth="1"/>
+    <col min="7" max="10" width="6.3828125" style="37" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.53515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.69140625" customWidth="1"/>
+    <col min="13" max="13" width="11.69140625" customWidth="1"/>
+    <col min="14" max="14" width="8.69140625" customWidth="1"/>
+    <col min="15" max="15" width="10.84375" customWidth="1"/>
+    <col min="16" max="16" width="88.3828125" customWidth="1"/>
+    <col min="17" max="17" width="94.15234375" customWidth="1"/>
+    <col min="18" max="18" width="3.69140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.15234375" customWidth="1"/>
+    <col min="20" max="20" width="10.84375" customWidth="1"/>
+    <col min="21" max="21" width="9.3046875" customWidth="1"/>
+    <col min="22" max="22" width="7.53515625" customWidth="1"/>
+    <col min="23" max="23" width="6.15234375" customWidth="1"/>
+    <col min="24" max="24" width="8.53515625" customWidth="1"/>
+    <col min="25" max="25" width="10.3046875" customWidth="1"/>
+    <col min="26" max="26" width="7.3046875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="253.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13">
         <v>1</v>
       </c>
@@ -5974,8 +5996,11 @@
       <c r="Z1" s="15" t="s">
         <v>1286</v>
       </c>
+      <c r="AA1" s="118" t="s">
+        <v>1287</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="26">
         <v>2</v>
       </c>
@@ -6063,8 +6088,12 @@
       <c r="Z2" s="28" t="s">
         <v>1</v>
       </c>
+      <c r="AA2" s="28" t="str">
+        <f>_xlfn.TRANSLATE(P2,"pt","en")</f>
+        <v>Defines an information container in accordance with the NBR 19650-1 standard.</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="26">
         <v>3</v>
       </c>
@@ -6152,8 +6181,12 @@
       <c r="Z3" s="30" t="s">
         <v>1283</v>
       </c>
+      <c r="AA3" s="28" t="str">
+        <f t="shared" ref="AA3:AA47" si="10">_xlfn.TRANSLATE(P3,"pt","en")</f>
+        <v>Large woody plant, with a single trunk and elevated crown. Height greater than 5 m, deep root, used in urban afforestation. They photosynthesize. For the Brazilian Forest Service, it is a habit of the individual defined in the National Forest Inventory.</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="26">
         <v>4</v>
       </c>
@@ -6188,19 +6221,19 @@
         <v>1</v>
       </c>
       <c r="L4" s="31" t="str">
-        <f t="shared" ref="L4" si="10">_xlfn.CONCAT(SUBSTITUTE(C4,"1.",""))</f>
+        <f t="shared" ref="L4" si="11">_xlfn.CONCAT(SUBSTITUTE(C4,"1.",""))</f>
         <v>Reinos</v>
       </c>
       <c r="M4" s="31" t="str">
-        <f t="shared" ref="M4" si="11">_xlfn.CONCAT(SUBSTITUTE(D4,"."," "))</f>
+        <f t="shared" ref="M4" si="12">_xlfn.CONCAT(SUBSTITUTE(D4,"."," "))</f>
         <v>Vegetal</v>
       </c>
       <c r="N4" s="31" t="str">
-        <f t="shared" ref="N4" si="12">_xlfn.CONCAT(SUBSTITUTE(E4,"."," "))</f>
+        <f t="shared" ref="N4" si="13">_xlfn.CONCAT(SUBSTITUTE(E4,"."," "))</f>
         <v>Flora</v>
       </c>
       <c r="O4" s="31" t="str">
-        <f t="shared" ref="O4" si="13">_xlfn.CONCAT(SUBSTITUTE(F4,"."," "))</f>
+        <f t="shared" ref="O4" si="14">_xlfn.CONCAT(SUBSTITUTE(F4,"."," "))</f>
         <v>Arbusto</v>
       </c>
       <c r="P4" s="31" t="s">
@@ -6213,19 +6246,19 @@
         <v>1</v>
       </c>
       <c r="S4" s="30" t="str">
-        <f t="shared" ref="S4" si="14">SUBSTITUTE(C4, ".", " ")</f>
+        <f t="shared" ref="S4" si="15">SUBSTITUTE(C4, ".", " ")</f>
         <v>Reinos</v>
       </c>
       <c r="T4" s="30" t="str">
-        <f t="shared" ref="T4" si="15">SUBSTITUTE(D4, ".", " ")</f>
+        <f t="shared" ref="T4" si="16">SUBSTITUTE(D4, ".", " ")</f>
         <v>Vegetal</v>
       </c>
       <c r="U4" s="30" t="str">
-        <f t="shared" ref="U4" si="16">SUBSTITUTE(E4, ".", " ")</f>
+        <f t="shared" ref="U4" si="17">SUBSTITUTE(E4, ".", " ")</f>
         <v>Flora</v>
       </c>
       <c r="V4" s="30" t="str">
-        <f t="shared" ref="V4" si="17">SUBSTITUTE(C4, ".", " ")</f>
+        <f t="shared" ref="V4" si="18">SUBSTITUTE(C4, ".", " ")</f>
         <v>Reinos</v>
       </c>
       <c r="W4" s="18" t="str">
@@ -6241,8 +6274,12 @@
       <c r="Z4" s="30" t="s">
         <v>1283</v>
       </c>
+      <c r="AA4" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>Small to medium-sized woody plant, with several stems from the base. Height between 1 and 5 m, dense canopy, ideal for hedges and borders. They photosynthesize. For the Brazilian Forest Service, it is a habit of the patrimonialized individual as a plant.</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="26">
         <v>5</v>
       </c>
@@ -6330,8 +6367,12 @@
       <c r="Z5" s="30" t="s">
         <v>1283</v>
       </c>
+      <c r="AA5" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>Plant that combines characteristics of shrubs and herbaceous plants. Usually with a height of less than 1 meter. It has a woody base (like a shrub), but its upper branches are more fragile and can be herbaceous. Many species are perennials, but the taller branches can die and periodically renew themselves. Some examples of subshrubs are Lavender and Thyme.</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="26">
         <v>6</v>
       </c>
@@ -6419,8 +6460,12 @@
       <c r="Z6" s="30" t="s">
         <v>1283</v>
       </c>
+      <c r="AA6" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>A plant whose growth can be led to become a tree, shrub or vine. They photosynthesize.</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="26">
         <v>7</v>
       </c>
@@ -6508,8 +6553,12 @@
       <c r="Z7" s="30" t="s">
         <v>1283</v>
       </c>
+      <c r="AA7" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>A plant that grows by leaning on structures or other plants. They use tendrils, roots or thorns to attach themselves. With flexible stems they are planted to cover pergolas, walls and fences. They photosynthesize.</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="26">
         <v>8</v>
       </c>
@@ -6544,19 +6593,19 @@
         <v>1</v>
       </c>
       <c r="L8" s="31" t="str">
-        <f t="shared" ref="L8:L12" si="18">_xlfn.CONCAT(SUBSTITUTE(C8,"1.",""))</f>
+        <f t="shared" ref="L8:L12" si="19">_xlfn.CONCAT(SUBSTITUTE(C8,"1.",""))</f>
         <v>Reinos</v>
       </c>
       <c r="M8" s="31" t="str">
-        <f t="shared" ref="M8:M12" si="19">_xlfn.CONCAT(SUBSTITUTE(D8,"."," "))</f>
+        <f t="shared" ref="M8:M12" si="20">_xlfn.CONCAT(SUBSTITUTE(D8,"."," "))</f>
         <v>Vegetal</v>
       </c>
       <c r="N8" s="31" t="str">
-        <f t="shared" ref="N8:N12" si="20">_xlfn.CONCAT(SUBSTITUTE(E8,"."," "))</f>
+        <f t="shared" ref="N8:N12" si="21">_xlfn.CONCAT(SUBSTITUTE(E8,"."," "))</f>
         <v>Flora</v>
       </c>
       <c r="O8" s="31" t="str">
-        <f t="shared" ref="O8:O12" si="21">_xlfn.CONCAT(SUBSTITUTE(F8,"."," "))</f>
+        <f t="shared" ref="O8:O12" si="22">_xlfn.CONCAT(SUBSTITUTE(F8,"."," "))</f>
         <v>Palmeira</v>
       </c>
       <c r="P8" s="31" t="s">
@@ -6569,19 +6618,19 @@
         <v>1</v>
       </c>
       <c r="S8" s="30" t="str">
-        <f t="shared" ref="S8:S12" si="22">SUBSTITUTE(C8, ".", " ")</f>
+        <f t="shared" ref="S8:S12" si="23">SUBSTITUTE(C8, ".", " ")</f>
         <v>Reinos</v>
       </c>
       <c r="T8" s="30" t="str">
-        <f t="shared" ref="T8:T12" si="23">SUBSTITUTE(D8, ".", " ")</f>
+        <f t="shared" ref="T8:T12" si="24">SUBSTITUTE(D8, ".", " ")</f>
         <v>Vegetal</v>
       </c>
       <c r="U8" s="30" t="str">
-        <f t="shared" ref="U8:U12" si="24">SUBSTITUTE(E8, ".", " ")</f>
+        <f t="shared" ref="U8:U12" si="25">SUBSTITUTE(E8, ".", " ")</f>
         <v>Flora</v>
       </c>
       <c r="V8" s="30" t="str">
-        <f t="shared" ref="V8:V12" si="25">SUBSTITUTE(C8, ".", " ")</f>
+        <f t="shared" ref="V8:V12" si="26">SUBSTITUTE(C8, ".", " ")</f>
         <v>Reinos</v>
       </c>
       <c r="W8" s="18" t="str">
@@ -6597,8 +6646,12 @@
       <c r="Z8" s="30" t="s">
         <v>1283</v>
       </c>
+      <c r="AA8" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>Plant with strain (support structure) of great morphological variety. They photosynthesize. For the Brazilian Forest Service, it is a habit of the individual defined in the National Forest Inventory.</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="26">
         <v>9</v>
       </c>
@@ -6633,19 +6686,19 @@
         <v>1</v>
       </c>
       <c r="L9" s="31" t="str">
-        <f t="shared" ref="L9" si="26">_xlfn.CONCAT(SUBSTITUTE(C9,"1.",""))</f>
+        <f t="shared" ref="L9" si="27">_xlfn.CONCAT(SUBSTITUTE(C9,"1.",""))</f>
         <v>Reinos</v>
       </c>
       <c r="M9" s="31" t="str">
-        <f t="shared" ref="M9" si="27">_xlfn.CONCAT(SUBSTITUTE(D9,"."," "))</f>
+        <f t="shared" ref="M9" si="28">_xlfn.CONCAT(SUBSTITUTE(D9,"."," "))</f>
         <v>Vegetal</v>
       </c>
       <c r="N9" s="31" t="str">
-        <f t="shared" ref="N9" si="28">_xlfn.CONCAT(SUBSTITUTE(E9,"."," "))</f>
+        <f t="shared" ref="N9" si="29">_xlfn.CONCAT(SUBSTITUTE(E9,"."," "))</f>
         <v>Flora</v>
       </c>
       <c r="O9" s="31" t="str">
-        <f t="shared" ref="O9" si="29">_xlfn.CONCAT(SUBSTITUTE(F9,"."," "))</f>
+        <f t="shared" ref="O9" si="30">_xlfn.CONCAT(SUBSTITUTE(F9,"."," "))</f>
         <v>Herbácea</v>
       </c>
       <c r="P9" s="31" t="s">
@@ -6658,19 +6711,19 @@
         <v>1</v>
       </c>
       <c r="S9" s="30" t="str">
-        <f t="shared" ref="S9" si="30">SUBSTITUTE(C9, ".", " ")</f>
+        <f t="shared" ref="S9" si="31">SUBSTITUTE(C9, ".", " ")</f>
         <v>Reinos</v>
       </c>
       <c r="T9" s="30" t="str">
-        <f t="shared" ref="T9" si="31">SUBSTITUTE(D9, ".", " ")</f>
+        <f t="shared" ref="T9" si="32">SUBSTITUTE(D9, ".", " ")</f>
         <v>Vegetal</v>
       </c>
       <c r="U9" s="30" t="str">
-        <f t="shared" ref="U9" si="32">SUBSTITUTE(E9, ".", " ")</f>
+        <f t="shared" ref="U9" si="33">SUBSTITUTE(E9, ".", " ")</f>
         <v>Flora</v>
       </c>
       <c r="V9" s="30" t="str">
-        <f t="shared" ref="V9" si="33">SUBSTITUTE(C9, ".", " ")</f>
+        <f t="shared" ref="V9" si="34">SUBSTITUTE(C9, ".", " ")</f>
         <v>Reinos</v>
       </c>
       <c r="W9" s="18" t="str">
@@ -6686,8 +6739,12 @@
       <c r="Z9" s="30" t="s">
         <v>1283</v>
       </c>
+      <c r="AA9" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>Plant with a soft stem, non-woody, usually short-cycle, with low height, they are food producers, ornamental or medicinal.</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="26">
         <v>10</v>
       </c>
@@ -6722,19 +6779,19 @@
         <v>1070</v>
       </c>
       <c r="L10" s="31" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Reinos</v>
       </c>
       <c r="M10" s="31" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Vegetal</v>
       </c>
       <c r="N10" s="31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>Flora</v>
       </c>
       <c r="O10" s="31" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>Gramínea</v>
       </c>
       <c r="P10" s="31" t="s">
@@ -6747,19 +6804,19 @@
         <v>1</v>
       </c>
       <c r="S10" s="30" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>Reinos</v>
       </c>
       <c r="T10" s="30" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>Vegetal</v>
       </c>
       <c r="U10" s="30" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Flora</v>
       </c>
       <c r="V10" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Reinos</v>
       </c>
       <c r="W10" s="18" t="str">
@@ -6775,8 +6832,12 @@
       <c r="Z10" s="30" t="s">
         <v>1284</v>
       </c>
+      <c r="AA10" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>Usually herbaceous plant, with narrow leaves, hollow stems and flowers grouped in spikelets.</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="26">
         <v>11</v>
       </c>
@@ -6811,19 +6872,19 @@
         <v>1071</v>
       </c>
       <c r="L11" s="31" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Reinos</v>
       </c>
       <c r="M11" s="31" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Vegetal</v>
       </c>
       <c r="N11" s="31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>Flora</v>
       </c>
       <c r="O11" s="31" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>Rasteira</v>
       </c>
       <c r="P11" s="31" t="s">
@@ -6836,19 +6897,19 @@
         <v>1</v>
       </c>
       <c r="S11" s="30" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>Reinos</v>
       </c>
       <c r="T11" s="30" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>Vegetal</v>
       </c>
       <c r="U11" s="30" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Flora</v>
       </c>
       <c r="V11" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Reinos</v>
       </c>
       <c r="W11" s="18" t="str">
@@ -6864,8 +6925,12 @@
       <c r="Z11" s="30" t="s">
         <v>1284</v>
       </c>
+      <c r="AA11" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>Generic term for cultivated plants. It can include herbaceous plants, shrubs or vines, it has ornamental use. They photosynthesize.</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="26">
         <v>12</v>
       </c>
@@ -6900,19 +6965,19 @@
         <v>1</v>
       </c>
       <c r="L12" s="31" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Reinos</v>
       </c>
       <c r="M12" s="31" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Vegetal</v>
       </c>
       <c r="N12" s="31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>Flora</v>
       </c>
       <c r="O12" s="31" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>Bambu</v>
       </c>
       <c r="P12" s="31" t="s">
@@ -6925,19 +6990,19 @@
         <v>1</v>
       </c>
       <c r="S12" s="30" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>Reinos</v>
       </c>
       <c r="T12" s="30" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>Vegetal</v>
       </c>
       <c r="U12" s="30" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Flora</v>
       </c>
       <c r="V12" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Reinos</v>
       </c>
       <c r="W12" s="18" t="str">
@@ -6953,8 +7018,12 @@
       <c r="Z12" s="30" t="s">
         <v>1283</v>
       </c>
+      <c r="AA12" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>Woody grass-type plant. with a cylindrical, hollow stem called a segmented stem by us. It can reach up to 30 meters in height. Elongated, green and resistant leaves. Rhizomatous, allowing underground propagation. Used in civil construction, crafts, food (sprouts), paper, textile fibers and ornamentation. For the Brazilian Forest Service, it is a habit of the individual defined in the National Forest Inventory.</v>
+      </c>
     </row>
-    <row r="13" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="26">
         <v>13</v>
       </c>
@@ -6989,19 +7058,19 @@
         <v>1</v>
       </c>
       <c r="L13" s="31" t="str">
-        <f t="shared" ref="L13:L14" si="34">_xlfn.CONCAT(SUBSTITUTE(C13,"1.",""))</f>
+        <f t="shared" ref="L13:L14" si="35">_xlfn.CONCAT(SUBSTITUTE(C13,"1.",""))</f>
         <v>Reinos</v>
       </c>
       <c r="M13" s="31" t="str">
-        <f t="shared" ref="M13:M14" si="35">_xlfn.CONCAT(SUBSTITUTE(D13,"."," "))</f>
+        <f t="shared" ref="M13:M14" si="36">_xlfn.CONCAT(SUBSTITUTE(D13,"."," "))</f>
         <v>Vegetal</v>
       </c>
       <c r="N13" s="31" t="str">
-        <f t="shared" ref="N13:N14" si="36">_xlfn.CONCAT(SUBSTITUTE(E13,"."," "))</f>
+        <f t="shared" ref="N13:N14" si="37">_xlfn.CONCAT(SUBSTITUTE(E13,"."," "))</f>
         <v>Flora</v>
       </c>
       <c r="O13" s="31" t="str">
-        <f t="shared" ref="O13:O14" si="37">_xlfn.CONCAT(SUBSTITUTE(F13,"."," "))</f>
+        <f t="shared" ref="O13:O14" si="38">_xlfn.CONCAT(SUBSTITUTE(F13,"."," "))</f>
         <v>Liana</v>
       </c>
       <c r="P13" s="31" t="s">
@@ -7014,19 +7083,19 @@
         <v>1</v>
       </c>
       <c r="S13" s="30" t="str">
-        <f t="shared" ref="S13:S14" si="38">SUBSTITUTE(C13, ".", " ")</f>
+        <f t="shared" ref="S13:S14" si="39">SUBSTITUTE(C13, ".", " ")</f>
         <v>Reinos</v>
       </c>
       <c r="T13" s="30" t="str">
-        <f t="shared" ref="T13:T14" si="39">SUBSTITUTE(D13, ".", " ")</f>
+        <f t="shared" ref="T13:T14" si="40">SUBSTITUTE(D13, ".", " ")</f>
         <v>Vegetal</v>
       </c>
       <c r="U13" s="30" t="str">
-        <f t="shared" ref="U13:U14" si="40">SUBSTITUTE(E13, ".", " ")</f>
+        <f t="shared" ref="U13:U14" si="41">SUBSTITUTE(E13, ".", " ")</f>
         <v>Flora</v>
       </c>
       <c r="V13" s="30" t="str">
-        <f t="shared" ref="V13:V14" si="41">SUBSTITUTE(C13, ".", " ")</f>
+        <f t="shared" ref="V13:V14" si="42">SUBSTITUTE(C13, ".", " ")</f>
         <v>Reinos</v>
       </c>
       <c r="W13" s="18" t="str">
@@ -7042,8 +7111,12 @@
       <c r="Z13" s="30" t="s">
         <v>1283</v>
       </c>
+      <c r="AA13" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>Woody climbing plant. It germinates in the soil and grows by leaning on other plants to reach light in the forest canopy. Flexible stem capable of deforming without breaking. Use tendrils, staple roots or adhesive endings to climb. It connects tree canopies, serves as a path for animals, increases floristic diversity. Used to make ropes, handicrafts, traditional anti-inflammatory, antirheumatic medicine. For the Brazilian Forest Service, it is a habit of the individual defined in the National Forest Inventory.</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="26">
         <v>14</v>
       </c>
@@ -7078,19 +7151,19 @@
         <v>1072</v>
       </c>
       <c r="L14" s="31" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>Reinos</v>
       </c>
       <c r="M14" s="31" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>Vegetal</v>
       </c>
       <c r="N14" s="31" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>Flora</v>
       </c>
       <c r="O14" s="31" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>Cacto</v>
       </c>
       <c r="P14" s="31" t="s">
@@ -7103,19 +7176,19 @@
         <v>1</v>
       </c>
       <c r="S14" s="30" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>Reinos</v>
       </c>
       <c r="T14" s="30" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>Vegetal</v>
       </c>
       <c r="U14" s="30" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>Flora</v>
       </c>
       <c r="V14" s="30" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>Reinos</v>
       </c>
       <c r="W14" s="18" t="str">
@@ -7131,8 +7204,12 @@
       <c r="Z14" s="30" t="s">
         <v>1283</v>
       </c>
+      <c r="AA14" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>Shrubby or subshrub plant. With a fleshy, photosynthetic stem that stores water. It can be globose, columnar or racket shaped. Leaves modified into thorns, which protect and reduce evaporation. Shallow and extensive root, absorbs water quickly after rains. It has areoles that are structures exclusive to cacti, from which thorns, flowers and shoots emerge. Large, showy, hermaphroditic flowers, with varied colors. CAM metabolism (do nocturnal photosynthesis), spines, water storage. Widely used for ornamentation, food (prickly pear), fodder, folk medicine. For the Brazilian Forest Service, it is a habit of the individual defined in the National Forest Inventory.</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="26">
         <v>15</v>
       </c>
@@ -7167,19 +7244,19 @@
         <v>1068</v>
       </c>
       <c r="L15" s="31" t="str">
-        <f t="shared" ref="L15:L23" si="42">_xlfn.CONCAT(SUBSTITUTE(C15,"1.",""))</f>
+        <f t="shared" ref="L15:L23" si="43">_xlfn.CONCAT(SUBSTITUTE(C15,"1.",""))</f>
         <v>Reinos</v>
       </c>
       <c r="M15" s="31" t="str">
-        <f t="shared" ref="M15:M23" si="43">_xlfn.CONCAT(SUBSTITUTE(D15,"."," "))</f>
+        <f t="shared" ref="M15:M23" si="44">_xlfn.CONCAT(SUBSTITUTE(D15,"."," "))</f>
         <v>Vegetal</v>
       </c>
       <c r="N15" s="31" t="str">
-        <f t="shared" ref="N15:N23" si="44">_xlfn.CONCAT(SUBSTITUTE(E15,"."," "))</f>
+        <f t="shared" ref="N15:N23" si="45">_xlfn.CONCAT(SUBSTITUTE(E15,"."," "))</f>
         <v>Flora</v>
       </c>
       <c r="O15" s="31" t="str">
-        <f t="shared" ref="O15:O23" si="45">_xlfn.CONCAT(SUBSTITUTE(F15,"."," "))</f>
+        <f t="shared" ref="O15:O23" si="46">_xlfn.CONCAT(SUBSTITUTE(F15,"."," "))</f>
         <v>Flor</v>
       </c>
       <c r="P15" s="31" t="s">
@@ -7192,15 +7269,15 @@
         <v>1</v>
       </c>
       <c r="S15" s="30" t="str">
-        <f t="shared" ref="S15:S23" si="46">SUBSTITUTE(C15, ".", " ")</f>
+        <f t="shared" ref="S15:S23" si="47">SUBSTITUTE(C15, ".", " ")</f>
         <v>Reinos</v>
       </c>
       <c r="T15" s="30" t="str">
-        <f t="shared" ref="T15:T23" si="47">SUBSTITUTE(D15, ".", " ")</f>
+        <f t="shared" ref="T15:T23" si="48">SUBSTITUTE(D15, ".", " ")</f>
         <v>Vegetal</v>
       </c>
       <c r="U15" s="30" t="str">
-        <f t="shared" ref="U15:U23" si="48">SUBSTITUTE(E15, ".", " ")</f>
+        <f t="shared" ref="U15:U23" si="49">SUBSTITUTE(E15, ".", " ")</f>
         <v>Flora</v>
       </c>
       <c r="V15" s="30" t="str">
@@ -7220,8 +7297,12 @@
       <c r="Z15" s="30" t="s">
         <v>1283</v>
       </c>
+      <c r="AA15" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>A generic term for cultivated plants or for parts of a plant. It can include herbaceous plants, shrubs or vines, it has ornamental use. They photosynthesize.</v>
+      </c>
     </row>
-    <row r="16" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="26">
         <v>16</v>
       </c>
@@ -7256,19 +7337,19 @@
         <v>1</v>
       </c>
       <c r="L16" s="31" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>Reinos</v>
       </c>
       <c r="M16" s="31" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>Vegetal</v>
       </c>
       <c r="N16" s="31" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>Fungos</v>
       </c>
       <c r="O16" s="31" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>Fungo</v>
       </c>
       <c r="P16" s="31" t="s">
@@ -7281,15 +7362,15 @@
         <v>1</v>
       </c>
       <c r="S16" s="30" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>Reinos</v>
       </c>
       <c r="T16" s="30" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>Vegetal</v>
       </c>
       <c r="U16" s="30" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>Fungos</v>
       </c>
       <c r="V16" s="30" t="str">
@@ -7309,8 +7390,12 @@
       <c r="Z16" s="30" t="s">
         <v>1283</v>
       </c>
+      <c r="AA16" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>Fungi do not photosynthesize and obtain energy by decomposition.</v>
+      </c>
     </row>
-    <row r="17" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="26">
         <v>17</v>
       </c>
@@ -7345,19 +7430,19 @@
         <v>1</v>
       </c>
       <c r="L17" s="31" t="str">
-        <f t="shared" ref="L17:L20" si="49">_xlfn.CONCAT(SUBSTITUTE(C17,"1.",""))</f>
+        <f t="shared" ref="L17:L20" si="50">_xlfn.CONCAT(SUBSTITUTE(C17,"1.",""))</f>
         <v>Ecologia</v>
       </c>
       <c r="M17" s="31" t="str">
-        <f t="shared" ref="M17:M20" si="50">_xlfn.CONCAT(SUBSTITUTE(D17,"."," "))</f>
+        <f t="shared" ref="M17:M20" si="51">_xlfn.CONCAT(SUBSTITUTE(D17,"."," "))</f>
         <v>Ecossistema</v>
       </c>
       <c r="N17" s="31" t="str">
-        <f t="shared" ref="N17:N20" si="51">_xlfn.CONCAT(SUBSTITUTE(E17,"."," "))</f>
+        <f t="shared" ref="N17:N20" si="52">_xlfn.CONCAT(SUBSTITUTE(E17,"."," "))</f>
         <v>Conservação</v>
       </c>
       <c r="O17" s="31" t="str">
-        <f t="shared" ref="O17:O20" si="52">_xlfn.CONCAT(SUBSTITUTE(F17,"."," "))</f>
+        <f t="shared" ref="O17:O20" si="53">_xlfn.CONCAT(SUBSTITUTE(F17,"."," "))</f>
         <v>Conservação Animal</v>
       </c>
       <c r="P17" s="31" t="s">
@@ -7370,19 +7455,19 @@
         <v>1</v>
       </c>
       <c r="S17" s="30" t="str">
-        <f t="shared" ref="S17:S20" si="53">SUBSTITUTE(C17, ".", " ")</f>
+        <f t="shared" ref="S17:S20" si="54">SUBSTITUTE(C17, ".", " ")</f>
         <v>Ecologia</v>
       </c>
       <c r="T17" s="30" t="str">
-        <f t="shared" ref="T17:T20" si="54">SUBSTITUTE(D17, ".", " ")</f>
+        <f t="shared" ref="T17:T20" si="55">SUBSTITUTE(D17, ".", " ")</f>
         <v>Ecossistema</v>
       </c>
       <c r="U17" s="30" t="str">
-        <f t="shared" ref="U17:U20" si="55">SUBSTITUTE(E17, ".", " ")</f>
+        <f t="shared" ref="U17:U20" si="56">SUBSTITUTE(E17, ".", " ")</f>
         <v>Conservação</v>
       </c>
       <c r="V17" s="30" t="str">
-        <f t="shared" ref="V17:V20" si="56">SUBSTITUTE(C17, ".", " ")</f>
+        <f t="shared" ref="V17:V20" si="57">SUBSTITUTE(C17, ".", " ")</f>
         <v>Ecologia</v>
       </c>
       <c r="W17" s="18" t="str">
@@ -7398,8 +7483,12 @@
       <c r="Z17" s="28" t="s">
         <v>1</v>
       </c>
+      <c r="AA17" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>Fauna conservation system.</v>
+      </c>
     </row>
-    <row r="18" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="26">
         <v>18</v>
       </c>
@@ -7434,19 +7523,19 @@
         <v>1</v>
       </c>
       <c r="L18" s="31" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>Ecologia</v>
       </c>
       <c r="M18" s="31" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>Ecossistema</v>
       </c>
       <c r="N18" s="31" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>Conservação</v>
       </c>
       <c r="O18" s="31" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>Conservação Vegetal</v>
       </c>
       <c r="P18" s="31" t="s">
@@ -7459,19 +7548,19 @@
         <v>1</v>
       </c>
       <c r="S18" s="30" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>Ecologia</v>
       </c>
       <c r="T18" s="30" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>Ecossistema</v>
       </c>
       <c r="U18" s="30" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>Conservação</v>
       </c>
       <c r="V18" s="30" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>Ecologia</v>
       </c>
       <c r="W18" s="18" t="str">
@@ -7487,8 +7576,12 @@
       <c r="Z18" s="28" t="s">
         <v>1</v>
       </c>
+      <c r="AA18" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>Flora conservation system.</v>
+      </c>
     </row>
-    <row r="19" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="26">
         <v>19</v>
       </c>
@@ -7523,19 +7616,19 @@
         <v>1</v>
       </c>
       <c r="L19" s="31" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>Ecologia</v>
       </c>
       <c r="M19" s="31" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>Ecossistema</v>
       </c>
       <c r="N19" s="31" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>Conservação</v>
       </c>
       <c r="O19" s="31" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>Conservação Mineral</v>
       </c>
       <c r="P19" s="31" t="s">
@@ -7548,19 +7641,19 @@
         <v>1</v>
       </c>
       <c r="S19" s="30" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>Ecologia</v>
       </c>
       <c r="T19" s="30" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>Ecossistema</v>
       </c>
       <c r="U19" s="30" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>Conservação</v>
       </c>
       <c r="V19" s="30" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>Ecologia</v>
       </c>
       <c r="W19" s="18" t="str">
@@ -7576,8 +7669,12 @@
       <c r="Z19" s="28" t="s">
         <v>1</v>
       </c>
+      <c r="AA19" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>Soil conservation system.</v>
+      </c>
     </row>
-    <row r="20" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="26">
         <v>20</v>
       </c>
@@ -7612,19 +7709,19 @@
         <v>1</v>
       </c>
       <c r="L20" s="31" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>Ecologia</v>
       </c>
       <c r="M20" s="31" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>Ecossistema</v>
       </c>
       <c r="N20" s="31" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>Captura de CO2</v>
       </c>
       <c r="O20" s="31" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>Crédito de Carbono</v>
       </c>
       <c r="P20" s="31" t="s">
@@ -7637,19 +7734,19 @@
         <v>1</v>
       </c>
       <c r="S20" s="30" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>Ecologia</v>
       </c>
       <c r="T20" s="30" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>Ecossistema</v>
       </c>
       <c r="U20" s="30" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>Captura de CO2</v>
       </c>
       <c r="V20" s="30" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>Ecologia</v>
       </c>
       <c r="W20" s="18" t="str">
@@ -7665,8 +7762,12 @@
       <c r="Z20" s="28" t="s">
         <v>1</v>
       </c>
+      <c r="AA20" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>Created in 1997 in the Kyoto Protocol as part of the flexibility mechanisms to help countries meet emission reduction targets. Unit: Each credit is equivalent to 1 ton of Carbon Dioxide not emitted or removed from the atmosphere.</v>
+      </c>
     </row>
-    <row r="21" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="26">
         <v>21</v>
       </c>
@@ -7701,19 +7802,19 @@
         <v>1</v>
       </c>
       <c r="L21" s="31" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>Ecologia</v>
       </c>
       <c r="M21" s="31" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>Ecossistema</v>
       </c>
       <c r="N21" s="31" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>Captura de CO2</v>
       </c>
       <c r="O21" s="31" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>Certificado de Carbono</v>
       </c>
       <c r="P21" s="31" t="s">
@@ -7726,15 +7827,15 @@
         <v>1</v>
       </c>
       <c r="S21" s="30" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>Ecologia</v>
       </c>
       <c r="T21" s="30" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>Ecossistema</v>
       </c>
       <c r="U21" s="30" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>Captura de CO2</v>
       </c>
       <c r="V21" s="30" t="str">
@@ -7754,8 +7855,12 @@
       <c r="Z21" s="28" t="s">
         <v>1</v>
       </c>
+      <c r="AA21" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>Bonds or certificates issued by entities that certify the reduction of emissions such as Verra (VCS – Verified Carbon Standard), Gold Standard, Climate Action Reserve, American Carbon Registry, INCCarbono (National Institute of Carbon Certification) or BNDES.</v>
+      </c>
     </row>
-    <row r="22" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="26">
         <v>22</v>
       </c>
@@ -7790,19 +7895,19 @@
         <v>1</v>
       </c>
       <c r="L22" s="31" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>Paisagístico</v>
       </c>
       <c r="M22" s="31" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>Contexto Paisagístico</v>
       </c>
       <c r="N22" s="31" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>Tipos de Solo</v>
       </c>
       <c r="O22" s="31" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>Solo Arenoso</v>
       </c>
       <c r="P22" s="31" t="s">
@@ -7815,15 +7920,15 @@
         <v>1</v>
       </c>
       <c r="S22" s="30" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>Paisagístico</v>
       </c>
       <c r="T22" s="30" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>Contexto Paisagístico</v>
       </c>
       <c r="U22" s="30" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>Tipos de Solo</v>
       </c>
       <c r="V22" s="30" t="str">
@@ -7843,8 +7948,12 @@
       <c r="Z22" s="30" t="s">
         <v>1284</v>
       </c>
+      <c r="AA22" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>Planting soil characteristic: very draining sandy soil</v>
+      </c>
     </row>
-    <row r="23" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="26">
         <v>23</v>
       </c>
@@ -7879,19 +7988,19 @@
         <v>1</v>
       </c>
       <c r="L23" s="31" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>Paisagístico</v>
       </c>
       <c r="M23" s="31" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>Contexto Paisagístico</v>
       </c>
       <c r="N23" s="31" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>Tipos de Solo</v>
       </c>
       <c r="O23" s="31" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>Solo Argiloso</v>
       </c>
       <c r="P23" s="31" t="s">
@@ -7904,15 +8013,15 @@
         <v>1</v>
       </c>
       <c r="S23" s="30" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>Paisagístico</v>
       </c>
       <c r="T23" s="30" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>Contexto Paisagístico</v>
       </c>
       <c r="U23" s="30" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>Tipos de Solo</v>
       </c>
       <c r="V23" s="30" t="str">
@@ -7932,8 +8041,12 @@
       <c r="Z23" s="30" t="s">
         <v>1284</v>
       </c>
+      <c r="AA23" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>Planting soil characteristic: balanced draining clay soil</v>
+      </c>
     </row>
-    <row r="24" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="26">
         <v>24</v>
       </c>
@@ -7968,19 +8081,19 @@
         <v>1</v>
       </c>
       <c r="L24" s="31" t="str">
-        <f t="shared" ref="L24:L26" si="57">_xlfn.CONCAT(SUBSTITUTE(C24,"1.",""))</f>
+        <f t="shared" ref="L24:L26" si="58">_xlfn.CONCAT(SUBSTITUTE(C24,"1.",""))</f>
         <v>Paisagístico</v>
       </c>
       <c r="M24" s="31" t="str">
-        <f t="shared" ref="M24:M26" si="58">_xlfn.CONCAT(SUBSTITUTE(D24,"."," "))</f>
+        <f t="shared" ref="M24:M26" si="59">_xlfn.CONCAT(SUBSTITUTE(D24,"."," "))</f>
         <v>Contexto Paisagístico</v>
       </c>
       <c r="N24" s="31" t="str">
-        <f t="shared" ref="N24:N26" si="59">_xlfn.CONCAT(SUBSTITUTE(E24,"."," "))</f>
+        <f t="shared" ref="N24:N26" si="60">_xlfn.CONCAT(SUBSTITUTE(E24,"."," "))</f>
         <v>Tipos de Solo</v>
       </c>
       <c r="O24" s="31" t="str">
-        <f t="shared" ref="O24:O26" si="60">_xlfn.CONCAT(SUBSTITUTE(F24,"."," "))</f>
+        <f t="shared" ref="O24:O26" si="61">_xlfn.CONCAT(SUBSTITUTE(F24,"."," "))</f>
         <v>Solo Compacto</v>
       </c>
       <c r="P24" s="31" t="s">
@@ -7993,19 +8106,19 @@
         <v>1</v>
       </c>
       <c r="S24" s="30" t="str">
-        <f t="shared" ref="S24:S26" si="61">SUBSTITUTE(C24, ".", " ")</f>
+        <f t="shared" ref="S24:S26" si="62">SUBSTITUTE(C24, ".", " ")</f>
         <v>Paisagístico</v>
       </c>
       <c r="T24" s="30" t="str">
-        <f t="shared" ref="T24:T26" si="62">SUBSTITUTE(D24, ".", " ")</f>
+        <f t="shared" ref="T24:T26" si="63">SUBSTITUTE(D24, ".", " ")</f>
         <v>Contexto Paisagístico</v>
       </c>
       <c r="U24" s="30" t="str">
-        <f t="shared" ref="U24:U26" si="63">SUBSTITUTE(E24, ".", " ")</f>
+        <f t="shared" ref="U24:U26" si="64">SUBSTITUTE(E24, ".", " ")</f>
         <v>Tipos de Solo</v>
       </c>
       <c r="V24" s="30" t="str">
-        <f t="shared" ref="V24:V26" si="64">SUBSTITUTE(C24, ".", " ")</f>
+        <f t="shared" ref="V24:V26" si="65">SUBSTITUTE(C24, ".", " ")</f>
         <v>Paisagístico</v>
       </c>
       <c r="W24" s="18" t="str">
@@ -8021,8 +8134,12 @@
       <c r="Z24" s="30" t="s">
         <v>1285</v>
       </c>
+      <c r="AA24" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>Planting soil characteristic: compact soil with little drainage</v>
+      </c>
     </row>
-    <row r="25" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="26">
         <v>25</v>
       </c>
@@ -8057,19 +8174,19 @@
         <v>1</v>
       </c>
       <c r="L25" s="31" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>Paisagístico</v>
       </c>
       <c r="M25" s="31" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>Contexto Paisagístico</v>
       </c>
       <c r="N25" s="31" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>Exposição Solar</v>
       </c>
       <c r="O25" s="31" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>Sol Pleno</v>
       </c>
       <c r="P25" s="31" t="s">
@@ -8082,19 +8199,19 @@
         <v>1</v>
       </c>
       <c r="S25" s="30" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>Paisagístico</v>
       </c>
       <c r="T25" s="30" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>Contexto Paisagístico</v>
       </c>
       <c r="U25" s="30" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>Exposição Solar</v>
       </c>
       <c r="V25" s="30" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>Paisagístico</v>
       </c>
       <c r="W25" s="18" t="str">
@@ -8110,8 +8227,12 @@
       <c r="Z25" s="28" t="s">
         <v>1</v>
       </c>
+      <c r="AA25" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>Exposure of plants in full sun: 6 or more hours of sunshine per day</v>
+      </c>
     </row>
-    <row r="26" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="26">
         <v>26</v>
       </c>
@@ -8146,19 +8267,19 @@
         <v>1</v>
       </c>
       <c r="L26" s="31" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>Paisagístico</v>
       </c>
       <c r="M26" s="31" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>Contexto Paisagístico</v>
       </c>
       <c r="N26" s="31" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>Exposição Solar</v>
       </c>
       <c r="O26" s="31" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>Sol Parcial</v>
       </c>
       <c r="P26" s="31" t="s">
@@ -8171,19 +8292,19 @@
         <v>1</v>
       </c>
       <c r="S26" s="30" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>Paisagístico</v>
       </c>
       <c r="T26" s="30" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>Contexto Paisagístico</v>
       </c>
       <c r="U26" s="30" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>Exposição Solar</v>
       </c>
       <c r="V26" s="30" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>Paisagístico</v>
       </c>
       <c r="W26" s="18" t="str">
@@ -8199,8 +8320,12 @@
       <c r="Z26" s="28" t="s">
         <v>1</v>
       </c>
+      <c r="AA26" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>Exposure of plants in partial sun: between 3 and 6 hours of sunlight per day</v>
+      </c>
     </row>
-    <row r="27" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="26">
         <v>27</v>
       </c>
@@ -8235,19 +8360,19 @@
         <v>1</v>
       </c>
       <c r="L27" s="31" t="str">
-        <f t="shared" ref="L27:L46" si="65">_xlfn.CONCAT(SUBSTITUTE(C27,"1.",""))</f>
+        <f t="shared" ref="L27:L46" si="66">_xlfn.CONCAT(SUBSTITUTE(C27,"1.",""))</f>
         <v>Paisagístico</v>
       </c>
       <c r="M27" s="31" t="str">
-        <f t="shared" ref="M27:M46" si="66">_xlfn.CONCAT(SUBSTITUTE(D27,"."," "))</f>
+        <f t="shared" ref="M27:M46" si="67">_xlfn.CONCAT(SUBSTITUTE(D27,"."," "))</f>
         <v>Contexto Paisagístico</v>
       </c>
       <c r="N27" s="31" t="str">
-        <f t="shared" ref="N27:N46" si="67">_xlfn.CONCAT(SUBSTITUTE(E27,"."," "))</f>
+        <f t="shared" ref="N27:N46" si="68">_xlfn.CONCAT(SUBSTITUTE(E27,"."," "))</f>
         <v>Exposição Solar</v>
       </c>
       <c r="O27" s="31" t="str">
-        <f t="shared" ref="O27:O46" si="68">_xlfn.CONCAT(SUBSTITUTE(F27,"."," "))</f>
+        <f t="shared" ref="O27:O46" si="69">_xlfn.CONCAT(SUBSTITUTE(F27,"."," "))</f>
         <v>Em Sombra</v>
       </c>
       <c r="P27" s="31" t="s">
@@ -8260,19 +8385,19 @@
         <v>1</v>
       </c>
       <c r="S27" s="30" t="str">
-        <f t="shared" ref="S27:S46" si="69">SUBSTITUTE(C27, ".", " ")</f>
+        <f t="shared" ref="S27:S46" si="70">SUBSTITUTE(C27, ".", " ")</f>
         <v>Paisagístico</v>
       </c>
       <c r="T27" s="30" t="str">
-        <f t="shared" ref="T27:T46" si="70">SUBSTITUTE(D27, ".", " ")</f>
+        <f t="shared" ref="T27:T46" si="71">SUBSTITUTE(D27, ".", " ")</f>
         <v>Contexto Paisagístico</v>
       </c>
       <c r="U27" s="30" t="str">
-        <f t="shared" ref="U27:U46" si="71">SUBSTITUTE(E27, ".", " ")</f>
+        <f t="shared" ref="U27:U46" si="72">SUBSTITUTE(E27, ".", " ")</f>
         <v>Exposição Solar</v>
       </c>
       <c r="V27" s="30" t="str">
-        <f t="shared" ref="V27:V46" si="72">SUBSTITUTE(C27, ".", " ")</f>
+        <f t="shared" ref="V27:V46" si="73">SUBSTITUTE(C27, ".", " ")</f>
         <v>Paisagístico</v>
       </c>
       <c r="W27" s="18" t="str">
@@ -8288,8 +8413,12 @@
       <c r="Z27" s="28" t="s">
         <v>1</v>
       </c>
+      <c r="AA27" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>Plant exposure with less than 3 hours of sun</v>
+      </c>
     </row>
-    <row r="28" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="26">
         <v>28</v>
       </c>
@@ -8324,19 +8453,19 @@
         <v>1</v>
       </c>
       <c r="L28" s="31" t="str">
-        <f t="shared" ref="L28:L45" si="73">_xlfn.CONCAT(SUBSTITUTE(C28,"1.",""))</f>
+        <f t="shared" ref="L28:L45" si="74">_xlfn.CONCAT(SUBSTITUTE(C28,"1.",""))</f>
         <v>Paisagístico</v>
       </c>
       <c r="M28" s="31" t="str">
-        <f t="shared" ref="M28:M45" si="74">_xlfn.CONCAT(SUBSTITUTE(D28,"."," "))</f>
+        <f t="shared" ref="M28:M45" si="75">_xlfn.CONCAT(SUBSTITUTE(D28,"."," "))</f>
         <v>Composição Paisagística</v>
       </c>
       <c r="N28" s="31" t="str">
-        <f t="shared" ref="N28:N45" si="75">_xlfn.CONCAT(SUBSTITUTE(E28,"."," "))</f>
+        <f t="shared" ref="N28:N45" si="76">_xlfn.CONCAT(SUBSTITUTE(E28,"."," "))</f>
         <v>Plantações</v>
       </c>
       <c r="O28" s="31" t="str">
-        <f t="shared" ref="O28:O45" si="76">_xlfn.CONCAT(SUBSTITUTE(F28,"."," "))</f>
+        <f t="shared" ref="O28:O45" si="77">_xlfn.CONCAT(SUBSTITUTE(F28,"."," "))</f>
         <v>Planta de Bosque</v>
       </c>
       <c r="P28" s="31" t="s">
@@ -8349,19 +8478,19 @@
         <v>1</v>
       </c>
       <c r="S28" s="30" t="str">
-        <f t="shared" ref="S28:S45" si="77">SUBSTITUTE(C28, ".", " ")</f>
+        <f t="shared" ref="S28:S45" si="78">SUBSTITUTE(C28, ".", " ")</f>
         <v>Paisagístico</v>
       </c>
       <c r="T28" s="30" t="str">
-        <f t="shared" ref="T28:T45" si="78">SUBSTITUTE(D28, ".", " ")</f>
+        <f t="shared" ref="T28:T45" si="79">SUBSTITUTE(D28, ".", " ")</f>
         <v>Composição Paisagística</v>
       </c>
       <c r="U28" s="30" t="str">
-        <f t="shared" ref="U28:U45" si="79">SUBSTITUTE(E28, ".", " ")</f>
+        <f t="shared" ref="U28:U45" si="80">SUBSTITUTE(E28, ".", " ")</f>
         <v>Plantações</v>
       </c>
       <c r="V28" s="30" t="str">
-        <f t="shared" ref="V28:V45" si="80">SUBSTITUTE(C28, ".", " ")</f>
+        <f t="shared" ref="V28:V45" si="81">SUBSTITUTE(C28, ".", " ")</f>
         <v>Paisagístico</v>
       </c>
       <c r="W28" s="18" t="str">
@@ -8377,8 +8506,12 @@
       <c r="Z28" s="30" t="s">
         <v>1283</v>
       </c>
+      <c r="AA28" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>Dense grouping of trees, with a natural or semi-natural appearance. Ideal for contemplation areas and wildlife refuge</v>
+      </c>
     </row>
-    <row r="29" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="26">
         <v>29</v>
       </c>
@@ -8413,19 +8546,19 @@
         <v>1</v>
       </c>
       <c r="L29" s="31" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>Paisagístico</v>
       </c>
       <c r="M29" s="31" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="N29" s="31" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Plantações</v>
       </c>
       <c r="O29" s="31" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>Planta de Alameda</v>
       </c>
       <c r="P29" s="31" t="s">
@@ -8438,19 +8571,19 @@
         <v>1</v>
       </c>
       <c r="S29" s="30" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>Paisagístico</v>
       </c>
       <c r="T29" s="30" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="U29" s="30" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>Plantações</v>
       </c>
       <c r="V29" s="30" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>Paisagístico</v>
       </c>
       <c r="W29" s="18" t="str">
@@ -8466,8 +8599,12 @@
       <c r="Z29" s="30" t="s">
         <v>1283</v>
       </c>
+      <c r="AA29" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>A path flanked by trees, usually symmetrical and with an aesthetic and shading function.</v>
+      </c>
     </row>
-    <row r="30" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="26">
         <v>30</v>
       </c>
@@ -8502,19 +8639,19 @@
         <v>1</v>
       </c>
       <c r="L30" s="31" t="str">
-        <f t="shared" ref="L30:L35" si="81">_xlfn.CONCAT(SUBSTITUTE(C30,"1.",""))</f>
+        <f t="shared" ref="L30:L35" si="82">_xlfn.CONCAT(SUBSTITUTE(C30,"1.",""))</f>
         <v>Paisagístico</v>
       </c>
       <c r="M30" s="31" t="str">
-        <f t="shared" ref="M30:M35" si="82">_xlfn.CONCAT(SUBSTITUTE(D30,"."," "))</f>
+        <f t="shared" ref="M30:M35" si="83">_xlfn.CONCAT(SUBSTITUTE(D30,"."," "))</f>
         <v>Composição Paisagística</v>
       </c>
       <c r="N30" s="31" t="str">
-        <f t="shared" ref="N30:N35" si="83">_xlfn.CONCAT(SUBSTITUTE(E30,"."," "))</f>
+        <f t="shared" ref="N30:N35" si="84">_xlfn.CONCAT(SUBSTITUTE(E30,"."," "))</f>
         <v>Plantações</v>
       </c>
       <c r="O30" s="31" t="str">
-        <f t="shared" ref="O30:O35" si="84">_xlfn.CONCAT(SUBSTITUTE(F30,"."," "))</f>
+        <f t="shared" ref="O30:O35" si="85">_xlfn.CONCAT(SUBSTITUTE(F30,"."," "))</f>
         <v>Planta de Bordadura</v>
       </c>
       <c r="P30" s="31" t="s">
@@ -8527,19 +8664,19 @@
         <v>1</v>
       </c>
       <c r="S30" s="30" t="str">
-        <f t="shared" ref="S30:S35" si="85">SUBSTITUTE(C30, ".", " ")</f>
+        <f t="shared" ref="S30:S35" si="86">SUBSTITUTE(C30, ".", " ")</f>
         <v>Paisagístico</v>
       </c>
       <c r="T30" s="30" t="str">
-        <f t="shared" ref="T30:T35" si="86">SUBSTITUTE(D30, ".", " ")</f>
+        <f t="shared" ref="T30:T35" si="87">SUBSTITUTE(D30, ".", " ")</f>
         <v>Composição Paisagística</v>
       </c>
       <c r="U30" s="30" t="str">
-        <f t="shared" ref="U30:U35" si="87">SUBSTITUTE(E30, ".", " ")</f>
+        <f t="shared" ref="U30:U35" si="88">SUBSTITUTE(E30, ".", " ")</f>
         <v>Plantações</v>
       </c>
       <c r="V30" s="30" t="str">
-        <f t="shared" ref="V30:V35" si="88">SUBSTITUTE(C30, ".", " ")</f>
+        <f t="shared" ref="V30:V35" si="89">SUBSTITUTE(C30, ".", " ")</f>
         <v>Paisagístico</v>
       </c>
       <c r="W30" s="18" t="str">
@@ -8555,8 +8692,12 @@
       <c r="Z30" s="30" t="s">
         <v>1283</v>
       </c>
+      <c r="AA30" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>Strip of vegetation used to delimit paths, flowerbeds or buildings. Usually composed of small flowering plants. Create visual finish and spatial organization</v>
+      </c>
     </row>
-    <row r="31" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="26">
         <v>31</v>
       </c>
@@ -8591,19 +8732,19 @@
         <v>1</v>
       </c>
       <c r="L31" s="31" t="str">
-        <f t="shared" ref="L31" si="89">_xlfn.CONCAT(SUBSTITUTE(C31,"1.",""))</f>
+        <f t="shared" ref="L31" si="90">_xlfn.CONCAT(SUBSTITUTE(C31,"1.",""))</f>
         <v>Paisagístico</v>
       </c>
       <c r="M31" s="31" t="str">
-        <f t="shared" ref="M31" si="90">_xlfn.CONCAT(SUBSTITUTE(D31,"."," "))</f>
+        <f t="shared" ref="M31" si="91">_xlfn.CONCAT(SUBSTITUTE(D31,"."," "))</f>
         <v>Composição Paisagística</v>
       </c>
       <c r="N31" s="31" t="str">
-        <f t="shared" ref="N31" si="91">_xlfn.CONCAT(SUBSTITUTE(E31,"."," "))</f>
+        <f t="shared" ref="N31" si="92">_xlfn.CONCAT(SUBSTITUTE(E31,"."," "))</f>
         <v>Plantações</v>
       </c>
       <c r="O31" s="31" t="str">
-        <f t="shared" ref="O31" si="92">_xlfn.CONCAT(SUBSTITUTE(F31,"."," "))</f>
+        <f t="shared" ref="O31" si="93">_xlfn.CONCAT(SUBSTITUTE(F31,"."," "))</f>
         <v>Planta de Canteiro</v>
       </c>
       <c r="P31" s="31" t="s">
@@ -8616,19 +8757,19 @@
         <v>1</v>
       </c>
       <c r="S31" s="30" t="str">
-        <f t="shared" ref="S31" si="93">SUBSTITUTE(C31, ".", " ")</f>
+        <f t="shared" ref="S31" si="94">SUBSTITUTE(C31, ".", " ")</f>
         <v>Paisagístico</v>
       </c>
       <c r="T31" s="30" t="str">
-        <f t="shared" ref="T31" si="94">SUBSTITUTE(D31, ".", " ")</f>
+        <f t="shared" ref="T31" si="95">SUBSTITUTE(D31, ".", " ")</f>
         <v>Composição Paisagística</v>
       </c>
       <c r="U31" s="30" t="str">
-        <f t="shared" ref="U31" si="95">SUBSTITUTE(E31, ".", " ")</f>
+        <f t="shared" ref="U31" si="96">SUBSTITUTE(E31, ".", " ")</f>
         <v>Plantações</v>
       </c>
       <c r="V31" s="30" t="str">
-        <f t="shared" ref="V31" si="96">SUBSTITUTE(C31, ".", " ")</f>
+        <f t="shared" ref="V31" si="97">SUBSTITUTE(C31, ".", " ")</f>
         <v>Paisagístico</v>
       </c>
       <c r="W31" s="18" t="str">
@@ -8644,8 +8785,12 @@
       <c r="Z31" s="30" t="s">
         <v>1283</v>
       </c>
+      <c r="AA31" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>Class used to identify and position the plants used on the sidewalks of a development</v>
+      </c>
     </row>
-    <row r="32" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="26">
         <v>32</v>
       </c>
@@ -8680,19 +8825,19 @@
         <v>1</v>
       </c>
       <c r="L32" s="31" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>Paisagístico</v>
       </c>
       <c r="M32" s="31" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="N32" s="31" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>Plantações</v>
       </c>
       <c r="O32" s="31" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>Planta de Maciço</v>
       </c>
       <c r="P32" s="31" t="s">
@@ -8705,19 +8850,19 @@
         <v>1</v>
       </c>
       <c r="S32" s="30" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>Paisagístico</v>
       </c>
       <c r="T32" s="30" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="U32" s="30" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>Plantações</v>
       </c>
       <c r="V32" s="30" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>Paisagístico</v>
       </c>
       <c r="W32" s="18" t="str">
@@ -8733,8 +8878,12 @@
       <c r="Z32" s="30" t="s">
         <v>1283</v>
       </c>
+      <c r="AA32" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>Compact grouping of plants of the same species or function to create visual impact, fill, or enhancement. It can be shrubby, herbaceous or flowery</v>
+      </c>
     </row>
-    <row r="33" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="26">
         <v>33</v>
       </c>
@@ -8769,19 +8918,19 @@
         <v>1</v>
       </c>
       <c r="L33" s="31" t="str">
-        <f t="shared" ref="L33" si="97">_xlfn.CONCAT(SUBSTITUTE(C33,"1.",""))</f>
+        <f t="shared" ref="L33" si="98">_xlfn.CONCAT(SUBSTITUTE(C33,"1.",""))</f>
         <v>Paisagístico</v>
       </c>
       <c r="M33" s="31" t="str">
-        <f t="shared" ref="M33" si="98">_xlfn.CONCAT(SUBSTITUTE(D33,"."," "))</f>
+        <f t="shared" ref="M33" si="99">_xlfn.CONCAT(SUBSTITUTE(D33,"."," "))</f>
         <v>Composição Paisagística</v>
       </c>
       <c r="N33" s="31" t="str">
-        <f t="shared" ref="N33" si="99">_xlfn.CONCAT(SUBSTITUTE(E33,"."," "))</f>
+        <f t="shared" ref="N33" si="100">_xlfn.CONCAT(SUBSTITUTE(E33,"."," "))</f>
         <v>Plantações</v>
       </c>
       <c r="O33" s="31" t="str">
-        <f t="shared" ref="O33" si="100">_xlfn.CONCAT(SUBSTITUTE(F33,"."," "))</f>
+        <f t="shared" ref="O33" si="101">_xlfn.CONCAT(SUBSTITUTE(F33,"."," "))</f>
         <v>Planta de Renque</v>
       </c>
       <c r="P33" s="31" t="s">
@@ -8794,19 +8943,19 @@
         <v>1</v>
       </c>
       <c r="S33" s="30" t="str">
-        <f t="shared" ref="S33" si="101">SUBSTITUTE(C33, ".", " ")</f>
+        <f t="shared" ref="S33" si="102">SUBSTITUTE(C33, ".", " ")</f>
         <v>Paisagístico</v>
       </c>
       <c r="T33" s="30" t="str">
-        <f t="shared" ref="T33" si="102">SUBSTITUTE(D33, ".", " ")</f>
+        <f t="shared" ref="T33" si="103">SUBSTITUTE(D33, ".", " ")</f>
         <v>Composição Paisagística</v>
       </c>
       <c r="U33" s="30" t="str">
-        <f t="shared" ref="U33" si="103">SUBSTITUTE(E33, ".", " ")</f>
+        <f t="shared" ref="U33" si="104">SUBSTITUTE(E33, ".", " ")</f>
         <v>Plantações</v>
       </c>
       <c r="V33" s="30" t="str">
-        <f t="shared" ref="V33" si="104">SUBSTITUTE(C33, ".", " ")</f>
+        <f t="shared" ref="V33" si="105">SUBSTITUTE(C33, ".", " ")</f>
         <v>Paisagístico</v>
       </c>
       <c r="W33" s="18" t="str">
@@ -8822,8 +8971,12 @@
       <c r="Z33" s="30" t="s">
         <v>1283</v>
       </c>
+      <c r="AA33" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>Line of plants arranged linearly. Used for hedges, delineation or marking of visual axes</v>
+      </c>
     </row>
-    <row r="34" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="26">
         <v>34</v>
       </c>
@@ -8858,19 +9011,19 @@
         <v>1</v>
       </c>
       <c r="L34" s="31" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>Paisagístico</v>
       </c>
       <c r="M34" s="31" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="N34" s="31" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>Plantações</v>
       </c>
       <c r="O34" s="31" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>Planta de Calçada</v>
       </c>
       <c r="P34" s="31" t="s">
@@ -8883,19 +9036,19 @@
         <v>1</v>
       </c>
       <c r="S34" s="30" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>Paisagístico</v>
       </c>
       <c r="T34" s="30" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="U34" s="30" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>Plantações</v>
       </c>
       <c r="V34" s="30" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>Paisagístico</v>
       </c>
       <c r="W34" s="18" t="str">
@@ -8911,8 +9064,12 @@
       <c r="Z34" s="30" t="s">
         <v>1283</v>
       </c>
+      <c r="AA34" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>Plants used on the sidewalks of a project</v>
+      </c>
     </row>
-    <row r="35" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="26">
         <v>35</v>
       </c>
@@ -8947,19 +9104,19 @@
         <v>1</v>
       </c>
       <c r="L35" s="31" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>Paisagístico</v>
       </c>
       <c r="M35" s="31" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="N35" s="31" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>Plantações</v>
       </c>
       <c r="O35" s="31" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>Planta de Pérgola</v>
       </c>
       <c r="P35" s="31" t="s">
@@ -8972,19 +9129,19 @@
         <v>1</v>
       </c>
       <c r="S35" s="30" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>Paisagístico</v>
       </c>
       <c r="T35" s="30" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="U35" s="30" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>Plantações</v>
       </c>
       <c r="V35" s="30" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>Paisagístico</v>
       </c>
       <c r="W35" s="18" t="str">
@@ -9000,8 +9157,12 @@
       <c r="Z35" s="30" t="s">
         <v>1283</v>
       </c>
+      <c r="AA35" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>Class used to identify and position the plants used in the pergolas of a project</v>
+      </c>
     </row>
-    <row r="36" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="26">
         <v>36</v>
       </c>
@@ -9036,19 +9197,19 @@
         <v>1</v>
       </c>
       <c r="L36" s="31" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>Paisagístico</v>
       </c>
       <c r="M36" s="31" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="N36" s="31" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Tipos de Jardim</v>
       </c>
       <c r="O36" s="31" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>Jardim Contemplativo</v>
       </c>
       <c r="P36" s="31" t="s">
@@ -9061,19 +9222,19 @@
         <v>1</v>
       </c>
       <c r="S36" s="30" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>Paisagístico</v>
       </c>
       <c r="T36" s="30" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="U36" s="30" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>Tipos de Jardim</v>
       </c>
       <c r="V36" s="30" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>Paisagístico</v>
       </c>
       <c r="W36" s="18" t="str">
@@ -9089,8 +9250,12 @@
       <c r="Z36" s="30" t="s">
         <v>1283</v>
       </c>
+      <c r="AA36" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>Green or dry space for rest, meditation or aesthetic appreciation. Includes benches, aromatic spices, shading and sensory elements</v>
+      </c>
     </row>
-    <row r="37" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="26">
         <v>37</v>
       </c>
@@ -9125,19 +9290,19 @@
         <v>1</v>
       </c>
       <c r="L37" s="31" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>Paisagístico</v>
       </c>
       <c r="M37" s="31" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="N37" s="31" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Tipos de Jardim</v>
       </c>
       <c r="O37" s="31" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>Jardim Formal</v>
       </c>
       <c r="P37" s="31" t="s">
@@ -9150,19 +9315,19 @@
         <v>1</v>
       </c>
       <c r="S37" s="30" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>Paisagístico</v>
       </c>
       <c r="T37" s="30" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="U37" s="30" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>Tipos de Jardim</v>
       </c>
       <c r="V37" s="30" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>Paisagístico</v>
       </c>
       <c r="W37" s="18" t="str">
@@ -9178,8 +9343,12 @@
       <c r="Z37" s="30" t="s">
         <v>1283</v>
       </c>
+      <c r="AA37" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>Garden with symmetrical and geometric arrangement of plants. Pruned plants. Classical inspiration (French, Italian). Use reflective edges, lines and ponds</v>
+      </c>
     </row>
-    <row r="38" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="26">
         <v>38</v>
       </c>
@@ -9214,19 +9383,19 @@
         <v>1</v>
       </c>
       <c r="L38" s="31" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>Paisagístico</v>
       </c>
       <c r="M38" s="31" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="N38" s="31" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Tipos de Jardim</v>
       </c>
       <c r="O38" s="31" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>Jardim Informal</v>
       </c>
       <c r="P38" s="31" t="s">
@@ -9239,19 +9408,19 @@
         <v>1</v>
       </c>
       <c r="S38" s="30" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>Paisagístico</v>
       </c>
       <c r="T38" s="30" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="U38" s="30" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>Tipos de Jardim</v>
       </c>
       <c r="V38" s="30" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>Paisagístico</v>
       </c>
       <c r="W38" s="18" t="str">
@@ -9267,8 +9436,12 @@
       <c r="Z38" s="30" t="s">
         <v>1283</v>
       </c>
+      <c r="AA38" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>Asymmetrical garden, with organic shapes and freer vegetation. Naturalistic inspiration (English or tropical). Promotes biodiversity and a sense of naturalness</v>
+      </c>
     </row>
-    <row r="39" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="26">
         <v>39</v>
       </c>
@@ -9303,19 +9476,19 @@
         <v>1</v>
       </c>
       <c r="L39" s="31" t="str">
-        <f t="shared" ref="L39:L41" si="105">_xlfn.CONCAT(SUBSTITUTE(C39,"1.",""))</f>
+        <f t="shared" ref="L39:L41" si="106">_xlfn.CONCAT(SUBSTITUTE(C39,"1.",""))</f>
         <v>Paisagístico</v>
       </c>
       <c r="M39" s="31" t="str">
-        <f t="shared" ref="M39:M41" si="106">_xlfn.CONCAT(SUBSTITUTE(D39,"."," "))</f>
+        <f t="shared" ref="M39:M41" si="107">_xlfn.CONCAT(SUBSTITUTE(D39,"."," "))</f>
         <v>Composição Paisagística</v>
       </c>
       <c r="N39" s="31" t="str">
-        <f t="shared" ref="N39:N41" si="107">_xlfn.CONCAT(SUBSTITUTE(E39,"."," "))</f>
+        <f t="shared" ref="N39:N41" si="108">_xlfn.CONCAT(SUBSTITUTE(E39,"."," "))</f>
         <v>Tipos de Jardim</v>
       </c>
       <c r="O39" s="31" t="str">
-        <f t="shared" ref="O39:O41" si="108">_xlfn.CONCAT(SUBSTITUTE(F39,"."," "))</f>
+        <f t="shared" ref="O39:O41" si="109">_xlfn.CONCAT(SUBSTITUTE(F39,"."," "))</f>
         <v>Jardim Zen</v>
       </c>
       <c r="P39" s="31" t="s">
@@ -9328,19 +9501,19 @@
         <v>1</v>
       </c>
       <c r="S39" s="30" t="str">
-        <f t="shared" ref="S39:S41" si="109">SUBSTITUTE(C39, ".", " ")</f>
+        <f t="shared" ref="S39:S41" si="110">SUBSTITUTE(C39, ".", " ")</f>
         <v>Paisagístico</v>
       </c>
       <c r="T39" s="30" t="str">
-        <f t="shared" ref="T39:T41" si="110">SUBSTITUTE(D39, ".", " ")</f>
+        <f t="shared" ref="T39:T41" si="111">SUBSTITUTE(D39, ".", " ")</f>
         <v>Composição Paisagística</v>
       </c>
       <c r="U39" s="30" t="str">
-        <f t="shared" ref="U39:U41" si="111">SUBSTITUTE(E39, ".", " ")</f>
+        <f t="shared" ref="U39:U41" si="112">SUBSTITUTE(E39, ".", " ")</f>
         <v>Tipos de Jardim</v>
       </c>
       <c r="V39" s="30" t="str">
-        <f t="shared" ref="V39:V41" si="112">SUBSTITUTE(C39, ".", " ")</f>
+        <f t="shared" ref="V39:V41" si="113">SUBSTITUTE(C39, ".", " ")</f>
         <v>Paisagístico</v>
       </c>
       <c r="W39" s="18" t="str">
@@ -9356,8 +9529,12 @@
       <c r="Z39" s="30" t="s">
         <v>1283</v>
       </c>
+      <c r="AA39" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>Minimalist and contemplative garden, made of ornamental stones (granite, pebbles, quartzite, basalt) with gravel or sand to cover the ground. Xerophytic (drought-adapted) plants, such as succulents and cacti. Use of logs, sculptures, or lanterns as focal points. Symmetry or controlled asymmetry. Contrasting textures between rocks and vegetation</v>
+      </c>
     </row>
-    <row r="40" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="26">
         <v>40</v>
       </c>
@@ -9392,19 +9569,19 @@
         <v>1</v>
       </c>
       <c r="L40" s="31" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>Paisagístico</v>
       </c>
       <c r="M40" s="31" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="N40" s="31" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>Elementos Hídricos</v>
       </c>
       <c r="O40" s="31" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>Espelho de Agua</v>
       </c>
       <c r="P40" s="31" t="s">
@@ -9417,19 +9594,19 @@
         <v>1</v>
       </c>
       <c r="S40" s="30" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>Paisagístico</v>
       </c>
       <c r="T40" s="30" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="U40" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>Elementos Hídricos</v>
       </c>
       <c r="V40" s="30" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>Paisagístico</v>
       </c>
       <c r="W40" s="18" t="str">
@@ -9445,8 +9622,12 @@
       <c r="Z40" s="30" t="s">
         <v>1283</v>
       </c>
+      <c r="AA40" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>An ornamental landscape element of shallow and calm water, usually decorative. It can include aquatic plants, fish, or sculptures. Refreshes the environment and reflects the environment, enlarging the landscape</v>
+      </c>
     </row>
-    <row r="41" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="26">
         <v>41</v>
       </c>
@@ -9481,19 +9662,19 @@
         <v>1</v>
       </c>
       <c r="L41" s="31" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>Paisagístico</v>
       </c>
       <c r="M41" s="31" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="N41" s="31" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>Elementos Hídricos</v>
       </c>
       <c r="O41" s="31" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>Chafariz</v>
       </c>
       <c r="P41" s="31" t="s">
@@ -9506,19 +9687,19 @@
         <v>1</v>
       </c>
       <c r="S41" s="30" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>Paisagístico</v>
       </c>
       <c r="T41" s="30" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="U41" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>Elementos Hídricos</v>
       </c>
       <c r="V41" s="30" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>Paisagístico</v>
       </c>
       <c r="W41" s="18" t="str">
@@ -9534,8 +9715,12 @@
       <c r="Z41" s="30" t="s">
         <v>1283</v>
       </c>
+      <c r="AA41" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>Ornamental landscape element that uses moving water to create visual, sound and sensory effects in gardens, squares and public spaces</v>
+      </c>
     </row>
-    <row r="42" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="26">
         <v>42</v>
       </c>
@@ -9570,19 +9755,19 @@
         <v>1</v>
       </c>
       <c r="L42" s="31" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>Paisagístico</v>
       </c>
       <c r="M42" s="31" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="N42" s="31" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Elementos Hídricos</v>
       </c>
       <c r="O42" s="31" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>Cascata</v>
       </c>
       <c r="P42" s="31" t="s">
@@ -9595,19 +9780,19 @@
         <v>1</v>
       </c>
       <c r="S42" s="30" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>Paisagístico</v>
       </c>
       <c r="T42" s="30" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="U42" s="30" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>Elementos Hídricos</v>
       </c>
       <c r="V42" s="30" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>Paisagístico</v>
       </c>
       <c r="W42" s="18" t="str">
@@ -9623,8 +9808,12 @@
       <c r="Z42" s="30" t="s">
         <v>1283</v>
       </c>
+      <c r="AA42" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>Ornamental landscaping element that simulates the natural flow of falling water, integrating aesthetics, shading, freshness and sound into the landscaping project</v>
+      </c>
     </row>
-    <row r="43" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="26">
         <v>43</v>
       </c>
@@ -9659,19 +9848,19 @@
         <v>1</v>
       </c>
       <c r="L43" s="31" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>Paisagístico</v>
       </c>
       <c r="M43" s="31" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="N43" s="31" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Elementos Verdes</v>
       </c>
       <c r="O43" s="31" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>Cerca Viva</v>
       </c>
       <c r="P43" s="31" t="s">
@@ -9684,23 +9873,23 @@
         <v>1</v>
       </c>
       <c r="S43" s="30" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>Paisagístico</v>
       </c>
       <c r="T43" s="30" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="U43" s="30" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>Elementos Verdes</v>
       </c>
       <c r="V43" s="30" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>Paisagístico</v>
       </c>
       <c r="W43" s="18" t="str">
-        <f t="shared" ref="W43" si="113">CONCATENATE("K.",LEFT(C43,3),".",A43)</f>
+        <f t="shared" ref="W43" si="114">CONCATENATE("K.",LEFT(C43,3),".",A43)</f>
         <v>K.Pai.43</v>
       </c>
       <c r="X43" s="28" t="s">
@@ -9712,8 +9901,12 @@
       <c r="Z43" s="30" t="s">
         <v>1283</v>
       </c>
+      <c r="AA43" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>Landscape element used to identify and position plants used as boundaries or fences</v>
+      </c>
     </row>
-    <row r="44" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="26">
         <v>44</v>
       </c>
@@ -9748,19 +9941,19 @@
         <v>1</v>
       </c>
       <c r="L44" s="31" t="str">
-        <f t="shared" ref="L44" si="114">_xlfn.CONCAT(SUBSTITUTE(C44,"1.",""))</f>
+        <f t="shared" ref="L44" si="115">_xlfn.CONCAT(SUBSTITUTE(C44,"1.",""))</f>
         <v>Paisagístico</v>
       </c>
       <c r="M44" s="31" t="str">
-        <f t="shared" ref="M44" si="115">_xlfn.CONCAT(SUBSTITUTE(D44,"."," "))</f>
+        <f t="shared" ref="M44" si="116">_xlfn.CONCAT(SUBSTITUTE(D44,"."," "))</f>
         <v>Composição Paisagística</v>
       </c>
       <c r="N44" s="31" t="str">
-        <f t="shared" ref="N44" si="116">_xlfn.CONCAT(SUBSTITUTE(E44,"."," "))</f>
+        <f t="shared" ref="N44" si="117">_xlfn.CONCAT(SUBSTITUTE(E44,"."," "))</f>
         <v>Elementos Verdes</v>
       </c>
       <c r="O44" s="31" t="str">
-        <f t="shared" ref="O44" si="117">_xlfn.CONCAT(SUBSTITUTE(F44,"."," "))</f>
+        <f t="shared" ref="O44" si="118">_xlfn.CONCAT(SUBSTITUTE(F44,"."," "))</f>
         <v>Corbelha</v>
       </c>
       <c r="P44" s="31" t="s">
@@ -9773,19 +9966,19 @@
         <v>1</v>
       </c>
       <c r="S44" s="30" t="str">
-        <f t="shared" ref="S44" si="118">SUBSTITUTE(C44, ".", " ")</f>
+        <f t="shared" ref="S44" si="119">SUBSTITUTE(C44, ".", " ")</f>
         <v>Paisagístico</v>
       </c>
       <c r="T44" s="30" t="str">
-        <f t="shared" ref="T44" si="119">SUBSTITUTE(D44, ".", " ")</f>
+        <f t="shared" ref="T44" si="120">SUBSTITUTE(D44, ".", " ")</f>
         <v>Composição Paisagística</v>
       </c>
       <c r="U44" s="30" t="str">
-        <f t="shared" ref="U44" si="120">SUBSTITUTE(E44, ".", " ")</f>
+        <f t="shared" ref="U44" si="121">SUBSTITUTE(E44, ".", " ")</f>
         <v>Elementos Verdes</v>
       </c>
       <c r="V44" s="30" t="str">
-        <f t="shared" ref="V44" si="121">SUBSTITUTE(C44, ".", " ")</f>
+        <f t="shared" ref="V44" si="122">SUBSTITUTE(C44, ".", " ")</f>
         <v>Paisagístico</v>
       </c>
       <c r="W44" s="18" t="str">
@@ -9801,8 +9994,12 @@
       <c r="Z44" s="30" t="s">
         <v>1283</v>
       </c>
+      <c r="AA44" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>Landscape element created by association of several species forming a sculptural plant volume that can combine colors and textures in the garden</v>
+      </c>
     </row>
-    <row r="45" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="26">
         <v>45</v>
       </c>
@@ -9837,19 +10034,19 @@
         <v>1</v>
       </c>
       <c r="L45" s="31" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>Paisagístico</v>
       </c>
       <c r="M45" s="31" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="N45" s="31" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>Elementos Verdes</v>
       </c>
       <c r="O45" s="31" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>Área Gramada</v>
       </c>
       <c r="P45" s="31" t="s">
@@ -9862,19 +10059,19 @@
         <v>1</v>
       </c>
       <c r="S45" s="30" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>Paisagístico</v>
       </c>
       <c r="T45" s="30" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="U45" s="30" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>Elementos Verdes</v>
       </c>
       <c r="V45" s="30" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>Paisagístico</v>
       </c>
       <c r="W45" s="18" t="str">
@@ -9890,8 +10087,12 @@
       <c r="Z45" s="30" t="s">
         <v>1284</v>
       </c>
+      <c r="AA45" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>Landscape element used to identify and position areas of grass flooring in a garden or landscaping project</v>
+      </c>
     </row>
-    <row r="46" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="26">
         <v>46</v>
       </c>
@@ -9926,19 +10127,19 @@
         <v>1</v>
       </c>
       <c r="L46" s="31" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>Paisagístico</v>
       </c>
       <c r="M46" s="31" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="N46" s="31" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>Elementos Secos</v>
       </c>
       <c r="O46" s="31" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>Área Mineral</v>
       </c>
       <c r="P46" s="31" t="s">
@@ -9951,19 +10152,19 @@
         <v>1</v>
       </c>
       <c r="S46" s="30" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>Paisagístico</v>
       </c>
       <c r="T46" s="30" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>Composição Paisagística</v>
       </c>
       <c r="U46" s="30" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>Elementos Secos</v>
       </c>
       <c r="V46" s="30" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>Paisagístico</v>
       </c>
       <c r="W46" s="18" t="str">
@@ -9979,8 +10180,12 @@
       <c r="Z46" s="30" t="s">
         <v>1284</v>
       </c>
+      <c r="AA46" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>Landscape element used to identify and position the dry floor areas of a garden or landscaping project</v>
+      </c>
     </row>
-    <row r="47" spans="1:26" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="26">
         <v>47</v>
       </c>
@@ -10015,19 +10220,19 @@
         <v>1</v>
       </c>
       <c r="L47" s="31" t="str">
-        <f t="shared" ref="L47" si="122">_xlfn.CONCAT(SUBSTITUTE(C47,"1.",""))</f>
+        <f t="shared" ref="L47" si="123">_xlfn.CONCAT(SUBSTITUTE(C47,"1.",""))</f>
         <v>Divisão.Botânica</v>
       </c>
       <c r="M47" s="31" t="str">
-        <f t="shared" ref="M47" si="123">_xlfn.CONCAT(SUBSTITUTE(D47,"."," "))</f>
+        <f t="shared" ref="M47" si="124">_xlfn.CONCAT(SUBSTITUTE(D47,"."," "))</f>
         <v>Classe Botânica</v>
       </c>
       <c r="N47" s="31" t="str">
-        <f t="shared" ref="N47" si="124">_xlfn.CONCAT(SUBSTITUTE(E47,"."," "))</f>
+        <f t="shared" ref="N47" si="125">_xlfn.CONCAT(SUBSTITUTE(E47,"."," "))</f>
         <v>Ordem Botânica</v>
       </c>
       <c r="O47" s="31" t="str">
-        <f t="shared" ref="O47" si="125">_xlfn.CONCAT(SUBSTITUTE(F47,"."," "))</f>
+        <f t="shared" ref="O47" si="126">_xlfn.CONCAT(SUBSTITUTE(F47,"."," "))</f>
         <v>Família Botânica</v>
       </c>
       <c r="P47" s="31" t="s">
@@ -10040,19 +10245,19 @@
         <v>1</v>
       </c>
       <c r="S47" s="30" t="str">
-        <f t="shared" ref="S47" si="126">SUBSTITUTE(C47, ".", " ")</f>
+        <f t="shared" ref="S47" si="127">SUBSTITUTE(C47, ".", " ")</f>
         <v>Divisão Botânica</v>
       </c>
       <c r="T47" s="30" t="str">
-        <f t="shared" ref="T47" si="127">SUBSTITUTE(D47, ".", " ")</f>
+        <f t="shared" ref="T47" si="128">SUBSTITUTE(D47, ".", " ")</f>
         <v>Classe Botânica</v>
       </c>
       <c r="U47" s="30" t="str">
-        <f t="shared" ref="U47" si="128">SUBSTITUTE(E47, ".", " ")</f>
+        <f t="shared" ref="U47" si="129">SUBSTITUTE(E47, ".", " ")</f>
         <v>Ordem Botânica</v>
       </c>
       <c r="V47" s="30" t="str">
-        <f t="shared" ref="V47" si="129">SUBSTITUTE(C47, ".", " ")</f>
+        <f t="shared" ref="V47" si="130">SUBSTITUTE(C47, ".", " ")</f>
         <v>Divisão Botânica</v>
       </c>
       <c r="W47" s="18" t="str">
@@ -10067,74 +10272,83 @@
       </c>
       <c r="Z47" s="30" t="s">
         <v>1283</v>
+      </c>
+      <c r="AA47" s="28" t="str">
+        <f t="shared" si="10"/>
+        <v>Botanical family.</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="76" priority="1422"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="1423"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="75" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="74" priority="1664"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="1665"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="1665"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="1666"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:F46">
-    <cfRule type="cellIs" dxfId="72" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="11" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:F1048576 F1">
-    <cfRule type="duplicateValues" dxfId="71" priority="1893"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="1894"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="1895"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="1894"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="1895"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="1896"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:F1048576">
-    <cfRule type="duplicateValues" dxfId="68" priority="1905"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="1906"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="1907"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="1908"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="1909"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="1906"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="1907"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="1908"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="1909"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="1910"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:W1 F48:W1048576 A1:C1 Y1:XFD1 B2:B47 G3:U14 G15:J15 L15:U15 G16:U47 X25:Y27 Y28:Y35 X36:Y42 A48:C1048576">
-    <cfRule type="cellIs" dxfId="63" priority="384" operator="equal">
+  <conditionalFormatting sqref="F1:W1 F48:W1048576 A1:C1 Y1:Z1 B2:B47 G3:U14 G15:J15 L15:U15 G16:U47 X25:Y27 Y28:Y35 X36:Y42 A48:C1048576 AB1:XFD1">
+    <cfRule type="cellIs" dxfId="64" priority="385" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:K2">
-    <cfRule type="cellIs" dxfId="62" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="25" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2">
-    <cfRule type="cellIs" dxfId="61" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="28" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:Z2">
-    <cfRule type="cellIs" dxfId="60" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="15" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X17:XFD21">
-    <cfRule type="cellIs" dxfId="59" priority="9" operator="equal">
+  <conditionalFormatting sqref="X17:Z21 AB17:XFD21">
+    <cfRule type="cellIs" dxfId="60" priority="10" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:XFD16">
-    <cfRule type="cellIs" dxfId="58" priority="1" operator="equal">
+  <conditionalFormatting sqref="Y3:Z16 AB3:XFD16">
+    <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y22:XFD24">
-    <cfRule type="cellIs" dxfId="57" priority="4" operator="equal">
+  <conditionalFormatting sqref="Y22:Z24 AB22:XFD24">
+    <cfRule type="cellIs" dxfId="58" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z25:XFD47 Y43:Y47 Y48:XFD1048576">
-    <cfRule type="cellIs" dxfId="56" priority="7" operator="equal">
+  <conditionalFormatting sqref="Z25:Z47 Y43:Y47 Y48:XFD1048576 AB25:XFD47">
+    <cfRule type="cellIs" dxfId="57" priority="8" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA1:AA47">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10152,15 +10366,15 @@
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
-    <col min="2" max="10" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="21" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="11.140625" style="5"/>
+    <col min="1" max="1" width="2.3046875" style="1" customWidth="1"/>
+    <col min="2" max="10" width="5.15234375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="21" width="5.53515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="11.15234375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>22</v>
       </c>
@@ -10225,7 +10439,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22">
         <v>2</v>
       </c>
@@ -10290,7 +10504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="22">
         <v>3</v>
       </c>
@@ -10358,7 +10572,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10377,14 +10591,14 @@
       <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="6" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.3828125" defaultRowHeight="6" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="6.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.15234375" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="12.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="20">
         <v>1</v>
       </c>
@@ -10398,7 +10612,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="38" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" s="38" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>2</v>
       </c>
@@ -10412,7 +10626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="38" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" s="38" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>3</v>
       </c>
@@ -10426,7 +10640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="38" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" s="38" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>4</v>
       </c>
@@ -10440,13 +10654,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="38" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="38" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
     </row>
-    <row r="6" spans="1:4" s="38" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="38" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -10454,7 +10668,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A4">
-    <cfRule type="cellIs" dxfId="54" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="32" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10472,57 +10686,57 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="166.28515625" defaultRowHeight="7.35" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="166.3046875" defaultRowHeight="7.4" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="70" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="74" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="69" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="69" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="69" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="69" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="74" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="74" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="74" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" style="74" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="74" customWidth="1"/>
+    <col min="1" max="1" width="2.3046875" style="70" customWidth="1"/>
+    <col min="2" max="2" width="11.15234375" style="74" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.15234375" style="69" customWidth="1"/>
+    <col min="4" max="4" width="11.53515625" style="69" customWidth="1"/>
+    <col min="5" max="5" width="16.15234375" style="69" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.84375" style="69" customWidth="1"/>
+    <col min="7" max="7" width="8.3046875" style="74" customWidth="1"/>
+    <col min="8" max="8" width="9.84375" style="74" customWidth="1"/>
+    <col min="9" max="9" width="9.3828125" style="74" customWidth="1"/>
+    <col min="10" max="10" width="9.84375" style="74" customWidth="1"/>
+    <col min="11" max="11" width="8.53515625" style="74" customWidth="1"/>
     <col min="12" max="12" width="10" style="74" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="74" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="69" customWidth="1"/>
-    <col min="15" max="15" width="21.140625" style="69" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="69" customWidth="1"/>
-    <col min="17" max="17" width="2.85546875" style="70" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="74" customWidth="1"/>
-    <col min="19" max="19" width="3.85546875" style="74" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" style="74" customWidth="1"/>
-    <col min="21" max="21" width="3.85546875" style="74" customWidth="1"/>
+    <col min="13" max="13" width="10.3828125" style="74" customWidth="1"/>
+    <col min="14" max="14" width="14.15234375" style="69" customWidth="1"/>
+    <col min="15" max="15" width="21.15234375" style="69" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.3046875" style="69" customWidth="1"/>
+    <col min="17" max="17" width="2.84375" style="70" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.69140625" style="74" customWidth="1"/>
+    <col min="19" max="19" width="3.84375" style="74" customWidth="1"/>
+    <col min="20" max="20" width="12.84375" style="74" customWidth="1"/>
+    <col min="21" max="21" width="3.84375" style="74" customWidth="1"/>
     <col min="22" max="22" width="11" style="74" customWidth="1"/>
-    <col min="23" max="23" width="3.85546875" style="117" customWidth="1"/>
-    <col min="24" max="24" width="12.85546875" style="74" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.85546875" style="70" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.42578125" style="69" customWidth="1"/>
-    <col min="27" max="27" width="13.140625" style="70" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.7109375" style="69" customWidth="1"/>
-    <col min="29" max="29" width="3.85546875" style="70" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.85546875" style="70" customWidth="1"/>
-    <col min="31" max="31" width="5.5703125" style="70" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.7109375" style="69" customWidth="1"/>
-    <col min="33" max="33" width="25.140625" style="69" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.85546875" style="74" customWidth="1"/>
-    <col min="35" max="35" width="34.42578125" style="69" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.84375" style="117" customWidth="1"/>
+    <col min="24" max="24" width="12.84375" style="74" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.84375" style="70" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.3828125" style="69" customWidth="1"/>
+    <col min="27" max="27" width="13.15234375" style="70" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.69140625" style="69" customWidth="1"/>
+    <col min="29" max="29" width="3.84375" style="70" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.84375" style="70" customWidth="1"/>
+    <col min="31" max="31" width="5.53515625" style="70" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.69140625" style="69" customWidth="1"/>
+    <col min="33" max="33" width="25.15234375" style="69" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.84375" style="74" customWidth="1"/>
+    <col min="35" max="35" width="34.3828125" style="69" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="6" style="74" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="255.7109375" style="69" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.5703125" style="69" customWidth="1"/>
-    <col min="39" max="39" width="12.42578125" style="69" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="2.7109375" style="69" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.140625" style="69" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="255.69140625" style="69" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.53515625" style="69" customWidth="1"/>
+    <col min="39" max="39" width="12.3828125" style="69" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="2.69140625" style="69" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.15234375" style="69" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="7" style="69" customWidth="1"/>
-    <col min="43" max="43" width="3.85546875" style="70" customWidth="1"/>
+    <col min="43" max="43" width="3.84375" style="70" customWidth="1"/>
     <col min="44" max="44" width="11" style="69" customWidth="1"/>
-    <col min="45" max="45" width="10.28515625" style="74" customWidth="1"/>
-    <col min="46" max="16384" width="166.28515625" style="69"/>
+    <col min="45" max="45" width="10.3046875" style="74" customWidth="1"/>
+    <col min="46" max="16384" width="166.3046875" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="25">
         <v>1</v>
       </c>
@@ -10657,7 +10871,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="42">
         <v>2</v>
       </c>
@@ -10794,7 +11008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="42">
         <v>3</v>
       </c>
@@ -10931,7 +11145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="42">
         <v>4</v>
       </c>
@@ -11068,7 +11282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="42">
         <v>5</v>
       </c>
@@ -11205,7 +11419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="42">
         <v>6</v>
       </c>
@@ -11342,7 +11556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="42">
         <v>7</v>
       </c>
@@ -11479,7 +11693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="42">
         <v>8</v>
       </c>
@@ -11616,7 +11830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="42">
         <v>9</v>
       </c>
@@ -11753,7 +11967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="42">
         <v>10</v>
       </c>
@@ -11890,7 +12104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="42">
         <v>11</v>
       </c>
@@ -12027,7 +12241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="42">
         <v>12</v>
       </c>
@@ -12164,7 +12378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="42">
         <v>13</v>
       </c>
@@ -12301,7 +12515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="42">
         <v>14</v>
       </c>
@@ -12438,7 +12652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="42">
         <v>15</v>
       </c>
@@ -12575,7 +12789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="42">
         <v>16</v>
       </c>
@@ -12712,7 +12926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="42">
         <v>17</v>
       </c>
@@ -12849,7 +13063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="42">
         <v>18</v>
       </c>
@@ -12986,7 +13200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="42">
         <v>19</v>
       </c>
@@ -13123,7 +13337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="42">
         <v>20</v>
       </c>
@@ -13260,7 +13474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="42">
         <v>21</v>
       </c>
@@ -13397,7 +13611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="42">
         <v>22</v>
       </c>
@@ -13534,7 +13748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="42">
         <v>23</v>
       </c>
@@ -13671,7 +13885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="42">
         <v>24</v>
       </c>
@@ -13808,7 +14022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="42">
         <v>25</v>
       </c>
@@ -13945,7 +14159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="42">
         <v>26</v>
       </c>
@@ -14082,7 +14296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="42">
         <v>27</v>
       </c>
@@ -14219,7 +14433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="42">
         <v>28</v>
       </c>
@@ -14356,7 +14570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="42">
         <v>29</v>
       </c>
@@ -14493,7 +14707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="42">
         <v>30</v>
       </c>
@@ -14630,7 +14844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="42">
         <v>31</v>
       </c>
@@ -14767,7 +14981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="42">
         <v>32</v>
       </c>
@@ -14904,7 +15118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="42">
         <v>33</v>
       </c>
@@ -15041,7 +15255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="42">
         <v>34</v>
       </c>
@@ -15178,7 +15392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="42">
         <v>35</v>
       </c>
@@ -15315,7 +15529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="42">
         <v>36</v>
       </c>
@@ -15452,7 +15666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="42">
         <v>37</v>
       </c>
@@ -15589,7 +15803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="42">
         <v>38</v>
       </c>
@@ -15726,7 +15940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="42">
         <v>39</v>
       </c>
@@ -15863,7 +16077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="42">
         <v>40</v>
       </c>
@@ -16000,7 +16214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="42">
         <v>41</v>
       </c>
@@ -16137,7 +16351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="42">
         <v>42</v>
       </c>
@@ -16274,7 +16488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="42">
         <v>43</v>
       </c>
@@ -16411,7 +16625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="42">
         <v>44</v>
       </c>
@@ -16548,7 +16762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="42">
         <v>45</v>
       </c>
@@ -16685,7 +16899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="42">
         <v>46</v>
       </c>
@@ -16822,7 +17036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="42">
         <v>47</v>
       </c>
@@ -16959,7 +17173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="42">
         <v>48</v>
       </c>
@@ -17096,7 +17310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="42">
         <v>49</v>
       </c>
@@ -17233,7 +17447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="42">
         <v>50</v>
       </c>
@@ -17370,7 +17584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="42">
         <v>51</v>
       </c>
@@ -17507,7 +17721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="42">
         <v>52</v>
       </c>
@@ -17644,7 +17858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="42">
         <v>53</v>
       </c>
@@ -17781,7 +17995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="42">
         <v>54</v>
       </c>
@@ -17918,7 +18132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="42">
         <v>55</v>
       </c>
@@ -18055,7 +18269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="42">
         <v>56</v>
       </c>
@@ -18192,7 +18406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="42">
         <v>57</v>
       </c>
@@ -18329,7 +18543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="42">
         <v>58</v>
       </c>
@@ -18466,7 +18680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="42">
         <v>59</v>
       </c>
@@ -18603,7 +18817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="42">
         <v>60</v>
       </c>
@@ -18740,7 +18954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="42">
         <v>61</v>
       </c>
@@ -18877,7 +19091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="42">
         <v>62</v>
       </c>
@@ -19014,7 +19228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="42">
         <v>63</v>
       </c>
@@ -19151,7 +19365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="42">
         <v>64</v>
       </c>
@@ -19288,7 +19502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="42">
         <v>65</v>
       </c>
@@ -19425,7 +19639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="42">
         <v>66</v>
       </c>
@@ -19562,7 +19776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="42">
         <v>67</v>
       </c>
@@ -19699,7 +19913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="42">
         <v>68</v>
       </c>
@@ -19836,7 +20050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="42">
         <v>69</v>
       </c>
@@ -19973,7 +20187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="42">
         <v>70</v>
       </c>
@@ -20110,7 +20324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="42">
         <v>71</v>
       </c>
@@ -20247,7 +20461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="42">
         <v>72</v>
       </c>
@@ -20384,7 +20598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="42">
         <v>73</v>
       </c>
@@ -20521,7 +20735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="42">
         <v>74</v>
       </c>
@@ -20658,7 +20872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="42">
         <v>75</v>
       </c>
@@ -20795,7 +21009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="42">
         <v>76</v>
       </c>
@@ -20932,7 +21146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="42">
         <v>77</v>
       </c>
@@ -21069,7 +21283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="42">
         <v>78</v>
       </c>
@@ -21206,7 +21420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="42">
         <v>79</v>
       </c>
@@ -21343,7 +21557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="42">
         <v>80</v>
       </c>
@@ -21480,7 +21694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="42">
         <v>81</v>
       </c>
@@ -21617,7 +21831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="42">
         <v>82</v>
       </c>
@@ -21754,7 +21968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="42">
         <v>83</v>
       </c>
@@ -21891,7 +22105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="42">
         <v>84</v>
       </c>
@@ -22028,7 +22242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="42">
         <v>85</v>
       </c>
@@ -22165,7 +22379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="42">
         <v>86</v>
       </c>
@@ -22302,7 +22516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="42">
         <v>87</v>
       </c>
@@ -22439,7 +22653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="42">
         <v>88</v>
       </c>
@@ -22576,7 +22790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="42">
         <v>89</v>
       </c>
@@ -22713,7 +22927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="42">
         <v>90</v>
       </c>
@@ -22850,7 +23064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="42">
         <v>91</v>
       </c>
@@ -22987,7 +23201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="42">
         <v>92</v>
       </c>
@@ -23124,7 +23338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="42">
         <v>93</v>
       </c>
@@ -23261,7 +23475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="42">
         <v>94</v>
       </c>
@@ -23398,7 +23612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="42">
         <v>95</v>
       </c>
@@ -23535,7 +23749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="42">
         <v>96</v>
       </c>
@@ -23672,7 +23886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="42">
         <v>97</v>
       </c>
@@ -23809,7 +24023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="42">
         <v>98</v>
       </c>
@@ -23946,7 +24160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="42">
         <v>99</v>
       </c>
@@ -24083,7 +24297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="42">
         <v>100</v>
       </c>
@@ -24220,7 +24434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="42">
         <v>101</v>
       </c>
@@ -24357,7 +24571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="42">
         <v>102</v>
       </c>
@@ -24494,7 +24708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="42">
         <v>103</v>
       </c>
@@ -24631,7 +24845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="42">
         <v>104</v>
       </c>
@@ -24768,7 +24982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="42">
         <v>105</v>
       </c>
@@ -24905,7 +25119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="42">
         <v>106</v>
       </c>
@@ -25042,7 +25256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="42">
         <v>107</v>
       </c>
@@ -25179,7 +25393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="42">
         <v>108</v>
       </c>
@@ -25316,7 +25530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="42">
         <v>109</v>
       </c>
@@ -25453,7 +25667,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="110" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="42">
         <v>110</v>
       </c>
@@ -25590,7 +25804,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="111" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="42">
         <v>111</v>
       </c>
@@ -25727,7 +25941,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="112" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="42">
         <v>112</v>
       </c>
@@ -25864,7 +26078,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="113" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="42">
         <v>113</v>
       </c>
@@ -26001,7 +26215,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="114" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="42">
         <v>114</v>
       </c>
@@ -26138,7 +26352,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="115" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="42">
         <v>115</v>
       </c>
@@ -26275,7 +26489,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="116" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="42">
         <v>116</v>
       </c>
@@ -26412,7 +26626,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="117" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="42">
         <v>117</v>
       </c>
@@ -26549,7 +26763,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="118" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="42">
         <v>118</v>
       </c>
@@ -26686,7 +26900,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="119" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="42">
         <v>119</v>
       </c>
@@ -26823,7 +27037,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="120" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="42">
         <v>120</v>
       </c>
@@ -26960,7 +27174,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="121" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="42">
         <v>121</v>
       </c>
@@ -27097,7 +27311,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="122" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="42">
         <v>122</v>
       </c>
@@ -27234,7 +27448,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="123" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="42">
         <v>123</v>
       </c>
@@ -27371,7 +27585,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="124" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="42">
         <v>124</v>
       </c>
@@ -27508,7 +27722,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="125" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="42">
         <v>125</v>
       </c>
@@ -27645,7 +27859,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="126" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="42">
         <v>126</v>
       </c>
@@ -27782,7 +27996,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="127" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="42">
         <v>127</v>
       </c>
@@ -27919,7 +28133,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="128" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="42">
         <v>128</v>
       </c>
@@ -28056,7 +28270,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="129" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="42">
         <v>129</v>
       </c>
@@ -28193,7 +28407,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="130" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="42">
         <v>130</v>
       </c>
@@ -28330,7 +28544,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="131" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="42">
         <v>131</v>
       </c>
@@ -28467,7 +28681,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="132" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="42">
         <v>132</v>
       </c>
@@ -28604,7 +28818,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="133" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="42">
         <v>133</v>
       </c>
@@ -28741,7 +28955,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="134" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="42">
         <v>134</v>
       </c>
@@ -28878,7 +29092,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="135" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="42">
         <v>135</v>
       </c>
@@ -29015,7 +29229,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="136" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="42">
         <v>136</v>
       </c>
@@ -29152,7 +29366,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="137" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="42">
         <v>137</v>
       </c>
@@ -29289,7 +29503,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="138" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="42">
         <v>138</v>
       </c>
@@ -29426,7 +29640,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="139" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="42">
         <v>139</v>
       </c>
@@ -29563,7 +29777,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="140" spans="1:45" s="38" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:45" s="38" customFormat="1" ht="7.75" x14ac:dyDescent="0.2">
       <c r="A140" s="42">
         <v>140</v>
       </c>
@@ -29700,7 +29914,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="141" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="42">
         <v>141</v>
       </c>
@@ -29837,7 +30051,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="142" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="42">
         <v>142</v>
       </c>
@@ -29974,7 +30188,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="143" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="42">
         <v>143</v>
       </c>
@@ -30111,7 +30325,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="144" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="42">
         <v>144</v>
       </c>
@@ -30248,7 +30462,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="145" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="42">
         <v>145</v>
       </c>
@@ -30385,7 +30599,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="146" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="42">
         <v>146</v>
       </c>
@@ -30522,7 +30736,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="147" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="42">
         <v>147</v>
       </c>
@@ -30659,7 +30873,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="148" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="42">
         <v>148</v>
       </c>
@@ -30796,7 +31010,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="149" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="42">
         <v>149</v>
       </c>
@@ -30933,7 +31147,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="150" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="42">
         <v>150</v>
       </c>
@@ -31070,7 +31284,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="151" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="42">
         <v>151</v>
       </c>
@@ -31207,7 +31421,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="152" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="42">
         <v>152</v>
       </c>
@@ -31344,7 +31558,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="153" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="42">
         <v>153</v>
       </c>
@@ -31481,7 +31695,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="154" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="42">
         <v>154</v>
       </c>
@@ -31618,7 +31832,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="155" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="42">
         <v>155</v>
       </c>
@@ -31755,7 +31969,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="156" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="42">
         <v>156</v>
       </c>
@@ -31892,7 +32106,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="157" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="42">
         <v>157</v>
       </c>
@@ -32029,7 +32243,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="158" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="42">
         <v>158</v>
       </c>
@@ -32166,7 +32380,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="159" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="42">
         <v>159</v>
       </c>
@@ -32303,7 +32517,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="160" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="42">
         <v>160</v>
       </c>
@@ -32440,7 +32654,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="161" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="42">
         <v>161</v>
       </c>
@@ -32577,7 +32791,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="162" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="42">
         <v>162</v>
       </c>
@@ -32714,7 +32928,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="163" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="42">
         <v>163</v>
       </c>
@@ -32851,7 +33065,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="164" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="42">
         <v>164</v>
       </c>
@@ -32988,7 +33202,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="165" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="42">
         <v>165</v>
       </c>
@@ -33125,7 +33339,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="166" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="42">
         <v>166</v>
       </c>
@@ -33262,7 +33476,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="167" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="42">
         <v>167</v>
       </c>
@@ -33399,7 +33613,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="168" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="42">
         <v>168</v>
       </c>
@@ -33536,7 +33750,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="169" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="42">
         <v>169</v>
       </c>
@@ -33673,7 +33887,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="170" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="42">
         <v>170</v>
       </c>
@@ -33810,7 +34024,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="171" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="42">
         <v>171</v>
       </c>
@@ -33947,7 +34161,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="172" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="42">
         <v>172</v>
       </c>
@@ -34084,7 +34298,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="173" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="42">
         <v>173</v>
       </c>
@@ -34221,7 +34435,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="174" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="42">
         <v>174</v>
       </c>
@@ -34358,7 +34572,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="175" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="42">
         <v>175</v>
       </c>
@@ -34495,7 +34709,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="176" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="42">
         <v>176</v>
       </c>
@@ -34632,7 +34846,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="177" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="42">
         <v>177</v>
       </c>
@@ -34769,7 +34983,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="178" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="42">
         <v>178</v>
       </c>
@@ -34906,7 +35120,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="179" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="42">
         <v>179</v>
       </c>
@@ -35043,7 +35257,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="180" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="42">
         <v>180</v>
       </c>
@@ -35180,7 +35394,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="181" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="42">
         <v>181</v>
       </c>
@@ -35317,7 +35531,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="182" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="42">
         <v>182</v>
       </c>
@@ -35454,7 +35668,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="183" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="42">
         <v>183</v>
       </c>
@@ -35591,7 +35805,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="184" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="42">
         <v>184</v>
       </c>
@@ -35728,7 +35942,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="185" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="42">
         <v>185</v>
       </c>
@@ -35865,7 +36079,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="186" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="42">
         <v>186</v>
       </c>
@@ -36002,7 +36216,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="187" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="42">
         <v>187</v>
       </c>
@@ -36139,7 +36353,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="188" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="42">
         <v>188</v>
       </c>
@@ -36276,7 +36490,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="189" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="42">
         <v>189</v>
       </c>
@@ -36413,7 +36627,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="190" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="42">
         <v>190</v>
       </c>
@@ -36550,7 +36764,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="191" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="42">
         <v>191</v>
       </c>
@@ -36687,7 +36901,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="192" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="42">
         <v>192</v>
       </c>
@@ -36824,7 +37038,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="193" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="42">
         <v>193</v>
       </c>
@@ -36961,7 +37175,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="194" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="42">
         <v>194</v>
       </c>
@@ -37098,7 +37312,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="195" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="42">
         <v>195</v>
       </c>
@@ -37235,7 +37449,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="196" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="42">
         <v>196</v>
       </c>
@@ -37372,7 +37586,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="197" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="42">
         <v>197</v>
       </c>
@@ -37509,7 +37723,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="198" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="42">
         <v>198</v>
       </c>
@@ -37646,7 +37860,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="199" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="42">
         <v>199</v>
       </c>
@@ -37783,7 +37997,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="200" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="42">
         <v>200</v>
       </c>
@@ -37920,7 +38134,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="201" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="42">
         <v>201</v>
       </c>
@@ -38057,7 +38271,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="202" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="42">
         <v>202</v>
       </c>
@@ -38194,7 +38408,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="203" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="42">
         <v>203</v>
       </c>
@@ -38331,7 +38545,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="204" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="42">
         <v>204</v>
       </c>
@@ -38468,7 +38682,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="205" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="42">
         <v>205</v>
       </c>
@@ -38605,7 +38819,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="206" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="42">
         <v>206</v>
       </c>
@@ -38742,7 +38956,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="207" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="42">
         <v>207</v>
       </c>
@@ -38879,7 +39093,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="208" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="42">
         <v>208</v>
       </c>
@@ -39016,7 +39230,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="209" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="42">
         <v>209</v>
       </c>
@@ -39153,7 +39367,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="210" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="42">
         <v>210</v>
       </c>
@@ -39290,7 +39504,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="211" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="42">
         <v>211</v>
       </c>
@@ -39427,7 +39641,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="212" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="42">
         <v>212</v>
       </c>
@@ -39564,7 +39778,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="213" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="42">
         <v>213</v>
       </c>
@@ -39701,7 +39915,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="214" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="42">
         <v>214</v>
       </c>
@@ -39838,7 +40052,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="215" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="42">
         <v>215</v>
       </c>
@@ -39975,7 +40189,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="216" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="42">
         <v>216</v>
       </c>
@@ -40112,7 +40326,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="217" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="42">
         <v>217</v>
       </c>
@@ -40249,7 +40463,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="218" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="42">
         <v>218</v>
       </c>
@@ -40386,7 +40600,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="219" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="42">
         <v>219</v>
       </c>
@@ -40523,7 +40737,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="220" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="42">
         <v>220</v>
       </c>
@@ -40660,7 +40874,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="221" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="42">
         <v>221</v>
       </c>
@@ -40797,7 +41011,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="222" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="42">
         <v>222</v>
       </c>
@@ -40934,7 +41148,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="223" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="42">
         <v>223</v>
       </c>
@@ -41071,7 +41285,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="224" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="42">
         <v>224</v>
       </c>
@@ -41208,7 +41422,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="225" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="42">
         <v>225</v>
       </c>
@@ -41345,7 +41559,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="226" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="42">
         <v>226</v>
       </c>
@@ -41482,7 +41696,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="227" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="42">
         <v>227</v>
       </c>
@@ -41619,7 +41833,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="228" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="42">
         <v>228</v>
       </c>
@@ -41756,7 +41970,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="229" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="42">
         <v>229</v>
       </c>
@@ -41893,7 +42107,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="230" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="42">
         <v>230</v>
       </c>
@@ -42030,7 +42244,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="231" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="42">
         <v>231</v>
       </c>
@@ -42167,7 +42381,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="232" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="42">
         <v>232</v>
       </c>
@@ -42304,7 +42518,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="233" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="42">
         <v>233</v>
       </c>
@@ -42441,7 +42655,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="234" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="42">
         <v>234</v>
       </c>
@@ -42578,7 +42792,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="235" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="42">
         <v>235</v>
       </c>
@@ -42715,7 +42929,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="236" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="42">
         <v>236</v>
       </c>
@@ -42852,7 +43066,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="237" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="42">
         <v>237</v>
       </c>
@@ -42989,7 +43203,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="238" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="42">
         <v>238</v>
       </c>
@@ -43126,7 +43340,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="239" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="42">
         <v>239</v>
       </c>
@@ -43263,7 +43477,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="240" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="42">
         <v>240</v>
       </c>
@@ -43400,7 +43614,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="241" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="42">
         <v>241</v>
       </c>
@@ -43537,7 +43751,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="242" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="42">
         <v>242</v>
       </c>
@@ -43674,7 +43888,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="243" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="42">
         <v>243</v>
       </c>
@@ -43811,7 +44025,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="244" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="42">
         <v>244</v>
       </c>
@@ -43948,7 +44162,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="245" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="42">
         <v>245</v>
       </c>
@@ -44085,7 +44299,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="246" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="42">
         <v>246</v>
       </c>
@@ -44222,7 +44436,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="247" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="42">
         <v>247</v>
       </c>
@@ -44359,7 +44573,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="248" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="42">
         <v>248</v>
       </c>
@@ -44496,7 +44710,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="249" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="42">
         <v>249</v>
       </c>
@@ -44633,7 +44847,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="250" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="42">
         <v>250</v>
       </c>
@@ -44770,7 +44984,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="251" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A251" s="42">
         <v>251</v>
       </c>
@@ -44907,7 +45121,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="252" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A252" s="42">
         <v>252</v>
       </c>
@@ -45044,7 +45258,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="253" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A253" s="42">
         <v>253</v>
       </c>
@@ -45181,7 +45395,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="254" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="42">
         <v>254</v>
       </c>
@@ -45318,7 +45532,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="255" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A255" s="42">
         <v>255</v>
       </c>
@@ -45455,7 +45669,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="256" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="42">
         <v>256</v>
       </c>
@@ -45592,7 +45806,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="257" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A257" s="42">
         <v>257</v>
       </c>
@@ -45729,7 +45943,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="258" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="42">
         <v>258</v>
       </c>
@@ -45866,7 +46080,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="259" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A259" s="42">
         <v>259</v>
       </c>
@@ -46003,7 +46217,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="260" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="42">
         <v>260</v>
       </c>
@@ -46140,7 +46354,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="261" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="42">
         <v>261</v>
       </c>
@@ -46277,7 +46491,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="262" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="42">
         <v>262</v>
       </c>
@@ -46414,7 +46628,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="263" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="42">
         <v>263</v>
       </c>
@@ -46551,7 +46765,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="264" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="42">
         <v>264</v>
       </c>
@@ -46688,7 +46902,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="265" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="42">
         <v>265</v>
       </c>
@@ -46825,7 +47039,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="266" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A266" s="42">
         <v>266</v>
       </c>
@@ -46962,7 +47176,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="267" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="42">
         <v>267</v>
       </c>
@@ -47099,7 +47313,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="268" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A268" s="42">
         <v>268</v>
       </c>
@@ -47236,7 +47450,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="269" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A269" s="42">
         <v>269</v>
       </c>
@@ -47373,7 +47587,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="270" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A270" s="42">
         <v>270</v>
       </c>
@@ -47510,7 +47724,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="271" spans="1:45" s="75" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:45" s="75" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="42">
         <v>271</v>
       </c>
@@ -47647,7 +47861,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="272" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A272" s="42">
         <v>272</v>
       </c>
@@ -47784,7 +47998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A273" s="42">
         <v>273</v>
       </c>
@@ -47921,7 +48135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A274" s="42">
         <v>274</v>
       </c>
@@ -48058,7 +48272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A275" s="42">
         <v>275</v>
       </c>
@@ -48195,7 +48409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A276" s="42">
         <v>276</v>
       </c>
@@ -48332,7 +48546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A277" s="42">
         <v>277</v>
       </c>
@@ -48469,7 +48683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A278" s="42">
         <v>278</v>
       </c>
@@ -48606,7 +48820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A279" s="42">
         <v>279</v>
       </c>
@@ -48743,7 +48957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:45" s="38" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:45" s="38" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="42">
         <v>280</v>
       </c>
@@ -48880,7 +49094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:45" s="38" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:45" s="38" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="42">
         <v>281</v>
       </c>
@@ -49017,7 +49231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:45" s="38" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:45" s="38" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="42">
         <v>282</v>
       </c>
@@ -49154,7 +49368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:45" s="38" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:45" s="38" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="42">
         <v>283</v>
       </c>
@@ -49291,7 +49505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:45" s="38" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:45" s="38" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="42">
         <v>284</v>
       </c>
@@ -49428,7 +49642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:45" s="38" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:45" s="38" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="42">
         <v>285</v>
       </c>
@@ -49565,7 +49779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:45" s="38" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:45" s="38" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="42">
         <v>286</v>
       </c>
@@ -49702,7 +49916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:45" s="38" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:45" s="38" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="42">
         <v>287</v>
       </c>
@@ -49839,7 +50053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:45" s="38" customFormat="1" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:45" s="38" customFormat="1" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="42">
         <v>288</v>
       </c>
@@ -49976,7 +50190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A289" s="42">
         <v>289</v>
       </c>
@@ -50113,7 +50327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A290" s="42">
         <v>290</v>
       </c>
@@ -50250,7 +50464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A291" s="42">
         <v>291</v>
       </c>
@@ -50387,7 +50601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A292" s="42">
         <v>292</v>
       </c>
@@ -50524,7 +50738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A293" s="42">
         <v>293</v>
       </c>
@@ -50661,7 +50875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A294" s="42">
         <v>294</v>
       </c>
@@ -50798,7 +51012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A295" s="42">
         <v>295</v>
       </c>
@@ -50935,7 +51149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A296" s="42">
         <v>296</v>
       </c>
@@ -51072,7 +51286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A297" s="42">
         <v>297</v>
       </c>
@@ -51209,7 +51423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:45" ht="7.35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:45" ht="7.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="42">
         <v>298</v>
       </c>
@@ -51352,190 +51566,190 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B106:B107">
-    <cfRule type="duplicateValues" dxfId="53" priority="1810"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="1810"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108:B109 B124:B125 B111:B122 B130:B139 B141:B161 B163:B271">
-    <cfRule type="duplicateValues" dxfId="52" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110">
-    <cfRule type="duplicateValues" dxfId="51" priority="94"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="96"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="duplicateValues" dxfId="47" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="118"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="117"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126:B129">
-    <cfRule type="duplicateValues" dxfId="43" priority="76"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140">
-    <cfRule type="duplicateValues" dxfId="41" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162">
-    <cfRule type="duplicateValues" dxfId="40" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B1048576 B1:B161">
-    <cfRule type="duplicateValues" dxfId="37" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B289:B1048576 B130:B139 B141:B161 B11:B125 B163:B279">
-    <cfRule type="duplicateValues" dxfId="36" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B299:B1048576 B272:B279 B289:B290 B11:B105">
-    <cfRule type="duplicateValues" dxfId="35" priority="430"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="359"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="431"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="430"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="359"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="431"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B299:B1048576 B272:B279 B289:B290 B11:B107">
-    <cfRule type="duplicateValues" dxfId="32" priority="328"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="328"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C294:C298">
-    <cfRule type="cellIs" dxfId="31" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="48" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:D1 H1:AH1 A1:A298 H2:AE4 D2:D11 AF2:AH11 H5:Z5 AB5:AE5 H6:AE11 H33:AD34 AE33:AH45 H35:Z35 AB35:AD35 H36:AD45 N68:AH96 H68:M100 N97:AE100 AH97:AH108 H101:AE101 C102:C107 N102:AE107 D102:D108 H102:M108 P108:AE108 C110:D110 F110 H110:AH110 AL110:AR110 AF140:AG140 AL140 AN140 AP140:AQ140 AL190:AO298 C272:C279 P280:AD288 C289:E293">
-    <cfRule type="cellIs" dxfId="30" priority="383" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="383" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E108">
-    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="13" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E298">
-    <cfRule type="duplicateValues" dxfId="28" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F108 H12:AH32 C12:D101">
-    <cfRule type="cellIs" dxfId="27" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="87" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F289:AD298">
-    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G14">
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:G108">
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46:AH67">
-    <cfRule type="cellIs" dxfId="23" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="124" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N274:N288">
-    <cfRule type="cellIs" dxfId="22" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="111" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N272:O273">
-    <cfRule type="cellIs" dxfId="21" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="110" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P272:Q279">
-    <cfRule type="cellIs" dxfId="20" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="219" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE257">
-    <cfRule type="cellIs" dxfId="19" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="99" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE280:AE298">
-    <cfRule type="cellIs" dxfId="18" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="89" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF97:AG106 AF107:AF108 AG107:AG109 AG111:AG121">
-    <cfRule type="cellIs" dxfId="17" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="101" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF126:AG129">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF190:AG298">
-    <cfRule type="cellIs" dxfId="15" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="40" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH289:AI298">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI1:AI132">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ294:AK298">
-    <cfRule type="cellIs" dxfId="12" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="43" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK1">
-    <cfRule type="cellIs" dxfId="11" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="92" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK12:AK17">
-    <cfRule type="duplicateValues" dxfId="10" priority="1894"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="1891"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="1892"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="1893"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1894"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1891"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1892"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1893"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL126:AL129 AN126:AN129">
-    <cfRule type="cellIs" dxfId="6" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="79" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL1:AS108">
-    <cfRule type="cellIs" dxfId="5" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="58" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP272:AP279">
-    <cfRule type="cellIs" dxfId="4" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="107" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP126:AQ129">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP190:AQ270">
-    <cfRule type="cellIs" dxfId="2" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="105" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP280:AQ298">
-    <cfRule type="cellIs" dxfId="1" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="42" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR272:AS298">
-    <cfRule type="cellIs" dxfId="0" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="41" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Versão5/VEGE/Ontologia_VEGET.xlsx
+++ b/Versão5/VEGE/Ontologia_VEGET.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\VEGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747912E3-56EB-45DA-8EC5-8C8DC18C339A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EC607D-6995-4963-BEE4-BB10FC93B83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="577" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13166" uniqueCount="1289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13198" uniqueCount="1293">
   <si>
     <t>Key</t>
   </si>
@@ -3943,13 +3943,25 @@
     <t>Português: Quando o valor de uma propriedade for '0' ou '-' significa que ainda não foi cadastrado, por não ter sido achado ou ainda  estar sendo verificado e transferido para a ontologia. Os valores dimensionais, como diámetros, alturas e profundidades  são aproximados, pois dependem das condições do ambiente de crescimento e do tratamento (poda, irrigação, etc) de cada indivíduo.
 Español: Cuando el valor de una propiedad es '0' o '-' significa que aún no ha sido registrada, porque no se ha encontrado o sigue siendo verificada y transferida a la ontología. Los valores dimensionales, como diámetros, alturas y profundidades, son aproximados, ya que dependen de las condiciones del entorno de cultivo y del tratamiento (poda, riego, etc.) de cada individuo.
 English: When the value of a property is '0' or '-' it means that it has not yet been registered, because it has not been found or is still being verified and transferred to ontology. Dimensional values, such as diameters, heights and depths are approximate, as they depend on the conditions of the growing environment and the treatment (pruning, irrigation, etc.) of each individual.</t>
+  </si>
+  <si>
+    <t>Idioma</t>
+  </si>
+  <si>
+    <t>"pt"</t>
+  </si>
+  <si>
+    <t>"es"</t>
+  </si>
+  <si>
+    <t>"en"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4040,6 +4052,12 @@
       <b/>
       <sz val="5"/>
       <color rgb="FF000000"/>
+      <name val="Arial Nova Cond Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Arial Nova Cond Light"/>
       <family val="2"/>
     </font>
@@ -4286,7 +4304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4625,6 +4643,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5613,55 +5637,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612B613C-8B96-43A0-BB50-A45AC26373E3}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C18" sqref="C18"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.3046875" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" style="6" customWidth="1"/>
     <col min="2" max="2" width="50.4609375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21.61328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="3.4609375" style="120" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="3.3046875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>34</v>
       </c>
+      <c r="C1" s="25" t="s">
+        <v>1289</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>60</v>
       </c>
+      <c r="C2" s="119" t="s">
+        <v>1290</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>87</v>
       </c>
+      <c r="C3" s="119" t="s">
+        <v>1290</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>46</v>
       </c>
+      <c r="C4" s="119" t="s">
+        <v>1290</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
         <v>37</v>
       </c>
@@ -5669,8 +5705,11 @@
         <f>_xlfn.CONCAT(B4,"Prop")</f>
         <v>BIMProp</v>
       </c>
+      <c r="C5" s="119" t="s">
+        <v>1290</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
         <v>38</v>
       </c>
@@ -5678,215 +5717,296 @@
         <f>_xlfn.CONCAT(B4,"Data")</f>
         <v>BIMData</v>
       </c>
+      <c r="C6" s="119" t="s">
+        <v>1290</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>47</v>
       </c>
+      <c r="C7" s="119" t="s">
+        <v>1290</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>1287</v>
       </c>
+      <c r="C8" s="119" t="s">
+        <v>1290</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="C9" s="119" t="s">
+        <v>1290</v>
+      </c>
     </row>
-    <row r="10" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="C10" s="119" t="s">
+        <v>1290</v>
+      </c>
     </row>
-    <row r="11" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="C11" s="119" t="s">
+        <v>1290</v>
+      </c>
     </row>
-    <row r="12" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="C12" s="119" t="s">
+        <v>1290</v>
+      </c>
     </row>
-    <row r="13" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
         <v>51</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="C13" s="119" t="s">
+        <v>1290</v>
+      </c>
     </row>
-    <row r="14" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="C14" s="119" t="s">
+        <v>1290</v>
+      </c>
     </row>
-    <row r="15" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="C15" s="119" t="s">
+        <v>1290</v>
+      </c>
     </row>
-    <row r="16" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="C16" s="119" t="s">
+        <v>1290</v>
+      </c>
     </row>
-    <row r="17" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>88</v>
       </c>
+      <c r="C17" s="119" t="s">
+        <v>1290</v>
+      </c>
     </row>
-    <row r="18" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B18" s="82">
         <f ca="1">NOW()</f>
-        <v>45992.407687500003</v>
+        <v>45992.542535069442</v>
+      </c>
+      <c r="C18" s="119" t="s">
+        <v>1290</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>847</v>
       </c>
       <c r="B19" s="81" t="s">
         <v>858</v>
       </c>
+      <c r="C19" s="119" t="s">
+        <v>1290</v>
+      </c>
     </row>
-    <row r="20" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>848</v>
       </c>
       <c r="B20" s="81" t="s">
         <v>857</v>
       </c>
+      <c r="C20" s="119" t="s">
+        <v>1290</v>
+      </c>
     </row>
-    <row r="21" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>849</v>
       </c>
       <c r="B21" s="81" t="s">
         <v>860</v>
       </c>
+      <c r="C21" s="119" t="s">
+        <v>1290</v>
+      </c>
     </row>
-    <row r="22" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>850</v>
       </c>
       <c r="B22" s="83" t="s">
         <v>856</v>
       </c>
+      <c r="C22" s="119" t="s">
+        <v>1290</v>
+      </c>
     </row>
-    <row r="23" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>851</v>
       </c>
       <c r="B23" s="83" t="s">
         <v>855</v>
       </c>
+      <c r="C23" s="119" t="s">
+        <v>1290</v>
+      </c>
     </row>
-    <row r="24" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>852</v>
       </c>
       <c r="B24" s="81" t="s">
         <v>859</v>
       </c>
+      <c r="C24" s="119" t="s">
+        <v>1290</v>
+      </c>
     </row>
-    <row r="25" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>854</v>
       </c>
       <c r="B25" s="83" t="s">
         <v>853</v>
       </c>
+      <c r="C25" s="119" t="s">
+        <v>1290</v>
+      </c>
     </row>
-    <row r="26" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>981</v>
       </c>
       <c r="B26" s="38" t="s">
         <v>982</v>
       </c>
+      <c r="C26" s="119" t="s">
+        <v>1290</v>
+      </c>
     </row>
-    <row r="27" spans="1:2" ht="118.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="118.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="8" t="s">
         <v>861</v>
       </c>
       <c r="B27" s="89" t="s">
         <v>1288</v>
       </c>
+      <c r="C27" s="119" t="s">
+        <v>1290</v>
+      </c>
     </row>
-    <row r="28" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="C28" s="119" t="s">
+        <v>1290</v>
+      </c>
     </row>
-    <row r="29" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="C29" s="119" t="s">
+        <v>1290</v>
+      </c>
     </row>
-    <row r="30" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>89</v>
       </c>
+      <c r="C30" s="119" t="s">
+        <v>1290</v>
+      </c>
     </row>
-    <row r="31" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="10" t="s">
         <v>59</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>90</v>
       </c>
+      <c r="C31" s="119" t="s">
+        <v>1291</v>
+      </c>
     </row>
-    <row r="32" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="10" t="s">
         <v>1286</v>
       </c>
       <c r="B32" s="11" t="str">
         <f>_xlfn.TRANSLATE(B30,"pt","en")</f>
         <v>Formalize concepts of vegetation elements.</v>
+      </c>
+      <c r="C32" s="119" t="s">
+        <v>1292</v>
       </c>
     </row>
   </sheetData>
@@ -51587,16 +51707,16 @@
     <cfRule type="duplicateValues" dxfId="52" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110">
-    <cfRule type="duplicateValues" dxfId="51" priority="93"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="96"/>
     <cfRule type="duplicateValues" dxfId="49" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
     <cfRule type="duplicateValues" dxfId="47" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="118"/>
     <cfRule type="duplicateValues" dxfId="45" priority="117"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126:B129">
     <cfRule type="duplicateValues" dxfId="43" priority="76"/>
@@ -51617,8 +51737,8 @@
     <cfRule type="duplicateValues" dxfId="36" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B299:B1048576 B272:B279 B289:B290 B11:B105">
-    <cfRule type="duplicateValues" dxfId="35" priority="359"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="430"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="430"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="359"/>
     <cfRule type="duplicateValues" dxfId="33" priority="431"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B299:B1048576 B272:B279 B289:B290 B11:B107">
@@ -51728,10 +51848,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK12:AK17">
-    <cfRule type="duplicateValues" dxfId="10" priority="1891"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="1892"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="1893"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="1894"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1894"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1891"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1892"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1893"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL126:AL129 AN126:AN129">
     <cfRule type="cellIs" dxfId="6" priority="79" operator="equal">

--- a/Versão5/VEGE/Ontologia_VEGET.xlsx
+++ b/Versão5/VEGE/Ontologia_VEGET.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\VEGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EC607D-6995-4963-BEE4-BB10FC93B83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55BAFAF-5DC8-4023-B16D-00321C46B007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="577" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -3948,13 +3948,13 @@
     <t>Idioma</t>
   </si>
   <si>
-    <t>"pt"</t>
-  </si>
-  <si>
-    <t>"es"</t>
-  </si>
-  <si>
-    <t>"en"</t>
+    <t>pt</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>en</t>
   </si>
 </sst>
 </file>
@@ -5642,7 +5642,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C18" sqref="C18"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.3046875" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B18" s="82">
         <f ca="1">NOW()</f>
-        <v>45992.542535069442</v>
+        <v>45992.733235995373</v>
       </c>
       <c r="C18" s="119" t="s">
         <v>1290</v>

--- a/Versão5/VEGE/Ontologia_VEGET.xlsx
+++ b/Versão5/VEGE/Ontologia_VEGET.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\VEGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55BAFAF-5DC8-4023-B16D-00321C46B007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A18DE51-327B-4F40-9603-AD1986AA35C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="577" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13198" uniqueCount="1293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13204" uniqueCount="1297">
   <si>
     <t>Key</t>
   </si>
@@ -3940,11 +3940,6 @@
     <t>Prof. José Luis Menegotto DEG/POLI/UFRJ</t>
   </si>
   <si>
-    <t>Português: Quando o valor de uma propriedade for '0' ou '-' significa que ainda não foi cadastrado, por não ter sido achado ou ainda  estar sendo verificado e transferido para a ontologia. Os valores dimensionais, como diámetros, alturas e profundidades  são aproximados, pois dependem das condições do ambiente de crescimento e do tratamento (poda, irrigação, etc) de cada indivíduo.
-Español: Cuando el valor de una propiedad es '0' o '-' significa que aún no ha sido registrada, porque no se ha encontrado o sigue siendo verificada y transferida a la ontología. Los valores dimensionales, como diámetros, alturas y profundidades, son aproximados, ya que dependen de las condiciones del entorno de cultivo y del tratamiento (poda, riego, etc.) de cada individuo.
-English: When the value of a property is '0' or '-' it means that it has not yet been registered, because it has not been found or is still being verified and transferred to ontology. Dimensional values, such as diameters, heights and depths are approximate, as they depend on the conditions of the growing environment and the treatment (pruning, irrigation, etc.) of each individual.</t>
-  </si>
-  <si>
     <t>Idioma</t>
   </si>
   <si>
@@ -3955,6 +3950,21 @@
   </si>
   <si>
     <t>en</t>
+  </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
+    <t>Aviso</t>
+  </si>
+  <si>
+    <t>When the value of a property is '0' or '-' it means that it has not yet been registered, because it has not been found or is still being verified and transferred to ontology. Dimensional values, such as diameters, heights and depths are approximate, as they depend on the conditions of the growing environment and the treatment (pruning, irrigation, etc.) of each individual.</t>
+  </si>
+  <si>
+    <t>Quando o valor de uma propriedade for '0' ou '-' significa que ainda não foi cadastrado, por não ter sido achado ou ainda  estar sendo verificado e transferido para a ontologia. Os valores dimensionais, como diámetros, alturas e profundidades  são aproximados, pois dependem das condições do ambiente de crescimento e do tratamento (poda, irrigação, etc) de cada indivíduo.</t>
+  </si>
+  <si>
+    <t>Cuando el valor de una propiedad es '0' o '-' significa que aún no ha sido registrada, porque no se ha encontrado o sigue siendo verificada y transferida a la ontología. Los valores dimensionales, como diámetros, alturas y profundidades, son aproximados, ya que dependen de las condiciones del entorno de cultivo y del tratamiento (poda, riego, etc.) de cada individuo.</t>
   </si>
 </sst>
 </file>
@@ -5637,12 +5647,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612B613C-8B96-43A0-BB50-A45AC26373E3}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C18" sqref="C18"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.3046875" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5661,7 +5671,7 @@
         <v>34</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5672,7 +5682,7 @@
         <v>60</v>
       </c>
       <c r="C2" s="119" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5683,7 +5693,7 @@
         <v>87</v>
       </c>
       <c r="C3" s="119" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5694,7 +5704,7 @@
         <v>46</v>
       </c>
       <c r="C4" s="119" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5706,7 +5716,7 @@
         <v>BIMProp</v>
       </c>
       <c r="C5" s="119" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5718,7 +5728,7 @@
         <v>BIMData</v>
       </c>
       <c r="C6" s="119" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5729,7 +5739,7 @@
         <v>47</v>
       </c>
       <c r="C7" s="119" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5740,7 +5750,7 @@
         <v>1287</v>
       </c>
       <c r="C8" s="119" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5751,7 +5761,7 @@
         <v>49</v>
       </c>
       <c r="C9" s="119" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5762,7 +5772,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="119" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5773,7 +5783,7 @@
         <v>23</v>
       </c>
       <c r="C11" s="119" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5784,7 +5794,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="119" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5795,7 +5805,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="119" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5806,7 +5816,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="119" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5817,7 +5827,7 @@
         <v>23</v>
       </c>
       <c r="C15" s="119" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5828,7 +5838,7 @@
         <v>23</v>
       </c>
       <c r="C16" s="119" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5839,7 +5849,7 @@
         <v>88</v>
       </c>
       <c r="C17" s="119" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5848,10 +5858,10 @@
       </c>
       <c r="B18" s="82">
         <f ca="1">NOW()</f>
-        <v>45992.733235995373</v>
+        <v>45996.32231087963</v>
       </c>
       <c r="C18" s="119" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5862,7 +5872,7 @@
         <v>858</v>
       </c>
       <c r="C19" s="119" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5873,7 +5883,7 @@
         <v>857</v>
       </c>
       <c r="C20" s="119" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5884,7 +5894,7 @@
         <v>860</v>
       </c>
       <c r="C21" s="119" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5895,7 +5905,7 @@
         <v>856</v>
       </c>
       <c r="C22" s="119" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5906,7 +5916,7 @@
         <v>855</v>
       </c>
       <c r="C23" s="119" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5917,7 +5927,7 @@
         <v>859</v>
       </c>
       <c r="C24" s="119" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5928,7 +5938,7 @@
         <v>853</v>
       </c>
       <c r="C25" s="119" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5939,74 +5949,96 @@
         <v>982</v>
       </c>
       <c r="C26" s="119" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="118.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="8" t="s">
         <v>861</v>
       </c>
       <c r="B27" s="89" t="s">
-        <v>1288</v>
+        <v>1295</v>
       </c>
       <c r="C27" s="119" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>23</v>
+        <v>1293</v>
+      </c>
+      <c r="B28" s="89" t="s">
+        <v>1296</v>
       </c>
       <c r="C28" s="119" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>23</v>
+        <v>1292</v>
+      </c>
+      <c r="B29" s="89" t="s">
+        <v>1294</v>
       </c>
       <c r="C29" s="119" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>89</v>
+      <c r="A30" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="C30" s="119" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="119" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="119" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B33" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="119" t="s">
+      <c r="C33" s="119" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="10" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B34" s="11" t="str">
+        <f>_xlfn.TRANSLATE(B32,"pt","en")</f>
+        <v>Formalize concepts of vegetation elements.</v>
+      </c>
+      <c r="C34" s="119" t="s">
         <v>1291</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="10" t="s">
-        <v>1286</v>
-      </c>
-      <c r="B32" s="11" t="str">
-        <f>_xlfn.TRANSLATE(B30,"pt","en")</f>
-        <v>Formalize concepts of vegetation elements.</v>
-      </c>
-      <c r="C32" s="119" t="s">
-        <v>1292</v>
       </c>
     </row>
   </sheetData>
@@ -51707,16 +51739,16 @@
     <cfRule type="duplicateValues" dxfId="52" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110">
-    <cfRule type="duplicateValues" dxfId="51" priority="94"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="94"/>
     <cfRule type="duplicateValues" dxfId="49" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
     <cfRule type="duplicateValues" dxfId="47" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="116"/>
     <cfRule type="duplicateValues" dxfId="45" priority="117"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126:B129">
     <cfRule type="duplicateValues" dxfId="43" priority="76"/>
@@ -51737,8 +51769,8 @@
     <cfRule type="duplicateValues" dxfId="36" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B299:B1048576 B272:B279 B289:B290 B11:B105">
-    <cfRule type="duplicateValues" dxfId="35" priority="430"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="359"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="359"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="430"/>
     <cfRule type="duplicateValues" dxfId="33" priority="431"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B299:B1048576 B272:B279 B289:B290 B11:B107">
@@ -51848,10 +51880,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK12:AK17">
-    <cfRule type="duplicateValues" dxfId="10" priority="1894"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="1891"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="1892"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="1893"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1891"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1892"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1893"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1894"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL126:AL129 AN126:AN129">
     <cfRule type="cellIs" dxfId="6" priority="79" operator="equal">
